--- a/public/inputinsale/marks.xlsx
+++ b/public/inputinsale/marks.xlsx
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="136">
-  <si>
-    <t>Filter(participantInn=372900043349, productGroup=LP, packageType=[UNIT], status=APPLIED, includeGtin=[], excludeGtin=[], appliedPeriod=null, emissionPeriod=Period(start=2023-06-13T21:00:00Z, end=2023-06-15T20:59:59Z), productionPeriod=null)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="446">
+  <si>
+    <t>Filter(participantInn=372900043349, productGroup=LP, packageType=[UNIT], status=APPLIED, includeGtin=[], excludeGtin=[], appliedPeriod=null, emissionPeriod=Period(start=2023-07-16T21:00:00Z, end=2023-07-18T20:59:59Z), productionPeriod=null)</t>
   </si>
   <si>
     <t>requestedCis</t>
@@ -111,13 +111,19 @@
     <t>aggregationType</t>
   </si>
   <si>
-    <t>0102900250858803215,qBMa+Beh(hn</t>
-  </si>
-  <si>
-    <t>02900250858803</t>
-  </si>
-  <si>
-    <t>ИП Зотов Вячеслав Валерьевич</t>
+    <t>0102900076966775215CWip:XNVxApm</t>
+  </si>
+  <si>
+    <t>02900076966775</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 280 х 280 - М - 140 - Белая</t>
+  </si>
+  <si>
+    <t>ИВАНОВСКИЙ ТЕКСТИЛЬ</t>
+  </si>
+  <si>
+    <t>ИП ЗОТОВ ВЯЧЕСЛАВ ВАЛЕРЬЕВИЧ</t>
   </si>
   <si>
     <t>APPLIED</t>
@@ -132,301 +138,1225 @@
     <t>LP</t>
   </si>
   <si>
-    <t>2023-06-15T13:34:42.427Z</t>
-  </si>
-  <si>
-    <t>2023-06-15T13:27:00.667Z</t>
-  </si>
-  <si>
-    <t>0102900080272220215*uLy3kJ9)YC/</t>
-  </si>
-  <si>
-    <t>02900080272220</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 50 х 70 - М - 60S Белый Страйп 1х1</t>
-  </si>
-  <si>
-    <t>ИВАНОВСКИЙ ТЕКСТИЛЬ</t>
-  </si>
-  <si>
-    <t>2023-06-15T12:32:05.123Z</t>
-  </si>
-  <si>
-    <t>2023-06-15T12:16:33.183Z</t>
-  </si>
-  <si>
-    <t>0102900080272220215ZQ/GY_t'&gt;QHZ</t>
-  </si>
-  <si>
-    <t>0102900250709235215dJXaSUGR?pIE</t>
-  </si>
-  <si>
-    <t>02900250709235</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:49:42.845Z</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:35:19.754Z</t>
-  </si>
-  <si>
-    <t>0102900250709204215IEMTP&amp;Z0Zd8f</t>
-  </si>
-  <si>
-    <t>02900250709204</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:49:42.697Z</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:35:19.717Z</t>
-  </si>
-  <si>
-    <t>0102900250709211215LUY&amp;osY)GdOI</t>
-  </si>
-  <si>
-    <t>02900250709211</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:49:42.831Z</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:35:10.402Z</t>
-  </si>
-  <si>
-    <t>0102900250709242215g)nHQ?n8(mez</t>
-  </si>
-  <si>
-    <t>02900250709242</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:49:42.832Z</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:34:38.781Z</t>
-  </si>
-  <si>
-    <t>0102900250709228215THglei;A3;aC</t>
-  </si>
-  <si>
-    <t>02900250709228</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:49:42.811Z</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:34:38.372Z</t>
-  </si>
-  <si>
-    <t>0102900077646041215SiE)Fn?jj/G/</t>
-  </si>
-  <si>
-    <t>02900077646041</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 125 - Графит 1х1</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:48:42.045Z</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:14:44.921Z</t>
-  </si>
-  <si>
-    <t>0102900248859515215)qEiK'QAEXRM</t>
-  </si>
-  <si>
-    <t>02900248859515</t>
-  </si>
-  <si>
-    <t>Простыня круглая из страйп-сатина на резинке 200 х 200 х 30 - М - 135 - Белый 1х1</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:48:41.954Z</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:14:38.110Z</t>
-  </si>
-  <si>
-    <t>0102900248757002215KsgWTYdoIGGh</t>
-  </si>
-  <si>
-    <t>02900248757002</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 50 х 50 - М - 60S 4216 Серебро</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:48:42.238Z</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:14:37.887Z</t>
-  </si>
-  <si>
-    <t>0102900241778868215cjifUEhs1sh,</t>
-  </si>
-  <si>
-    <t>02900241778868</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 180 х 220 - М - 125 - Черный 1х1</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:47:46.248Z</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:14:37.877Z</t>
-  </si>
-  <si>
-    <t>0102900076445072215ad."=q:L6s*V</t>
-  </si>
-  <si>
-    <t>02900076445072</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп-сатина 50 х 70 - М - 125 - Черный 1х1</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:47:43.809Z</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:14:37.598Z</t>
-  </si>
-  <si>
-    <t>0102900076445072215ocis3a2JFdea</t>
-  </si>
-  <si>
-    <t>0102900120740696215&gt;(42T!QoCpEj</t>
-  </si>
-  <si>
-    <t>02900120740696</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп-сатина 70 х 70 - М - 125 - Черный 1х1</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:47:43.730Z</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:14:37.597Z</t>
-  </si>
-  <si>
-    <t>0102900120740696215HDjSfPFjMoc-</t>
-  </si>
-  <si>
-    <t>0102900131845496215X!MK3R0%Tvys</t>
-  </si>
-  <si>
-    <t>02900131845496</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 125 - Черный 1х1</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:46:41.529Z</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:14:37.166Z</t>
-  </si>
-  <si>
-    <t>01029000794191792156bfVpvPsmwCx</t>
-  </si>
-  <si>
-    <t>02900079419179</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 280 х 280 - М - 125 - Белый 1х1</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:46:41.829Z</t>
-  </si>
-  <si>
-    <t>2023-06-15T11:14:36.933Z</t>
-  </si>
-  <si>
-    <t>0102900079419179215LZ3.*00peaJu</t>
-  </si>
-  <si>
-    <t>0102900079419179215VJ/VdgZO*Uqj</t>
-  </si>
-  <si>
-    <t>0102900079419179215YYBmMUjyF)=(</t>
-  </si>
-  <si>
-    <t>0102900250389895215+pVPPSTbHCaN</t>
-  </si>
-  <si>
-    <t>02900250389895</t>
-  </si>
-  <si>
-    <t>2023-06-14T12:34:55.632Z</t>
-  </si>
-  <si>
-    <t>2023-06-14T12:30:41.181Z</t>
-  </si>
-  <si>
-    <t>0102900250388027215GFKk_OgUfhBa</t>
-  </si>
-  <si>
-    <t>02900250388027</t>
-  </si>
-  <si>
-    <t>2023-06-14T12:53:00.722Z</t>
-  </si>
-  <si>
-    <t>2023-06-14T12:21:32.234Z</t>
-  </si>
-  <si>
-    <t>0102900250388003215IAePei*FMXi6</t>
-  </si>
-  <si>
-    <t>02900250388003</t>
-  </si>
-  <si>
-    <t>2023-06-14T12:52:01.956Z</t>
-  </si>
-  <si>
-    <t>2023-06-14T12:21:31.962Z</t>
-  </si>
-  <si>
-    <t>0102900250388010215t0jheMTP.sqc</t>
-  </si>
-  <si>
-    <t>02900250388010</t>
-  </si>
-  <si>
-    <t>2023-06-14T12:52:01.963Z</t>
-  </si>
-  <si>
-    <t>2023-06-14T12:21:31.870Z</t>
-  </si>
-  <si>
-    <t>0102900250090081215YVWh6k&amp;C"O:/</t>
-  </si>
-  <si>
-    <t>02900250090081</t>
-  </si>
-  <si>
-    <t>2023-06-14T12:52:01.961Z</t>
-  </si>
-  <si>
-    <t>2023-06-14T12:21:19.757Z</t>
-  </si>
-  <si>
-    <t>0102900245821218215urWk&lt;maygdUR</t>
-  </si>
-  <si>
-    <t>02900245821218</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина на резинке 180 х 200 х 20 - М - 140 - Миндаль 1х1</t>
-  </si>
-  <si>
-    <t>2023-06-14T12:52:01.957Z</t>
-  </si>
-  <si>
-    <t>2023-06-14T12:21:19.576Z</t>
+    <t>2023-07-18T13:37:39.821Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:32:46.053Z</t>
+  </si>
+  <si>
+    <t>0102900240113837215FaC4F*kYyoJe</t>
+  </si>
+  <si>
+    <t>02900240113837</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 140 - Серый Люкс</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:32:38.615Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:23:56.273Z</t>
+  </si>
+  <si>
+    <t>0102900076409661215?BD_XFSS/6JN</t>
+  </si>
+  <si>
+    <t>02900076409661</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 240 х 260 - М - 135 - Белая 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:20:35.957Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:17:21.488Z</t>
+  </si>
+  <si>
+    <t>0102900076409661215HAe(/S0Ylxgs</t>
+  </si>
+  <si>
+    <t>0102900079428010215fz%PJhGW."5R</t>
+  </si>
+  <si>
+    <t>02900079428010</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 240 х 260 - М - 115 - Изумрудный</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:31:38.101Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:01:45.756Z</t>
+  </si>
+  <si>
+    <t>0102900240970317215oKs&lt;'QMb+wHC</t>
+  </si>
+  <si>
+    <t>02900240970317</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 280 х 280 - М - 120 - Изумрудный</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:31:38.016Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:01:45.617Z</t>
+  </si>
+  <si>
+    <t>0102900255182873215KYYH3apXFNsJ</t>
+  </si>
+  <si>
+    <t>02900255182873</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:32:38.560Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:01:43.265Z</t>
+  </si>
+  <si>
+    <t>0102900255182873215geOBItK+-o+&amp;</t>
+  </si>
+  <si>
+    <t>0102900255182866215'58YgGs-YZa6</t>
+  </si>
+  <si>
+    <t>02900255182866</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:32:38.260Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:01:43.058Z</t>
+  </si>
+  <si>
+    <t>0102900255182859215QdvkY!zW?UIk</t>
+  </si>
+  <si>
+    <t>02900255182859</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:31:39.329Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:01:42.962Z</t>
+  </si>
+  <si>
+    <t>0102900255182842215A4:'KvLZq!C&lt;</t>
+  </si>
+  <si>
+    <t>02900255182842</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:31:39.247Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T13:01:42.664Z</t>
+  </si>
+  <si>
+    <t>0102900255182842215ED*tRRHhLlIG</t>
+  </si>
+  <si>
+    <t>0102900255182842215_TdfIbRBcv=q</t>
+  </si>
+  <si>
+    <t>0102900255182842215oJof37Bu=CX)</t>
+  </si>
+  <si>
+    <t>0102900255126648215=aHQ!WhIfn4G</t>
+  </si>
+  <si>
+    <t>02900255126648</t>
+  </si>
+  <si>
+    <t>2023-07-18T07:06:35.421Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:56:57.356Z</t>
+  </si>
+  <si>
+    <t>0102900255126648215YZnymmMz:1hl</t>
+  </si>
+  <si>
+    <t>0102900255126631215amNHnd2%kWQn</t>
+  </si>
+  <si>
+    <t>02900255126631</t>
+  </si>
+  <si>
+    <t>2023-07-18T07:05:35.328Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:56:57.268Z</t>
+  </si>
+  <si>
+    <t>0102900255126624215aDXtb&gt;aDdheY</t>
+  </si>
+  <si>
+    <t>02900255126624</t>
+  </si>
+  <si>
+    <t>2023-07-18T07:00:33.748Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:56:53.687Z</t>
+  </si>
+  <si>
+    <t>0102900255126617215PFCDa7SAKeS%</t>
+  </si>
+  <si>
+    <t>02900255126617</t>
+  </si>
+  <si>
+    <t>2023-07-18T07:00:33.711Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:56:53.593Z</t>
+  </si>
+  <si>
+    <t>0102900255126617215d&gt;ciB0gi!phk</t>
+  </si>
+  <si>
+    <t>01029002551265942152RL+&lt;QaPSRWi</t>
+  </si>
+  <si>
+    <t>02900255126594</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:59:33.658Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:54:47.173Z</t>
+  </si>
+  <si>
+    <t>0102900255126600215cA2hB59aW.gT</t>
+  </si>
+  <si>
+    <t>02900255126600</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:59:33.598Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:54:46.778Z</t>
+  </si>
+  <si>
+    <t>0102900253954373215hksJmQd&lt;B)N2</t>
+  </si>
+  <si>
+    <t>02900253954373</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 180 х 220 - М - 135 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:43:30.265Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:31:04.919Z</t>
+  </si>
+  <si>
+    <t>0102900078324429215mkEO/SRFmesJ</t>
+  </si>
+  <si>
+    <t>02900078324429</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 12 Горчица</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:43:30.025Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:31:04.681Z</t>
+  </si>
+  <si>
+    <t>0102900117311021215Cqosi5tWEzGP</t>
+  </si>
+  <si>
+    <t>02900117311021</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4318 Черничный смузи</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:43:30.194Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:31:04.670Z</t>
+  </si>
+  <si>
+    <t>0102900117311021215i194Zx26fpk0</t>
+  </si>
+  <si>
+    <t>0102900087179904215d4aPL5uHPSn)</t>
+  </si>
+  <si>
+    <t>02900087179904</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп сатина 150 х 200 - М - 140 - Белый Люкс 3х3</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:43:29.858Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:31:04.310Z</t>
+  </si>
+  <si>
+    <t>0102900243876012215sLrdzel&gt;%)WD</t>
+  </si>
+  <si>
+    <t>02900243876012</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 280 х 280 - М - 135 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:43:29.955Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:31:04.271Z</t>
+  </si>
+  <si>
+    <t>0102900242794140215i,2-G)OjZiH%</t>
+  </si>
+  <si>
+    <t>02900242794140</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 140 - Голубой 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:43:29.797Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:31:03.926Z</t>
+  </si>
+  <si>
+    <t>01029001463742642153jQIdLp6zEdT</t>
+  </si>
+  <si>
+    <t>02900146374264</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 140 - Чернила 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:42:30.153Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:31:03.781Z</t>
+  </si>
+  <si>
+    <t>0102900241410249215k9jWEM1xRsP"</t>
+  </si>
+  <si>
+    <t>02900241410249</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 140 - Белый 3х3</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:42:30.059Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:31:03.574Z</t>
+  </si>
+  <si>
+    <t>01029002551229232159qjP:*I"LDs+</t>
+  </si>
+  <si>
+    <t>02900255122923</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:44:30.522Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:31:03.397Z</t>
+  </si>
+  <si>
+    <t>0102900255122930215V4_tO&amp;svQ._w</t>
+  </si>
+  <si>
+    <t>02900255122930</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:44:30.754Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:31:03.394Z</t>
+  </si>
+  <si>
+    <t>0102900255122916215Kc!KCWbNHgIo</t>
+  </si>
+  <si>
+    <t>02900255122916</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:44:30.249Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:31:02.862Z</t>
+  </si>
+  <si>
+    <t>0102900255122909215GBGL4tDIqLJv</t>
+  </si>
+  <si>
+    <t>02900255122909</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:44:30.196Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:31:02.760Z</t>
+  </si>
+  <si>
+    <t>0102900242890897215PFn&amp;ZEkP6eYW</t>
+  </si>
+  <si>
+    <t>02900242890897</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 40 - М - 140 - Асфальт 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:30:27.328Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:16:04.141Z</t>
+  </si>
+  <si>
+    <t>0102900082084272215l8GHtDk5fBo=</t>
+  </si>
+  <si>
+    <t>02900082084272</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 240 х 260 - М - 60S 20 Серо-бежевый</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:30:27.222Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:16:04.042Z</t>
+  </si>
+  <si>
+    <t>0102900085439673215iq)'lxep3Fnr</t>
+  </si>
+  <si>
+    <t>02900085439673</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 150 х 220 - М - 142 ГОСТ - Белый</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:29:27.706Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:16:03.882Z</t>
+  </si>
+  <si>
+    <t>0102900253954373215uboJSgDtoDGg</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:29:27.628Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:16:03.795Z</t>
+  </si>
+  <si>
+    <t>0102900077688614215HkY+P5&lt;CGzek</t>
+  </si>
+  <si>
+    <t>02900077688614</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 200 х 220 х 30 - М - 125 - Бирюза</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:16:03.569Z</t>
+  </si>
+  <si>
+    <t>0102900134106723215=D;"q?TXVRPO</t>
+  </si>
+  <si>
+    <t>02900134106723</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 40 х 60 - М - 125 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:29:27.705Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:16:00.490Z</t>
+  </si>
+  <si>
+    <t>0102900146387349215(9aWLl8psTb?</t>
+  </si>
+  <si>
+    <t>02900146387349</t>
+  </si>
+  <si>
+    <t>Простыня из страйп сатина на резинке 160 х 200 х 20 - М - 140 - Белый 3х3</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:29:27.550Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:16:00.438Z</t>
+  </si>
+  <si>
+    <t>0102900244722264215X.%WSfqQR'st</t>
+  </si>
+  <si>
+    <t>02900244722264</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп-сатина Евро макси - М - 135 - Светло-серый 0,5х0,5 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:29:27.545Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:16:00.286Z</t>
+  </si>
+  <si>
+    <t>0102900255122862215O2ZXDE(Mzt6x</t>
+  </si>
+  <si>
+    <t>02900255122862</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:32:27.458Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:15:43.889Z</t>
+  </si>
+  <si>
+    <t>0102900255122572215'YhsmF:NkBfn</t>
+  </si>
+  <si>
+    <t>02900255122572</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:30:27.424Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:15:43.795Z</t>
+  </si>
+  <si>
+    <t>0102900255122565215gE9%:QItz8mS</t>
+  </si>
+  <si>
+    <t>02900255122565</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:30:27.429Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:15:43.783Z</t>
+  </si>
+  <si>
+    <t>0102900255122558215c(uE4jFq9BEN</t>
+  </si>
+  <si>
+    <t>02900255122558</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:30:27.357Z</t>
+  </si>
+  <si>
+    <t>2023-07-18T06:15:43.598Z</t>
+  </si>
+  <si>
+    <t>01029002550980132156mgF&amp;Rt*WiOf</t>
+  </si>
+  <si>
+    <t>02900255098013</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп сатина Евро макси - М - 125 - Графит 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:40:43.728Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:32:49.240Z</t>
+  </si>
+  <si>
+    <t>0102900255097993215:jptD=r;RH:N</t>
+  </si>
+  <si>
+    <t>02900255097993</t>
+  </si>
+  <si>
+    <t>Наволочка из перкаля 50 х 70 - М - Текстура 14 темно-серый</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:38:43.948Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:32:49.102Z</t>
+  </si>
+  <si>
+    <t>0102900255097993215HktH*JEGBajB</t>
+  </si>
+  <si>
+    <t>0102900255098006215J8tGjgC9NTbB</t>
+  </si>
+  <si>
+    <t>02900255098006</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп сатина Евро макси - М - 125 - Фисташка 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:36:43.556Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:32:48.880Z</t>
+  </si>
+  <si>
+    <t>0102900243207311215JPgD1diuOXRI</t>
+  </si>
+  <si>
+    <t>02900243207311</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель семейное - М - 60S 4217 Бежевый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:31:46.860Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:18:37.991Z</t>
+  </si>
+  <si>
+    <t>0102900241410256215K2VI"SHm:j!f</t>
+  </si>
+  <si>
+    <t>02900241410256</t>
+  </si>
+  <si>
+    <t>Простыня из страйп микрофибры 200 х 220 - М - 85 - Белая 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:28:43.058Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:18:37.796Z</t>
+  </si>
+  <si>
+    <t>0102900082426713215hqsp!7l%fwGb</t>
+  </si>
+  <si>
+    <t>02900082426713</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 175 х 215 - М - 323 Серый</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:24:42.598Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:18:37.571Z</t>
+  </si>
+  <si>
+    <t>0102900255078626215eBXhTvKIR8Hi</t>
+  </si>
+  <si>
+    <t>02900255078626</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 220 х 240 - М - 1145</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:10:24.259Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:29:01.079Z</t>
+  </si>
+  <si>
+    <t>0102900255078619215XK::leFNFEOp</t>
+  </si>
+  <si>
+    <t>02900255078619</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель семейное - М - 60S 371 Черный с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:09:24.207Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:29:01.026Z</t>
+  </si>
+  <si>
+    <t>0102900255037463215CS3OM&amp;Y=hK7W</t>
+  </si>
+  <si>
+    <t>02900255037463</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 140 - Чернила 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:09:23.969Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:58.421Z</t>
+  </si>
+  <si>
+    <t>0102900255037463215Uuzm?dRr5wS:</t>
+  </si>
+  <si>
+    <t>0102900255037456215e6:ipslo&amp;Iuo</t>
+  </si>
+  <si>
+    <t>02900255037456</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 240 х 260 - М - 140 - Асфальт 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:08:23.980Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:58.343Z</t>
+  </si>
+  <si>
+    <t>0102900255037449215"Wn-g*iL)jEr</t>
+  </si>
+  <si>
+    <t>02900255037449</t>
+  </si>
+  <si>
+    <t>Постельное белье варёный хлопок 1,5 спальное на резинке 140х200х30 - М - 323 Серый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:08:23.809Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:58.226Z</t>
+  </si>
+  <si>
+    <t>0102900255037449215ZZ3lfGuGfBkm</t>
+  </si>
+  <si>
+    <t>01029002550374322150.oO:'CIoCdX</t>
+  </si>
+  <si>
+    <t>02900255037432</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 90 х 200 х 20 - М - 140 - Бежевый Люкс</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:08:23.984Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:58.040Z</t>
+  </si>
+  <si>
+    <t>0102900255037425215"PY-EcVHfs_x</t>
+  </si>
+  <si>
+    <t>02900255037425</t>
+  </si>
+  <si>
+    <t>Гобеленовая наволочка 40х60 - М - К14 Далматинцы на желт.</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:08:23.914Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:57.910Z</t>
+  </si>
+  <si>
+    <t>0102900255037425215skBNt!cGygEy</t>
+  </si>
+  <si>
+    <t>0102900255037418215MsK2tdPiYb;E</t>
+  </si>
+  <si>
+    <t>02900255037418</t>
+  </si>
+  <si>
+    <t>Пододеяльник из поплина 150 х 200 - М - 1189</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:08:23.689Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:57.781Z</t>
+  </si>
+  <si>
+    <t>0102900255037517215rR?Rie6yXgll</t>
+  </si>
+  <si>
+    <t>02900255037517</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 280 х 280 - М - 120 - Светло-коричневый</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:09:24.043Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:57.769Z</t>
+  </si>
+  <si>
+    <t>0102900255037401215VgtnSd=ntV+q</t>
+  </si>
+  <si>
+    <t>02900255037401</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 200 х 220 - М - Красный</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:08:23.655Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:57.660Z</t>
+  </si>
+  <si>
+    <t>0102900255037500215=NAlxMrnRl/Y</t>
+  </si>
+  <si>
+    <t>02900255037500</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 280 х 280 - М - 135 - Белая 3х3</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:09:24.044Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:57.634Z</t>
+  </si>
+  <si>
+    <t>0102900255037395215EgeOmVGswdKe</t>
+  </si>
+  <si>
+    <t>02900255037395</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 180х200х30 - М - 60S Белый Страйп 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:08:23.593Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:57.517Z</t>
+  </si>
+  <si>
+    <t>0102900255037388215PHXbp+6hVsGV</t>
+  </si>
+  <si>
+    <t>02900255037388</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 280 х 280 - М - 60S 71 Персик</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:04:23.243Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:57.466Z</t>
+  </si>
+  <si>
+    <t>01029002550374942159PbnUQOuoUie</t>
+  </si>
+  <si>
+    <t>02900255037494</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 220 х 240 - М - 125 - Перья</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:09:24.176Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:57.410Z</t>
+  </si>
+  <si>
+    <t>0102900255037494215v23&gt;i'&amp;-vPN3</t>
+  </si>
+  <si>
+    <t>01029002550374872159QdXk,EY-(CN</t>
+  </si>
+  <si>
+    <t>02900255037487</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 20 - М - 125 - Точки черника</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:09:23.877Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:57.318Z</t>
+  </si>
+  <si>
+    <t>0102900255037470215la=XZknFb_jW</t>
+  </si>
+  <si>
+    <t>02900255037470</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель 1,5 спальное на резинке 140х200х30 - М - 60S 371 Черный с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:09:23.995Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:57.244Z</t>
+  </si>
+  <si>
+    <t>0102900255037371215TCWkMpTrDve=</t>
+  </si>
+  <si>
+    <t>02900255037371</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 40 х 60 - М - 140 - Фисташка Люкс</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:04:23.254Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:57.243Z</t>
+  </si>
+  <si>
+    <t>0102900104783138215'cIiBniN*cD'</t>
+  </si>
+  <si>
+    <t>02900104783138</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 220 х 240 - М - 142 ГОСТ - Белый</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:03:22.842Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:57.076Z</t>
+  </si>
+  <si>
+    <t>0102900238985774215%NoTtLE(GqjY</t>
+  </si>
+  <si>
+    <t>02900238985774</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 50 х 70 - М - 142 ГОСТ - Белый</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:02:22.726Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:56.982Z</t>
+  </si>
+  <si>
+    <t>0102900238985774215UOuDAZRFgLQ9</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:03:22.721Z</t>
+  </si>
+  <si>
+    <t>0102900252288332215xa2b/bMKAQMj</t>
+  </si>
+  <si>
+    <t>02900252288332</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 240 х 260 - М - 135 - Темно-синий 0,5х0,5</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:02:22.731Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:56.584Z</t>
+  </si>
+  <si>
+    <t>0102900078115591215'hM(mZkUHhBe</t>
+  </si>
+  <si>
+    <t>02900078115591</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 140 - Асфальт 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:02:22.686Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:56.415Z</t>
+  </si>
+  <si>
+    <t>0102900078115591215HGjdTAY_JjsU</t>
+  </si>
+  <si>
+    <t>0102900254444460215SYh_=ePQK/Of</t>
+  </si>
+  <si>
+    <t>02900254444460</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 135 - Мокрый асфальт 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:04:23.187Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:53.592Z</t>
+  </si>
+  <si>
+    <t>0102900254790222215OzfRW7ppNBgI</t>
+  </si>
+  <si>
+    <t>02900254790222</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х200х30 - М - 60S 371 Черный</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:04:23.143Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:53.405Z</t>
+  </si>
+  <si>
+    <t>0102900251145414215%?N0g4dwgRRR</t>
+  </si>
+  <si>
+    <t>02900251145414</t>
+  </si>
+  <si>
+    <t>Гобеленовая наволочка 40х60 - М - Листья (светлые)</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:02:22.688Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:53.352Z</t>
+  </si>
+  <si>
+    <t>0102900251145414215m&amp;mpQfVtx;I)</t>
+  </si>
+  <si>
+    <t>0102900251875977215Pvm2ok&lt;&gt;7dY%</t>
+  </si>
+  <si>
+    <t>02900251875977</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 280 х 280 - М - 120 - Желтый</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:03:23.917Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:53.281Z</t>
+  </si>
+  <si>
+    <t>0102900243788544215UZApC&lt;0zFtlZ</t>
+  </si>
+  <si>
+    <t>02900243788544</t>
+  </si>
+  <si>
+    <t>Гобеленовая наволочка 40х60 - М - JX-202 совы мал.</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:02:22.420Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:53.261Z</t>
+  </si>
+  <si>
+    <t>0102900243788544215emaxvGwuKTvb</t>
+  </si>
+  <si>
+    <t>0102900078363220215P-&gt;+.V,rqHpJ</t>
+  </si>
+  <si>
+    <t>02900078363220</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 200 х 30 - М - 125 - Шампань 3х3</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:02:22.538Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:53.227Z</t>
+  </si>
+  <si>
+    <t>0102900076816766215pGJT*G&lt;C035P</t>
+  </si>
+  <si>
+    <t>02900076816766</t>
+  </si>
+  <si>
+    <t>Гобеленовая наволочка 40х60 - М - Листочки</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:03:23.925Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:53.219Z</t>
+  </si>
+  <si>
+    <t>0102900076816766215vRkRiiHgdSBi</t>
+  </si>
+  <si>
+    <t>0102900253954380215q&lt;pIx"yF2%Ue</t>
+  </si>
+  <si>
+    <t>02900253954380</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп сатина семейное на резинке 180х200х30 - М - 140 - Асфальт 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:02:22.466Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:53.082Z</t>
+  </si>
+  <si>
+    <t>01029002401139122159JCSR0yXQ:hA</t>
+  </si>
+  <si>
+    <t>02900240113912</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 70 х 70 - М - 125 - Фисташка 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:03:23.854Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:53.035Z</t>
+  </si>
+  <si>
+    <t>0102900240113912215Ld&lt;7MUQ3lKVd</t>
+  </si>
+  <si>
+    <t>0102900240113912215zFNtpC,vlk_N</t>
+  </si>
+  <si>
+    <t>0102900245912145215jcAHynL.-siY</t>
+  </si>
+  <si>
+    <t>02900245912145</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 120х200х40 - М - 60S 4226 Серый</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:03:23.916Z</t>
+  </si>
+  <si>
+    <t>0102900074695318215_K:1+plWgXUD</t>
+  </si>
+  <si>
+    <t>02900074695318</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 145 х 215 - М - 140 - Черный 3х3</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:51:20.561Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:52.966Z</t>
+  </si>
+  <si>
+    <t>0102900100023290215K&lt;bW8HNJ5JuO</t>
+  </si>
+  <si>
+    <t>02900100023290</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 160 х 200 х 30 - М - 125 - Бордо</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:01:26.928Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:52.949Z</t>
+  </si>
+  <si>
+    <t>0102900076484033215%Rg-DSjRTM&lt;S</t>
+  </si>
+  <si>
+    <t>02900076484033</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп сатина 2 спальное на резинке 140х200х30 - М - 140 - Белый 3х3 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-07-17T16:03:23.658Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:28:52.818Z</t>
+  </si>
+  <si>
+    <t>0102900255037760215PO4ROlC4.l%_</t>
+  </si>
+  <si>
+    <t>02900255037760</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 145 х 215 - М - 125 - Графит 1х1</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:35:06.314Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T06:37:17.593Z</t>
+  </si>
+  <si>
+    <t>0102900255037760215RnoJ&gt;_A1l+U%</t>
+  </si>
+  <si>
+    <t>0102900255037753215KuZ6)lvjIlYX</t>
+  </si>
+  <si>
+    <t>02900255037753</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 240 х 260 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:36:06.354Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T06:37:17.409Z</t>
+  </si>
+  <si>
+    <t>0102900255037746215HtR5ExFbwTbS</t>
+  </si>
+  <si>
+    <t>02900255037746</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель 2 спальное на резинке 160х200х30 - М - 60S Белый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-07-17T15:34:06.290Z</t>
+  </si>
+  <si>
+    <t>2023-07-17T06:37:17.299Z</t>
   </si>
 </sst>
 </file>
@@ -766,7 +1696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -879,37 +1809,43 @@
       <c r="H3">
         <v>372900043349</v>
       </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>372900043349</v>
@@ -918,42 +1854,42 @@
         <v>372900043349</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G5">
         <v>372900043349</v>
@@ -962,39 +1898,39 @@
         <v>372900043349</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="W5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -1005,37 +1941,43 @@
       <c r="H6">
         <v>372900043349</v>
       </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7">
         <v>372900043349</v>
@@ -1043,37 +1985,43 @@
       <c r="H7">
         <v>372900043349</v>
       </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G8">
         <v>372900043349</v>
@@ -1081,37 +2029,43 @@
       <c r="H8">
         <v>372900043349</v>
       </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>372900043349</v>
@@ -1120,33 +2074,33 @@
         <v>372900043349</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
@@ -1158,22 +2112,22 @@
         <v>372900043349</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s">
         <v>64</v>
@@ -1184,10 +2138,10 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G11">
         <v>372900043349</v>
@@ -1195,29 +2149,23 @@
       <c r="H11">
         <v>372900043349</v>
       </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s">
         <v>69</v>
@@ -1239,87 +2187,75 @@
       <c r="H12">
         <v>372900043349</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" t="s">
         <v>73</v>
       </c>
-      <c r="K12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" t="s">
-        <v>34</v>
-      </c>
-      <c r="T12" t="s">
-        <v>35</v>
-      </c>
-      <c r="U12" t="s">
-        <v>36</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>74</v>
-      </c>
-      <c r="W12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
         <v>76</v>
       </c>
-      <c r="B13" t="s">
+      <c r="G13">
+        <v>372900043349</v>
+      </c>
+      <c r="H13">
+        <v>372900043349</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V13" t="s">
         <v>77</v>
       </c>
-      <c r="G13">
-        <v>372900043349</v>
-      </c>
-      <c r="H13">
-        <v>372900043349</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="W13" t="s">
         <v>78</v>
-      </c>
-      <c r="K13" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" t="s">
-        <v>34</v>
-      </c>
-      <c r="T13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U13" t="s">
-        <v>36</v>
-      </c>
-      <c r="V13" t="s">
-        <v>79</v>
-      </c>
-      <c r="W13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>372900043349</v>
@@ -1327,43 +2263,37 @@
       <c r="H14">
         <v>372900043349</v>
       </c>
-      <c r="J14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" t="s">
-        <v>42</v>
-      </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>372900043349</v>
@@ -1371,43 +2301,37 @@
       <c r="H15">
         <v>372900043349</v>
       </c>
-      <c r="J15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" t="s">
-        <v>42</v>
-      </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>372900043349</v>
@@ -1415,43 +2339,37 @@
       <c r="H16">
         <v>372900043349</v>
       </c>
-      <c r="J16" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" t="s">
-        <v>42</v>
-      </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G17">
         <v>372900043349</v>
@@ -1459,43 +2377,37 @@
       <c r="H17">
         <v>372900043349</v>
       </c>
-      <c r="J17" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" t="s">
-        <v>42</v>
-      </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="W17" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G18">
         <v>372900043349</v>
@@ -1503,43 +2415,37 @@
       <c r="H18">
         <v>372900043349</v>
       </c>
-      <c r="J18" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" t="s">
-        <v>42</v>
-      </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="W18" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="G19">
         <v>372900043349</v>
@@ -1547,43 +2453,37 @@
       <c r="H19">
         <v>372900043349</v>
       </c>
-      <c r="J19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" t="s">
-        <v>42</v>
-      </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="W19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G20">
         <v>372900043349</v>
@@ -1591,43 +2491,37 @@
       <c r="H20">
         <v>372900043349</v>
       </c>
-      <c r="J20" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" t="s">
-        <v>42</v>
-      </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="W20" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G21">
         <v>372900043349</v>
@@ -1635,43 +2529,37 @@
       <c r="H21">
         <v>372900043349</v>
       </c>
-      <c r="J21" t="s">
-        <v>105</v>
-      </c>
-      <c r="K21" t="s">
-        <v>42</v>
-      </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="W21" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G22">
         <v>372900043349</v>
@@ -1679,43 +2567,37 @@
       <c r="H22">
         <v>372900043349</v>
       </c>
-      <c r="J22" t="s">
-        <v>105</v>
-      </c>
-      <c r="K22" t="s">
-        <v>42</v>
-      </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="W22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G23">
         <v>372900043349</v>
@@ -1723,43 +2605,37 @@
       <c r="H23">
         <v>372900043349</v>
       </c>
-      <c r="J23" t="s">
-        <v>105</v>
-      </c>
-      <c r="K23" t="s">
-        <v>42</v>
-      </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="W23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G24">
         <v>372900043349</v>
@@ -1768,36 +2644,36 @@
         <v>372900043349</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="W24" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G25">
         <v>372900043349</v>
@@ -1805,37 +2681,43 @@
       <c r="H25">
         <v>372900043349</v>
       </c>
+      <c r="J25" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" t="s">
+        <v>33</v>
+      </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="W25" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G26">
         <v>372900043349</v>
@@ -1843,37 +2725,43 @@
       <c r="H26">
         <v>372900043349</v>
       </c>
+      <c r="J26" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" t="s">
+        <v>33</v>
+      </c>
       <c r="L26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="W26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G27">
         <v>372900043349</v>
@@ -1881,37 +2769,43 @@
       <c r="H27">
         <v>372900043349</v>
       </c>
+      <c r="J27" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
       <c r="L27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="W27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G28">
         <v>372900043349</v>
@@ -1919,73 +2813,3375 @@
       <c r="H28">
         <v>372900043349</v>
       </c>
+      <c r="J28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" t="s">
+        <v>33</v>
+      </c>
       <c r="L28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="W28" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29">
+        <v>372900043349</v>
+      </c>
+      <c r="H29">
+        <v>372900043349</v>
+      </c>
+      <c r="J29" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29" t="s">
+        <v>37</v>
+      </c>
+      <c r="U29" t="s">
+        <v>38</v>
+      </c>
+      <c r="V29" t="s">
+        <v>127</v>
+      </c>
+      <c r="W29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30">
+        <v>372900043349</v>
+      </c>
+      <c r="H30">
+        <v>372900043349</v>
+      </c>
+      <c r="J30" t="s">
         <v>131</v>
       </c>
-      <c r="B29" t="s">
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="s">
+        <v>35</v>
+      </c>
+      <c r="R30" t="s">
+        <v>36</v>
+      </c>
+      <c r="T30" t="s">
+        <v>37</v>
+      </c>
+      <c r="U30" t="s">
+        <v>38</v>
+      </c>
+      <c r="V30" t="s">
         <v>132</v>
       </c>
-      <c r="G29">
-        <v>372900043349</v>
-      </c>
-      <c r="H29">
-        <v>372900043349</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="W30" t="s">
         <v>133</v>
       </c>
-      <c r="K29" t="s">
-        <v>42</v>
-      </c>
-      <c r="L29" t="s">
-        <v>32</v>
-      </c>
-      <c r="M29" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" t="s">
-        <v>33</v>
-      </c>
-      <c r="R29" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29" t="s">
-        <v>35</v>
-      </c>
-      <c r="U29" t="s">
-        <v>36</v>
-      </c>
-      <c r="V29" t="s">
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>134</v>
       </c>
-      <c r="W29" t="s">
+      <c r="B31" t="s">
         <v>135</v>
+      </c>
+      <c r="G31">
+        <v>372900043349</v>
+      </c>
+      <c r="H31">
+        <v>372900043349</v>
+      </c>
+      <c r="J31" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" t="s">
+        <v>35</v>
+      </c>
+      <c r="R31" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" t="s">
+        <v>37</v>
+      </c>
+      <c r="U31" t="s">
+        <v>38</v>
+      </c>
+      <c r="V31" t="s">
+        <v>137</v>
+      </c>
+      <c r="W31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32">
+        <v>372900043349</v>
+      </c>
+      <c r="H32">
+        <v>372900043349</v>
+      </c>
+      <c r="J32" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" t="s">
+        <v>35</v>
+      </c>
+      <c r="R32" t="s">
+        <v>36</v>
+      </c>
+      <c r="T32" t="s">
+        <v>37</v>
+      </c>
+      <c r="U32" t="s">
+        <v>38</v>
+      </c>
+      <c r="V32" t="s">
+        <v>142</v>
+      </c>
+      <c r="W32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33">
+        <v>372900043349</v>
+      </c>
+      <c r="H33">
+        <v>372900043349</v>
+      </c>
+      <c r="J33" t="s">
+        <v>146</v>
+      </c>
+      <c r="K33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" t="s">
+        <v>35</v>
+      </c>
+      <c r="R33" t="s">
+        <v>36</v>
+      </c>
+      <c r="T33" t="s">
+        <v>37</v>
+      </c>
+      <c r="U33" t="s">
+        <v>38</v>
+      </c>
+      <c r="V33" t="s">
+        <v>147</v>
+      </c>
+      <c r="W33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34">
+        <v>372900043349</v>
+      </c>
+      <c r="H34">
+        <v>372900043349</v>
+      </c>
+      <c r="L34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" t="s">
+        <v>35</v>
+      </c>
+      <c r="R34" t="s">
+        <v>36</v>
+      </c>
+      <c r="T34" t="s">
+        <v>37</v>
+      </c>
+      <c r="U34" t="s">
+        <v>38</v>
+      </c>
+      <c r="V34" t="s">
+        <v>151</v>
+      </c>
+      <c r="W34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35">
+        <v>372900043349</v>
+      </c>
+      <c r="H35">
+        <v>372900043349</v>
+      </c>
+      <c r="L35" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="s">
+        <v>35</v>
+      </c>
+      <c r="R35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U35" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" t="s">
+        <v>155</v>
+      </c>
+      <c r="W35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36">
+        <v>372900043349</v>
+      </c>
+      <c r="H36">
+        <v>372900043349</v>
+      </c>
+      <c r="L36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R36" t="s">
+        <v>36</v>
+      </c>
+      <c r="T36" t="s">
+        <v>37</v>
+      </c>
+      <c r="U36" t="s">
+        <v>38</v>
+      </c>
+      <c r="V36" t="s">
+        <v>159</v>
+      </c>
+      <c r="W36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37">
+        <v>372900043349</v>
+      </c>
+      <c r="H37">
+        <v>372900043349</v>
+      </c>
+      <c r="L37" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" t="s">
+        <v>35</v>
+      </c>
+      <c r="R37" t="s">
+        <v>36</v>
+      </c>
+      <c r="T37" t="s">
+        <v>37</v>
+      </c>
+      <c r="U37" t="s">
+        <v>38</v>
+      </c>
+      <c r="V37" t="s">
+        <v>163</v>
+      </c>
+      <c r="W37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38">
+        <v>372900043349</v>
+      </c>
+      <c r="H38">
+        <v>372900043349</v>
+      </c>
+      <c r="J38" t="s">
+        <v>167</v>
+      </c>
+      <c r="K38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" t="s">
+        <v>35</v>
+      </c>
+      <c r="R38" t="s">
+        <v>36</v>
+      </c>
+      <c r="T38" t="s">
+        <v>37</v>
+      </c>
+      <c r="U38" t="s">
+        <v>38</v>
+      </c>
+      <c r="V38" t="s">
+        <v>168</v>
+      </c>
+      <c r="W38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39">
+        <v>372900043349</v>
+      </c>
+      <c r="H39">
+        <v>372900043349</v>
+      </c>
+      <c r="J39" t="s">
+        <v>172</v>
+      </c>
+      <c r="K39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" t="s">
+        <v>35</v>
+      </c>
+      <c r="R39" t="s">
+        <v>36</v>
+      </c>
+      <c r="T39" t="s">
+        <v>37</v>
+      </c>
+      <c r="U39" t="s">
+        <v>38</v>
+      </c>
+      <c r="V39" t="s">
+        <v>173</v>
+      </c>
+      <c r="W39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40">
+        <v>372900043349</v>
+      </c>
+      <c r="H40">
+        <v>372900043349</v>
+      </c>
+      <c r="J40" t="s">
+        <v>177</v>
+      </c>
+      <c r="K40" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" t="s">
+        <v>34</v>
+      </c>
+      <c r="P40" t="s">
+        <v>35</v>
+      </c>
+      <c r="R40" t="s">
+        <v>36</v>
+      </c>
+      <c r="T40" t="s">
+        <v>37</v>
+      </c>
+      <c r="U40" t="s">
+        <v>38</v>
+      </c>
+      <c r="V40" t="s">
+        <v>178</v>
+      </c>
+      <c r="W40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41">
+        <v>372900043349</v>
+      </c>
+      <c r="H41">
+        <v>372900043349</v>
+      </c>
+      <c r="J41" t="s">
+        <v>110</v>
+      </c>
+      <c r="K41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" t="s">
+        <v>35</v>
+      </c>
+      <c r="R41" t="s">
+        <v>36</v>
+      </c>
+      <c r="T41" t="s">
+        <v>37</v>
+      </c>
+      <c r="U41" t="s">
+        <v>38</v>
+      </c>
+      <c r="V41" t="s">
+        <v>181</v>
+      </c>
+      <c r="W41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G42">
+        <v>372900043349</v>
+      </c>
+      <c r="H42">
+        <v>372900043349</v>
+      </c>
+      <c r="J42" t="s">
+        <v>185</v>
+      </c>
+      <c r="K42" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" t="s">
+        <v>35</v>
+      </c>
+      <c r="R42" t="s">
+        <v>36</v>
+      </c>
+      <c r="T42" t="s">
+        <v>37</v>
+      </c>
+      <c r="U42" t="s">
+        <v>38</v>
+      </c>
+      <c r="V42" t="s">
+        <v>178</v>
+      </c>
+      <c r="W42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43">
+        <v>372900043349</v>
+      </c>
+      <c r="H43">
+        <v>372900043349</v>
+      </c>
+      <c r="J43" t="s">
+        <v>189</v>
+      </c>
+      <c r="K43" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P43" t="s">
+        <v>35</v>
+      </c>
+      <c r="R43" t="s">
+        <v>36</v>
+      </c>
+      <c r="T43" t="s">
+        <v>37</v>
+      </c>
+      <c r="U43" t="s">
+        <v>38</v>
+      </c>
+      <c r="V43" t="s">
+        <v>190</v>
+      </c>
+      <c r="W43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" t="s">
+        <v>193</v>
+      </c>
+      <c r="G44">
+        <v>372900043349</v>
+      </c>
+      <c r="H44">
+        <v>372900043349</v>
+      </c>
+      <c r="J44" t="s">
+        <v>194</v>
+      </c>
+      <c r="K44" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" t="s">
+        <v>35</v>
+      </c>
+      <c r="R44" t="s">
+        <v>36</v>
+      </c>
+      <c r="T44" t="s">
+        <v>37</v>
+      </c>
+      <c r="U44" t="s">
+        <v>38</v>
+      </c>
+      <c r="V44" t="s">
+        <v>195</v>
+      </c>
+      <c r="W44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" t="s">
+        <v>198</v>
+      </c>
+      <c r="G45">
+        <v>372900043349</v>
+      </c>
+      <c r="H45">
+        <v>372900043349</v>
+      </c>
+      <c r="J45" t="s">
+        <v>199</v>
+      </c>
+      <c r="K45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" t="s">
+        <v>35</v>
+      </c>
+      <c r="R45" t="s">
+        <v>36</v>
+      </c>
+      <c r="T45" t="s">
+        <v>37</v>
+      </c>
+      <c r="U45" t="s">
+        <v>38</v>
+      </c>
+      <c r="V45" t="s">
+        <v>200</v>
+      </c>
+      <c r="W45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46">
+        <v>372900043349</v>
+      </c>
+      <c r="H46">
+        <v>372900043349</v>
+      </c>
+      <c r="L46" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" t="s">
+        <v>34</v>
+      </c>
+      <c r="P46" t="s">
+        <v>35</v>
+      </c>
+      <c r="R46" t="s">
+        <v>36</v>
+      </c>
+      <c r="T46" t="s">
+        <v>37</v>
+      </c>
+      <c r="U46" t="s">
+        <v>38</v>
+      </c>
+      <c r="V46" t="s">
+        <v>204</v>
+      </c>
+      <c r="W46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47">
+        <v>372900043349</v>
+      </c>
+      <c r="H47">
+        <v>372900043349</v>
+      </c>
+      <c r="L47" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" t="s">
+        <v>35</v>
+      </c>
+      <c r="R47" t="s">
+        <v>36</v>
+      </c>
+      <c r="T47" t="s">
+        <v>37</v>
+      </c>
+      <c r="U47" t="s">
+        <v>38</v>
+      </c>
+      <c r="V47" t="s">
+        <v>208</v>
+      </c>
+      <c r="W47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48">
+        <v>372900043349</v>
+      </c>
+      <c r="H48">
+        <v>372900043349</v>
+      </c>
+      <c r="L48" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" t="s">
+        <v>34</v>
+      </c>
+      <c r="P48" t="s">
+        <v>35</v>
+      </c>
+      <c r="R48" t="s">
+        <v>36</v>
+      </c>
+      <c r="T48" t="s">
+        <v>37</v>
+      </c>
+      <c r="U48" t="s">
+        <v>38</v>
+      </c>
+      <c r="V48" t="s">
+        <v>212</v>
+      </c>
+      <c r="W48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
+        <v>215</v>
+      </c>
+      <c r="G49">
+        <v>372900043349</v>
+      </c>
+      <c r="H49">
+        <v>372900043349</v>
+      </c>
+      <c r="L49" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" t="s">
+        <v>34</v>
+      </c>
+      <c r="P49" t="s">
+        <v>35</v>
+      </c>
+      <c r="R49" t="s">
+        <v>36</v>
+      </c>
+      <c r="T49" t="s">
+        <v>37</v>
+      </c>
+      <c r="U49" t="s">
+        <v>38</v>
+      </c>
+      <c r="V49" t="s">
+        <v>216</v>
+      </c>
+      <c r="W49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50">
+        <v>372900043349</v>
+      </c>
+      <c r="H50">
+        <v>372900043349</v>
+      </c>
+      <c r="J50" t="s">
+        <v>220</v>
+      </c>
+      <c r="K50" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" t="s">
+        <v>35</v>
+      </c>
+      <c r="R50" t="s">
+        <v>36</v>
+      </c>
+      <c r="T50" t="s">
+        <v>37</v>
+      </c>
+      <c r="U50" t="s">
+        <v>38</v>
+      </c>
+      <c r="V50" t="s">
+        <v>221</v>
+      </c>
+      <c r="W50" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" t="s">
+        <v>224</v>
+      </c>
+      <c r="G51">
+        <v>372900043349</v>
+      </c>
+      <c r="H51">
+        <v>372900043349</v>
+      </c>
+      <c r="J51" t="s">
+        <v>225</v>
+      </c>
+      <c r="K51" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" t="s">
+        <v>34</v>
+      </c>
+      <c r="P51" t="s">
+        <v>35</v>
+      </c>
+      <c r="R51" t="s">
+        <v>36</v>
+      </c>
+      <c r="T51" t="s">
+        <v>37</v>
+      </c>
+      <c r="U51" t="s">
+        <v>38</v>
+      </c>
+      <c r="V51" t="s">
+        <v>226</v>
+      </c>
+      <c r="W51" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>228</v>
+      </c>
+      <c r="B52" t="s">
+        <v>224</v>
+      </c>
+      <c r="G52">
+        <v>372900043349</v>
+      </c>
+      <c r="H52">
+        <v>372900043349</v>
+      </c>
+      <c r="J52" t="s">
+        <v>225</v>
+      </c>
+      <c r="K52" t="s">
+        <v>33</v>
+      </c>
+      <c r="L52" t="s">
+        <v>34</v>
+      </c>
+      <c r="M52" t="s">
+        <v>34</v>
+      </c>
+      <c r="P52" t="s">
+        <v>35</v>
+      </c>
+      <c r="R52" t="s">
+        <v>36</v>
+      </c>
+      <c r="T52" t="s">
+        <v>37</v>
+      </c>
+      <c r="U52" t="s">
+        <v>38</v>
+      </c>
+      <c r="V52" t="s">
+        <v>226</v>
+      </c>
+      <c r="W52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B53" t="s">
+        <v>230</v>
+      </c>
+      <c r="G53">
+        <v>372900043349</v>
+      </c>
+      <c r="H53">
+        <v>372900043349</v>
+      </c>
+      <c r="J53" t="s">
+        <v>231</v>
+      </c>
+      <c r="K53" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53" t="s">
+        <v>34</v>
+      </c>
+      <c r="P53" t="s">
+        <v>35</v>
+      </c>
+      <c r="R53" t="s">
+        <v>36</v>
+      </c>
+      <c r="T53" t="s">
+        <v>37</v>
+      </c>
+      <c r="U53" t="s">
+        <v>38</v>
+      </c>
+      <c r="V53" t="s">
+        <v>232</v>
+      </c>
+      <c r="W53" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" t="s">
+        <v>235</v>
+      </c>
+      <c r="G54">
+        <v>372900043349</v>
+      </c>
+      <c r="H54">
+        <v>372900043349</v>
+      </c>
+      <c r="J54" t="s">
+        <v>236</v>
+      </c>
+      <c r="K54" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54" t="s">
+        <v>35</v>
+      </c>
+      <c r="R54" t="s">
+        <v>36</v>
+      </c>
+      <c r="T54" t="s">
+        <v>37</v>
+      </c>
+      <c r="U54" t="s">
+        <v>38</v>
+      </c>
+      <c r="V54" t="s">
+        <v>237</v>
+      </c>
+      <c r="W54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>239</v>
+      </c>
+      <c r="B55" t="s">
+        <v>240</v>
+      </c>
+      <c r="G55">
+        <v>372900043349</v>
+      </c>
+      <c r="H55">
+        <v>372900043349</v>
+      </c>
+      <c r="J55" t="s">
+        <v>241</v>
+      </c>
+      <c r="K55" t="s">
+        <v>33</v>
+      </c>
+      <c r="L55" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55" t="s">
+        <v>34</v>
+      </c>
+      <c r="P55" t="s">
+        <v>35</v>
+      </c>
+      <c r="R55" t="s">
+        <v>36</v>
+      </c>
+      <c r="T55" t="s">
+        <v>37</v>
+      </c>
+      <c r="U55" t="s">
+        <v>38</v>
+      </c>
+      <c r="V55" t="s">
+        <v>242</v>
+      </c>
+      <c r="W55" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" t="s">
+        <v>245</v>
+      </c>
+      <c r="G56">
+        <v>372900043349</v>
+      </c>
+      <c r="H56">
+        <v>372900043349</v>
+      </c>
+      <c r="J56" t="s">
+        <v>246</v>
+      </c>
+      <c r="K56" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56" t="s">
+        <v>35</v>
+      </c>
+      <c r="R56" t="s">
+        <v>36</v>
+      </c>
+      <c r="T56" t="s">
+        <v>37</v>
+      </c>
+      <c r="U56" t="s">
+        <v>38</v>
+      </c>
+      <c r="V56" t="s">
+        <v>247</v>
+      </c>
+      <c r="W56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>249</v>
+      </c>
+      <c r="B57" t="s">
+        <v>250</v>
+      </c>
+      <c r="G57">
+        <v>372900043349</v>
+      </c>
+      <c r="H57">
+        <v>372900043349</v>
+      </c>
+      <c r="J57" t="s">
+        <v>251</v>
+      </c>
+      <c r="K57" t="s">
+        <v>33</v>
+      </c>
+      <c r="L57" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" t="s">
+        <v>34</v>
+      </c>
+      <c r="P57" t="s">
+        <v>35</v>
+      </c>
+      <c r="R57" t="s">
+        <v>36</v>
+      </c>
+      <c r="T57" t="s">
+        <v>37</v>
+      </c>
+      <c r="U57" t="s">
+        <v>38</v>
+      </c>
+      <c r="V57" t="s">
+        <v>252</v>
+      </c>
+      <c r="W57" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" t="s">
+        <v>255</v>
+      </c>
+      <c r="G58">
+        <v>372900043349</v>
+      </c>
+      <c r="H58">
+        <v>372900043349</v>
+      </c>
+      <c r="J58" t="s">
+        <v>256</v>
+      </c>
+      <c r="K58" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58" t="s">
+        <v>35</v>
+      </c>
+      <c r="R58" t="s">
+        <v>36</v>
+      </c>
+      <c r="T58" t="s">
+        <v>37</v>
+      </c>
+      <c r="U58" t="s">
+        <v>38</v>
+      </c>
+      <c r="V58" t="s">
+        <v>257</v>
+      </c>
+      <c r="W58" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59" t="s">
+        <v>260</v>
+      </c>
+      <c r="G59">
+        <v>372900043349</v>
+      </c>
+      <c r="H59">
+        <v>372900043349</v>
+      </c>
+      <c r="J59" t="s">
+        <v>261</v>
+      </c>
+      <c r="K59" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" t="s">
+        <v>34</v>
+      </c>
+      <c r="M59" t="s">
+        <v>34</v>
+      </c>
+      <c r="P59" t="s">
+        <v>35</v>
+      </c>
+      <c r="R59" t="s">
+        <v>36</v>
+      </c>
+      <c r="T59" t="s">
+        <v>37</v>
+      </c>
+      <c r="U59" t="s">
+        <v>38</v>
+      </c>
+      <c r="V59" t="s">
+        <v>262</v>
+      </c>
+      <c r="W59" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>264</v>
+      </c>
+      <c r="B60" t="s">
+        <v>260</v>
+      </c>
+      <c r="G60">
+        <v>372900043349</v>
+      </c>
+      <c r="H60">
+        <v>372900043349</v>
+      </c>
+      <c r="J60" t="s">
+        <v>261</v>
+      </c>
+      <c r="K60" t="s">
+        <v>33</v>
+      </c>
+      <c r="L60" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" t="s">
+        <v>34</v>
+      </c>
+      <c r="P60" t="s">
+        <v>35</v>
+      </c>
+      <c r="R60" t="s">
+        <v>36</v>
+      </c>
+      <c r="T60" t="s">
+        <v>37</v>
+      </c>
+      <c r="U60" t="s">
+        <v>38</v>
+      </c>
+      <c r="V60" t="s">
+        <v>262</v>
+      </c>
+      <c r="W60" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B61" t="s">
+        <v>266</v>
+      </c>
+      <c r="G61">
+        <v>372900043349</v>
+      </c>
+      <c r="H61">
+        <v>372900043349</v>
+      </c>
+      <c r="J61" t="s">
+        <v>267</v>
+      </c>
+      <c r="K61" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" t="s">
+        <v>34</v>
+      </c>
+      <c r="M61" t="s">
+        <v>34</v>
+      </c>
+      <c r="P61" t="s">
+        <v>35</v>
+      </c>
+      <c r="R61" t="s">
+        <v>36</v>
+      </c>
+      <c r="T61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U61" t="s">
+        <v>38</v>
+      </c>
+      <c r="V61" t="s">
+        <v>268</v>
+      </c>
+      <c r="W61" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>270</v>
+      </c>
+      <c r="B62" t="s">
+        <v>271</v>
+      </c>
+      <c r="G62">
+        <v>372900043349</v>
+      </c>
+      <c r="H62">
+        <v>372900043349</v>
+      </c>
+      <c r="J62" t="s">
+        <v>272</v>
+      </c>
+      <c r="K62" t="s">
+        <v>33</v>
+      </c>
+      <c r="L62" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" t="s">
+        <v>34</v>
+      </c>
+      <c r="P62" t="s">
+        <v>35</v>
+      </c>
+      <c r="R62" t="s">
+        <v>36</v>
+      </c>
+      <c r="T62" t="s">
+        <v>37</v>
+      </c>
+      <c r="U62" t="s">
+        <v>38</v>
+      </c>
+      <c r="V62" t="s">
+        <v>273</v>
+      </c>
+      <c r="W62" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>275</v>
+      </c>
+      <c r="B63" t="s">
+        <v>271</v>
+      </c>
+      <c r="G63">
+        <v>372900043349</v>
+      </c>
+      <c r="H63">
+        <v>372900043349</v>
+      </c>
+      <c r="J63" t="s">
+        <v>272</v>
+      </c>
+      <c r="K63" t="s">
+        <v>33</v>
+      </c>
+      <c r="L63" t="s">
+        <v>34</v>
+      </c>
+      <c r="M63" t="s">
+        <v>34</v>
+      </c>
+      <c r="P63" t="s">
+        <v>35</v>
+      </c>
+      <c r="R63" t="s">
+        <v>36</v>
+      </c>
+      <c r="T63" t="s">
+        <v>37</v>
+      </c>
+      <c r="U63" t="s">
+        <v>38</v>
+      </c>
+      <c r="V63" t="s">
+        <v>273</v>
+      </c>
+      <c r="W63" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" t="s">
+        <v>277</v>
+      </c>
+      <c r="G64">
+        <v>372900043349</v>
+      </c>
+      <c r="H64">
+        <v>372900043349</v>
+      </c>
+      <c r="J64" t="s">
+        <v>278</v>
+      </c>
+      <c r="K64" t="s">
+        <v>33</v>
+      </c>
+      <c r="L64" t="s">
+        <v>34</v>
+      </c>
+      <c r="M64" t="s">
+        <v>34</v>
+      </c>
+      <c r="P64" t="s">
+        <v>35</v>
+      </c>
+      <c r="R64" t="s">
+        <v>36</v>
+      </c>
+      <c r="T64" t="s">
+        <v>37</v>
+      </c>
+      <c r="U64" t="s">
+        <v>38</v>
+      </c>
+      <c r="V64" t="s">
+        <v>279</v>
+      </c>
+      <c r="W64" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>281</v>
+      </c>
+      <c r="B65" t="s">
+        <v>282</v>
+      </c>
+      <c r="G65">
+        <v>372900043349</v>
+      </c>
+      <c r="H65">
+        <v>372900043349</v>
+      </c>
+      <c r="J65" t="s">
+        <v>283</v>
+      </c>
+      <c r="K65" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" t="s">
+        <v>34</v>
+      </c>
+      <c r="M65" t="s">
+        <v>34</v>
+      </c>
+      <c r="P65" t="s">
+        <v>35</v>
+      </c>
+      <c r="R65" t="s">
+        <v>36</v>
+      </c>
+      <c r="T65" t="s">
+        <v>37</v>
+      </c>
+      <c r="U65" t="s">
+        <v>38</v>
+      </c>
+      <c r="V65" t="s">
+        <v>284</v>
+      </c>
+      <c r="W65" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>286</v>
+      </c>
+      <c r="B66" t="s">
+        <v>282</v>
+      </c>
+      <c r="G66">
+        <v>372900043349</v>
+      </c>
+      <c r="H66">
+        <v>372900043349</v>
+      </c>
+      <c r="J66" t="s">
+        <v>283</v>
+      </c>
+      <c r="K66" t="s">
+        <v>33</v>
+      </c>
+      <c r="L66" t="s">
+        <v>34</v>
+      </c>
+      <c r="M66" t="s">
+        <v>34</v>
+      </c>
+      <c r="P66" t="s">
+        <v>35</v>
+      </c>
+      <c r="R66" t="s">
+        <v>36</v>
+      </c>
+      <c r="T66" t="s">
+        <v>37</v>
+      </c>
+      <c r="U66" t="s">
+        <v>38</v>
+      </c>
+      <c r="V66" t="s">
+        <v>284</v>
+      </c>
+      <c r="W66" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>287</v>
+      </c>
+      <c r="B67" t="s">
+        <v>288</v>
+      </c>
+      <c r="G67">
+        <v>372900043349</v>
+      </c>
+      <c r="H67">
+        <v>372900043349</v>
+      </c>
+      <c r="J67" t="s">
+        <v>289</v>
+      </c>
+      <c r="K67" t="s">
+        <v>33</v>
+      </c>
+      <c r="L67" t="s">
+        <v>34</v>
+      </c>
+      <c r="M67" t="s">
+        <v>34</v>
+      </c>
+      <c r="P67" t="s">
+        <v>35</v>
+      </c>
+      <c r="R67" t="s">
+        <v>36</v>
+      </c>
+      <c r="T67" t="s">
+        <v>37</v>
+      </c>
+      <c r="U67" t="s">
+        <v>38</v>
+      </c>
+      <c r="V67" t="s">
+        <v>290</v>
+      </c>
+      <c r="W67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>292</v>
+      </c>
+      <c r="B68" t="s">
+        <v>293</v>
+      </c>
+      <c r="G68">
+        <v>372900043349</v>
+      </c>
+      <c r="H68">
+        <v>372900043349</v>
+      </c>
+      <c r="J68" t="s">
+        <v>294</v>
+      </c>
+      <c r="K68" t="s">
+        <v>33</v>
+      </c>
+      <c r="L68" t="s">
+        <v>34</v>
+      </c>
+      <c r="M68" t="s">
+        <v>34</v>
+      </c>
+      <c r="P68" t="s">
+        <v>35</v>
+      </c>
+      <c r="R68" t="s">
+        <v>36</v>
+      </c>
+      <c r="T68" t="s">
+        <v>37</v>
+      </c>
+      <c r="U68" t="s">
+        <v>38</v>
+      </c>
+      <c r="V68" t="s">
+        <v>295</v>
+      </c>
+      <c r="W68" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>297</v>
+      </c>
+      <c r="B69" t="s">
+        <v>298</v>
+      </c>
+      <c r="G69">
+        <v>372900043349</v>
+      </c>
+      <c r="H69">
+        <v>372900043349</v>
+      </c>
+      <c r="J69" t="s">
+        <v>299</v>
+      </c>
+      <c r="K69" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69" t="s">
+        <v>34</v>
+      </c>
+      <c r="M69" t="s">
+        <v>34</v>
+      </c>
+      <c r="P69" t="s">
+        <v>35</v>
+      </c>
+      <c r="R69" t="s">
+        <v>36</v>
+      </c>
+      <c r="T69" t="s">
+        <v>37</v>
+      </c>
+      <c r="U69" t="s">
+        <v>38</v>
+      </c>
+      <c r="V69" t="s">
+        <v>300</v>
+      </c>
+      <c r="W69" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" t="s">
+        <v>303</v>
+      </c>
+      <c r="G70">
+        <v>372900043349</v>
+      </c>
+      <c r="H70">
+        <v>372900043349</v>
+      </c>
+      <c r="J70" t="s">
+        <v>304</v>
+      </c>
+      <c r="K70" t="s">
+        <v>33</v>
+      </c>
+      <c r="L70" t="s">
+        <v>34</v>
+      </c>
+      <c r="M70" t="s">
+        <v>34</v>
+      </c>
+      <c r="P70" t="s">
+        <v>35</v>
+      </c>
+      <c r="R70" t="s">
+        <v>36</v>
+      </c>
+      <c r="T70" t="s">
+        <v>37</v>
+      </c>
+      <c r="U70" t="s">
+        <v>38</v>
+      </c>
+      <c r="V70" t="s">
+        <v>305</v>
+      </c>
+      <c r="W70" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>307</v>
+      </c>
+      <c r="B71" t="s">
+        <v>308</v>
+      </c>
+      <c r="G71">
+        <v>372900043349</v>
+      </c>
+      <c r="H71">
+        <v>372900043349</v>
+      </c>
+      <c r="J71" t="s">
+        <v>309</v>
+      </c>
+      <c r="K71" t="s">
+        <v>33</v>
+      </c>
+      <c r="L71" t="s">
+        <v>34</v>
+      </c>
+      <c r="M71" t="s">
+        <v>34</v>
+      </c>
+      <c r="P71" t="s">
+        <v>35</v>
+      </c>
+      <c r="R71" t="s">
+        <v>36</v>
+      </c>
+      <c r="T71" t="s">
+        <v>37</v>
+      </c>
+      <c r="U71" t="s">
+        <v>38</v>
+      </c>
+      <c r="V71" t="s">
+        <v>310</v>
+      </c>
+      <c r="W71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>312</v>
+      </c>
+      <c r="B72" t="s">
+        <v>313</v>
+      </c>
+      <c r="G72">
+        <v>372900043349</v>
+      </c>
+      <c r="H72">
+        <v>372900043349</v>
+      </c>
+      <c r="J72" t="s">
+        <v>314</v>
+      </c>
+      <c r="K72" t="s">
+        <v>33</v>
+      </c>
+      <c r="L72" t="s">
+        <v>34</v>
+      </c>
+      <c r="M72" t="s">
+        <v>34</v>
+      </c>
+      <c r="P72" t="s">
+        <v>35</v>
+      </c>
+      <c r="R72" t="s">
+        <v>36</v>
+      </c>
+      <c r="T72" t="s">
+        <v>37</v>
+      </c>
+      <c r="U72" t="s">
+        <v>38</v>
+      </c>
+      <c r="V72" t="s">
+        <v>315</v>
+      </c>
+      <c r="W72" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>317</v>
+      </c>
+      <c r="B73" t="s">
+        <v>318</v>
+      </c>
+      <c r="G73">
+        <v>372900043349</v>
+      </c>
+      <c r="H73">
+        <v>372900043349</v>
+      </c>
+      <c r="J73" t="s">
+        <v>319</v>
+      </c>
+      <c r="K73" t="s">
+        <v>33</v>
+      </c>
+      <c r="L73" t="s">
+        <v>34</v>
+      </c>
+      <c r="M73" t="s">
+        <v>34</v>
+      </c>
+      <c r="P73" t="s">
+        <v>35</v>
+      </c>
+      <c r="R73" t="s">
+        <v>36</v>
+      </c>
+      <c r="T73" t="s">
+        <v>37</v>
+      </c>
+      <c r="U73" t="s">
+        <v>38</v>
+      </c>
+      <c r="V73" t="s">
+        <v>320</v>
+      </c>
+      <c r="W73" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>322</v>
+      </c>
+      <c r="B74" t="s">
+        <v>318</v>
+      </c>
+      <c r="G74">
+        <v>372900043349</v>
+      </c>
+      <c r="H74">
+        <v>372900043349</v>
+      </c>
+      <c r="J74" t="s">
+        <v>319</v>
+      </c>
+      <c r="K74" t="s">
+        <v>33</v>
+      </c>
+      <c r="L74" t="s">
+        <v>34</v>
+      </c>
+      <c r="M74" t="s">
+        <v>34</v>
+      </c>
+      <c r="P74" t="s">
+        <v>35</v>
+      </c>
+      <c r="R74" t="s">
+        <v>36</v>
+      </c>
+      <c r="T74" t="s">
+        <v>37</v>
+      </c>
+      <c r="U74" t="s">
+        <v>38</v>
+      </c>
+      <c r="V74" t="s">
+        <v>320</v>
+      </c>
+      <c r="W74" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>323</v>
+      </c>
+      <c r="B75" t="s">
+        <v>324</v>
+      </c>
+      <c r="G75">
+        <v>372900043349</v>
+      </c>
+      <c r="H75">
+        <v>372900043349</v>
+      </c>
+      <c r="J75" t="s">
+        <v>325</v>
+      </c>
+      <c r="K75" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75" t="s">
+        <v>34</v>
+      </c>
+      <c r="M75" t="s">
+        <v>34</v>
+      </c>
+      <c r="P75" t="s">
+        <v>35</v>
+      </c>
+      <c r="R75" t="s">
+        <v>36</v>
+      </c>
+      <c r="T75" t="s">
+        <v>37</v>
+      </c>
+      <c r="U75" t="s">
+        <v>38</v>
+      </c>
+      <c r="V75" t="s">
+        <v>326</v>
+      </c>
+      <c r="W75" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>328</v>
+      </c>
+      <c r="B76" t="s">
+        <v>329</v>
+      </c>
+      <c r="G76">
+        <v>372900043349</v>
+      </c>
+      <c r="H76">
+        <v>372900043349</v>
+      </c>
+      <c r="J76" t="s">
+        <v>330</v>
+      </c>
+      <c r="K76" t="s">
+        <v>33</v>
+      </c>
+      <c r="L76" t="s">
+        <v>34</v>
+      </c>
+      <c r="M76" t="s">
+        <v>34</v>
+      </c>
+      <c r="P76" t="s">
+        <v>35</v>
+      </c>
+      <c r="R76" t="s">
+        <v>36</v>
+      </c>
+      <c r="T76" t="s">
+        <v>37</v>
+      </c>
+      <c r="U76" t="s">
+        <v>38</v>
+      </c>
+      <c r="V76" t="s">
+        <v>331</v>
+      </c>
+      <c r="W76" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>333</v>
+      </c>
+      <c r="B77" t="s">
+        <v>334</v>
+      </c>
+      <c r="G77">
+        <v>372900043349</v>
+      </c>
+      <c r="H77">
+        <v>372900043349</v>
+      </c>
+      <c r="J77" t="s">
+        <v>335</v>
+      </c>
+      <c r="K77" t="s">
+        <v>33</v>
+      </c>
+      <c r="L77" t="s">
+        <v>34</v>
+      </c>
+      <c r="M77" t="s">
+        <v>34</v>
+      </c>
+      <c r="P77" t="s">
+        <v>35</v>
+      </c>
+      <c r="R77" t="s">
+        <v>36</v>
+      </c>
+      <c r="T77" t="s">
+        <v>37</v>
+      </c>
+      <c r="U77" t="s">
+        <v>38</v>
+      </c>
+      <c r="V77" t="s">
+        <v>336</v>
+      </c>
+      <c r="W77" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>338</v>
+      </c>
+      <c r="B78" t="s">
+        <v>339</v>
+      </c>
+      <c r="G78">
+        <v>372900043349</v>
+      </c>
+      <c r="H78">
+        <v>372900043349</v>
+      </c>
+      <c r="J78" t="s">
+        <v>340</v>
+      </c>
+      <c r="K78" t="s">
+        <v>33</v>
+      </c>
+      <c r="L78" t="s">
+        <v>34</v>
+      </c>
+      <c r="M78" t="s">
+        <v>34</v>
+      </c>
+      <c r="P78" t="s">
+        <v>35</v>
+      </c>
+      <c r="R78" t="s">
+        <v>36</v>
+      </c>
+      <c r="T78" t="s">
+        <v>37</v>
+      </c>
+      <c r="U78" t="s">
+        <v>38</v>
+      </c>
+      <c r="V78" t="s">
+        <v>341</v>
+      </c>
+      <c r="W78" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>343</v>
+      </c>
+      <c r="B79" t="s">
+        <v>344</v>
+      </c>
+      <c r="G79">
+        <v>372900043349</v>
+      </c>
+      <c r="H79">
+        <v>372900043349</v>
+      </c>
+      <c r="J79" t="s">
+        <v>345</v>
+      </c>
+      <c r="K79" t="s">
+        <v>33</v>
+      </c>
+      <c r="L79" t="s">
+        <v>34</v>
+      </c>
+      <c r="M79" t="s">
+        <v>34</v>
+      </c>
+      <c r="P79" t="s">
+        <v>35</v>
+      </c>
+      <c r="R79" t="s">
+        <v>36</v>
+      </c>
+      <c r="T79" t="s">
+        <v>37</v>
+      </c>
+      <c r="U79" t="s">
+        <v>38</v>
+      </c>
+      <c r="V79" t="s">
+        <v>346</v>
+      </c>
+      <c r="W79" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>348</v>
+      </c>
+      <c r="B80" t="s">
+        <v>344</v>
+      </c>
+      <c r="G80">
+        <v>372900043349</v>
+      </c>
+      <c r="H80">
+        <v>372900043349</v>
+      </c>
+      <c r="J80" t="s">
+        <v>345</v>
+      </c>
+      <c r="K80" t="s">
+        <v>33</v>
+      </c>
+      <c r="L80" t="s">
+        <v>34</v>
+      </c>
+      <c r="M80" t="s">
+        <v>34</v>
+      </c>
+      <c r="P80" t="s">
+        <v>35</v>
+      </c>
+      <c r="R80" t="s">
+        <v>36</v>
+      </c>
+      <c r="T80" t="s">
+        <v>37</v>
+      </c>
+      <c r="U80" t="s">
+        <v>38</v>
+      </c>
+      <c r="V80" t="s">
+        <v>349</v>
+      </c>
+      <c r="W80" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>350</v>
+      </c>
+      <c r="B81" t="s">
+        <v>351</v>
+      </c>
+      <c r="G81">
+        <v>372900043349</v>
+      </c>
+      <c r="H81">
+        <v>372900043349</v>
+      </c>
+      <c r="J81" t="s">
+        <v>352</v>
+      </c>
+      <c r="K81" t="s">
+        <v>33</v>
+      </c>
+      <c r="L81" t="s">
+        <v>34</v>
+      </c>
+      <c r="M81" t="s">
+        <v>34</v>
+      </c>
+      <c r="P81" t="s">
+        <v>35</v>
+      </c>
+      <c r="R81" t="s">
+        <v>36</v>
+      </c>
+      <c r="T81" t="s">
+        <v>37</v>
+      </c>
+      <c r="U81" t="s">
+        <v>38</v>
+      </c>
+      <c r="V81" t="s">
+        <v>353</v>
+      </c>
+      <c r="W81" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>355</v>
+      </c>
+      <c r="B82" t="s">
+        <v>356</v>
+      </c>
+      <c r="G82">
+        <v>372900043349</v>
+      </c>
+      <c r="H82">
+        <v>372900043349</v>
+      </c>
+      <c r="J82" t="s">
+        <v>357</v>
+      </c>
+      <c r="K82" t="s">
+        <v>33</v>
+      </c>
+      <c r="L82" t="s">
+        <v>34</v>
+      </c>
+      <c r="M82" t="s">
+        <v>34</v>
+      </c>
+      <c r="P82" t="s">
+        <v>35</v>
+      </c>
+      <c r="R82" t="s">
+        <v>36</v>
+      </c>
+      <c r="T82" t="s">
+        <v>37</v>
+      </c>
+      <c r="U82" t="s">
+        <v>38</v>
+      </c>
+      <c r="V82" t="s">
+        <v>358</v>
+      </c>
+      <c r="W82" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>360</v>
+      </c>
+      <c r="B83" t="s">
+        <v>356</v>
+      </c>
+      <c r="G83">
+        <v>372900043349</v>
+      </c>
+      <c r="H83">
+        <v>372900043349</v>
+      </c>
+      <c r="J83" t="s">
+        <v>357</v>
+      </c>
+      <c r="K83" t="s">
+        <v>33</v>
+      </c>
+      <c r="L83" t="s">
+        <v>34</v>
+      </c>
+      <c r="M83" t="s">
+        <v>34</v>
+      </c>
+      <c r="P83" t="s">
+        <v>35</v>
+      </c>
+      <c r="R83" t="s">
+        <v>36</v>
+      </c>
+      <c r="T83" t="s">
+        <v>37</v>
+      </c>
+      <c r="U83" t="s">
+        <v>38</v>
+      </c>
+      <c r="V83" t="s">
+        <v>358</v>
+      </c>
+      <c r="W83" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>361</v>
+      </c>
+      <c r="B84" t="s">
+        <v>362</v>
+      </c>
+      <c r="G84">
+        <v>372900043349</v>
+      </c>
+      <c r="H84">
+        <v>372900043349</v>
+      </c>
+      <c r="J84" t="s">
+        <v>363</v>
+      </c>
+      <c r="K84" t="s">
+        <v>33</v>
+      </c>
+      <c r="L84" t="s">
+        <v>34</v>
+      </c>
+      <c r="M84" t="s">
+        <v>34</v>
+      </c>
+      <c r="P84" t="s">
+        <v>35</v>
+      </c>
+      <c r="R84" t="s">
+        <v>36</v>
+      </c>
+      <c r="T84" t="s">
+        <v>37</v>
+      </c>
+      <c r="U84" t="s">
+        <v>38</v>
+      </c>
+      <c r="V84" t="s">
+        <v>364</v>
+      </c>
+      <c r="W84" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>366</v>
+      </c>
+      <c r="B85" t="s">
+        <v>367</v>
+      </c>
+      <c r="G85">
+        <v>372900043349</v>
+      </c>
+      <c r="H85">
+        <v>372900043349</v>
+      </c>
+      <c r="J85" t="s">
+        <v>368</v>
+      </c>
+      <c r="K85" t="s">
+        <v>33</v>
+      </c>
+      <c r="L85" t="s">
+        <v>34</v>
+      </c>
+      <c r="M85" t="s">
+        <v>34</v>
+      </c>
+      <c r="P85" t="s">
+        <v>35</v>
+      </c>
+      <c r="R85" t="s">
+        <v>36</v>
+      </c>
+      <c r="T85" t="s">
+        <v>37</v>
+      </c>
+      <c r="U85" t="s">
+        <v>38</v>
+      </c>
+      <c r="V85" t="s">
+        <v>369</v>
+      </c>
+      <c r="W85" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>371</v>
+      </c>
+      <c r="B86" t="s">
+        <v>372</v>
+      </c>
+      <c r="G86">
+        <v>372900043349</v>
+      </c>
+      <c r="H86">
+        <v>372900043349</v>
+      </c>
+      <c r="J86" t="s">
+        <v>373</v>
+      </c>
+      <c r="K86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L86" t="s">
+        <v>34</v>
+      </c>
+      <c r="M86" t="s">
+        <v>34</v>
+      </c>
+      <c r="P86" t="s">
+        <v>35</v>
+      </c>
+      <c r="R86" t="s">
+        <v>36</v>
+      </c>
+      <c r="T86" t="s">
+        <v>37</v>
+      </c>
+      <c r="U86" t="s">
+        <v>38</v>
+      </c>
+      <c r="V86" t="s">
+        <v>374</v>
+      </c>
+      <c r="W86" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>376</v>
+      </c>
+      <c r="B87" t="s">
+        <v>372</v>
+      </c>
+      <c r="G87">
+        <v>372900043349</v>
+      </c>
+      <c r="H87">
+        <v>372900043349</v>
+      </c>
+      <c r="J87" t="s">
+        <v>373</v>
+      </c>
+      <c r="K87" t="s">
+        <v>33</v>
+      </c>
+      <c r="L87" t="s">
+        <v>34</v>
+      </c>
+      <c r="M87" t="s">
+        <v>34</v>
+      </c>
+      <c r="P87" t="s">
+        <v>35</v>
+      </c>
+      <c r="R87" t="s">
+        <v>36</v>
+      </c>
+      <c r="T87" t="s">
+        <v>37</v>
+      </c>
+      <c r="U87" t="s">
+        <v>38</v>
+      </c>
+      <c r="V87" t="s">
+        <v>374</v>
+      </c>
+      <c r="W87" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>377</v>
+      </c>
+      <c r="B88" t="s">
+        <v>378</v>
+      </c>
+      <c r="G88">
+        <v>372900043349</v>
+      </c>
+      <c r="H88">
+        <v>372900043349</v>
+      </c>
+      <c r="J88" t="s">
+        <v>379</v>
+      </c>
+      <c r="K88" t="s">
+        <v>33</v>
+      </c>
+      <c r="L88" t="s">
+        <v>34</v>
+      </c>
+      <c r="M88" t="s">
+        <v>34</v>
+      </c>
+      <c r="P88" t="s">
+        <v>35</v>
+      </c>
+      <c r="R88" t="s">
+        <v>36</v>
+      </c>
+      <c r="T88" t="s">
+        <v>37</v>
+      </c>
+      <c r="U88" t="s">
+        <v>38</v>
+      </c>
+      <c r="V88" t="s">
+        <v>380</v>
+      </c>
+      <c r="W88" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>382</v>
+      </c>
+      <c r="B89" t="s">
+        <v>383</v>
+      </c>
+      <c r="G89">
+        <v>372900043349</v>
+      </c>
+      <c r="H89">
+        <v>372900043349</v>
+      </c>
+      <c r="J89" t="s">
+        <v>384</v>
+      </c>
+      <c r="K89" t="s">
+        <v>33</v>
+      </c>
+      <c r="L89" t="s">
+        <v>34</v>
+      </c>
+      <c r="M89" t="s">
+        <v>34</v>
+      </c>
+      <c r="P89" t="s">
+        <v>35</v>
+      </c>
+      <c r="R89" t="s">
+        <v>36</v>
+      </c>
+      <c r="T89" t="s">
+        <v>37</v>
+      </c>
+      <c r="U89" t="s">
+        <v>38</v>
+      </c>
+      <c r="V89" t="s">
+        <v>385</v>
+      </c>
+      <c r="W89" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>387</v>
+      </c>
+      <c r="B90" t="s">
+        <v>383</v>
+      </c>
+      <c r="G90">
+        <v>372900043349</v>
+      </c>
+      <c r="H90">
+        <v>372900043349</v>
+      </c>
+      <c r="J90" t="s">
+        <v>384</v>
+      </c>
+      <c r="K90" t="s">
+        <v>33</v>
+      </c>
+      <c r="L90" t="s">
+        <v>34</v>
+      </c>
+      <c r="M90" t="s">
+        <v>34</v>
+      </c>
+      <c r="P90" t="s">
+        <v>35</v>
+      </c>
+      <c r="R90" t="s">
+        <v>36</v>
+      </c>
+      <c r="T90" t="s">
+        <v>37</v>
+      </c>
+      <c r="U90" t="s">
+        <v>38</v>
+      </c>
+      <c r="V90" t="s">
+        <v>385</v>
+      </c>
+      <c r="W90" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>388</v>
+      </c>
+      <c r="B91" t="s">
+        <v>389</v>
+      </c>
+      <c r="G91">
+        <v>372900043349</v>
+      </c>
+      <c r="H91">
+        <v>372900043349</v>
+      </c>
+      <c r="J91" t="s">
+        <v>390</v>
+      </c>
+      <c r="K91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L91" t="s">
+        <v>34</v>
+      </c>
+      <c r="M91" t="s">
+        <v>34</v>
+      </c>
+      <c r="P91" t="s">
+        <v>35</v>
+      </c>
+      <c r="R91" t="s">
+        <v>36</v>
+      </c>
+      <c r="T91" t="s">
+        <v>37</v>
+      </c>
+      <c r="U91" t="s">
+        <v>38</v>
+      </c>
+      <c r="V91" t="s">
+        <v>391</v>
+      </c>
+      <c r="W91" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>393</v>
+      </c>
+      <c r="B92" t="s">
+        <v>394</v>
+      </c>
+      <c r="G92">
+        <v>372900043349</v>
+      </c>
+      <c r="H92">
+        <v>372900043349</v>
+      </c>
+      <c r="J92" t="s">
+        <v>395</v>
+      </c>
+      <c r="K92" t="s">
+        <v>33</v>
+      </c>
+      <c r="L92" t="s">
+        <v>34</v>
+      </c>
+      <c r="M92" t="s">
+        <v>34</v>
+      </c>
+      <c r="P92" t="s">
+        <v>35</v>
+      </c>
+      <c r="R92" t="s">
+        <v>36</v>
+      </c>
+      <c r="T92" t="s">
+        <v>37</v>
+      </c>
+      <c r="U92" t="s">
+        <v>38</v>
+      </c>
+      <c r="V92" t="s">
+        <v>396</v>
+      </c>
+      <c r="W92" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>398</v>
+      </c>
+      <c r="B93" t="s">
+        <v>394</v>
+      </c>
+      <c r="G93">
+        <v>372900043349</v>
+      </c>
+      <c r="H93">
+        <v>372900043349</v>
+      </c>
+      <c r="J93" t="s">
+        <v>395</v>
+      </c>
+      <c r="K93" t="s">
+        <v>33</v>
+      </c>
+      <c r="L93" t="s">
+        <v>34</v>
+      </c>
+      <c r="M93" t="s">
+        <v>34</v>
+      </c>
+      <c r="P93" t="s">
+        <v>35</v>
+      </c>
+      <c r="R93" t="s">
+        <v>36</v>
+      </c>
+      <c r="T93" t="s">
+        <v>37</v>
+      </c>
+      <c r="U93" t="s">
+        <v>38</v>
+      </c>
+      <c r="V93" t="s">
+        <v>396</v>
+      </c>
+      <c r="W93" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>399</v>
+      </c>
+      <c r="B94" t="s">
+        <v>400</v>
+      </c>
+      <c r="G94">
+        <v>372900043349</v>
+      </c>
+      <c r="H94">
+        <v>372900043349</v>
+      </c>
+      <c r="J94" t="s">
+        <v>401</v>
+      </c>
+      <c r="K94" t="s">
+        <v>33</v>
+      </c>
+      <c r="L94" t="s">
+        <v>34</v>
+      </c>
+      <c r="M94" t="s">
+        <v>34</v>
+      </c>
+      <c r="P94" t="s">
+        <v>35</v>
+      </c>
+      <c r="R94" t="s">
+        <v>36</v>
+      </c>
+      <c r="T94" t="s">
+        <v>37</v>
+      </c>
+      <c r="U94" t="s">
+        <v>38</v>
+      </c>
+      <c r="V94" t="s">
+        <v>402</v>
+      </c>
+      <c r="W94" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>404</v>
+      </c>
+      <c r="B95" t="s">
+        <v>405</v>
+      </c>
+      <c r="G95">
+        <v>372900043349</v>
+      </c>
+      <c r="H95">
+        <v>372900043349</v>
+      </c>
+      <c r="J95" t="s">
+        <v>406</v>
+      </c>
+      <c r="K95" t="s">
+        <v>33</v>
+      </c>
+      <c r="L95" t="s">
+        <v>34</v>
+      </c>
+      <c r="M95" t="s">
+        <v>34</v>
+      </c>
+      <c r="P95" t="s">
+        <v>35</v>
+      </c>
+      <c r="R95" t="s">
+        <v>36</v>
+      </c>
+      <c r="T95" t="s">
+        <v>37</v>
+      </c>
+      <c r="U95" t="s">
+        <v>38</v>
+      </c>
+      <c r="V95" t="s">
+        <v>407</v>
+      </c>
+      <c r="W95" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>409</v>
+      </c>
+      <c r="B96" t="s">
+        <v>405</v>
+      </c>
+      <c r="G96">
+        <v>372900043349</v>
+      </c>
+      <c r="H96">
+        <v>372900043349</v>
+      </c>
+      <c r="J96" t="s">
+        <v>406</v>
+      </c>
+      <c r="K96" t="s">
+        <v>33</v>
+      </c>
+      <c r="L96" t="s">
+        <v>34</v>
+      </c>
+      <c r="M96" t="s">
+        <v>34</v>
+      </c>
+      <c r="P96" t="s">
+        <v>35</v>
+      </c>
+      <c r="R96" t="s">
+        <v>36</v>
+      </c>
+      <c r="T96" t="s">
+        <v>37</v>
+      </c>
+      <c r="U96" t="s">
+        <v>38</v>
+      </c>
+      <c r="V96" t="s">
+        <v>407</v>
+      </c>
+      <c r="W96" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>410</v>
+      </c>
+      <c r="B97" t="s">
+        <v>405</v>
+      </c>
+      <c r="G97">
+        <v>372900043349</v>
+      </c>
+      <c r="H97">
+        <v>372900043349</v>
+      </c>
+      <c r="J97" t="s">
+        <v>406</v>
+      </c>
+      <c r="K97" t="s">
+        <v>33</v>
+      </c>
+      <c r="L97" t="s">
+        <v>34</v>
+      </c>
+      <c r="M97" t="s">
+        <v>34</v>
+      </c>
+      <c r="P97" t="s">
+        <v>35</v>
+      </c>
+      <c r="R97" t="s">
+        <v>36</v>
+      </c>
+      <c r="T97" t="s">
+        <v>37</v>
+      </c>
+      <c r="U97" t="s">
+        <v>38</v>
+      </c>
+      <c r="V97" t="s">
+        <v>407</v>
+      </c>
+      <c r="W97" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>411</v>
+      </c>
+      <c r="B98" t="s">
+        <v>412</v>
+      </c>
+      <c r="G98">
+        <v>372900043349</v>
+      </c>
+      <c r="H98">
+        <v>372900043349</v>
+      </c>
+      <c r="J98" t="s">
+        <v>413</v>
+      </c>
+      <c r="K98" t="s">
+        <v>33</v>
+      </c>
+      <c r="L98" t="s">
+        <v>34</v>
+      </c>
+      <c r="M98" t="s">
+        <v>34</v>
+      </c>
+      <c r="P98" t="s">
+        <v>35</v>
+      </c>
+      <c r="R98" t="s">
+        <v>36</v>
+      </c>
+      <c r="T98" t="s">
+        <v>37</v>
+      </c>
+      <c r="U98" t="s">
+        <v>38</v>
+      </c>
+      <c r="V98" t="s">
+        <v>414</v>
+      </c>
+      <c r="W98" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>415</v>
+      </c>
+      <c r="B99" t="s">
+        <v>416</v>
+      </c>
+      <c r="G99">
+        <v>372900043349</v>
+      </c>
+      <c r="H99">
+        <v>372900043349</v>
+      </c>
+      <c r="J99" t="s">
+        <v>417</v>
+      </c>
+      <c r="K99" t="s">
+        <v>33</v>
+      </c>
+      <c r="L99" t="s">
+        <v>34</v>
+      </c>
+      <c r="M99" t="s">
+        <v>34</v>
+      </c>
+      <c r="P99" t="s">
+        <v>35</v>
+      </c>
+      <c r="R99" t="s">
+        <v>36</v>
+      </c>
+      <c r="T99" t="s">
+        <v>37</v>
+      </c>
+      <c r="U99" t="s">
+        <v>38</v>
+      </c>
+      <c r="V99" t="s">
+        <v>418</v>
+      </c>
+      <c r="W99" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>420</v>
+      </c>
+      <c r="B100" t="s">
+        <v>421</v>
+      </c>
+      <c r="G100">
+        <v>372900043349</v>
+      </c>
+      <c r="H100">
+        <v>372900043349</v>
+      </c>
+      <c r="J100" t="s">
+        <v>422</v>
+      </c>
+      <c r="K100" t="s">
+        <v>33</v>
+      </c>
+      <c r="L100" t="s">
+        <v>34</v>
+      </c>
+      <c r="M100" t="s">
+        <v>34</v>
+      </c>
+      <c r="P100" t="s">
+        <v>35</v>
+      </c>
+      <c r="R100" t="s">
+        <v>36</v>
+      </c>
+      <c r="T100" t="s">
+        <v>37</v>
+      </c>
+      <c r="U100" t="s">
+        <v>38</v>
+      </c>
+      <c r="V100" t="s">
+        <v>423</v>
+      </c>
+      <c r="W100" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>425</v>
+      </c>
+      <c r="B101" t="s">
+        <v>426</v>
+      </c>
+      <c r="G101">
+        <v>372900043349</v>
+      </c>
+      <c r="H101">
+        <v>372900043349</v>
+      </c>
+      <c r="J101" t="s">
+        <v>427</v>
+      </c>
+      <c r="K101" t="s">
+        <v>33</v>
+      </c>
+      <c r="L101" t="s">
+        <v>34</v>
+      </c>
+      <c r="M101" t="s">
+        <v>34</v>
+      </c>
+      <c r="P101" t="s">
+        <v>35</v>
+      </c>
+      <c r="R101" t="s">
+        <v>36</v>
+      </c>
+      <c r="T101" t="s">
+        <v>37</v>
+      </c>
+      <c r="U101" t="s">
+        <v>38</v>
+      </c>
+      <c r="V101" t="s">
+        <v>428</v>
+      </c>
+      <c r="W101" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>430</v>
+      </c>
+      <c r="B102" t="s">
+        <v>431</v>
+      </c>
+      <c r="G102">
+        <v>372900043349</v>
+      </c>
+      <c r="H102">
+        <v>372900043349</v>
+      </c>
+      <c r="J102" t="s">
+        <v>432</v>
+      </c>
+      <c r="K102" t="s">
+        <v>33</v>
+      </c>
+      <c r="L102" t="s">
+        <v>34</v>
+      </c>
+      <c r="M102" t="s">
+        <v>34</v>
+      </c>
+      <c r="P102" t="s">
+        <v>35</v>
+      </c>
+      <c r="R102" t="s">
+        <v>36</v>
+      </c>
+      <c r="T102" t="s">
+        <v>37</v>
+      </c>
+      <c r="U102" t="s">
+        <v>38</v>
+      </c>
+      <c r="V102" t="s">
+        <v>433</v>
+      </c>
+      <c r="W102" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>435</v>
+      </c>
+      <c r="B103" t="s">
+        <v>431</v>
+      </c>
+      <c r="G103">
+        <v>372900043349</v>
+      </c>
+      <c r="H103">
+        <v>372900043349</v>
+      </c>
+      <c r="J103" t="s">
+        <v>432</v>
+      </c>
+      <c r="K103" t="s">
+        <v>33</v>
+      </c>
+      <c r="L103" t="s">
+        <v>34</v>
+      </c>
+      <c r="M103" t="s">
+        <v>34</v>
+      </c>
+      <c r="P103" t="s">
+        <v>35</v>
+      </c>
+      <c r="R103" t="s">
+        <v>36</v>
+      </c>
+      <c r="T103" t="s">
+        <v>37</v>
+      </c>
+      <c r="U103" t="s">
+        <v>38</v>
+      </c>
+      <c r="V103" t="s">
+        <v>433</v>
+      </c>
+      <c r="W103" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>436</v>
+      </c>
+      <c r="B104" t="s">
+        <v>437</v>
+      </c>
+      <c r="G104">
+        <v>372900043349</v>
+      </c>
+      <c r="H104">
+        <v>372900043349</v>
+      </c>
+      <c r="J104" t="s">
+        <v>438</v>
+      </c>
+      <c r="K104" t="s">
+        <v>33</v>
+      </c>
+      <c r="L104" t="s">
+        <v>34</v>
+      </c>
+      <c r="M104" t="s">
+        <v>34</v>
+      </c>
+      <c r="P104" t="s">
+        <v>35</v>
+      </c>
+      <c r="R104" t="s">
+        <v>36</v>
+      </c>
+      <c r="T104" t="s">
+        <v>37</v>
+      </c>
+      <c r="U104" t="s">
+        <v>38</v>
+      </c>
+      <c r="V104" t="s">
+        <v>439</v>
+      </c>
+      <c r="W104" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>441</v>
+      </c>
+      <c r="B105" t="s">
+        <v>442</v>
+      </c>
+      <c r="G105">
+        <v>372900043349</v>
+      </c>
+      <c r="H105">
+        <v>372900043349</v>
+      </c>
+      <c r="J105" t="s">
+        <v>443</v>
+      </c>
+      <c r="K105" t="s">
+        <v>33</v>
+      </c>
+      <c r="L105" t="s">
+        <v>34</v>
+      </c>
+      <c r="M105" t="s">
+        <v>34</v>
+      </c>
+      <c r="P105" t="s">
+        <v>35</v>
+      </c>
+      <c r="R105" t="s">
+        <v>36</v>
+      </c>
+      <c r="T105" t="s">
+        <v>37</v>
+      </c>
+      <c r="U105" t="s">
+        <v>38</v>
+      </c>
+      <c r="V105" t="s">
+        <v>444</v>
+      </c>
+      <c r="W105" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/public/inputinsale/marks.xlsx
+++ b/public/inputinsale/marks.xlsx
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="197">
-  <si>
-    <t>Filter(participantInn=372900043349, productGroup=LP, packageType=[UNIT], status=APPLIED, includeGtin=[], excludeGtin=[], appliedPeriod=null, emissionPeriod=Period(start=2023-08-09T21:00:00Z, end=2023-08-10T20:59:59Z), productionPeriod=null)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="582">
+  <si>
+    <t>Filter(participantInn=372900043349, productGroup=LP, packageType=[UNIT], status=APPLIED, includeGtin=[], excludeGtin=[], appliedPeriod=null, emissionPeriod=Period(start=2023-08-10T21:00:00Z, end=2023-08-14T20:59:59Z), productionPeriod=null)</t>
   </si>
   <si>
     <t>requestedCis</t>
@@ -111,304 +111,1207 @@
     <t>aggregationType</t>
   </si>
   <si>
-    <t>0102900255977684215DSO'YcWZFFRx</t>
-  </si>
-  <si>
-    <t>02900255977684</t>
-  </si>
-  <si>
-    <t>Пододеяльник из сатина 220 х 240 - М - 125 - Темно-коричневый</t>
+    <t>0102900259442713215b(PDpUMXA"!J</t>
+  </si>
+  <si>
+    <t>02900259442713</t>
+  </si>
+  <si>
+    <t>ИП ЗОТОВ ВЯЧЕСЛАВ ВАЛЕРЬЕВИЧ</t>
+  </si>
+  <si>
+    <t>APPLIED</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>2023-08-14T17:21:42.779Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T16:15:25.558Z</t>
+  </si>
+  <si>
+    <t>0102900259442713215lndsaOWNGTRV</t>
+  </si>
+  <si>
+    <t>0102900259442683215Qfq0zD'YmH00</t>
+  </si>
+  <si>
+    <t>02900259442683</t>
+  </si>
+  <si>
+    <t>2023-08-14T17:20:42.401Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T16:15:25.347Z</t>
+  </si>
+  <si>
+    <t>0102900259442690215BGNyd3ApP5rK</t>
+  </si>
+  <si>
+    <t>02900259442690</t>
+  </si>
+  <si>
+    <t>2023-08-14T17:21:42.773Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T16:15:25.243Z</t>
+  </si>
+  <si>
+    <t>0102900259442690215dGGunl&lt;FGwmS</t>
+  </si>
+  <si>
+    <t>01029002487930792157-GjupTwJjC"</t>
+  </si>
+  <si>
+    <t>02900248793079</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 220 х 240 - М - 125 - Миндаль 1х1</t>
   </si>
   <si>
     <t>ИВАНОВСКИЙ ТЕКСТИЛЬ</t>
   </si>
   <si>
-    <t>ИП ЗОТОВ ВЯЧЕСЛАВ ВАЛЕРЬЕВИЧ</t>
-  </si>
-  <si>
-    <t>APPLIED</t>
-  </si>
-  <si>
-    <t>REMARK</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>2023-08-10T07:33:45.068Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:32:49.631Z</t>
-  </si>
-  <si>
-    <t>0102900258325840215&gt;IaOrcGFEscu</t>
-  </si>
-  <si>
-    <t>02900258325840</t>
-  </si>
-  <si>
-    <t>Простыня из сатина на резинке 160 х 200 х 40 - М - 125 - Капучино</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:34:59.079Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:18:23.928Z</t>
-  </si>
-  <si>
-    <t>0102900258325833215tG5&lt;CXFqjkGX</t>
-  </si>
-  <si>
-    <t>02900258325833</t>
-  </si>
-  <si>
-    <t>Пододеяльник из сатина 200 х 220 - М - 125 - Капучино</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:34:56.623Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:18:23.634Z</t>
-  </si>
-  <si>
-    <t>01029002458213932158g9kN0fw/ZYP</t>
-  </si>
-  <si>
-    <t>02900245821393</t>
-  </si>
-  <si>
-    <t>Наволочка из сатина 40 х 60 - М - 125 - Капучино</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:34:57.218Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:18:23.603Z</t>
-  </si>
-  <si>
-    <t>0102900245821393215em)=lP!8EZSl</t>
-  </si>
-  <si>
-    <t>0102900258325826215JAuY7ye&amp;PW&gt;;</t>
-  </si>
-  <si>
-    <t>02900258325826</t>
-  </si>
-  <si>
-    <t>Постельное белье тенсель семейное на резинке 160х200х30 - М - 60S 44 Морской</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:34:55.459Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:18:23.315Z</t>
-  </si>
-  <si>
-    <t>0102900253178953215TF*GocnHbHRI</t>
-  </si>
-  <si>
-    <t>02900253178953</t>
-  </si>
-  <si>
-    <t>Постельное бельё из страйп-сатина Евро - М - 135 - Небесный 0,5х0,5 с наволочками 50х70</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:34:56.258Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:18:22.822Z</t>
-  </si>
-  <si>
-    <t>0102900258325819215MESbd'j+?b%6</t>
-  </si>
-  <si>
-    <t>02900258325819</t>
-  </si>
-  <si>
-    <t>Постельное белье тенсель 1,5 спальное - М - 60S 371 Черный с наволочками 50х70</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:34:56.055Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:18:22.739Z</t>
-  </si>
-  <si>
-    <t>0102900242794140215NHqL6f&lt;MRSjg</t>
-  </si>
-  <si>
-    <t>02900242794140</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 140 - Голубой 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:32:54.061Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:35:33.596Z</t>
-  </si>
-  <si>
-    <t>0102900100188593215e9LtYcK"wCDy</t>
-  </si>
-  <si>
-    <t>02900100188593</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп-сатина 50 х 70 - М - 140 - Золото заката 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:32:54.059Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:35:33.563Z</t>
-  </si>
-  <si>
-    <t>0102900258325437215W/LpIvzOrh2D</t>
-  </si>
-  <si>
-    <t>02900258325437</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 150 х 220 - М - 135 - Виноград 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:31:53.616Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:35:33.379Z</t>
-  </si>
-  <si>
-    <t>0102900255037500215E(,Fi&gt;kT5,DB</t>
-  </si>
-  <si>
-    <t>02900255037500</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 280 х 280 - М - 135 - Белая 3х3</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:32:54.067Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:35:33.207Z</t>
-  </si>
-  <si>
-    <t>0102900125739817215DKkAjYmGJT/;</t>
-  </si>
-  <si>
-    <t>02900125739817</t>
-  </si>
-  <si>
-    <t>Наволочка из варёного хлопка 50 х 70 - М - 181222 Коричневый</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:32:54.043Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:35:33.168Z</t>
-  </si>
-  <si>
-    <t>0102900258325420215T&amp;hdSi2steXr</t>
-  </si>
-  <si>
-    <t>02900258325420</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 150 х 220 - М - 125 - Шоколад 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:31:53.619Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:35:32.997Z</t>
-  </si>
-  <si>
-    <t>0102900134085578215WJfoiIsYz)TC</t>
-  </si>
-  <si>
-    <t>02900134085578</t>
-  </si>
-  <si>
-    <t>Простыня из варёного хлопка 300 х 300 - М - 181222 Коричневый</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:32:53.712Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:35:32.665Z</t>
-  </si>
-  <si>
-    <t>0102900258325413215Pn_:W)Nq8LcD</t>
-  </si>
-  <si>
-    <t>02900258325413</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 150 х 220 - М - 125 - Крем 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:31:53.457Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:35:32.562Z</t>
-  </si>
-  <si>
-    <t>0102900080724972215X1QxAeJhP4Gi</t>
-  </si>
-  <si>
-    <t>02900080724972</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 280 х 280 - М - 125 - Графит 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:32:53.464Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:35:32.338Z</t>
-  </si>
-  <si>
-    <t>0102900080724972215oYQG"FIvI_-m</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:32:53.463Z</t>
-  </si>
-  <si>
-    <t>0102900079653863215i!QlQ=7LHvQQ</t>
-  </si>
-  <si>
-    <t>02900079653863</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 300 х 300 - М - 125 - Белый 3х3</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:32:54.108Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:35:32.256Z</t>
-  </si>
-  <si>
-    <t>0102900258245193215nj.XFRSGChl_</t>
-  </si>
-  <si>
-    <t>02900258245193</t>
-  </si>
-  <si>
-    <t>Простыня из сатина на резинке 140 х 200 х 20 - М - 125 - Персик</t>
-  </si>
-  <si>
-    <t>2023-08-10T06:31:53.602Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:35:32.085Z</t>
-  </si>
-  <si>
-    <t>0102900112754120215SV&lt;cl.B?C4i1</t>
+    <t>2023-08-14T17:19:41.852Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:20:38.574Z</t>
+  </si>
+  <si>
+    <t>0102900248793079215G2FjQKaEZOJS</t>
+  </si>
+  <si>
+    <t>0102900248793079215iXXE_J/es=oW</t>
+  </si>
+  <si>
+    <t>0102900248793079215r"rH!2nV+Po:</t>
+  </si>
+  <si>
+    <t>0102900076416416215vP-IIFsDdd8:</t>
+  </si>
+  <si>
+    <t>02900076416416</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4247 Сирень</t>
+  </si>
+  <si>
+    <t>2023-08-14T17:19:41.793Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:20:37.979Z</t>
+  </si>
+  <si>
+    <t>01029000762343002155'BJi8BgUJGF</t>
+  </si>
+  <si>
+    <t>02900076234300</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 240 х 260 - М - 125 - Бирюза 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-14T17:19:41.648Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:20:35.014Z</t>
+  </si>
+  <si>
+    <t>0102900249470078215THoQOa0&amp;imwf</t>
+  </si>
+  <si>
+    <t>02900249470078</t>
+  </si>
+  <si>
+    <t>Постельное белье варёный хлопок Евро Макси - М - 221 Бежевый</t>
+  </si>
+  <si>
+    <t>2023-08-14T17:19:41.572Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:20:34.936Z</t>
+  </si>
+  <si>
+    <t>0102900077197437215YEyguQRsM:sB</t>
+  </si>
+  <si>
+    <t>02900077197437</t>
+  </si>
+  <si>
+    <t>Постельное бельё из сатин жаккарда Евро макси - М - Жемчуг</t>
+  </si>
+  <si>
+    <t>2023-08-14T17:13:41.184Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:20:34.737Z</t>
+  </si>
+  <si>
+    <t>0102900236620790215j/dcNJzP!VhE</t>
+  </si>
+  <si>
+    <t>02900236620790</t>
+  </si>
+  <si>
+    <t>Простыня непромокаемая на резинке 160 х 200 х 10 - М - Мулетон Полиэстер</t>
+  </si>
+  <si>
+    <t>2023-08-14T17:12:41.092Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:20:34.521Z</t>
+  </si>
+  <si>
+    <t>0102900076983505215fQep&gt;bkf,jkL</t>
+  </si>
+  <si>
+    <t>02900076983505</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 160х200х30 - М - 60S 18 Розовый йогурт</t>
+  </si>
+  <si>
+    <t>2023-08-14T17:12:41.219Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:20:34.325Z</t>
+  </si>
+  <si>
+    <t>0102900077307041215*mBfR"LQR9X8</t>
+  </si>
+  <si>
+    <t>02900077307041</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 103 Пудровый</t>
+  </si>
+  <si>
+    <t>2023-08-14T17:11:40.653Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:20:34.303Z</t>
+  </si>
+  <si>
+    <t>0102900077307041215Bo&lt;U&gt;lreJT%z</t>
+  </si>
+  <si>
+    <t>0102900077307041215eE8-p1V=nsPm</t>
+  </si>
+  <si>
+    <t>0102900259391424215LsGBkkNKsUa!</t>
+  </si>
+  <si>
+    <t>02900259391424</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:20:31.807Z</t>
+  </si>
+  <si>
+    <t>0102900259391417215jiQPHYqs,PjN</t>
+  </si>
+  <si>
+    <t>02900259391417</t>
+  </si>
+  <si>
+    <t>2023-08-14T17:20:42.283Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:20:31.740Z</t>
+  </si>
+  <si>
+    <t>0102900259391400215,sZwdRjXNt=l</t>
+  </si>
+  <si>
+    <t>02900259391400</t>
+  </si>
+  <si>
+    <t>2023-08-14T17:20:42.158Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:20:31.427Z</t>
+  </si>
+  <si>
+    <t>0102900259391400215eGKWW6t*PJhW</t>
+  </si>
+  <si>
+    <t>0102900259391394215Z0EXH3G/kPMn</t>
+  </si>
+  <si>
+    <t>02900259391394</t>
+  </si>
+  <si>
+    <t>2023-08-14T17:20:41.776Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:20:31.406Z</t>
+  </si>
+  <si>
+    <t>0102900259391387215Oia5==rLfBMG</t>
+  </si>
+  <si>
+    <t>02900259391387</t>
+  </si>
+  <si>
+    <t>2023-08-14T17:20:41.662Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:20:30.899Z</t>
+  </si>
+  <si>
+    <t>0102900237820694215nb-p8FEiJpr+</t>
+  </si>
+  <si>
+    <t>02900237820694</t>
+  </si>
+  <si>
+    <t>Матрас ватный тик с бортом 110 х 190 - СИН - Вата белая</t>
+  </si>
+  <si>
+    <t>2023-08-14T17:11:40.408Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:20:30.853Z</t>
+  </si>
+  <si>
+    <t>0102900237884887215CrWHDq(xkl,k</t>
+  </si>
+  <si>
+    <t>02900237884887</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 160х200х20 - М - 323 Серый</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:14:19.952Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:43:07.156Z</t>
+  </si>
+  <si>
+    <t>0102900256939483215ZJliYUVae)m0</t>
+  </si>
+  <si>
+    <t>02900256939483</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 145 х 215 - М - 323 Серый</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:14:19.141Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:43:07.044Z</t>
+  </si>
+  <si>
+    <t>0102900077751646215ZalVGG-LOpuU</t>
+  </si>
+  <si>
+    <t>02900077751646</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 180 х 200 х 30 - М - 135 - Белая 3х3</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:14:20.256Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:43:07.041Z</t>
+  </si>
+  <si>
+    <t>01029001271276122153muezPkVgjeW</t>
+  </si>
+  <si>
+    <t>02900127127612</t>
+  </si>
+  <si>
+    <t>Простыня круглая из страйп-сатина на резинке 230 х 230 х 30 - М - 135 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:13:18.562Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:43:06.828Z</t>
+  </si>
+  <si>
+    <t>0102900079419261215tTKvnbGyi7qb</t>
+  </si>
+  <si>
+    <t>02900079419261</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50 х 70 - М - 323 Серый</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:14:20.352Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:43:06.207Z</t>
+  </si>
+  <si>
+    <t>0102900079419261215vD2,bSDYnh32</t>
+  </si>
+  <si>
+    <t>0102900074694922215&lt;Ak?Q+T/n(UF</t>
+  </si>
+  <si>
+    <t>02900074694922</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200 х 220 - М - 125 - Фисташка 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:13:18.428Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:43:05.429Z</t>
+  </si>
+  <si>
+    <t>0102900074694922215E:oc-0lmNaRm</t>
+  </si>
+  <si>
+    <t>0102900259389162215&amp;VmntTi'TXnn</t>
+  </si>
+  <si>
+    <t>02900259389162</t>
+  </si>
+  <si>
+    <t>2023-08-14T13:14:19.142Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:43:05.393Z</t>
+  </si>
+  <si>
+    <t>0102900076437374215SOeFFEBIHnl1</t>
+  </si>
+  <si>
+    <t>02900076437374</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 140х200х30 - М - 60S 103 Пудровый</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:38:57.963Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:23:29.985Z</t>
+  </si>
+  <si>
+    <t>0102900080393192215_oueuidojBS&lt;</t>
+  </si>
+  <si>
+    <t>02900080393192</t>
+  </si>
+  <si>
+    <t>Простыня непромокаемая 200 х 220 - М - Мулетон Полиэстер</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:38:57.856Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:23:29.069Z</t>
+  </si>
+  <si>
+    <t>0102900259132652215aT8aHbaf)DP;</t>
+  </si>
+  <si>
+    <t>02900259132652</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:36:58.554Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:33:01.060Z</t>
+  </si>
+  <si>
+    <t>01029002591326382154:oQQMpEsQBJ</t>
+  </si>
+  <si>
+    <t>02900259132638</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:36:58.557Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:33:00.795Z</t>
+  </si>
+  <si>
+    <t>0102900259132591215urbpUFLzQ?A4</t>
+  </si>
+  <si>
+    <t>02900259132591</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:35:57.521Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:33:00.576Z</t>
+  </si>
+  <si>
+    <t>0102900259132614215ZvDRhZLw5EXO</t>
+  </si>
+  <si>
+    <t>02900259132614</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:33:00.563Z</t>
+  </si>
+  <si>
+    <t>0102900259132577215aVKrRueEVFi,</t>
+  </si>
+  <si>
+    <t>02900259132577</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:35:57.264Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:33:00.334Z</t>
+  </si>
+  <si>
+    <t>0102900259132546215)YNXh;dLqCPP</t>
+  </si>
+  <si>
+    <t>02900259132546</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:35:57.520Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:32:59.793Z</t>
+  </si>
+  <si>
+    <t>0102900084701238215CZ)U+!d&lt;uAS1</t>
+  </si>
+  <si>
+    <t>02900084701238</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - 60S 4384 Пыльная роза</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:35:57.265Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:32:59.398Z</t>
+  </si>
+  <si>
+    <t>0102900246758612215EUqQpol6mBD8</t>
+  </si>
+  <si>
+    <t>02900246758612</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 60 х 60 - М - 60S 4216 Серебро</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:35:56.986Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:32:59.194Z</t>
+  </si>
+  <si>
+    <t>0102900255122923215tD-3S";JZb_I</t>
+  </si>
+  <si>
+    <t>02900255122923</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 180 х 220 - М - 125 - Серый</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:35:56.892Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:32:58.737Z</t>
+  </si>
+  <si>
+    <t>0102900177442512215%LdB'8BAf6uv</t>
+  </si>
+  <si>
+    <t>02900177442512</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 60 х 60 - М - 5609 Светло-серый</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:34:56.815Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:32:58.254Z</t>
+  </si>
+  <si>
+    <t>0102900177442512215W61kkbxo:iuD</t>
+  </si>
+  <si>
+    <t>0102900256089508215qe5HRvkQFYLm</t>
+  </si>
+  <si>
+    <t>02900256089508</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 40 - М - 60S 38 Сиренево-розовый</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:34:56.763Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:32:57.944Z</t>
+  </si>
+  <si>
+    <t>0102900077516030215IOeOq&gt;e?pQQL</t>
+  </si>
+  <si>
+    <t>02900077516030</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - 60S 27 Бирюзовый берег</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:34:56.657Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:32:54.598Z</t>
+  </si>
+  <si>
+    <t>0102900240356708215o;m&gt;&amp;xH/Rrxl</t>
+  </si>
+  <si>
+    <t>02900240356708</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 80х200х40 - М - 60S 4236 Медный</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:34:56.260Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:32:54.380Z</t>
+  </si>
+  <si>
+    <t>0102900112009237215n.T2KTE1-jF%</t>
+  </si>
+  <si>
+    <t>02900112009237</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - 60S 4302 Зеленая</t>
+  </si>
+  <si>
+    <t>2023-08-14T12:34:56.164Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:32:54.173Z</t>
+  </si>
+  <si>
+    <t>01029002591210522152:jTTEH&gt;;NEt</t>
+  </si>
+  <si>
+    <t>02900259121052</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:31:40.255Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:51:02.575Z</t>
+  </si>
+  <si>
+    <t>0102900079758803215wNFROE!sJt2i</t>
+  </si>
+  <si>
+    <t>02900079758803</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 240 х 260 - М - 60S 4216 Серебро</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:31:39.963Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:51:02.277Z</t>
+  </si>
+  <si>
+    <t>0102900259121069215YkVB&lt;sH:Sgd:</t>
+  </si>
+  <si>
+    <t>02900259121069</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:31:40.175Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:50:55.376Z</t>
+  </si>
+  <si>
+    <t>0102900081979203215LLtf6Thr'5-X</t>
+  </si>
+  <si>
+    <t>02900081979203</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4230 Молочный шоколад</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:31:40.223Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:50:55.167Z</t>
+  </si>
+  <si>
+    <t>0102900081979203215No&amp;sJgKpET,D</t>
+  </si>
+  <si>
+    <t>0102900259121076215pFXFBX!6-N6,</t>
+  </si>
+  <si>
+    <t>02900259121076</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:31:39.762Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:50:54.563Z</t>
+  </si>
+  <si>
+    <t>0102900259083626215Vda3&gt;eiCllDc</t>
+  </si>
+  <si>
+    <t>02900259083626</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:28:36.507Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:18.495Z</t>
+  </si>
+  <si>
+    <t>0102900259083411215O)eW-ftbWjY+</t>
+  </si>
+  <si>
+    <t>02900259083411</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:26:34.076Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:18.282Z</t>
+  </si>
+  <si>
+    <t>0102900259083602215_GeQKt8QGrDP</t>
+  </si>
+  <si>
+    <t>02900259083602</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:28:36.738Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:18.203Z</t>
+  </si>
+  <si>
+    <t>0102900259083398215vjuI/a6q'C4g</t>
+  </si>
+  <si>
+    <t>02900259083398</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:25:33.866Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:17.995Z</t>
+  </si>
+  <si>
+    <t>0102900259083589215haVMmb&gt;oEom-</t>
+  </si>
+  <si>
+    <t>02900259083589</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:28:36.742Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:17.840Z</t>
+  </si>
+  <si>
+    <t>01029002590835652159=LR7wUm59b;</t>
+  </si>
+  <si>
+    <t>02900259083565</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:28:35.987Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:17.788Z</t>
+  </si>
+  <si>
+    <t>0102900259083374215iCR+ObRGEN(U</t>
+  </si>
+  <si>
+    <t>02900259083374</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:25:33.906Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:17.783Z</t>
+  </si>
+  <si>
+    <t>01029002590833362154C0jNKHgN?hd</t>
+  </si>
+  <si>
+    <t>02900259083336</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:25:33.872Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:17.542Z</t>
+  </si>
+  <si>
+    <t>0102900259083350215P6lVucjn!Zsf</t>
+  </si>
+  <si>
+    <t>02900259083350</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:25:33.978Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:17.428Z</t>
+  </si>
+  <si>
+    <t>0102900259083541215NrOU8IZq=JpH</t>
+  </si>
+  <si>
+    <t>02900259083541</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:27:37.322Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:17.423Z</t>
+  </si>
+  <si>
+    <t>0102900259083527215U8njeZ2cpoNW</t>
+  </si>
+  <si>
+    <t>02900259083527</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:27:37.313Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:17.357Z</t>
+  </si>
+  <si>
+    <t>0102900259083503215dmkllJ6/jKhf</t>
+  </si>
+  <si>
+    <t>02900259083503</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:27:37.317Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:17.047Z</t>
+  </si>
+  <si>
+    <t>0102900259083312215TaepLW)MEQSZ</t>
+  </si>
+  <si>
+    <t>02900259083312</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:25:33.865Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:16.920Z</t>
+  </si>
+  <si>
+    <t>0102900259083299215RGnfB0&amp;yE'Eo</t>
+  </si>
+  <si>
+    <t>02900259083299</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:16.913Z</t>
+  </si>
+  <si>
+    <t>01029002590834802158&gt;isVb.cE:go</t>
+  </si>
+  <si>
+    <t>02900259083480</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:27:36.473Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:16.729Z</t>
+  </si>
+  <si>
+    <t>0102900259083275215Qg2HPVlmPpTh</t>
+  </si>
+  <si>
+    <t>02900259083275</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:16.568Z</t>
+  </si>
+  <si>
+    <t>0102900259083251215+ila5Mf=6fB?</t>
+  </si>
+  <si>
+    <t>02900259083251</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:25:33.870Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:16.455Z</t>
+  </si>
+  <si>
+    <t>0102900259083237215g=IJ9&lt;Mgt_Dq</t>
+  </si>
+  <si>
+    <t>02900259083237</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:24:33.267Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:16.353Z</t>
+  </si>
+  <si>
+    <t>0102900259083831215JxWlOfofPlEK</t>
+  </si>
+  <si>
+    <t>02900259083831</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:30:39.132Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:15.500Z</t>
+  </si>
+  <si>
+    <t>0102900259083817215SZnr.LXXOCNS</t>
+  </si>
+  <si>
+    <t>02900259083817</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:15.095Z</t>
+  </si>
+  <si>
+    <t>0102900259083794215_3TnLtI2=*PK</t>
+  </si>
+  <si>
+    <t>02900259083794</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:30:38.933Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:14.947Z</t>
+  </si>
+  <si>
+    <t>0102900259083725215_-HkcIk"Ek(b</t>
+  </si>
+  <si>
+    <t>02900259083725</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:30:38.366Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:14.591Z</t>
+  </si>
+  <si>
+    <t>0102900259083770215gdFxclVMZA3W</t>
+  </si>
+  <si>
+    <t>02900259083770</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:30:38.929Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:14.583Z</t>
+  </si>
+  <si>
+    <t>0102900259083756215RnfFVkYju+dx</t>
+  </si>
+  <si>
+    <t>02900259083756</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:30:38.934Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:14.546Z</t>
+  </si>
+  <si>
+    <t>0102900259083701215oqjD&lt;dLa"oiS</t>
+  </si>
+  <si>
+    <t>02900259083701</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:29:37.210Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:13.868Z</t>
+  </si>
+  <si>
+    <t>0102900259083466215UQYr&lt;FsvN*.!</t>
+  </si>
+  <si>
+    <t>02900259083466</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:13.788Z</t>
+  </si>
+  <si>
+    <t>0102900259083688215cgqEBU9y4=Mp</t>
+  </si>
+  <si>
+    <t>02900259083688</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:29:37Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:13.586Z</t>
+  </si>
+  <si>
+    <t>0102900259083640215)m1WPbugp=e9</t>
+  </si>
+  <si>
+    <t>02900259083640</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:29:36.559Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:13.365Z</t>
+  </si>
+  <si>
+    <t>0102900259083664215JozQBgVDLpmq</t>
+  </si>
+  <si>
+    <t>02900259083664</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:29:36.768Z</t>
+  </si>
+  <si>
+    <t>0102900259083442215TVWM1E99ppH8</t>
+  </si>
+  <si>
+    <t>02900259083442</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:26:34.566Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:13.228Z</t>
+  </si>
+  <si>
+    <t>0102900259083855215qecT5Q:SSiix</t>
+  </si>
+  <si>
+    <t>02900259083855</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:13.110Z</t>
+  </si>
+  <si>
+    <t>0102900098221227215VTc,et2l7L*l</t>
+  </si>
+  <si>
+    <t>02900098221227</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 260 х 260 - М - 60S 18 Насыщенный розовый</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:24:33.661Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:12.649Z</t>
+  </si>
+  <si>
+    <t>0102900257996522215eOCYP,K&amp;KNGU</t>
+  </si>
+  <si>
+    <t>02900257996522</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 240 х 260 - М - 60S 54-020 Розовая лаванда</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:24:33.707Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:12.293Z</t>
+  </si>
+  <si>
+    <t>0102900174333721215okNw=BNjLGt*</t>
+  </si>
+  <si>
+    <t>02900174333721</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 180 х 200 х 30 - М - 125 - Бордо</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:24:33.266Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:11.535Z</t>
+  </si>
+  <si>
+    <t>0102900219022122215RjEGOB)DO4iK</t>
+  </si>
+  <si>
+    <t>02900219022122</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4225 Зелёный лесной</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:24:33.360Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:11.415Z</t>
+  </si>
+  <si>
+    <t>0102900255580105215m=o&amp;cazBfK0o</t>
+  </si>
+  <si>
+    <t>02900255580105</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель 1,5 спальное на резинке 140х200х30 - М - 60S 44 Морской с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:11.043Z</t>
+  </si>
+  <si>
+    <t>0102900076450588215lk8wE2se5_cy</t>
+  </si>
+  <si>
+    <t>02900076450588</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - 60S 129 Темно-зеленый</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:24:33.662Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:10.824Z</t>
+  </si>
+  <si>
+    <t>0102900245821249215+-mLGbaNqT?S</t>
+  </si>
+  <si>
+    <t>02900245821249</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 125 - Шоколад 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:10.656Z</t>
+  </si>
+  <si>
+    <t>0102900241409991215t5UH'.BHUYyC</t>
+  </si>
+  <si>
+    <t>02900241409991</t>
+  </si>
+  <si>
+    <t>Постельное белье варёный хлопок семейное - М - 181222 Коричневый</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:24:33.706Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:10.435Z</t>
+  </si>
+  <si>
+    <t>0102900076259396215ianv;NlF,8ZQ</t>
+  </si>
+  <si>
+    <t>02900076259396</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 135 - Светлая лаванда 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:24:32.971Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:10.191Z</t>
+  </si>
+  <si>
+    <t>0102900254444460215cOyPIH!?nzlU</t>
+  </si>
+  <si>
+    <t>02900254444460</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 135 - Мокрый асфальт 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:24:33.055Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:10.129Z</t>
+  </si>
+  <si>
+    <t>0102900236620417215dZtR8dczcHke</t>
+  </si>
+  <si>
+    <t>02900236620417</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 30 - М - 130 - Белая 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:24:32.576Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:09.786Z</t>
+  </si>
+  <si>
+    <t>0102900236620417215eFx_J!C6*u2D</t>
+  </si>
+  <si>
+    <t>0102900234017912215AfnX!3.VvDO8</t>
+  </si>
+  <si>
+    <t>02900234017912</t>
+  </si>
+  <si>
+    <t>Простыня круглая из страйп-сатина на резинке 220 х 220 х 30 - М - 125 - Черный 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-14T07:24:32.371Z</t>
+  </si>
+  <si>
+    <t>2023-08-14T06:14:09.669Z</t>
+  </si>
+  <si>
+    <t>0102900112754120215htIQ&lt;Q//iW:j</t>
   </si>
   <si>
     <t>02900112754120</t>
@@ -417,199 +1320,451 @@
     <t>Простыня из тенселя на резинке 160х200х30 - М - 60S Белый Страйп 1х1</t>
   </si>
   <si>
-    <t>2023-08-10T06:32:53.718Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:35:31.951Z</t>
-  </si>
-  <si>
-    <t>0102900112009275215id/CKqtu5dWl</t>
-  </si>
-  <si>
-    <t>02900112009275</t>
-  </si>
-  <si>
-    <t>Матрас ватный с бортом 90 х 200 - СИН - Вата трикотажная</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:18:29.695Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:12:34.904Z</t>
-  </si>
-  <si>
-    <t>0102900237820694215FmuWsQFXK9ev</t>
-  </si>
-  <si>
-    <t>02900237820694</t>
-  </si>
-  <si>
-    <t>Матрас ватный тик с бортом 110 х 190 - СИН - Вата белая</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:19:29.974Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:12:32.273Z</t>
-  </si>
-  <si>
-    <t>0102900078158192215&gt;nsjCqmt+6gB</t>
-  </si>
-  <si>
-    <t>02900078158192</t>
-  </si>
-  <si>
-    <t>Пододеяльник из варёного хлопка 145 х 215 - М - Чёрный</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:05:22.585Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:03:05.116Z</t>
-  </si>
-  <si>
-    <t>0102900258325055215_oj&lt;a&gt;hcRpi4</t>
-  </si>
-  <si>
-    <t>02900258325055</t>
-  </si>
-  <si>
-    <t>Простыня из бязи на резинке 120 х 200 х 20 - М - 142 ГОСТ - Белый</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:36:34.374Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:02:00.154Z</t>
-  </si>
-  <si>
-    <t>010290025832504821564w=fZQSqsqv</t>
-  </si>
-  <si>
-    <t>02900258325048</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина на резинке 90 х 200 х 20 - М - 135 - Небесный 0,5х0,5</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:35:34.470Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:01:59.456Z</t>
-  </si>
-  <si>
-    <t>0102900258325062215&gt;WL)EYE5CGEJ</t>
-  </si>
-  <si>
-    <t>02900258325062</t>
-  </si>
-  <si>
-    <t>Постельное белье тенсель 2 спальное на резинке 160х200х30 - М - 60S 4226 Серый с наволочками 50х70</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:36:34.622Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:01:59.171Z</t>
-  </si>
-  <si>
-    <t>0102900219021460215Q_,4bCHjkKcH</t>
-  </si>
-  <si>
-    <t>02900219021460</t>
-  </si>
-  <si>
-    <t>Пододеяльник из бязи 145 х 215 - М - 142 ГОСТ - Серый</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:34:34.023Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:01:58.912Z</t>
-  </si>
-  <si>
-    <t>0102900079419179215gaBAdNa5jiCa</t>
-  </si>
-  <si>
-    <t>02900079419179</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 280 х 280 - М - 125 - Белый 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:34:34.274Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:01:58.385Z</t>
-  </si>
-  <si>
-    <t>0102900079419179215hMqcIDIh=CIU</t>
-  </si>
-  <si>
-    <t>0102900079419179215n9rLorXQu9dk</t>
-  </si>
-  <si>
-    <t>0102900258325024215&amp;S=L'tF%I1RY</t>
-  </si>
-  <si>
-    <t>02900258325024</t>
-  </si>
-  <si>
-    <t>Простыня из сатина 150 х 220 - М - 140 - Белая</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:35:34.207Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:01:58.080Z</t>
-  </si>
-  <si>
-    <t>0102900258325031215=EWK):RiH/Ny</t>
-  </si>
-  <si>
-    <t>02900258325031</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина на резинке 90 х 200 х 30 - М - 135 - Олива 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:35:34.297Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:01:57.875Z</t>
-  </si>
-  <si>
-    <t>0102900258325017215ZpXmBh=PK'_R</t>
-  </si>
-  <si>
-    <t>02900258325017</t>
-  </si>
-  <si>
-    <t>Постельное белье тенсель 1,5 спальное - М - 40S R16-17</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:34:34.214Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:01:57.340Z</t>
-  </si>
-  <si>
-    <t>01029002550374182157WWGnfEnBg2Q</t>
-  </si>
-  <si>
-    <t>02900255037418</t>
-  </si>
-  <si>
-    <t>Пододеяльник из поплина 150 х 200 - М - 1189</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:34:33.866Z</t>
-  </si>
-  <si>
-    <t>2023-08-10T05:01:56.716Z</t>
-  </si>
-  <si>
-    <t>0102900255037418215FAcJIsFZYtX!</t>
+    <t>2023-08-11T16:58:03.266Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:43:06.484Z</t>
+  </si>
+  <si>
+    <t>0102900245393197215iaHfhCe1Mg_L</t>
+  </si>
+  <si>
+    <t>02900245393197</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - 60S Белый Страйп 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:57:03.213Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:43:06.183Z</t>
+  </si>
+  <si>
+    <t>01029002589789782152Qg*_H1G!rM;</t>
+  </si>
+  <si>
+    <t>02900258978978</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 033 Светлая сирень</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:55:03.018Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:43:05.750Z</t>
+  </si>
+  <si>
+    <t>0102900258978978215dAbblK9QJ"VZ</t>
+  </si>
+  <si>
+    <t>0102900080272220215-mJnebVlU.gG</t>
+  </si>
+  <si>
+    <t>02900080272220</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S Белый Страйп 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:52:03.055Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:43:05.668Z</t>
+  </si>
+  <si>
+    <t>0102900080272220215FoU,j(jVeoHH</t>
+  </si>
+  <si>
+    <t>0102900258978961215lJhBNeZpLQOd</t>
+  </si>
+  <si>
+    <t>02900258978961</t>
+  </si>
+  <si>
+    <t>Постельное бельё из твил сатина 1,5 спальное на резинке 90х200х30 - М - 6-50 Апельсинки с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:51:02.859Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:43:05.521Z</t>
+  </si>
+  <si>
+    <t>0102900258955122215;OQb&lt;nb.jDOB</t>
+  </si>
+  <si>
+    <t>02900258955122</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 200 х 220 - М - 125 - Черника</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:32:59.666Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:20:41.866Z</t>
+  </si>
+  <si>
+    <t>0102900258955108215WFNlc+waOoCT</t>
+  </si>
+  <si>
+    <t>02900258955108</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 220 - М - 60S 44 Морской</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:32:59.460Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:20:41.630Z</t>
+  </si>
+  <si>
+    <t>0102900258955115215=1RDiTJijMTu</t>
+  </si>
+  <si>
+    <t>02900258955115</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200 х 220 - М - 140 - Шоколад 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:32:59.162Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:20:41.300Z</t>
+  </si>
+  <si>
+    <t>0102900253954335215XBeQT&lt;DFpQ*W</t>
+  </si>
+  <si>
+    <t>02900253954335</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4234 Морская нимфа</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:31:58.797Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T12:44:14.123Z</t>
+  </si>
+  <si>
+    <t>0102900076983482215eDi)r&amp;mTTfkY</t>
+  </si>
+  <si>
+    <t>02900076983482</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 240 х 260 - М - 120 - Синий</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:31:59.540Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T12:44:14.115Z</t>
+  </si>
+  <si>
+    <t>0102900252776143215jY+Xrfj&lt;OFU(</t>
+  </si>
+  <si>
+    <t>02900252776143</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель семейное на резинке 160х200х30 - М - 60S 54-020 Розовая лаванда</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:31:59.127Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T12:44:13.879Z</t>
+  </si>
+  <si>
+    <t>0102900076409623215gCQaE!-!/Wt3</t>
+  </si>
+  <si>
+    <t>02900076409623</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - Р - М - Черника</t>
+  </si>
+  <si>
+    <t>2023-08-11T16:31:58.940Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T12:44:13.485Z</t>
+  </si>
+  <si>
+    <t>0102900247910019215Y?sIqN6aNi/D</t>
+  </si>
+  <si>
+    <t>02900247910019</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 150 х 200 - М - 181222 Коричневый</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:24:53.487Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:16:47.444Z</t>
+  </si>
+  <si>
+    <t>0102900247910019215cutA:YT='OoO</t>
+  </si>
+  <si>
+    <t>0102900078095350215BBzA&amp;7ZblpvC</t>
+  </si>
+  <si>
+    <t>02900078095350</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 125 - Графит 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:22:52.059Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:16:03.266Z</t>
+  </si>
+  <si>
+    <t>0102900078095350215KR5InhTkpDkt</t>
+  </si>
+  <si>
+    <t>0102900247622257215gRAI*E*S9&lt;FT</t>
+  </si>
+  <si>
+    <t>02900247622257</t>
+  </si>
+  <si>
+    <t>Постельное белье варёный хлопок 1,5 спальное на резинке 140х200х30 - М - 225 Молочный</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:22:51.865Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:16:03.025Z</t>
+  </si>
+  <si>
+    <t>0102900243937898215BT2(lmjB8jl8</t>
+  </si>
+  <si>
+    <t>02900243937898</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 180 х 220 - М - 225 Молочный</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:22:51.804Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:16:02.318Z</t>
+  </si>
+  <si>
+    <t>0102900081979302215FlFl7iNYcfea</t>
+  </si>
+  <si>
+    <t>02900081979302</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 140 - Вулкан 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:23:51.663Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:16:02.307Z</t>
+  </si>
+  <si>
+    <t>0102900082733767215Toyp9ClKE"5_</t>
+  </si>
+  <si>
+    <t>02900082733767</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50 х 70 - М - 225 Молочный</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:22:51.907Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:16:02.300Z</t>
+  </si>
+  <si>
+    <t>0102900082733767215z?hna'F.K8sk</t>
+  </si>
+  <si>
+    <t>0102900258491583215V3:JIfFYG"SQ</t>
+  </si>
+  <si>
+    <t>02900258491583</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 160 х 200 х 20 - М - 140 - Серый Люкс</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:16:50.386Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T05:39:17.882Z</t>
+  </si>
+  <si>
+    <t>0102900258491576215&amp;qYz.lIOSa)0</t>
+  </si>
+  <si>
+    <t>02900258491576</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 80 х 200 х 20 - М - 125 - Персик 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:16:50.162Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T05:39:17.298Z</t>
+  </si>
+  <si>
+    <t>0102900258491569215AVuU4p,UkRl9</t>
+  </si>
+  <si>
+    <t>02900258491569</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 80 х 200 х 20 - М - 125 - Розовый 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:15:50.420Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T05:39:17.074Z</t>
+  </si>
+  <si>
+    <t>0102900258491552215&lt;2TETEzqfvGC</t>
+  </si>
+  <si>
+    <t>02900258491552</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель 2 спальное на резинке 160х200х30 - М - 60S 4229 Коричневый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:15:50.121Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T05:39:16.893Z</t>
+  </si>
+  <si>
+    <t>0102900258491545215K%-HLcZaeWsi</t>
+  </si>
+  <si>
+    <t>02900258491545</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 150 х 200 - М - 221 Бежевый</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:15:50.228Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T05:39:16.690Z</t>
+  </si>
+  <si>
+    <t>0102900241778882215RW-nCq'BiRsz</t>
+  </si>
+  <si>
+    <t>02900241778882</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х200х40 - М - 60S 4373 Пудровый</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:14:50.974Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T05:39:15.364Z</t>
+  </si>
+  <si>
+    <t>0102900255613445215KnDAOdk/TdC/</t>
+  </si>
+  <si>
+    <t>02900255613445</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х200х40 - М - 60S 4292 Кремовый</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:14:50.973Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T05:39:15.037Z</t>
+  </si>
+  <si>
+    <t>0102900240842133215gUmaS?OnvIrM</t>
+  </si>
+  <si>
+    <t>02900240842133</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 300 х 300 - М - 125 - Капучино</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:14:50.975Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T05:39:14.677Z</t>
+  </si>
+  <si>
+    <t>0102900234018018215M-sVi3MbBLg4</t>
+  </si>
+  <si>
+    <t>02900234018018</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель 2 спальное на резинке 160х200х30 - М - 60S 4216 Серебро с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:14:50.979Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T05:39:14.495Z</t>
+  </si>
+  <si>
+    <t>01029002559777072154fWxEh1gZZIk</t>
+  </si>
+  <si>
+    <t>02900255977707</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель 1,5 спальное на резинке 140х200х30 - М - 60S 4216 Серебро с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:13:49.623Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T05:39:13.335Z</t>
+  </si>
+  <si>
+    <t>0102900112754120215kBm+SkyEjQJQ</t>
+  </si>
+  <si>
+    <t>2023-08-11T06:13:49.778Z</t>
+  </si>
+  <si>
+    <t>2023-08-11T05:39:13.330Z</t>
+  </si>
+  <si>
+    <t>0102900258491538215cYLUlMc8YQmH</t>
+  </si>
+  <si>
+    <t>02900258491538</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель 2 спальное на резинке 160х200х30 - М - 60S 4384 Пыльная роза с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-08-11T05:39:12.667Z</t>
   </si>
 </sst>
 </file>
@@ -949,7 +2104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1062,43 +2217,37 @@
       <c r="H3">
         <v>372900043349</v>
       </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" t="s">
         <v>37</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>38</v>
-      </c>
-      <c r="V3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G4">
         <v>372900043349</v>
@@ -1106,43 +2255,37 @@
       <c r="H4">
         <v>372900043349</v>
       </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" t="s">
         <v>37</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>38</v>
-      </c>
-      <c r="V4" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>372900043349</v>
@@ -1150,43 +2293,37 @@
       <c r="H5">
         <v>372900043349</v>
       </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="W5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>372900043349</v>
@@ -1194,43 +2331,37 @@
       <c r="H6">
         <v>372900043349</v>
       </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>372900043349</v>
@@ -1238,43 +2369,37 @@
       <c r="H7">
         <v>372900043349</v>
       </c>
-      <c r="J7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>372900043349</v>
@@ -1283,42 +2408,42 @@
         <v>372900043349</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>372900043349</v>
@@ -1327,42 +2452,42 @@
         <v>372900043349</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V9" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="W9" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>372900043349</v>
@@ -1371,42 +2496,42 @@
         <v>372900043349</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="W10" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>372900043349</v>
@@ -1415,42 +2540,42 @@
         <v>372900043349</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V11" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="W11" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="G12">
         <v>372900043349</v>
@@ -1459,42 +2584,42 @@
         <v>372900043349</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V12" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G13">
         <v>372900043349</v>
@@ -1503,42 +2628,42 @@
         <v>372900043349</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V13" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="W13" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G14">
         <v>372900043349</v>
@@ -1547,42 +2672,42 @@
         <v>372900043349</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V14" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="W14" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G15">
         <v>372900043349</v>
@@ -1591,42 +2716,42 @@
         <v>372900043349</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V15" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G16">
         <v>372900043349</v>
@@ -1635,42 +2760,42 @@
         <v>372900043349</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V16" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G17">
         <v>372900043349</v>
@@ -1679,42 +2804,42 @@
         <v>372900043349</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V17" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="W17" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="G18">
         <v>372900043349</v>
@@ -1723,42 +2848,42 @@
         <v>372900043349</v>
       </c>
       <c r="J18" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V18" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="W18" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G19">
         <v>372900043349</v>
@@ -1767,42 +2892,42 @@
         <v>372900043349</v>
       </c>
       <c r="J19" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V19" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="W19" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G20">
         <v>372900043349</v>
@@ -1811,42 +2936,42 @@
         <v>372900043349</v>
       </c>
       <c r="J20" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V20" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="W20" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="G21">
         <v>372900043349</v>
@@ -1854,43 +2979,37 @@
       <c r="H21">
         <v>372900043349</v>
       </c>
-      <c r="J21" t="s">
-        <v>121</v>
-      </c>
-      <c r="K21" t="s">
-        <v>33</v>
-      </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V21" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="W21" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G22">
         <v>372900043349</v>
@@ -1898,43 +3017,37 @@
       <c r="H22">
         <v>372900043349</v>
       </c>
-      <c r="J22" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" t="s">
-        <v>33</v>
-      </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V22" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="W22" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="G23">
         <v>372900043349</v>
@@ -1942,43 +3055,37 @@
       <c r="H23">
         <v>372900043349</v>
       </c>
-      <c r="J23" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" t="s">
-        <v>33</v>
-      </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V23" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="W23" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="G24">
         <v>372900043349</v>
@@ -1986,43 +3093,37 @@
       <c r="H24">
         <v>372900043349</v>
       </c>
-      <c r="J24" t="s">
-        <v>136</v>
-      </c>
-      <c r="K24" t="s">
-        <v>33</v>
-      </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V24" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="W24" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="G25">
         <v>372900043349</v>
@@ -2030,43 +3131,37 @@
       <c r="H25">
         <v>372900043349</v>
       </c>
-      <c r="J25" t="s">
-        <v>141</v>
-      </c>
-      <c r="K25" t="s">
-        <v>33</v>
-      </c>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V25" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="W25" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="G26">
         <v>372900043349</v>
@@ -2074,43 +3169,37 @@
       <c r="H26">
         <v>372900043349</v>
       </c>
-      <c r="J26" t="s">
-        <v>146</v>
-      </c>
-      <c r="K26" t="s">
-        <v>33</v>
-      </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V26" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="W26" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="G27">
         <v>372900043349</v>
@@ -2119,42 +3208,42 @@
         <v>372900043349</v>
       </c>
       <c r="J27" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V27" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="W27" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="G28">
         <v>372900043349</v>
@@ -2163,42 +3252,42 @@
         <v>372900043349</v>
       </c>
       <c r="J28" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V28" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="W28" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="G29">
         <v>372900043349</v>
@@ -2207,42 +3296,42 @@
         <v>372900043349</v>
       </c>
       <c r="J29" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V29" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="W29" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="G30">
         <v>372900043349</v>
@@ -2251,42 +3340,42 @@
         <v>372900043349</v>
       </c>
       <c r="J30" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V30" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="W30" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="G31">
         <v>372900043349</v>
@@ -2295,42 +3384,42 @@
         <v>372900043349</v>
       </c>
       <c r="J31" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="K31" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V31" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="W31" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="G32">
         <v>372900043349</v>
@@ -2339,42 +3428,42 @@
         <v>372900043349</v>
       </c>
       <c r="J32" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="K32" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V32" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="W32" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="G33">
         <v>372900043349</v>
@@ -2383,42 +3472,42 @@
         <v>372900043349</v>
       </c>
       <c r="J33" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V33" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="W33" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="G34">
         <v>372900043349</v>
@@ -2427,42 +3516,42 @@
         <v>372900043349</v>
       </c>
       <c r="J34" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V34" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="W34" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="G35">
         <v>372900043349</v>
@@ -2471,42 +3560,42 @@
         <v>372900043349</v>
       </c>
       <c r="J35" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="K35" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V35" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="W35" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="G36">
         <v>372900043349</v>
@@ -2514,43 +3603,37 @@
       <c r="H36">
         <v>372900043349</v>
       </c>
-      <c r="J36" t="s">
-        <v>188</v>
-      </c>
-      <c r="K36" t="s">
-        <v>33</v>
-      </c>
       <c r="L36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V36" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="W36" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="G37">
         <v>372900043349</v>
@@ -2559,78 +3642,4238 @@
         <v>372900043349</v>
       </c>
       <c r="J37" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="K37" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V37" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="W37" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38">
+        <v>372900043349</v>
+      </c>
+      <c r="H38">
+        <v>372900043349</v>
+      </c>
+      <c r="J38" t="s">
+        <v>163</v>
+      </c>
+      <c r="K38" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38" t="s">
+        <v>34</v>
+      </c>
+      <c r="T38" t="s">
+        <v>35</v>
+      </c>
+      <c r="U38" t="s">
+        <v>36</v>
+      </c>
+      <c r="V38" t="s">
+        <v>164</v>
+      </c>
+      <c r="W38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39">
+        <v>372900043349</v>
+      </c>
+      <c r="H39">
+        <v>372900043349</v>
+      </c>
+      <c r="L39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T39" t="s">
+        <v>35</v>
+      </c>
+      <c r="U39" t="s">
+        <v>36</v>
+      </c>
+      <c r="V39" t="s">
+        <v>168</v>
+      </c>
+      <c r="W39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40">
+        <v>372900043349</v>
+      </c>
+      <c r="H40">
+        <v>372900043349</v>
+      </c>
+      <c r="L40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" t="s">
+        <v>33</v>
+      </c>
+      <c r="R40" t="s">
+        <v>34</v>
+      </c>
+      <c r="T40" t="s">
+        <v>35</v>
+      </c>
+      <c r="U40" t="s">
+        <v>36</v>
+      </c>
+      <c r="V40" t="s">
+        <v>172</v>
+      </c>
+      <c r="W40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41">
+        <v>372900043349</v>
+      </c>
+      <c r="H41">
+        <v>372900043349</v>
+      </c>
+      <c r="L41" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" t="s">
+        <v>33</v>
+      </c>
+      <c r="R41" t="s">
+        <v>34</v>
+      </c>
+      <c r="T41" t="s">
+        <v>35</v>
+      </c>
+      <c r="U41" t="s">
+        <v>36</v>
+      </c>
+      <c r="V41" t="s">
+        <v>176</v>
+      </c>
+      <c r="W41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42">
+        <v>372900043349</v>
+      </c>
+      <c r="H42">
+        <v>372900043349</v>
+      </c>
+      <c r="L42" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" t="s">
+        <v>33</v>
+      </c>
+      <c r="R42" t="s">
+        <v>34</v>
+      </c>
+      <c r="T42" t="s">
+        <v>35</v>
+      </c>
+      <c r="U42" t="s">
+        <v>36</v>
+      </c>
+      <c r="V42" t="s">
+        <v>168</v>
+      </c>
+      <c r="W42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43">
+        <v>372900043349</v>
+      </c>
+      <c r="H43">
+        <v>372900043349</v>
+      </c>
+      <c r="L43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P43" t="s">
+        <v>33</v>
+      </c>
+      <c r="R43" t="s">
+        <v>34</v>
+      </c>
+      <c r="T43" t="s">
+        <v>35</v>
+      </c>
+      <c r="U43" t="s">
+        <v>36</v>
+      </c>
+      <c r="V43" t="s">
+        <v>183</v>
+      </c>
+      <c r="W43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" t="s">
+        <v>186</v>
+      </c>
+      <c r="G44">
+        <v>372900043349</v>
+      </c>
+      <c r="H44">
+        <v>372900043349</v>
+      </c>
+      <c r="L44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" t="s">
+        <v>33</v>
+      </c>
+      <c r="R44" t="s">
+        <v>34</v>
+      </c>
+      <c r="T44" t="s">
+        <v>35</v>
+      </c>
+      <c r="U44" t="s">
+        <v>36</v>
+      </c>
+      <c r="V44" t="s">
+        <v>187</v>
+      </c>
+      <c r="W44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45">
+        <v>372900043349</v>
+      </c>
+      <c r="H45">
+        <v>372900043349</v>
+      </c>
+      <c r="J45" t="s">
+        <v>191</v>
+      </c>
+      <c r="K45" t="s">
+        <v>52</v>
+      </c>
+      <c r="L45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" t="s">
+        <v>32</v>
+      </c>
+      <c r="P45" t="s">
+        <v>33</v>
+      </c>
+      <c r="R45" t="s">
+        <v>34</v>
+      </c>
+      <c r="T45" t="s">
+        <v>35</v>
+      </c>
+      <c r="U45" t="s">
+        <v>36</v>
+      </c>
+      <c r="V45" t="s">
+        <v>192</v>
+      </c>
+      <c r="W45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G46">
+        <v>372900043349</v>
+      </c>
+      <c r="H46">
+        <v>372900043349</v>
+      </c>
+      <c r="J46" t="s">
         <v>196</v>
       </c>
-      <c r="B38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G38">
-        <v>372900043349</v>
-      </c>
-      <c r="H38">
-        <v>372900043349</v>
-      </c>
-      <c r="J38" t="s">
-        <v>193</v>
-      </c>
-      <c r="K38" t="s">
-        <v>33</v>
-      </c>
-      <c r="L38" t="s">
-        <v>34</v>
-      </c>
-      <c r="M38" t="s">
-        <v>34</v>
-      </c>
-      <c r="P38" t="s">
-        <v>35</v>
-      </c>
-      <c r="R38" t="s">
-        <v>36</v>
-      </c>
-      <c r="T38" t="s">
-        <v>37</v>
-      </c>
-      <c r="U38" t="s">
-        <v>38</v>
-      </c>
-      <c r="V38" t="s">
-        <v>194</v>
-      </c>
-      <c r="W38" t="s">
-        <v>195</v>
+      <c r="K46" t="s">
+        <v>52</v>
+      </c>
+      <c r="L46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" t="s">
+        <v>32</v>
+      </c>
+      <c r="P46" t="s">
+        <v>33</v>
+      </c>
+      <c r="R46" t="s">
+        <v>34</v>
+      </c>
+      <c r="T46" t="s">
+        <v>35</v>
+      </c>
+      <c r="U46" t="s">
+        <v>36</v>
+      </c>
+      <c r="V46" t="s">
+        <v>197</v>
+      </c>
+      <c r="W46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" t="s">
+        <v>200</v>
+      </c>
+      <c r="G47">
+        <v>372900043349</v>
+      </c>
+      <c r="H47">
+        <v>372900043349</v>
+      </c>
+      <c r="J47" t="s">
+        <v>201</v>
+      </c>
+      <c r="K47" t="s">
+        <v>52</v>
+      </c>
+      <c r="L47" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" t="s">
+        <v>33</v>
+      </c>
+      <c r="R47" t="s">
+        <v>34</v>
+      </c>
+      <c r="T47" t="s">
+        <v>35</v>
+      </c>
+      <c r="U47" t="s">
+        <v>36</v>
+      </c>
+      <c r="V47" t="s">
+        <v>202</v>
+      </c>
+      <c r="W47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" t="s">
+        <v>205</v>
+      </c>
+      <c r="G48">
+        <v>372900043349</v>
+      </c>
+      <c r="H48">
+        <v>372900043349</v>
+      </c>
+      <c r="J48" t="s">
+        <v>206</v>
+      </c>
+      <c r="K48" t="s">
+        <v>52</v>
+      </c>
+      <c r="L48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" t="s">
+        <v>33</v>
+      </c>
+      <c r="R48" t="s">
+        <v>34</v>
+      </c>
+      <c r="T48" t="s">
+        <v>35</v>
+      </c>
+      <c r="U48" t="s">
+        <v>36</v>
+      </c>
+      <c r="V48" t="s">
+        <v>207</v>
+      </c>
+      <c r="W48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49">
+        <v>372900043349</v>
+      </c>
+      <c r="H49">
+        <v>372900043349</v>
+      </c>
+      <c r="J49" t="s">
+        <v>206</v>
+      </c>
+      <c r="K49" t="s">
+        <v>52</v>
+      </c>
+      <c r="L49" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" t="s">
+        <v>33</v>
+      </c>
+      <c r="R49" t="s">
+        <v>34</v>
+      </c>
+      <c r="T49" t="s">
+        <v>35</v>
+      </c>
+      <c r="U49" t="s">
+        <v>36</v>
+      </c>
+      <c r="V49" t="s">
+        <v>207</v>
+      </c>
+      <c r="W49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+      <c r="G50">
+        <v>372900043349</v>
+      </c>
+      <c r="H50">
+        <v>372900043349</v>
+      </c>
+      <c r="J50" t="s">
+        <v>212</v>
+      </c>
+      <c r="K50" t="s">
+        <v>52</v>
+      </c>
+      <c r="L50" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" t="s">
+        <v>33</v>
+      </c>
+      <c r="R50" t="s">
+        <v>34</v>
+      </c>
+      <c r="T50" t="s">
+        <v>35</v>
+      </c>
+      <c r="U50" t="s">
+        <v>36</v>
+      </c>
+      <c r="V50" t="s">
+        <v>213</v>
+      </c>
+      <c r="W50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" t="s">
+        <v>216</v>
+      </c>
+      <c r="G51">
+        <v>372900043349</v>
+      </c>
+      <c r="H51">
+        <v>372900043349</v>
+      </c>
+      <c r="J51" t="s">
+        <v>217</v>
+      </c>
+      <c r="K51" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" t="s">
+        <v>33</v>
+      </c>
+      <c r="R51" t="s">
+        <v>34</v>
+      </c>
+      <c r="T51" t="s">
+        <v>35</v>
+      </c>
+      <c r="U51" t="s">
+        <v>36</v>
+      </c>
+      <c r="V51" t="s">
+        <v>218</v>
+      </c>
+      <c r="W51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" t="s">
+        <v>221</v>
+      </c>
+      <c r="G52">
+        <v>372900043349</v>
+      </c>
+      <c r="H52">
+        <v>372900043349</v>
+      </c>
+      <c r="J52" t="s">
+        <v>222</v>
+      </c>
+      <c r="K52" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" t="s">
+        <v>34</v>
+      </c>
+      <c r="T52" t="s">
+        <v>35</v>
+      </c>
+      <c r="U52" t="s">
+        <v>36</v>
+      </c>
+      <c r="V52" t="s">
+        <v>223</v>
+      </c>
+      <c r="W52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" t="s">
+        <v>226</v>
+      </c>
+      <c r="G53">
+        <v>372900043349</v>
+      </c>
+      <c r="H53">
+        <v>372900043349</v>
+      </c>
+      <c r="J53" t="s">
+        <v>227</v>
+      </c>
+      <c r="K53" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" t="s">
+        <v>32</v>
+      </c>
+      <c r="P53" t="s">
+        <v>33</v>
+      </c>
+      <c r="R53" t="s">
+        <v>34</v>
+      </c>
+      <c r="T53" t="s">
+        <v>35</v>
+      </c>
+      <c r="U53" t="s">
+        <v>36</v>
+      </c>
+      <c r="V53" t="s">
+        <v>228</v>
+      </c>
+      <c r="W53" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>230</v>
+      </c>
+      <c r="B54" t="s">
+        <v>231</v>
+      </c>
+      <c r="G54">
+        <v>372900043349</v>
+      </c>
+      <c r="H54">
+        <v>372900043349</v>
+      </c>
+      <c r="L54" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" t="s">
+        <v>33</v>
+      </c>
+      <c r="R54" t="s">
+        <v>34</v>
+      </c>
+      <c r="T54" t="s">
+        <v>35</v>
+      </c>
+      <c r="U54" t="s">
+        <v>36</v>
+      </c>
+      <c r="V54" t="s">
+        <v>232</v>
+      </c>
+      <c r="W54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>234</v>
+      </c>
+      <c r="B55" t="s">
+        <v>235</v>
+      </c>
+      <c r="G55">
+        <v>372900043349</v>
+      </c>
+      <c r="H55">
+        <v>372900043349</v>
+      </c>
+      <c r="J55" t="s">
+        <v>236</v>
+      </c>
+      <c r="K55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" t="s">
+        <v>33</v>
+      </c>
+      <c r="R55" t="s">
+        <v>34</v>
+      </c>
+      <c r="T55" t="s">
+        <v>35</v>
+      </c>
+      <c r="U55" t="s">
+        <v>36</v>
+      </c>
+      <c r="V55" t="s">
+        <v>237</v>
+      </c>
+      <c r="W55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>239</v>
+      </c>
+      <c r="B56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G56">
+        <v>372900043349</v>
+      </c>
+      <c r="H56">
+        <v>372900043349</v>
+      </c>
+      <c r="L56" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" t="s">
+        <v>33</v>
+      </c>
+      <c r="R56" t="s">
+        <v>34</v>
+      </c>
+      <c r="T56" t="s">
+        <v>35</v>
+      </c>
+      <c r="U56" t="s">
+        <v>36</v>
+      </c>
+      <c r="V56" t="s">
+        <v>241</v>
+      </c>
+      <c r="W56" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>243</v>
+      </c>
+      <c r="B57" t="s">
+        <v>244</v>
+      </c>
+      <c r="G57">
+        <v>372900043349</v>
+      </c>
+      <c r="H57">
+        <v>372900043349</v>
+      </c>
+      <c r="J57" t="s">
+        <v>245</v>
+      </c>
+      <c r="K57" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" t="s">
+        <v>32</v>
+      </c>
+      <c r="M57" t="s">
+        <v>32</v>
+      </c>
+      <c r="P57" t="s">
+        <v>33</v>
+      </c>
+      <c r="R57" t="s">
+        <v>34</v>
+      </c>
+      <c r="T57" t="s">
+        <v>35</v>
+      </c>
+      <c r="U57" t="s">
+        <v>36</v>
+      </c>
+      <c r="V57" t="s">
+        <v>246</v>
+      </c>
+      <c r="W57" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" t="s">
+        <v>244</v>
+      </c>
+      <c r="G58">
+        <v>372900043349</v>
+      </c>
+      <c r="H58">
+        <v>372900043349</v>
+      </c>
+      <c r="J58" t="s">
+        <v>245</v>
+      </c>
+      <c r="K58" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" t="s">
+        <v>33</v>
+      </c>
+      <c r="R58" t="s">
+        <v>34</v>
+      </c>
+      <c r="T58" t="s">
+        <v>35</v>
+      </c>
+      <c r="U58" t="s">
+        <v>36</v>
+      </c>
+      <c r="V58" t="s">
+        <v>246</v>
+      </c>
+      <c r="W58" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" t="s">
+        <v>250</v>
+      </c>
+      <c r="G59">
+        <v>372900043349</v>
+      </c>
+      <c r="H59">
+        <v>372900043349</v>
+      </c>
+      <c r="L59" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" t="s">
+        <v>33</v>
+      </c>
+      <c r="R59" t="s">
+        <v>34</v>
+      </c>
+      <c r="T59" t="s">
+        <v>35</v>
+      </c>
+      <c r="U59" t="s">
+        <v>36</v>
+      </c>
+      <c r="V59" t="s">
+        <v>251</v>
+      </c>
+      <c r="W59" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" t="s">
+        <v>254</v>
+      </c>
+      <c r="G60">
+        <v>372900043349</v>
+      </c>
+      <c r="H60">
+        <v>372900043349</v>
+      </c>
+      <c r="L60" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" t="s">
+        <v>33</v>
+      </c>
+      <c r="R60" t="s">
+        <v>34</v>
+      </c>
+      <c r="T60" t="s">
+        <v>35</v>
+      </c>
+      <c r="U60" t="s">
+        <v>36</v>
+      </c>
+      <c r="V60" t="s">
+        <v>255</v>
+      </c>
+      <c r="W60" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>257</v>
+      </c>
+      <c r="B61" t="s">
+        <v>258</v>
+      </c>
+      <c r="G61">
+        <v>372900043349</v>
+      </c>
+      <c r="H61">
+        <v>372900043349</v>
+      </c>
+      <c r="L61" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" t="s">
+        <v>33</v>
+      </c>
+      <c r="R61" t="s">
+        <v>34</v>
+      </c>
+      <c r="T61" t="s">
+        <v>35</v>
+      </c>
+      <c r="U61" t="s">
+        <v>36</v>
+      </c>
+      <c r="V61" t="s">
+        <v>259</v>
+      </c>
+      <c r="W61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62" t="s">
+        <v>262</v>
+      </c>
+      <c r="G62">
+        <v>372900043349</v>
+      </c>
+      <c r="H62">
+        <v>372900043349</v>
+      </c>
+      <c r="L62" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" t="s">
+        <v>33</v>
+      </c>
+      <c r="R62" t="s">
+        <v>34</v>
+      </c>
+      <c r="T62" t="s">
+        <v>35</v>
+      </c>
+      <c r="U62" t="s">
+        <v>36</v>
+      </c>
+      <c r="V62" t="s">
+        <v>263</v>
+      </c>
+      <c r="W62" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" t="s">
+        <v>266</v>
+      </c>
+      <c r="G63">
+        <v>372900043349</v>
+      </c>
+      <c r="H63">
+        <v>372900043349</v>
+      </c>
+      <c r="L63" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" t="s">
+        <v>32</v>
+      </c>
+      <c r="P63" t="s">
+        <v>33</v>
+      </c>
+      <c r="R63" t="s">
+        <v>34</v>
+      </c>
+      <c r="T63" t="s">
+        <v>35</v>
+      </c>
+      <c r="U63" t="s">
+        <v>36</v>
+      </c>
+      <c r="V63" t="s">
+        <v>267</v>
+      </c>
+      <c r="W63" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>269</v>
+      </c>
+      <c r="B64" t="s">
+        <v>270</v>
+      </c>
+      <c r="G64">
+        <v>372900043349</v>
+      </c>
+      <c r="H64">
+        <v>372900043349</v>
+      </c>
+      <c r="L64" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" t="s">
+        <v>32</v>
+      </c>
+      <c r="P64" t="s">
+        <v>33</v>
+      </c>
+      <c r="R64" t="s">
+        <v>34</v>
+      </c>
+      <c r="T64" t="s">
+        <v>35</v>
+      </c>
+      <c r="U64" t="s">
+        <v>36</v>
+      </c>
+      <c r="V64" t="s">
+        <v>271</v>
+      </c>
+      <c r="W64" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>273</v>
+      </c>
+      <c r="B65" t="s">
+        <v>274</v>
+      </c>
+      <c r="G65">
+        <v>372900043349</v>
+      </c>
+      <c r="H65">
+        <v>372900043349</v>
+      </c>
+      <c r="L65" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" t="s">
+        <v>33</v>
+      </c>
+      <c r="R65" t="s">
+        <v>34</v>
+      </c>
+      <c r="T65" t="s">
+        <v>35</v>
+      </c>
+      <c r="U65" t="s">
+        <v>36</v>
+      </c>
+      <c r="V65" t="s">
+        <v>275</v>
+      </c>
+      <c r="W65" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>277</v>
+      </c>
+      <c r="B66" t="s">
+        <v>278</v>
+      </c>
+      <c r="G66">
+        <v>372900043349</v>
+      </c>
+      <c r="H66">
+        <v>372900043349</v>
+      </c>
+      <c r="L66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" t="s">
+        <v>33</v>
+      </c>
+      <c r="R66" t="s">
+        <v>34</v>
+      </c>
+      <c r="T66" t="s">
+        <v>35</v>
+      </c>
+      <c r="U66" t="s">
+        <v>36</v>
+      </c>
+      <c r="V66" t="s">
+        <v>279</v>
+      </c>
+      <c r="W66" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>281</v>
+      </c>
+      <c r="B67" t="s">
+        <v>282</v>
+      </c>
+      <c r="G67">
+        <v>372900043349</v>
+      </c>
+      <c r="H67">
+        <v>372900043349</v>
+      </c>
+      <c r="L67" t="s">
+        <v>32</v>
+      </c>
+      <c r="M67" t="s">
+        <v>32</v>
+      </c>
+      <c r="P67" t="s">
+        <v>33</v>
+      </c>
+      <c r="R67" t="s">
+        <v>34</v>
+      </c>
+      <c r="T67" t="s">
+        <v>35</v>
+      </c>
+      <c r="U67" t="s">
+        <v>36</v>
+      </c>
+      <c r="V67" t="s">
+        <v>283</v>
+      </c>
+      <c r="W67" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" t="s">
+        <v>286</v>
+      </c>
+      <c r="G68">
+        <v>372900043349</v>
+      </c>
+      <c r="H68">
+        <v>372900043349</v>
+      </c>
+      <c r="L68" t="s">
+        <v>32</v>
+      </c>
+      <c r="M68" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68" t="s">
+        <v>33</v>
+      </c>
+      <c r="R68" t="s">
+        <v>34</v>
+      </c>
+      <c r="T68" t="s">
+        <v>35</v>
+      </c>
+      <c r="U68" t="s">
+        <v>36</v>
+      </c>
+      <c r="V68" t="s">
+        <v>287</v>
+      </c>
+      <c r="W68" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>289</v>
+      </c>
+      <c r="B69" t="s">
+        <v>290</v>
+      </c>
+      <c r="G69">
+        <v>372900043349</v>
+      </c>
+      <c r="H69">
+        <v>372900043349</v>
+      </c>
+      <c r="L69" t="s">
+        <v>32</v>
+      </c>
+      <c r="M69" t="s">
+        <v>32</v>
+      </c>
+      <c r="P69" t="s">
+        <v>33</v>
+      </c>
+      <c r="R69" t="s">
+        <v>34</v>
+      </c>
+      <c r="T69" t="s">
+        <v>35</v>
+      </c>
+      <c r="U69" t="s">
+        <v>36</v>
+      </c>
+      <c r="V69" t="s">
+        <v>291</v>
+      </c>
+      <c r="W69" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>293</v>
+      </c>
+      <c r="B70" t="s">
+        <v>294</v>
+      </c>
+      <c r="G70">
+        <v>372900043349</v>
+      </c>
+      <c r="H70">
+        <v>372900043349</v>
+      </c>
+      <c r="L70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M70" t="s">
+        <v>32</v>
+      </c>
+      <c r="P70" t="s">
+        <v>33</v>
+      </c>
+      <c r="R70" t="s">
+        <v>34</v>
+      </c>
+      <c r="T70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U70" t="s">
+        <v>36</v>
+      </c>
+      <c r="V70" t="s">
+        <v>295</v>
+      </c>
+      <c r="W70" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>297</v>
+      </c>
+      <c r="B71" t="s">
+        <v>298</v>
+      </c>
+      <c r="G71">
+        <v>372900043349</v>
+      </c>
+      <c r="H71">
+        <v>372900043349</v>
+      </c>
+      <c r="L71" t="s">
+        <v>32</v>
+      </c>
+      <c r="M71" t="s">
+        <v>32</v>
+      </c>
+      <c r="P71" t="s">
+        <v>33</v>
+      </c>
+      <c r="R71" t="s">
+        <v>34</v>
+      </c>
+      <c r="T71" t="s">
+        <v>35</v>
+      </c>
+      <c r="U71" t="s">
+        <v>36</v>
+      </c>
+      <c r="V71" t="s">
+        <v>299</v>
+      </c>
+      <c r="W71" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>301</v>
+      </c>
+      <c r="B72" t="s">
+        <v>302</v>
+      </c>
+      <c r="G72">
+        <v>372900043349</v>
+      </c>
+      <c r="H72">
+        <v>372900043349</v>
+      </c>
+      <c r="L72" t="s">
+        <v>32</v>
+      </c>
+      <c r="M72" t="s">
+        <v>32</v>
+      </c>
+      <c r="P72" t="s">
+        <v>33</v>
+      </c>
+      <c r="R72" t="s">
+        <v>34</v>
+      </c>
+      <c r="T72" t="s">
+        <v>35</v>
+      </c>
+      <c r="U72" t="s">
+        <v>36</v>
+      </c>
+      <c r="V72" t="s">
+        <v>303</v>
+      </c>
+      <c r="W72" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>305</v>
+      </c>
+      <c r="B73" t="s">
+        <v>306</v>
+      </c>
+      <c r="G73">
+        <v>372900043349</v>
+      </c>
+      <c r="H73">
+        <v>372900043349</v>
+      </c>
+      <c r="L73" t="s">
+        <v>32</v>
+      </c>
+      <c r="M73" t="s">
+        <v>32</v>
+      </c>
+      <c r="P73" t="s">
+        <v>33</v>
+      </c>
+      <c r="R73" t="s">
+        <v>34</v>
+      </c>
+      <c r="T73" t="s">
+        <v>35</v>
+      </c>
+      <c r="U73" t="s">
+        <v>36</v>
+      </c>
+      <c r="V73" t="s">
+        <v>303</v>
+      </c>
+      <c r="W73" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>308</v>
+      </c>
+      <c r="B74" t="s">
+        <v>309</v>
+      </c>
+      <c r="G74">
+        <v>372900043349</v>
+      </c>
+      <c r="H74">
+        <v>372900043349</v>
+      </c>
+      <c r="L74" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" t="s">
+        <v>33</v>
+      </c>
+      <c r="R74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T74" t="s">
+        <v>35</v>
+      </c>
+      <c r="U74" t="s">
+        <v>36</v>
+      </c>
+      <c r="V74" t="s">
+        <v>310</v>
+      </c>
+      <c r="W74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" t="s">
+        <v>313</v>
+      </c>
+      <c r="G75">
+        <v>372900043349</v>
+      </c>
+      <c r="H75">
+        <v>372900043349</v>
+      </c>
+      <c r="L75" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" t="s">
+        <v>33</v>
+      </c>
+      <c r="R75" t="s">
+        <v>34</v>
+      </c>
+      <c r="T75" t="s">
+        <v>35</v>
+      </c>
+      <c r="U75" t="s">
+        <v>36</v>
+      </c>
+      <c r="V75" t="s">
+        <v>267</v>
+      </c>
+      <c r="W75" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>315</v>
+      </c>
+      <c r="B76" t="s">
+        <v>316</v>
+      </c>
+      <c r="G76">
+        <v>372900043349</v>
+      </c>
+      <c r="H76">
+        <v>372900043349</v>
+      </c>
+      <c r="L76" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" t="s">
+        <v>33</v>
+      </c>
+      <c r="R76" t="s">
+        <v>34</v>
+      </c>
+      <c r="T76" t="s">
+        <v>35</v>
+      </c>
+      <c r="U76" t="s">
+        <v>36</v>
+      </c>
+      <c r="V76" t="s">
+        <v>317</v>
+      </c>
+      <c r="W76" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>319</v>
+      </c>
+      <c r="B77" t="s">
+        <v>320</v>
+      </c>
+      <c r="G77">
+        <v>372900043349</v>
+      </c>
+      <c r="H77">
+        <v>372900043349</v>
+      </c>
+      <c r="L77" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" t="s">
+        <v>32</v>
+      </c>
+      <c r="P77" t="s">
+        <v>33</v>
+      </c>
+      <c r="R77" t="s">
+        <v>34</v>
+      </c>
+      <c r="T77" t="s">
+        <v>35</v>
+      </c>
+      <c r="U77" t="s">
+        <v>36</v>
+      </c>
+      <c r="V77" t="s">
+        <v>321</v>
+      </c>
+      <c r="W77" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>323</v>
+      </c>
+      <c r="B78" t="s">
+        <v>324</v>
+      </c>
+      <c r="G78">
+        <v>372900043349</v>
+      </c>
+      <c r="H78">
+        <v>372900043349</v>
+      </c>
+      <c r="L78" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" t="s">
+        <v>33</v>
+      </c>
+      <c r="R78" t="s">
+        <v>34</v>
+      </c>
+      <c r="T78" t="s">
+        <v>35</v>
+      </c>
+      <c r="U78" t="s">
+        <v>36</v>
+      </c>
+      <c r="V78" t="s">
+        <v>325</v>
+      </c>
+      <c r="W78" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>327</v>
+      </c>
+      <c r="B79" t="s">
+        <v>328</v>
+      </c>
+      <c r="G79">
+        <v>372900043349</v>
+      </c>
+      <c r="H79">
+        <v>372900043349</v>
+      </c>
+      <c r="L79" t="s">
+        <v>32</v>
+      </c>
+      <c r="M79" t="s">
+        <v>32</v>
+      </c>
+      <c r="P79" t="s">
+        <v>33</v>
+      </c>
+      <c r="R79" t="s">
+        <v>34</v>
+      </c>
+      <c r="T79" t="s">
+        <v>35</v>
+      </c>
+      <c r="U79" t="s">
+        <v>36</v>
+      </c>
+      <c r="V79" t="s">
+        <v>325</v>
+      </c>
+      <c r="W79" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>330</v>
+      </c>
+      <c r="B80" t="s">
+        <v>331</v>
+      </c>
+      <c r="G80">
+        <v>372900043349</v>
+      </c>
+      <c r="H80">
+        <v>372900043349</v>
+      </c>
+      <c r="L80" t="s">
+        <v>32</v>
+      </c>
+      <c r="M80" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" t="s">
+        <v>33</v>
+      </c>
+      <c r="R80" t="s">
+        <v>34</v>
+      </c>
+      <c r="T80" t="s">
+        <v>35</v>
+      </c>
+      <c r="U80" t="s">
+        <v>36</v>
+      </c>
+      <c r="V80" t="s">
+        <v>332</v>
+      </c>
+      <c r="W80" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>334</v>
+      </c>
+      <c r="B81" t="s">
+        <v>335</v>
+      </c>
+      <c r="G81">
+        <v>372900043349</v>
+      </c>
+      <c r="H81">
+        <v>372900043349</v>
+      </c>
+      <c r="L81" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" t="s">
+        <v>33</v>
+      </c>
+      <c r="R81" t="s">
+        <v>34</v>
+      </c>
+      <c r="T81" t="s">
+        <v>35</v>
+      </c>
+      <c r="U81" t="s">
+        <v>36</v>
+      </c>
+      <c r="V81" t="s">
+        <v>336</v>
+      </c>
+      <c r="W81" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>338</v>
+      </c>
+      <c r="B82" t="s">
+        <v>339</v>
+      </c>
+      <c r="G82">
+        <v>372900043349</v>
+      </c>
+      <c r="H82">
+        <v>372900043349</v>
+      </c>
+      <c r="L82" t="s">
+        <v>32</v>
+      </c>
+      <c r="M82" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" t="s">
+        <v>33</v>
+      </c>
+      <c r="R82" t="s">
+        <v>34</v>
+      </c>
+      <c r="T82" t="s">
+        <v>35</v>
+      </c>
+      <c r="U82" t="s">
+        <v>36</v>
+      </c>
+      <c r="V82" t="s">
+        <v>340</v>
+      </c>
+      <c r="W82" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>342</v>
+      </c>
+      <c r="B83" t="s">
+        <v>343</v>
+      </c>
+      <c r="G83">
+        <v>372900043349</v>
+      </c>
+      <c r="H83">
+        <v>372900043349</v>
+      </c>
+      <c r="L83" t="s">
+        <v>32</v>
+      </c>
+      <c r="M83" t="s">
+        <v>32</v>
+      </c>
+      <c r="P83" t="s">
+        <v>33</v>
+      </c>
+      <c r="R83" t="s">
+        <v>34</v>
+      </c>
+      <c r="T83" t="s">
+        <v>35</v>
+      </c>
+      <c r="U83" t="s">
+        <v>36</v>
+      </c>
+      <c r="V83" t="s">
+        <v>344</v>
+      </c>
+      <c r="W83" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>346</v>
+      </c>
+      <c r="B84" t="s">
+        <v>347</v>
+      </c>
+      <c r="G84">
+        <v>372900043349</v>
+      </c>
+      <c r="H84">
+        <v>372900043349</v>
+      </c>
+      <c r="L84" t="s">
+        <v>32</v>
+      </c>
+      <c r="M84" t="s">
+        <v>32</v>
+      </c>
+      <c r="P84" t="s">
+        <v>33</v>
+      </c>
+      <c r="R84" t="s">
+        <v>34</v>
+      </c>
+      <c r="T84" t="s">
+        <v>35</v>
+      </c>
+      <c r="U84" t="s">
+        <v>36</v>
+      </c>
+      <c r="V84" t="s">
+        <v>348</v>
+      </c>
+      <c r="W84" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>350</v>
+      </c>
+      <c r="B85" t="s">
+        <v>351</v>
+      </c>
+      <c r="G85">
+        <v>372900043349</v>
+      </c>
+      <c r="H85">
+        <v>372900043349</v>
+      </c>
+      <c r="L85" t="s">
+        <v>32</v>
+      </c>
+      <c r="M85" t="s">
+        <v>32</v>
+      </c>
+      <c r="P85" t="s">
+        <v>33</v>
+      </c>
+      <c r="R85" t="s">
+        <v>34</v>
+      </c>
+      <c r="T85" t="s">
+        <v>35</v>
+      </c>
+      <c r="U85" t="s">
+        <v>36</v>
+      </c>
+      <c r="V85" t="s">
+        <v>310</v>
+      </c>
+      <c r="W85" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>353</v>
+      </c>
+      <c r="B86" t="s">
+        <v>354</v>
+      </c>
+      <c r="G86">
+        <v>372900043349</v>
+      </c>
+      <c r="H86">
+        <v>372900043349</v>
+      </c>
+      <c r="L86" t="s">
+        <v>32</v>
+      </c>
+      <c r="M86" t="s">
+        <v>32</v>
+      </c>
+      <c r="P86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R86" t="s">
+        <v>34</v>
+      </c>
+      <c r="T86" t="s">
+        <v>35</v>
+      </c>
+      <c r="U86" t="s">
+        <v>36</v>
+      </c>
+      <c r="V86" t="s">
+        <v>355</v>
+      </c>
+      <c r="W86" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>357</v>
+      </c>
+      <c r="B87" t="s">
+        <v>358</v>
+      </c>
+      <c r="G87">
+        <v>372900043349</v>
+      </c>
+      <c r="H87">
+        <v>372900043349</v>
+      </c>
+      <c r="L87" t="s">
+        <v>32</v>
+      </c>
+      <c r="M87" t="s">
+        <v>32</v>
+      </c>
+      <c r="P87" t="s">
+        <v>33</v>
+      </c>
+      <c r="R87" t="s">
+        <v>34</v>
+      </c>
+      <c r="T87" t="s">
+        <v>35</v>
+      </c>
+      <c r="U87" t="s">
+        <v>36</v>
+      </c>
+      <c r="V87" t="s">
+        <v>359</v>
+      </c>
+      <c r="W87" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>361</v>
+      </c>
+      <c r="B88" t="s">
+        <v>362</v>
+      </c>
+      <c r="G88">
+        <v>372900043349</v>
+      </c>
+      <c r="H88">
+        <v>372900043349</v>
+      </c>
+      <c r="L88" t="s">
+        <v>32</v>
+      </c>
+      <c r="M88" t="s">
+        <v>32</v>
+      </c>
+      <c r="P88" t="s">
+        <v>33</v>
+      </c>
+      <c r="R88" t="s">
+        <v>34</v>
+      </c>
+      <c r="T88" t="s">
+        <v>35</v>
+      </c>
+      <c r="U88" t="s">
+        <v>36</v>
+      </c>
+      <c r="V88" t="s">
+        <v>363</v>
+      </c>
+      <c r="W88" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>364</v>
+      </c>
+      <c r="B89" t="s">
+        <v>365</v>
+      </c>
+      <c r="G89">
+        <v>372900043349</v>
+      </c>
+      <c r="H89">
+        <v>372900043349</v>
+      </c>
+      <c r="L89" t="s">
+        <v>32</v>
+      </c>
+      <c r="M89" t="s">
+        <v>32</v>
+      </c>
+      <c r="P89" t="s">
+        <v>33</v>
+      </c>
+      <c r="R89" t="s">
+        <v>34</v>
+      </c>
+      <c r="T89" t="s">
+        <v>35</v>
+      </c>
+      <c r="U89" t="s">
+        <v>36</v>
+      </c>
+      <c r="V89" t="s">
+        <v>366</v>
+      </c>
+      <c r="W89" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>368</v>
+      </c>
+      <c r="B90" t="s">
+        <v>369</v>
+      </c>
+      <c r="G90">
+        <v>372900043349</v>
+      </c>
+      <c r="H90">
+        <v>372900043349</v>
+      </c>
+      <c r="L90" t="s">
+        <v>32</v>
+      </c>
+      <c r="M90" t="s">
+        <v>32</v>
+      </c>
+      <c r="P90" t="s">
+        <v>33</v>
+      </c>
+      <c r="R90" t="s">
+        <v>34</v>
+      </c>
+      <c r="T90" t="s">
+        <v>35</v>
+      </c>
+      <c r="U90" t="s">
+        <v>36</v>
+      </c>
+      <c r="V90" t="s">
+        <v>325</v>
+      </c>
+      <c r="W90" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>371</v>
+      </c>
+      <c r="B91" t="s">
+        <v>372</v>
+      </c>
+      <c r="G91">
+        <v>372900043349</v>
+      </c>
+      <c r="H91">
+        <v>372900043349</v>
+      </c>
+      <c r="J91" t="s">
+        <v>373</v>
+      </c>
+      <c r="K91" t="s">
+        <v>52</v>
+      </c>
+      <c r="L91" t="s">
+        <v>32</v>
+      </c>
+      <c r="M91" t="s">
+        <v>32</v>
+      </c>
+      <c r="P91" t="s">
+        <v>33</v>
+      </c>
+      <c r="R91" t="s">
+        <v>34</v>
+      </c>
+      <c r="T91" t="s">
+        <v>35</v>
+      </c>
+      <c r="U91" t="s">
+        <v>36</v>
+      </c>
+      <c r="V91" t="s">
+        <v>374</v>
+      </c>
+      <c r="W91" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>376</v>
+      </c>
+      <c r="B92" t="s">
+        <v>377</v>
+      </c>
+      <c r="G92">
+        <v>372900043349</v>
+      </c>
+      <c r="H92">
+        <v>372900043349</v>
+      </c>
+      <c r="J92" t="s">
+        <v>378</v>
+      </c>
+      <c r="K92" t="s">
+        <v>52</v>
+      </c>
+      <c r="L92" t="s">
+        <v>32</v>
+      </c>
+      <c r="M92" t="s">
+        <v>32</v>
+      </c>
+      <c r="P92" t="s">
+        <v>33</v>
+      </c>
+      <c r="R92" t="s">
+        <v>34</v>
+      </c>
+      <c r="T92" t="s">
+        <v>35</v>
+      </c>
+      <c r="U92" t="s">
+        <v>36</v>
+      </c>
+      <c r="V92" t="s">
+        <v>379</v>
+      </c>
+      <c r="W92" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>381</v>
+      </c>
+      <c r="B93" t="s">
+        <v>382</v>
+      </c>
+      <c r="G93">
+        <v>372900043349</v>
+      </c>
+      <c r="H93">
+        <v>372900043349</v>
+      </c>
+      <c r="J93" t="s">
+        <v>383</v>
+      </c>
+      <c r="K93" t="s">
+        <v>52</v>
+      </c>
+      <c r="L93" t="s">
+        <v>32</v>
+      </c>
+      <c r="M93" t="s">
+        <v>32</v>
+      </c>
+      <c r="P93" t="s">
+        <v>33</v>
+      </c>
+      <c r="R93" t="s">
+        <v>34</v>
+      </c>
+      <c r="T93" t="s">
+        <v>35</v>
+      </c>
+      <c r="U93" t="s">
+        <v>36</v>
+      </c>
+      <c r="V93" t="s">
+        <v>384</v>
+      </c>
+      <c r="W93" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>386</v>
+      </c>
+      <c r="B94" t="s">
+        <v>387</v>
+      </c>
+      <c r="G94">
+        <v>372900043349</v>
+      </c>
+      <c r="H94">
+        <v>372900043349</v>
+      </c>
+      <c r="J94" t="s">
+        <v>388</v>
+      </c>
+      <c r="K94" t="s">
+        <v>52</v>
+      </c>
+      <c r="L94" t="s">
+        <v>32</v>
+      </c>
+      <c r="M94" t="s">
+        <v>32</v>
+      </c>
+      <c r="P94" t="s">
+        <v>33</v>
+      </c>
+      <c r="R94" t="s">
+        <v>34</v>
+      </c>
+      <c r="T94" t="s">
+        <v>35</v>
+      </c>
+      <c r="U94" t="s">
+        <v>36</v>
+      </c>
+      <c r="V94" t="s">
+        <v>389</v>
+      </c>
+      <c r="W94" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>391</v>
+      </c>
+      <c r="B95" t="s">
+        <v>392</v>
+      </c>
+      <c r="G95">
+        <v>372900043349</v>
+      </c>
+      <c r="H95">
+        <v>372900043349</v>
+      </c>
+      <c r="J95" t="s">
+        <v>393</v>
+      </c>
+      <c r="K95" t="s">
+        <v>52</v>
+      </c>
+      <c r="L95" t="s">
+        <v>32</v>
+      </c>
+      <c r="M95" t="s">
+        <v>32</v>
+      </c>
+      <c r="P95" t="s">
+        <v>33</v>
+      </c>
+      <c r="R95" t="s">
+        <v>34</v>
+      </c>
+      <c r="T95" t="s">
+        <v>35</v>
+      </c>
+      <c r="U95" t="s">
+        <v>36</v>
+      </c>
+      <c r="V95" t="s">
+        <v>384</v>
+      </c>
+      <c r="W95" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>395</v>
+      </c>
+      <c r="B96" t="s">
+        <v>396</v>
+      </c>
+      <c r="G96">
+        <v>372900043349</v>
+      </c>
+      <c r="H96">
+        <v>372900043349</v>
+      </c>
+      <c r="J96" t="s">
+        <v>397</v>
+      </c>
+      <c r="K96" t="s">
+        <v>52</v>
+      </c>
+      <c r="L96" t="s">
+        <v>32</v>
+      </c>
+      <c r="M96" t="s">
+        <v>32</v>
+      </c>
+      <c r="P96" t="s">
+        <v>33</v>
+      </c>
+      <c r="R96" t="s">
+        <v>34</v>
+      </c>
+      <c r="T96" t="s">
+        <v>35</v>
+      </c>
+      <c r="U96" t="s">
+        <v>36</v>
+      </c>
+      <c r="V96" t="s">
+        <v>398</v>
+      </c>
+      <c r="W96" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>400</v>
+      </c>
+      <c r="B97" t="s">
+        <v>401</v>
+      </c>
+      <c r="G97">
+        <v>372900043349</v>
+      </c>
+      <c r="H97">
+        <v>372900043349</v>
+      </c>
+      <c r="J97" t="s">
+        <v>402</v>
+      </c>
+      <c r="K97" t="s">
+        <v>52</v>
+      </c>
+      <c r="L97" t="s">
+        <v>32</v>
+      </c>
+      <c r="M97" t="s">
+        <v>32</v>
+      </c>
+      <c r="P97" t="s">
+        <v>33</v>
+      </c>
+      <c r="R97" t="s">
+        <v>34</v>
+      </c>
+      <c r="T97" t="s">
+        <v>35</v>
+      </c>
+      <c r="U97" t="s">
+        <v>36</v>
+      </c>
+      <c r="V97" t="s">
+        <v>398</v>
+      </c>
+      <c r="W97" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>404</v>
+      </c>
+      <c r="B98" t="s">
+        <v>405</v>
+      </c>
+      <c r="G98">
+        <v>372900043349</v>
+      </c>
+      <c r="H98">
+        <v>372900043349</v>
+      </c>
+      <c r="J98" t="s">
+        <v>406</v>
+      </c>
+      <c r="K98" t="s">
+        <v>52</v>
+      </c>
+      <c r="L98" t="s">
+        <v>32</v>
+      </c>
+      <c r="M98" t="s">
+        <v>32</v>
+      </c>
+      <c r="P98" t="s">
+        <v>33</v>
+      </c>
+      <c r="R98" t="s">
+        <v>34</v>
+      </c>
+      <c r="T98" t="s">
+        <v>35</v>
+      </c>
+      <c r="U98" t="s">
+        <v>36</v>
+      </c>
+      <c r="V98" t="s">
+        <v>407</v>
+      </c>
+      <c r="W98" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>409</v>
+      </c>
+      <c r="B99" t="s">
+        <v>410</v>
+      </c>
+      <c r="G99">
+        <v>372900043349</v>
+      </c>
+      <c r="H99">
+        <v>372900043349</v>
+      </c>
+      <c r="J99" t="s">
+        <v>411</v>
+      </c>
+      <c r="K99" t="s">
+        <v>52</v>
+      </c>
+      <c r="L99" t="s">
+        <v>32</v>
+      </c>
+      <c r="M99" t="s">
+        <v>32</v>
+      </c>
+      <c r="P99" t="s">
+        <v>33</v>
+      </c>
+      <c r="R99" t="s">
+        <v>34</v>
+      </c>
+      <c r="T99" t="s">
+        <v>35</v>
+      </c>
+      <c r="U99" t="s">
+        <v>36</v>
+      </c>
+      <c r="V99" t="s">
+        <v>412</v>
+      </c>
+      <c r="W99" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>414</v>
+      </c>
+      <c r="B100" t="s">
+        <v>415</v>
+      </c>
+      <c r="G100">
+        <v>372900043349</v>
+      </c>
+      <c r="H100">
+        <v>372900043349</v>
+      </c>
+      <c r="J100" t="s">
+        <v>416</v>
+      </c>
+      <c r="K100" t="s">
+        <v>52</v>
+      </c>
+      <c r="L100" t="s">
+        <v>32</v>
+      </c>
+      <c r="M100" t="s">
+        <v>32</v>
+      </c>
+      <c r="P100" t="s">
+        <v>33</v>
+      </c>
+      <c r="R100" t="s">
+        <v>34</v>
+      </c>
+      <c r="T100" t="s">
+        <v>35</v>
+      </c>
+      <c r="U100" t="s">
+        <v>36</v>
+      </c>
+      <c r="V100" t="s">
+        <v>417</v>
+      </c>
+      <c r="W100" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>419</v>
+      </c>
+      <c r="B101" t="s">
+        <v>420</v>
+      </c>
+      <c r="G101">
+        <v>372900043349</v>
+      </c>
+      <c r="H101">
+        <v>372900043349</v>
+      </c>
+      <c r="J101" t="s">
+        <v>421</v>
+      </c>
+      <c r="K101" t="s">
+        <v>52</v>
+      </c>
+      <c r="L101" t="s">
+        <v>32</v>
+      </c>
+      <c r="M101" t="s">
+        <v>32</v>
+      </c>
+      <c r="P101" t="s">
+        <v>33</v>
+      </c>
+      <c r="R101" t="s">
+        <v>34</v>
+      </c>
+      <c r="T101" t="s">
+        <v>35</v>
+      </c>
+      <c r="U101" t="s">
+        <v>36</v>
+      </c>
+      <c r="V101" t="s">
+        <v>422</v>
+      </c>
+      <c r="W101" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>424</v>
+      </c>
+      <c r="B102" t="s">
+        <v>420</v>
+      </c>
+      <c r="G102">
+        <v>372900043349</v>
+      </c>
+      <c r="H102">
+        <v>372900043349</v>
+      </c>
+      <c r="J102" t="s">
+        <v>421</v>
+      </c>
+      <c r="K102" t="s">
+        <v>52</v>
+      </c>
+      <c r="L102" t="s">
+        <v>32</v>
+      </c>
+      <c r="M102" t="s">
+        <v>32</v>
+      </c>
+      <c r="P102" t="s">
+        <v>33</v>
+      </c>
+      <c r="R102" t="s">
+        <v>34</v>
+      </c>
+      <c r="T102" t="s">
+        <v>35</v>
+      </c>
+      <c r="U102" t="s">
+        <v>36</v>
+      </c>
+      <c r="V102" t="s">
+        <v>422</v>
+      </c>
+      <c r="W102" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>425</v>
+      </c>
+      <c r="B103" t="s">
+        <v>426</v>
+      </c>
+      <c r="G103">
+        <v>372900043349</v>
+      </c>
+      <c r="H103">
+        <v>372900043349</v>
+      </c>
+      <c r="J103" t="s">
+        <v>427</v>
+      </c>
+      <c r="K103" t="s">
+        <v>52</v>
+      </c>
+      <c r="L103" t="s">
+        <v>32</v>
+      </c>
+      <c r="M103" t="s">
+        <v>32</v>
+      </c>
+      <c r="P103" t="s">
+        <v>33</v>
+      </c>
+      <c r="R103" t="s">
+        <v>34</v>
+      </c>
+      <c r="T103" t="s">
+        <v>35</v>
+      </c>
+      <c r="U103" t="s">
+        <v>36</v>
+      </c>
+      <c r="V103" t="s">
+        <v>428</v>
+      </c>
+      <c r="W103" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>430</v>
+      </c>
+      <c r="B104" t="s">
+        <v>431</v>
+      </c>
+      <c r="G104">
+        <v>372900043349</v>
+      </c>
+      <c r="H104">
+        <v>372900043349</v>
+      </c>
+      <c r="J104" t="s">
+        <v>432</v>
+      </c>
+      <c r="K104" t="s">
+        <v>52</v>
+      </c>
+      <c r="L104" t="s">
+        <v>32</v>
+      </c>
+      <c r="M104" t="s">
+        <v>32</v>
+      </c>
+      <c r="P104" t="s">
+        <v>33</v>
+      </c>
+      <c r="R104" t="s">
+        <v>34</v>
+      </c>
+      <c r="T104" t="s">
+        <v>35</v>
+      </c>
+      <c r="U104" t="s">
+        <v>36</v>
+      </c>
+      <c r="V104" t="s">
+        <v>433</v>
+      </c>
+      <c r="W104" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>435</v>
+      </c>
+      <c r="B105" t="s">
+        <v>436</v>
+      </c>
+      <c r="G105">
+        <v>372900043349</v>
+      </c>
+      <c r="H105">
+        <v>372900043349</v>
+      </c>
+      <c r="J105" t="s">
+        <v>437</v>
+      </c>
+      <c r="K105" t="s">
+        <v>52</v>
+      </c>
+      <c r="L105" t="s">
+        <v>32</v>
+      </c>
+      <c r="M105" t="s">
+        <v>32</v>
+      </c>
+      <c r="P105" t="s">
+        <v>33</v>
+      </c>
+      <c r="R105" t="s">
+        <v>34</v>
+      </c>
+      <c r="T105" t="s">
+        <v>35</v>
+      </c>
+      <c r="U105" t="s">
+        <v>36</v>
+      </c>
+      <c r="V105" t="s">
+        <v>438</v>
+      </c>
+      <c r="W105" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>440</v>
+      </c>
+      <c r="B106" t="s">
+        <v>441</v>
+      </c>
+      <c r="G106">
+        <v>372900043349</v>
+      </c>
+      <c r="H106">
+        <v>372900043349</v>
+      </c>
+      <c r="J106" t="s">
+        <v>442</v>
+      </c>
+      <c r="K106" t="s">
+        <v>52</v>
+      </c>
+      <c r="L106" t="s">
+        <v>32</v>
+      </c>
+      <c r="M106" t="s">
+        <v>32</v>
+      </c>
+      <c r="P106" t="s">
+        <v>33</v>
+      </c>
+      <c r="R106" t="s">
+        <v>34</v>
+      </c>
+      <c r="T106" t="s">
+        <v>35</v>
+      </c>
+      <c r="U106" t="s">
+        <v>36</v>
+      </c>
+      <c r="V106" t="s">
+        <v>443</v>
+      </c>
+      <c r="W106" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>445</v>
+      </c>
+      <c r="B107" t="s">
+        <v>441</v>
+      </c>
+      <c r="G107">
+        <v>372900043349</v>
+      </c>
+      <c r="H107">
+        <v>372900043349</v>
+      </c>
+      <c r="J107" t="s">
+        <v>442</v>
+      </c>
+      <c r="K107" t="s">
+        <v>52</v>
+      </c>
+      <c r="L107" t="s">
+        <v>32</v>
+      </c>
+      <c r="M107" t="s">
+        <v>32</v>
+      </c>
+      <c r="P107" t="s">
+        <v>33</v>
+      </c>
+      <c r="R107" t="s">
+        <v>34</v>
+      </c>
+      <c r="T107" t="s">
+        <v>35</v>
+      </c>
+      <c r="U107" t="s">
+        <v>36</v>
+      </c>
+      <c r="V107" t="s">
+        <v>443</v>
+      </c>
+      <c r="W107" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>446</v>
+      </c>
+      <c r="B108" t="s">
+        <v>447</v>
+      </c>
+      <c r="G108">
+        <v>372900043349</v>
+      </c>
+      <c r="H108">
+        <v>372900043349</v>
+      </c>
+      <c r="J108" t="s">
+        <v>448</v>
+      </c>
+      <c r="K108" t="s">
+        <v>52</v>
+      </c>
+      <c r="L108" t="s">
+        <v>32</v>
+      </c>
+      <c r="M108" t="s">
+        <v>32</v>
+      </c>
+      <c r="P108" t="s">
+        <v>33</v>
+      </c>
+      <c r="R108" t="s">
+        <v>34</v>
+      </c>
+      <c r="T108" t="s">
+        <v>35</v>
+      </c>
+      <c r="U108" t="s">
+        <v>36</v>
+      </c>
+      <c r="V108" t="s">
+        <v>449</v>
+      </c>
+      <c r="W108" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>451</v>
+      </c>
+      <c r="B109" t="s">
+        <v>447</v>
+      </c>
+      <c r="G109">
+        <v>372900043349</v>
+      </c>
+      <c r="H109">
+        <v>372900043349</v>
+      </c>
+      <c r="J109" t="s">
+        <v>448</v>
+      </c>
+      <c r="K109" t="s">
+        <v>52</v>
+      </c>
+      <c r="L109" t="s">
+        <v>32</v>
+      </c>
+      <c r="M109" t="s">
+        <v>32</v>
+      </c>
+      <c r="P109" t="s">
+        <v>33</v>
+      </c>
+      <c r="R109" t="s">
+        <v>34</v>
+      </c>
+      <c r="T109" t="s">
+        <v>35</v>
+      </c>
+      <c r="U109" t="s">
+        <v>36</v>
+      </c>
+      <c r="V109" t="s">
+        <v>449</v>
+      </c>
+      <c r="W109" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>452</v>
+      </c>
+      <c r="B110" t="s">
+        <v>453</v>
+      </c>
+      <c r="G110">
+        <v>372900043349</v>
+      </c>
+      <c r="H110">
+        <v>372900043349</v>
+      </c>
+      <c r="J110" t="s">
+        <v>454</v>
+      </c>
+      <c r="K110" t="s">
+        <v>52</v>
+      </c>
+      <c r="L110" t="s">
+        <v>32</v>
+      </c>
+      <c r="M110" t="s">
+        <v>32</v>
+      </c>
+      <c r="P110" t="s">
+        <v>33</v>
+      </c>
+      <c r="R110" t="s">
+        <v>34</v>
+      </c>
+      <c r="T110" t="s">
+        <v>35</v>
+      </c>
+      <c r="U110" t="s">
+        <v>36</v>
+      </c>
+      <c r="V110" t="s">
+        <v>455</v>
+      </c>
+      <c r="W110" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>457</v>
+      </c>
+      <c r="B111" t="s">
+        <v>458</v>
+      </c>
+      <c r="G111">
+        <v>372900043349</v>
+      </c>
+      <c r="H111">
+        <v>372900043349</v>
+      </c>
+      <c r="J111" t="s">
+        <v>459</v>
+      </c>
+      <c r="K111" t="s">
+        <v>52</v>
+      </c>
+      <c r="L111" t="s">
+        <v>32</v>
+      </c>
+      <c r="M111" t="s">
+        <v>32</v>
+      </c>
+      <c r="P111" t="s">
+        <v>33</v>
+      </c>
+      <c r="R111" t="s">
+        <v>34</v>
+      </c>
+      <c r="T111" t="s">
+        <v>35</v>
+      </c>
+      <c r="U111" t="s">
+        <v>36</v>
+      </c>
+      <c r="V111" t="s">
+        <v>460</v>
+      </c>
+      <c r="W111" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>462</v>
+      </c>
+      <c r="B112" t="s">
+        <v>463</v>
+      </c>
+      <c r="G112">
+        <v>372900043349</v>
+      </c>
+      <c r="H112">
+        <v>372900043349</v>
+      </c>
+      <c r="J112" t="s">
+        <v>464</v>
+      </c>
+      <c r="K112" t="s">
+        <v>52</v>
+      </c>
+      <c r="L112" t="s">
+        <v>32</v>
+      </c>
+      <c r="M112" t="s">
+        <v>32</v>
+      </c>
+      <c r="P112" t="s">
+        <v>33</v>
+      </c>
+      <c r="R112" t="s">
+        <v>34</v>
+      </c>
+      <c r="T112" t="s">
+        <v>35</v>
+      </c>
+      <c r="U112" t="s">
+        <v>36</v>
+      </c>
+      <c r="V112" t="s">
+        <v>465</v>
+      </c>
+      <c r="W112" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>467</v>
+      </c>
+      <c r="B113" t="s">
+        <v>468</v>
+      </c>
+      <c r="G113">
+        <v>372900043349</v>
+      </c>
+      <c r="H113">
+        <v>372900043349</v>
+      </c>
+      <c r="J113" t="s">
+        <v>469</v>
+      </c>
+      <c r="K113" t="s">
+        <v>52</v>
+      </c>
+      <c r="L113" t="s">
+        <v>32</v>
+      </c>
+      <c r="M113" t="s">
+        <v>32</v>
+      </c>
+      <c r="P113" t="s">
+        <v>33</v>
+      </c>
+      <c r="R113" t="s">
+        <v>34</v>
+      </c>
+      <c r="T113" t="s">
+        <v>35</v>
+      </c>
+      <c r="U113" t="s">
+        <v>36</v>
+      </c>
+      <c r="V113" t="s">
+        <v>470</v>
+      </c>
+      <c r="W113" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>472</v>
+      </c>
+      <c r="B114" t="s">
+        <v>473</v>
+      </c>
+      <c r="G114">
+        <v>372900043349</v>
+      </c>
+      <c r="H114">
+        <v>372900043349</v>
+      </c>
+      <c r="J114" t="s">
+        <v>474</v>
+      </c>
+      <c r="K114" t="s">
+        <v>52</v>
+      </c>
+      <c r="L114" t="s">
+        <v>32</v>
+      </c>
+      <c r="M114" t="s">
+        <v>32</v>
+      </c>
+      <c r="P114" t="s">
+        <v>33</v>
+      </c>
+      <c r="R114" t="s">
+        <v>34</v>
+      </c>
+      <c r="T114" t="s">
+        <v>35</v>
+      </c>
+      <c r="U114" t="s">
+        <v>36</v>
+      </c>
+      <c r="V114" t="s">
+        <v>475</v>
+      </c>
+      <c r="W114" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>477</v>
+      </c>
+      <c r="B115" t="s">
+        <v>478</v>
+      </c>
+      <c r="G115">
+        <v>372900043349</v>
+      </c>
+      <c r="H115">
+        <v>372900043349</v>
+      </c>
+      <c r="J115" t="s">
+        <v>479</v>
+      </c>
+      <c r="K115" t="s">
+        <v>52</v>
+      </c>
+      <c r="L115" t="s">
+        <v>32</v>
+      </c>
+      <c r="M115" t="s">
+        <v>32</v>
+      </c>
+      <c r="P115" t="s">
+        <v>33</v>
+      </c>
+      <c r="R115" t="s">
+        <v>34</v>
+      </c>
+      <c r="T115" t="s">
+        <v>35</v>
+      </c>
+      <c r="U115" t="s">
+        <v>36</v>
+      </c>
+      <c r="V115" t="s">
+        <v>480</v>
+      </c>
+      <c r="W115" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>482</v>
+      </c>
+      <c r="B116" t="s">
+        <v>483</v>
+      </c>
+      <c r="G116">
+        <v>372900043349</v>
+      </c>
+      <c r="H116">
+        <v>372900043349</v>
+      </c>
+      <c r="J116" t="s">
+        <v>484</v>
+      </c>
+      <c r="K116" t="s">
+        <v>52</v>
+      </c>
+      <c r="L116" t="s">
+        <v>32</v>
+      </c>
+      <c r="M116" t="s">
+        <v>32</v>
+      </c>
+      <c r="P116" t="s">
+        <v>33</v>
+      </c>
+      <c r="R116" t="s">
+        <v>34</v>
+      </c>
+      <c r="T116" t="s">
+        <v>35</v>
+      </c>
+      <c r="U116" t="s">
+        <v>36</v>
+      </c>
+      <c r="V116" t="s">
+        <v>485</v>
+      </c>
+      <c r="W116" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>487</v>
+      </c>
+      <c r="B117" t="s">
+        <v>488</v>
+      </c>
+      <c r="G117">
+        <v>372900043349</v>
+      </c>
+      <c r="H117">
+        <v>372900043349</v>
+      </c>
+      <c r="J117" t="s">
+        <v>489</v>
+      </c>
+      <c r="K117" t="s">
+        <v>52</v>
+      </c>
+      <c r="L117" t="s">
+        <v>32</v>
+      </c>
+      <c r="M117" t="s">
+        <v>32</v>
+      </c>
+      <c r="P117" t="s">
+        <v>33</v>
+      </c>
+      <c r="R117" t="s">
+        <v>34</v>
+      </c>
+      <c r="T117" t="s">
+        <v>35</v>
+      </c>
+      <c r="U117" t="s">
+        <v>36</v>
+      </c>
+      <c r="V117" t="s">
+        <v>490</v>
+      </c>
+      <c r="W117" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>492</v>
+      </c>
+      <c r="B118" t="s">
+        <v>493</v>
+      </c>
+      <c r="G118">
+        <v>372900043349</v>
+      </c>
+      <c r="H118">
+        <v>372900043349</v>
+      </c>
+      <c r="J118" t="s">
+        <v>494</v>
+      </c>
+      <c r="K118" t="s">
+        <v>52</v>
+      </c>
+      <c r="L118" t="s">
+        <v>32</v>
+      </c>
+      <c r="M118" t="s">
+        <v>32</v>
+      </c>
+      <c r="P118" t="s">
+        <v>33</v>
+      </c>
+      <c r="R118" t="s">
+        <v>34</v>
+      </c>
+      <c r="T118" t="s">
+        <v>35</v>
+      </c>
+      <c r="U118" t="s">
+        <v>36</v>
+      </c>
+      <c r="V118" t="s">
+        <v>495</v>
+      </c>
+      <c r="W118" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>497</v>
+      </c>
+      <c r="B119" t="s">
+        <v>493</v>
+      </c>
+      <c r="G119">
+        <v>372900043349</v>
+      </c>
+      <c r="H119">
+        <v>372900043349</v>
+      </c>
+      <c r="J119" t="s">
+        <v>494</v>
+      </c>
+      <c r="K119" t="s">
+        <v>52</v>
+      </c>
+      <c r="L119" t="s">
+        <v>32</v>
+      </c>
+      <c r="M119" t="s">
+        <v>32</v>
+      </c>
+      <c r="P119" t="s">
+        <v>33</v>
+      </c>
+      <c r="R119" t="s">
+        <v>34</v>
+      </c>
+      <c r="T119" t="s">
+        <v>35</v>
+      </c>
+      <c r="U119" t="s">
+        <v>36</v>
+      </c>
+      <c r="V119" t="s">
+        <v>495</v>
+      </c>
+      <c r="W119" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>498</v>
+      </c>
+      <c r="B120" t="s">
+        <v>499</v>
+      </c>
+      <c r="G120">
+        <v>372900043349</v>
+      </c>
+      <c r="H120">
+        <v>372900043349</v>
+      </c>
+      <c r="J120" t="s">
+        <v>500</v>
+      </c>
+      <c r="K120" t="s">
+        <v>52</v>
+      </c>
+      <c r="L120" t="s">
+        <v>32</v>
+      </c>
+      <c r="M120" t="s">
+        <v>32</v>
+      </c>
+      <c r="P120" t="s">
+        <v>33</v>
+      </c>
+      <c r="R120" t="s">
+        <v>34</v>
+      </c>
+      <c r="T120" t="s">
+        <v>35</v>
+      </c>
+      <c r="U120" t="s">
+        <v>36</v>
+      </c>
+      <c r="V120" t="s">
+        <v>501</v>
+      </c>
+      <c r="W120" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>503</v>
+      </c>
+      <c r="B121" t="s">
+        <v>499</v>
+      </c>
+      <c r="G121">
+        <v>372900043349</v>
+      </c>
+      <c r="H121">
+        <v>372900043349</v>
+      </c>
+      <c r="J121" t="s">
+        <v>500</v>
+      </c>
+      <c r="K121" t="s">
+        <v>52</v>
+      </c>
+      <c r="L121" t="s">
+        <v>32</v>
+      </c>
+      <c r="M121" t="s">
+        <v>32</v>
+      </c>
+      <c r="P121" t="s">
+        <v>33</v>
+      </c>
+      <c r="R121" t="s">
+        <v>34</v>
+      </c>
+      <c r="T121" t="s">
+        <v>35</v>
+      </c>
+      <c r="U121" t="s">
+        <v>36</v>
+      </c>
+      <c r="V121" t="s">
+        <v>501</v>
+      </c>
+      <c r="W121" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>504</v>
+      </c>
+      <c r="B122" t="s">
+        <v>505</v>
+      </c>
+      <c r="G122">
+        <v>372900043349</v>
+      </c>
+      <c r="H122">
+        <v>372900043349</v>
+      </c>
+      <c r="J122" t="s">
+        <v>506</v>
+      </c>
+      <c r="K122" t="s">
+        <v>52</v>
+      </c>
+      <c r="L122" t="s">
+        <v>32</v>
+      </c>
+      <c r="M122" t="s">
+        <v>32</v>
+      </c>
+      <c r="P122" t="s">
+        <v>33</v>
+      </c>
+      <c r="R122" t="s">
+        <v>34</v>
+      </c>
+      <c r="T122" t="s">
+        <v>35</v>
+      </c>
+      <c r="U122" t="s">
+        <v>36</v>
+      </c>
+      <c r="V122" t="s">
+        <v>507</v>
+      </c>
+      <c r="W122" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>509</v>
+      </c>
+      <c r="B123" t="s">
+        <v>510</v>
+      </c>
+      <c r="G123">
+        <v>372900043349</v>
+      </c>
+      <c r="H123">
+        <v>372900043349</v>
+      </c>
+      <c r="J123" t="s">
+        <v>511</v>
+      </c>
+      <c r="K123" t="s">
+        <v>52</v>
+      </c>
+      <c r="L123" t="s">
+        <v>32</v>
+      </c>
+      <c r="M123" t="s">
+        <v>32</v>
+      </c>
+      <c r="P123" t="s">
+        <v>33</v>
+      </c>
+      <c r="R123" t="s">
+        <v>34</v>
+      </c>
+      <c r="T123" t="s">
+        <v>35</v>
+      </c>
+      <c r="U123" t="s">
+        <v>36</v>
+      </c>
+      <c r="V123" t="s">
+        <v>512</v>
+      </c>
+      <c r="W123" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>514</v>
+      </c>
+      <c r="B124" t="s">
+        <v>515</v>
+      </c>
+      <c r="G124">
+        <v>372900043349</v>
+      </c>
+      <c r="H124">
+        <v>372900043349</v>
+      </c>
+      <c r="J124" t="s">
+        <v>516</v>
+      </c>
+      <c r="K124" t="s">
+        <v>52</v>
+      </c>
+      <c r="L124" t="s">
+        <v>32</v>
+      </c>
+      <c r="M124" t="s">
+        <v>32</v>
+      </c>
+      <c r="P124" t="s">
+        <v>33</v>
+      </c>
+      <c r="R124" t="s">
+        <v>34</v>
+      </c>
+      <c r="T124" t="s">
+        <v>35</v>
+      </c>
+      <c r="U124" t="s">
+        <v>36</v>
+      </c>
+      <c r="V124" t="s">
+        <v>517</v>
+      </c>
+      <c r="W124" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>519</v>
+      </c>
+      <c r="B125" t="s">
+        <v>520</v>
+      </c>
+      <c r="G125">
+        <v>372900043349</v>
+      </c>
+      <c r="H125">
+        <v>372900043349</v>
+      </c>
+      <c r="J125" t="s">
+        <v>521</v>
+      </c>
+      <c r="K125" t="s">
+        <v>52</v>
+      </c>
+      <c r="L125" t="s">
+        <v>32</v>
+      </c>
+      <c r="M125" t="s">
+        <v>32</v>
+      </c>
+      <c r="P125" t="s">
+        <v>33</v>
+      </c>
+      <c r="R125" t="s">
+        <v>34</v>
+      </c>
+      <c r="T125" t="s">
+        <v>35</v>
+      </c>
+      <c r="U125" t="s">
+        <v>36</v>
+      </c>
+      <c r="V125" t="s">
+        <v>522</v>
+      </c>
+      <c r="W125" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>524</v>
+      </c>
+      <c r="B126" t="s">
+        <v>520</v>
+      </c>
+      <c r="G126">
+        <v>372900043349</v>
+      </c>
+      <c r="H126">
+        <v>372900043349</v>
+      </c>
+      <c r="J126" t="s">
+        <v>521</v>
+      </c>
+      <c r="K126" t="s">
+        <v>52</v>
+      </c>
+      <c r="L126" t="s">
+        <v>32</v>
+      </c>
+      <c r="M126" t="s">
+        <v>32</v>
+      </c>
+      <c r="P126" t="s">
+        <v>33</v>
+      </c>
+      <c r="R126" t="s">
+        <v>34</v>
+      </c>
+      <c r="T126" t="s">
+        <v>35</v>
+      </c>
+      <c r="U126" t="s">
+        <v>36</v>
+      </c>
+      <c r="V126" t="s">
+        <v>522</v>
+      </c>
+      <c r="W126" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>525</v>
+      </c>
+      <c r="B127" t="s">
+        <v>526</v>
+      </c>
+      <c r="G127">
+        <v>372900043349</v>
+      </c>
+      <c r="H127">
+        <v>372900043349</v>
+      </c>
+      <c r="J127" t="s">
+        <v>527</v>
+      </c>
+      <c r="K127" t="s">
+        <v>52</v>
+      </c>
+      <c r="L127" t="s">
+        <v>32</v>
+      </c>
+      <c r="M127" t="s">
+        <v>32</v>
+      </c>
+      <c r="P127" t="s">
+        <v>33</v>
+      </c>
+      <c r="R127" t="s">
+        <v>34</v>
+      </c>
+      <c r="T127" t="s">
+        <v>35</v>
+      </c>
+      <c r="U127" t="s">
+        <v>36</v>
+      </c>
+      <c r="V127" t="s">
+        <v>528</v>
+      </c>
+      <c r="W127" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>530</v>
+      </c>
+      <c r="B128" t="s">
+        <v>531</v>
+      </c>
+      <c r="G128">
+        <v>372900043349</v>
+      </c>
+      <c r="H128">
+        <v>372900043349</v>
+      </c>
+      <c r="J128" t="s">
+        <v>532</v>
+      </c>
+      <c r="K128" t="s">
+        <v>52</v>
+      </c>
+      <c r="L128" t="s">
+        <v>32</v>
+      </c>
+      <c r="M128" t="s">
+        <v>32</v>
+      </c>
+      <c r="P128" t="s">
+        <v>33</v>
+      </c>
+      <c r="R128" t="s">
+        <v>34</v>
+      </c>
+      <c r="T128" t="s">
+        <v>35</v>
+      </c>
+      <c r="U128" t="s">
+        <v>36</v>
+      </c>
+      <c r="V128" t="s">
+        <v>533</v>
+      </c>
+      <c r="W128" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>535</v>
+      </c>
+      <c r="B129" t="s">
+        <v>536</v>
+      </c>
+      <c r="G129">
+        <v>372900043349</v>
+      </c>
+      <c r="H129">
+        <v>372900043349</v>
+      </c>
+      <c r="J129" t="s">
+        <v>537</v>
+      </c>
+      <c r="K129" t="s">
+        <v>52</v>
+      </c>
+      <c r="L129" t="s">
+        <v>32</v>
+      </c>
+      <c r="M129" t="s">
+        <v>32</v>
+      </c>
+      <c r="P129" t="s">
+        <v>33</v>
+      </c>
+      <c r="R129" t="s">
+        <v>34</v>
+      </c>
+      <c r="T129" t="s">
+        <v>35</v>
+      </c>
+      <c r="U129" t="s">
+        <v>36</v>
+      </c>
+      <c r="V129" t="s">
+        <v>538</v>
+      </c>
+      <c r="W129" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>540</v>
+      </c>
+      <c r="B130" t="s">
+        <v>541</v>
+      </c>
+      <c r="G130">
+        <v>372900043349</v>
+      </c>
+      <c r="H130">
+        <v>372900043349</v>
+      </c>
+      <c r="J130" t="s">
+        <v>542</v>
+      </c>
+      <c r="K130" t="s">
+        <v>52</v>
+      </c>
+      <c r="L130" t="s">
+        <v>32</v>
+      </c>
+      <c r="M130" t="s">
+        <v>32</v>
+      </c>
+      <c r="P130" t="s">
+        <v>33</v>
+      </c>
+      <c r="R130" t="s">
+        <v>34</v>
+      </c>
+      <c r="T130" t="s">
+        <v>35</v>
+      </c>
+      <c r="U130" t="s">
+        <v>36</v>
+      </c>
+      <c r="V130" t="s">
+        <v>543</v>
+      </c>
+      <c r="W130" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>545</v>
+      </c>
+      <c r="B131" t="s">
+        <v>546</v>
+      </c>
+      <c r="G131">
+        <v>372900043349</v>
+      </c>
+      <c r="H131">
+        <v>372900043349</v>
+      </c>
+      <c r="J131" t="s">
+        <v>547</v>
+      </c>
+      <c r="K131" t="s">
+        <v>52</v>
+      </c>
+      <c r="L131" t="s">
+        <v>32</v>
+      </c>
+      <c r="M131" t="s">
+        <v>32</v>
+      </c>
+      <c r="P131" t="s">
+        <v>33</v>
+      </c>
+      <c r="R131" t="s">
+        <v>34</v>
+      </c>
+      <c r="T131" t="s">
+        <v>35</v>
+      </c>
+      <c r="U131" t="s">
+        <v>36</v>
+      </c>
+      <c r="V131" t="s">
+        <v>548</v>
+      </c>
+      <c r="W131" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>550</v>
+      </c>
+      <c r="B132" t="s">
+        <v>551</v>
+      </c>
+      <c r="G132">
+        <v>372900043349</v>
+      </c>
+      <c r="H132">
+        <v>372900043349</v>
+      </c>
+      <c r="J132" t="s">
+        <v>552</v>
+      </c>
+      <c r="K132" t="s">
+        <v>52</v>
+      </c>
+      <c r="L132" t="s">
+        <v>32</v>
+      </c>
+      <c r="M132" t="s">
+        <v>32</v>
+      </c>
+      <c r="P132" t="s">
+        <v>33</v>
+      </c>
+      <c r="R132" t="s">
+        <v>34</v>
+      </c>
+      <c r="T132" t="s">
+        <v>35</v>
+      </c>
+      <c r="U132" t="s">
+        <v>36</v>
+      </c>
+      <c r="V132" t="s">
+        <v>553</v>
+      </c>
+      <c r="W132" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>555</v>
+      </c>
+      <c r="B133" t="s">
+        <v>556</v>
+      </c>
+      <c r="G133">
+        <v>372900043349</v>
+      </c>
+      <c r="H133">
+        <v>372900043349</v>
+      </c>
+      <c r="J133" t="s">
+        <v>557</v>
+      </c>
+      <c r="K133" t="s">
+        <v>52</v>
+      </c>
+      <c r="L133" t="s">
+        <v>32</v>
+      </c>
+      <c r="M133" t="s">
+        <v>32</v>
+      </c>
+      <c r="P133" t="s">
+        <v>33</v>
+      </c>
+      <c r="R133" t="s">
+        <v>34</v>
+      </c>
+      <c r="T133" t="s">
+        <v>35</v>
+      </c>
+      <c r="U133" t="s">
+        <v>36</v>
+      </c>
+      <c r="V133" t="s">
+        <v>558</v>
+      </c>
+      <c r="W133" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>560</v>
+      </c>
+      <c r="B134" t="s">
+        <v>561</v>
+      </c>
+      <c r="G134">
+        <v>372900043349</v>
+      </c>
+      <c r="H134">
+        <v>372900043349</v>
+      </c>
+      <c r="J134" t="s">
+        <v>562</v>
+      </c>
+      <c r="K134" t="s">
+        <v>52</v>
+      </c>
+      <c r="L134" t="s">
+        <v>32</v>
+      </c>
+      <c r="M134" t="s">
+        <v>32</v>
+      </c>
+      <c r="P134" t="s">
+        <v>33</v>
+      </c>
+      <c r="R134" t="s">
+        <v>34</v>
+      </c>
+      <c r="T134" t="s">
+        <v>35</v>
+      </c>
+      <c r="U134" t="s">
+        <v>36</v>
+      </c>
+      <c r="V134" t="s">
+        <v>563</v>
+      </c>
+      <c r="W134" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>565</v>
+      </c>
+      <c r="B135" t="s">
+        <v>566</v>
+      </c>
+      <c r="G135">
+        <v>372900043349</v>
+      </c>
+      <c r="H135">
+        <v>372900043349</v>
+      </c>
+      <c r="J135" t="s">
+        <v>567</v>
+      </c>
+      <c r="K135" t="s">
+        <v>52</v>
+      </c>
+      <c r="L135" t="s">
+        <v>32</v>
+      </c>
+      <c r="M135" t="s">
+        <v>32</v>
+      </c>
+      <c r="P135" t="s">
+        <v>33</v>
+      </c>
+      <c r="R135" t="s">
+        <v>34</v>
+      </c>
+      <c r="T135" t="s">
+        <v>35</v>
+      </c>
+      <c r="U135" t="s">
+        <v>36</v>
+      </c>
+      <c r="V135" t="s">
+        <v>568</v>
+      </c>
+      <c r="W135" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>570</v>
+      </c>
+      <c r="B136" t="s">
+        <v>571</v>
+      </c>
+      <c r="G136">
+        <v>372900043349</v>
+      </c>
+      <c r="H136">
+        <v>372900043349</v>
+      </c>
+      <c r="J136" t="s">
+        <v>572</v>
+      </c>
+      <c r="K136" t="s">
+        <v>52</v>
+      </c>
+      <c r="L136" t="s">
+        <v>32</v>
+      </c>
+      <c r="M136" t="s">
+        <v>32</v>
+      </c>
+      <c r="P136" t="s">
+        <v>33</v>
+      </c>
+      <c r="R136" t="s">
+        <v>34</v>
+      </c>
+      <c r="T136" t="s">
+        <v>35</v>
+      </c>
+      <c r="U136" t="s">
+        <v>36</v>
+      </c>
+      <c r="V136" t="s">
+        <v>573</v>
+      </c>
+      <c r="W136" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>575</v>
+      </c>
+      <c r="B137" t="s">
+        <v>431</v>
+      </c>
+      <c r="G137">
+        <v>372900043349</v>
+      </c>
+      <c r="H137">
+        <v>372900043349</v>
+      </c>
+      <c r="J137" t="s">
+        <v>432</v>
+      </c>
+      <c r="K137" t="s">
+        <v>52</v>
+      </c>
+      <c r="L137" t="s">
+        <v>32</v>
+      </c>
+      <c r="M137" t="s">
+        <v>32</v>
+      </c>
+      <c r="P137" t="s">
+        <v>33</v>
+      </c>
+      <c r="R137" t="s">
+        <v>34</v>
+      </c>
+      <c r="T137" t="s">
+        <v>35</v>
+      </c>
+      <c r="U137" t="s">
+        <v>36</v>
+      </c>
+      <c r="V137" t="s">
+        <v>576</v>
+      </c>
+      <c r="W137" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>578</v>
+      </c>
+      <c r="B138" t="s">
+        <v>579</v>
+      </c>
+      <c r="G138">
+        <v>372900043349</v>
+      </c>
+      <c r="H138">
+        <v>372900043349</v>
+      </c>
+      <c r="J138" t="s">
+        <v>580</v>
+      </c>
+      <c r="K138" t="s">
+        <v>52</v>
+      </c>
+      <c r="L138" t="s">
+        <v>32</v>
+      </c>
+      <c r="M138" t="s">
+        <v>32</v>
+      </c>
+      <c r="P138" t="s">
+        <v>33</v>
+      </c>
+      <c r="R138" t="s">
+        <v>34</v>
+      </c>
+      <c r="T138" t="s">
+        <v>35</v>
+      </c>
+      <c r="U138" t="s">
+        <v>36</v>
+      </c>
+      <c r="V138" t="s">
+        <v>568</v>
+      </c>
+      <c r="W138" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/public/inputinsale/marks.xlsx
+++ b/public/inputinsale/marks.xlsx
@@ -14,14 +14,14 @@
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="582">
-  <si>
-    <t>Filter(participantInn=372900043349, productGroup=LP, packageType=[UNIT], status=APPLIED, includeGtin=[], excludeGtin=[], appliedPeriod=null, emissionPeriod=Period(start=2023-08-10T21:00:00Z, end=2023-08-14T20:59:59Z), productionPeriod=null)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="503">
+  <si>
+    <t>Filter(participantInn=372900043349, productGroup=LP, packageType=[UNIT], status=APPLIED, includeGtin=[], excludeGtin=[], appliedPeriod=null, emissionPeriod=Period(start=2023-08-21T21:00:00Z, end=2023-08-23T20:59:59Z), productionPeriod=null)</t>
   </si>
   <si>
     <t>requestedCis</t>
@@ -111,10 +111,10 @@
     <t>aggregationType</t>
   </si>
   <si>
-    <t>0102900259442713215b(PDpUMXA"!J</t>
-  </si>
-  <si>
-    <t>02900259442713</t>
+    <t>0102900261005890215dYYc6=JRQyXJ</t>
+  </si>
+  <si>
+    <t>02900261005890</t>
   </si>
   <si>
     <t>ИП ЗОТОВ ВЯЧЕСЛАВ ВАЛЕРЬЕВИЧ</t>
@@ -132,160 +132,733 @@
     <t>LP</t>
   </si>
   <si>
-    <t>2023-08-14T17:21:42.779Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T16:15:25.558Z</t>
-  </si>
-  <si>
-    <t>0102900259442713215lndsaOWNGTRV</t>
-  </si>
-  <si>
-    <t>0102900259442683215Qfq0zD'YmH00</t>
-  </si>
-  <si>
-    <t>02900259442683</t>
-  </si>
-  <si>
-    <t>2023-08-14T17:20:42.401Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T16:15:25.347Z</t>
-  </si>
-  <si>
-    <t>0102900259442690215BGNyd3ApP5rK</t>
-  </si>
-  <si>
-    <t>02900259442690</t>
-  </si>
-  <si>
-    <t>2023-08-14T17:21:42.773Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T16:15:25.243Z</t>
-  </si>
-  <si>
-    <t>0102900259442690215dGGunl&lt;FGwmS</t>
-  </si>
-  <si>
-    <t>01029002487930792157-GjupTwJjC"</t>
-  </si>
-  <si>
-    <t>02900248793079</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 220 х 240 - М - 125 - Миндаль 1х1</t>
+    <t>2023-08-24T06:12:56.443Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:39:13.807Z</t>
+  </si>
+  <si>
+    <t>0102900259965816215y,L+0H1o0IVT</t>
+  </si>
+  <si>
+    <t>02900259965816</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 40 х 60 - М - 221 Бежевый</t>
   </si>
   <si>
     <t>ИВАНОВСКИЙ ТЕКСТИЛЬ</t>
   </si>
   <si>
-    <t>2023-08-14T17:19:41.852Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:20:38.574Z</t>
-  </si>
-  <si>
-    <t>0102900248793079215G2FjQKaEZOJS</t>
-  </si>
-  <si>
-    <t>0102900248793079215iXXE_J/es=oW</t>
-  </si>
-  <si>
-    <t>0102900248793079215r"rH!2nV+Po:</t>
-  </si>
-  <si>
-    <t>0102900076416416215vP-IIFsDdd8:</t>
-  </si>
-  <si>
-    <t>02900076416416</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 50 х 70 - М - 60S 4247 Сирень</t>
-  </si>
-  <si>
-    <t>2023-08-14T17:19:41.793Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:20:37.979Z</t>
-  </si>
-  <si>
-    <t>01029000762343002155'BJi8BgUJGF</t>
-  </si>
-  <si>
-    <t>02900076234300</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 240 х 260 - М - 125 - Бирюза 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-14T17:19:41.648Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:20:35.014Z</t>
-  </si>
-  <si>
-    <t>0102900249470078215THoQOa0&amp;imwf</t>
-  </si>
-  <si>
-    <t>02900249470078</t>
-  </si>
-  <si>
-    <t>Постельное белье варёный хлопок Евро Макси - М - 221 Бежевый</t>
-  </si>
-  <si>
-    <t>2023-08-14T17:19:41.572Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:20:34.936Z</t>
-  </si>
-  <si>
-    <t>0102900077197437215YEyguQRsM:sB</t>
-  </si>
-  <si>
-    <t>02900077197437</t>
-  </si>
-  <si>
-    <t>Постельное бельё из сатин жаккарда Евро макси - М - Жемчуг</t>
-  </si>
-  <si>
-    <t>2023-08-14T17:13:41.184Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:20:34.737Z</t>
-  </si>
-  <si>
-    <t>0102900236620790215j/dcNJzP!VhE</t>
-  </si>
-  <si>
-    <t>02900236620790</t>
-  </si>
-  <si>
-    <t>Простыня непромокаемая на резинке 160 х 200 х 10 - М - Мулетон Полиэстер</t>
-  </si>
-  <si>
-    <t>2023-08-14T17:12:41.092Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:20:34.521Z</t>
-  </si>
-  <si>
-    <t>0102900076983505215fQep&gt;bkf,jkL</t>
-  </si>
-  <si>
-    <t>02900076983505</t>
-  </si>
-  <si>
-    <t>Простыня из тенселя на резинке 160х200х30 - М - 60S 18 Розовый йогурт</t>
-  </si>
-  <si>
-    <t>2023-08-14T17:12:41.219Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:20:34.325Z</t>
-  </si>
-  <si>
-    <t>0102900077307041215*mBfR"LQR9X8</t>
+    <t>2023-08-24T06:09:53.632Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:13.082Z</t>
+  </si>
+  <si>
+    <t>0102900261006026215aXs,VmAKAZN+</t>
+  </si>
+  <si>
+    <t>02900261006026</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:12:56.155Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:12.767Z</t>
+  </si>
+  <si>
+    <t>0102900261005975215/IV5+*Mq"_dg</t>
+  </si>
+  <si>
+    <t>02900261005975</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:11:54.758Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:11.437Z</t>
+  </si>
+  <si>
+    <t>0102900257334645215-CKmP&amp;8x?IXC</t>
+  </si>
+  <si>
+    <t>02900257334645</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4323 Бежево-розовый</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:10:55.624Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:11.113Z</t>
+  </si>
+  <si>
+    <t>0102900257334645215qbRT?WVZJiD:</t>
+  </si>
+  <si>
+    <t>0102900076966775215PnZ=mmo30vki</t>
+  </si>
+  <si>
+    <t>02900076966775</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 280 х 280 - М - 140 - Белая</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:08:53.274Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:09.736Z</t>
+  </si>
+  <si>
+    <t>0102900245376145215)SnBHPCW"!aB</t>
+  </si>
+  <si>
+    <t>02900245376145</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 300 х 300 - М - 60S 4292 Кремовый</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:08:53.140Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:03.765Z</t>
+  </si>
+  <si>
+    <t>0102900261006002215%U6YKGJapG-b</t>
+  </si>
+  <si>
+    <t>02900261006002</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:11:55.125Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:03.550Z</t>
+  </si>
+  <si>
+    <t>0102900261005951215kiurRFpK1JY+</t>
+  </si>
+  <si>
+    <t>02900261005951</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:01.770Z</t>
+  </si>
+  <si>
+    <t>0102900261005913215AOnHdn8Zm2wT</t>
+  </si>
+  <si>
+    <t>02900261005913</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:11:54.757Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:01.483Z</t>
+  </si>
+  <si>
+    <t>0102900261005937215'FHdvs%kIQrF</t>
+  </si>
+  <si>
+    <t>02900261005937</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:11:54.763Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:01.213Z</t>
+  </si>
+  <si>
+    <t>0102900261005920215bo&gt;bdKQuR1gP</t>
+  </si>
+  <si>
+    <t>02900261005920</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:11:54.484Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:00.342Z</t>
+  </si>
+  <si>
+    <t>0102900261005906215Tbz7ZjScXJl8</t>
+  </si>
+  <si>
+    <t>02900261005906</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:11:54.146Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:00.336Z</t>
+  </si>
+  <si>
+    <t>0102900261005883215im7x/edXiNeS</t>
+  </si>
+  <si>
+    <t>02900261005883</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:11:54.370Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:00.304Z</t>
+  </si>
+  <si>
+    <t>0102900085439659215Lh&lt;zDHrIPRpu</t>
+  </si>
+  <si>
+    <t>02900085439659</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 300 х 300 - М - 60S 4373 Пудровый</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:09:53.629Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:22:58.173Z</t>
+  </si>
+  <si>
+    <t>0102900080836637215ZlV,RVam;Kp,</t>
+  </si>
+  <si>
+    <t>02900080836637</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 200 - М - 60S 129 Темно-зеленый</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:10:55.855Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:22:58.001Z</t>
+  </si>
+  <si>
+    <t>01029000780426062157(djlbFbYjuZ</t>
+  </si>
+  <si>
+    <t>02900078042606</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4223 Фиолетовый</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:09:53.631Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:22:57.897Z</t>
+  </si>
+  <si>
+    <t>0102900078042606215dKoX;aiPdfkg</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:09:53.633Z</t>
+  </si>
+  <si>
+    <t>0102900078042606215kJQyBbZ/V;1b</t>
+  </si>
+  <si>
+    <t>0102900125740011215FuSs-IU0UFO9</t>
+  </si>
+  <si>
+    <t>02900125740011</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 160х200х30 - М - 60S 129 Темно-зеленый</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:10:55.623Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:22:57.633Z</t>
+  </si>
+  <si>
+    <t>0102900261006101215UE+8DeTb8iBw</t>
+  </si>
+  <si>
+    <t>02900261006101</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:12:56.152Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:22:57.083Z</t>
+  </si>
+  <si>
+    <t>0102900076931247215%6VejBG"PaZ0</t>
+  </si>
+  <si>
+    <t>02900076931247</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 129 Темно-зеленый</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:10:55.863Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:22:56.879Z</t>
+  </si>
+  <si>
+    <t>0102900076931247215&amp;k!E&lt;VFio"L.</t>
+  </si>
+  <si>
+    <t>0102900114848230215WCpQd:AFM36N</t>
+  </si>
+  <si>
+    <t>02900114848230</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - 60S 4216 Серебро</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:22:56.671Z</t>
+  </si>
+  <si>
+    <t>01029000780953292158tij,HPCyIf+</t>
+  </si>
+  <si>
+    <t>02900078095329</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 240 х 260 - М - 221 Бежевый</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:22:56.549Z</t>
+  </si>
+  <si>
+    <t>0102900261006057215B,gJAsFKDovh</t>
+  </si>
+  <si>
+    <t>02900261006057</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:12:56.156Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:22:56.218Z</t>
+  </si>
+  <si>
+    <t>0102900078415165215Dz2U_'fHYWJ-</t>
+  </si>
+  <si>
+    <t>02900078415165</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 300 х 300 - М - 60S 4223 Фиолетовый</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:10:55.466Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:22:56.014Z</t>
+  </si>
+  <si>
+    <t>0102900078095336215r:HODFSt%,Fl</t>
+  </si>
+  <si>
+    <t>02900078095336</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50 х 70 - М - 221 Бежевый</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:09:53.637Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:22:54.554Z</t>
+  </si>
+  <si>
+    <t>0102900245821133215(Yr8iQcaFYxX</t>
+  </si>
+  <si>
+    <t>02900245821133</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 280 х 280 - М - 221 Бежевый</t>
+  </si>
+  <si>
+    <t>2023-08-24T06:08:53.663Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:22:54.169Z</t>
+  </si>
+  <si>
+    <t>0102900261004848215Fo-b:V1L;VOE</t>
+  </si>
+  <si>
+    <t>02900261004848</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:57.347Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:16:31.972Z</t>
+  </si>
+  <si>
+    <t>0102900244722325215,JWUNUGV&amp;aoQ</t>
+  </si>
+  <si>
+    <t>02900244722325</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель 1,5 спальное - М - 60S 4216 Серебро с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:57.353Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:09:54.169Z</t>
+  </si>
+  <si>
+    <t>0102900079800175215hd+3vsF/0D&gt;t</t>
+  </si>
+  <si>
+    <t>02900079800175</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 280 х 280 - М - 125 - Миндаль 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:57.352Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:09:53.955Z</t>
+  </si>
+  <si>
+    <t>01029002610048622157l%A"s-t"PEJ</t>
+  </si>
+  <si>
+    <t>02900261004862</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:09:50.913Z</t>
+  </si>
+  <si>
+    <t>0102900076040574215ukLf!FIHGKQq</t>
+  </si>
+  <si>
+    <t>02900076040574</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя 240 х 260 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:57.362Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:09:50.814Z</t>
+  </si>
+  <si>
+    <t>0102900261004855215:Z5E,(0Dgqk'</t>
+  </si>
+  <si>
+    <t>02900261004855</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:23:57.358Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:09:50.653Z</t>
+  </si>
+  <si>
+    <t>0102900257793282215TbaekREm%Ci*</t>
+  </si>
+  <si>
+    <t>02900257793282</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель 2 спальное на резинке 160х200х30 - М - 60S 16 Голубой хрусталь</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:22:58.266Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T13:09:50.418Z</t>
+  </si>
+  <si>
+    <t>0102900260935594215mi&gt;QclV3plMC</t>
+  </si>
+  <si>
+    <t>02900260935594</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:50:07.163Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:48:13.972Z</t>
+  </si>
+  <si>
+    <t>0102900077221866215;hqbG8l0mz3j</t>
+  </si>
+  <si>
+    <t>02900077221866</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп микрофибры 200 х 220 - М - 85 - Белый 3х3</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:48:06.553Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:36:20.123Z</t>
+  </si>
+  <si>
+    <t>01029002526024592152qKtRGpFPRfh</t>
+  </si>
+  <si>
+    <t>02900252602459</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп сатина семейное - М - 125 - Олива 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:48:06.551Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:36:19.629Z</t>
+  </si>
+  <si>
+    <t>0102900260932722215Gt.THrFp4paD</t>
+  </si>
+  <si>
+    <t>02900260932722</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:36:19.485Z</t>
+  </si>
+  <si>
+    <t>0102900260932715215RJIW)bn'tKuK</t>
+  </si>
+  <si>
+    <t>02900260932715</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:48:06.560Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:36:19.014Z</t>
+  </si>
+  <si>
+    <t>0102900260932708215lXnZ+'7"1Iow</t>
+  </si>
+  <si>
+    <t>02900260932708</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:47:06.075Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:36:18.739Z</t>
+  </si>
+  <si>
+    <t>0102900244791185215mmim=b%iCTx,</t>
+  </si>
+  <si>
+    <t>02900244791185</t>
+  </si>
+  <si>
+    <t>Простыня из бязи на резинке 120 х 200 х 10 - М - 142 ГОСТ - Черный</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:47:05.813Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:36:18.434Z</t>
+  </si>
+  <si>
+    <t>0102900260932692215S;Z4DxPlwVpB</t>
+  </si>
+  <si>
+    <t>02900260932692</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:47:05.812Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:36:18.208Z</t>
+  </si>
+  <si>
+    <t>01029002529244762152Vi5V*R3CJef</t>
+  </si>
+  <si>
+    <t>02900252924476</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 70 х 70 - М - 60S 4216 Серебро</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:47:05.807Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:36:17.858Z</t>
+  </si>
+  <si>
+    <t>01029002609326852150BWPVDOvefQN</t>
+  </si>
+  <si>
+    <t>02900260932685</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:47:05.626Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:36:17.685Z</t>
+  </si>
+  <si>
+    <t>0102900260932678215j&amp;qSJsAkxC!s</t>
+  </si>
+  <si>
+    <t>02900260932678</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:36:17.286Z</t>
+  </si>
+  <si>
+    <t>01029002414101332158C!TF!uOi6wh</t>
+  </si>
+  <si>
+    <t>02900241410133</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 300 х 300 - М - 140 - Белая</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:28:00.460Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:20:51.939Z</t>
+  </si>
+  <si>
+    <t>0102900254444460215B&gt;=HqYaukJrC</t>
+  </si>
+  <si>
+    <t>02900254444460</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 135 - Мокрый асфальт 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:28:00.377Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:20:51.628Z</t>
+  </si>
+  <si>
+    <t>0102900240970317215&amp;=N)IkIHjskT</t>
+  </si>
+  <si>
+    <t>02900240970317</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 280 х 280 - М - 120 - Изумрудный</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:27:58.659Z</t>
+  </si>
+  <si>
+    <t>2023-08-23T06:20:51.410Z</t>
+  </si>
+  <si>
+    <t>0102900260902152215mnMPeP(TOQYt</t>
+  </si>
+  <si>
+    <t>02900260902152</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:28:17.884Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:24:05.536Z</t>
+  </si>
+  <si>
+    <t>0102900136838479215eR;vRIbUn/Bk</t>
+  </si>
+  <si>
+    <t>02900136838479</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 240 х 260 - М - Чёрный</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:28:17.798Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:24:05.312Z</t>
+  </si>
+  <si>
+    <t>0102900245912152215r3OxmxCm_3oG</t>
+  </si>
+  <si>
+    <t>02900245912152</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 120х200х40 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:22:17.080Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:11:40.389Z</t>
+  </si>
+  <si>
+    <t>0102900074852674215SmB_BZT_c;PE</t>
+  </si>
+  <si>
+    <t>02900074852674</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп сатина Евро на резинке 160х200х30 - М - 135 - Белый 3х3</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:22:16.922Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:11:40.305Z</t>
+  </si>
+  <si>
+    <t>0102900240119051215FNDrZ&amp;eTXlL+</t>
+  </si>
+  <si>
+    <t>02900240119051</t>
+  </si>
+  <si>
+    <t>Простыня непромокаемая 80 х 160 - М - Мулетон Полиэстер</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:11:40.259Z</t>
+  </si>
+  <si>
+    <t>0102900260901995215qYHNHACGONO(</t>
+  </si>
+  <si>
+    <t>02900260901995</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:23:17.314Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:11:40.157Z</t>
+  </si>
+  <si>
+    <t>0102900260901988215)Alge4xFFYoi</t>
+  </si>
+  <si>
+    <t>02900260901988</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:23:16.950Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:11:40.127Z</t>
+  </si>
+  <si>
+    <t>01029000773070412154a0H&gt;dRrmprm</t>
   </si>
   <si>
     <t>02900077307041</t>
@@ -294,1414 +867,646 @@
     <t>Наволочка из тенселя 50 х 70 - М - 60S 103 Пудровый</t>
   </si>
   <si>
-    <t>2023-08-14T17:11:40.653Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:20:34.303Z</t>
-  </si>
-  <si>
-    <t>0102900077307041215Bo&lt;U&gt;lreJT%z</t>
-  </si>
-  <si>
-    <t>0102900077307041215eE8-p1V=nsPm</t>
-  </si>
-  <si>
-    <t>0102900259391424215LsGBkkNKsUa!</t>
-  </si>
-  <si>
-    <t>02900259391424</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:20:31.807Z</t>
-  </si>
-  <si>
-    <t>0102900259391417215jiQPHYqs,PjN</t>
-  </si>
-  <si>
-    <t>02900259391417</t>
-  </si>
-  <si>
-    <t>2023-08-14T17:20:42.283Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:20:31.740Z</t>
-  </si>
-  <si>
-    <t>0102900259391400215,sZwdRjXNt=l</t>
-  </si>
-  <si>
-    <t>02900259391400</t>
-  </si>
-  <si>
-    <t>2023-08-14T17:20:42.158Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:20:31.427Z</t>
-  </si>
-  <si>
-    <t>0102900259391400215eGKWW6t*PJhW</t>
-  </si>
-  <si>
-    <t>0102900259391394215Z0EXH3G/kPMn</t>
+    <t>2023-08-22T19:22:16.971Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:11:39.861Z</t>
+  </si>
+  <si>
+    <t>0102900077307041215i4(IITOlh_Jd</t>
+  </si>
+  <si>
+    <t>0102900076995171215&gt;aUFhsP&lt;Yosy</t>
+  </si>
+  <si>
+    <t>02900076995171</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:22:16.695Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:11:39.826Z</t>
+  </si>
+  <si>
+    <t>0102900076995171215EVFDNqfmc(Tu</t>
+  </si>
+  <si>
+    <t>0102900260901971215NW&lt;oMWplHpTQ</t>
+  </si>
+  <si>
+    <t>02900260901971</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:23:16.850Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:11:39.763Z</t>
+  </si>
+  <si>
+    <t>0102900120741099215Sc"Kb:pO?9Ym</t>
+  </si>
+  <si>
+    <t>02900120741099</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 125 - Черника 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:12:10.134Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:03:50.864Z</t>
+  </si>
+  <si>
+    <t>0102900120741099215tF=Bcj'T-h:&lt;</t>
+  </si>
+  <si>
+    <t>0102900259909865215)ZrSvdP8J!fJ</t>
+  </si>
+  <si>
+    <t>02900259909865</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 30 - М - 125 - Черника 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:12:10.074Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:03:50.744Z</t>
+  </si>
+  <si>
+    <t>0102900260901964215O)''WDxG;FEb</t>
+  </si>
+  <si>
+    <t>02900260901964</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:11:09.725Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:03:50.525Z</t>
+  </si>
+  <si>
+    <t>0102900074694632215EOz9BPutACQ_</t>
+  </si>
+  <si>
+    <t>02900074694632</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 220 х 240 - М - 125 - Миндаль 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:12:10.080Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:03:50.501Z</t>
+  </si>
+  <si>
+    <t>0102900260901957215QNQ-nO9;OWFF</t>
+  </si>
+  <si>
+    <t>02900260901957</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:11:09.718Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:03:50.362Z</t>
+  </si>
+  <si>
+    <t>0102900174621088215FFDj5F*j0oV&lt;</t>
+  </si>
+  <si>
+    <t>02900174621088</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 135 - Бежевый 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:12:10.137Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:03:50.351Z</t>
+  </si>
+  <si>
+    <t>0102900174621088215YRmdP.PqV&lt;_p</t>
+  </si>
+  <si>
+    <t>01029002609019402151aS+csl_1hU0</t>
+  </si>
+  <si>
+    <t>02900260901940</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:11:09.475Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:03:50.209Z</t>
+  </si>
+  <si>
+    <t>0102900247910026215+bvAGc7vE(O3</t>
+  </si>
+  <si>
+    <t>02900247910026</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 280 х 280 - М - 125 - Белая</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:11:09.208Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T19:03:50.143Z</t>
+  </si>
+  <si>
+    <t>0102900077307034215K7E3LQhuWJfH</t>
+  </si>
+  <si>
+    <t>02900077307034</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 128 Золотой блеск</t>
+  </si>
+  <si>
+    <t>2023-08-22T18:58:08.176Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T18:55:37.144Z</t>
+  </si>
+  <si>
+    <t>0102900260766358215pzWVuEX;_EK,</t>
+  </si>
+  <si>
+    <t>02900260766358</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:30:52.692Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:24:08.279Z</t>
+  </si>
+  <si>
+    <t>0102900260766372215qjodyYuTshp.</t>
+  </si>
+  <si>
+    <t>02900260766372</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:30:52.901Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:24:08.258Z</t>
+  </si>
+  <si>
+    <t>0102900237820694215:wtshb=D4jPc</t>
+  </si>
+  <si>
+    <t>02900237820694</t>
+  </si>
+  <si>
+    <t>Матрас ватный тик с бортом 110 х 190 - СИН - Вата белая</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:30:53.207Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:24:08.252Z</t>
+  </si>
+  <si>
+    <t>0102900237820694215TEYxG2t,AWoT</t>
+  </si>
+  <si>
+    <t>0102900077591426215PKTmk&gt;WUUYN.</t>
+  </si>
+  <si>
+    <t>02900077591426</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 220 х 240 - М - 125 - Шампань 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:30:52.915Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:24:08.017Z</t>
+  </si>
+  <si>
+    <t>0102900125739817215BonceN/ZeGBF</t>
+  </si>
+  <si>
+    <t>02900125739817</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50 х 70 - М - 181222 Коричневый</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:30:53.156Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:24:07.948Z</t>
+  </si>
+  <si>
+    <t>0102900260766341215mLJUdawJVgO'</t>
+  </si>
+  <si>
+    <t>02900260766341</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:29:51.519Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:24:07.863Z</t>
+  </si>
+  <si>
+    <t>0102900260766365215t'nn&lt;I6Z&amp;QDE</t>
+  </si>
+  <si>
+    <t>02900260766365</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:29:51.421Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:24:07.720Z</t>
+  </si>
+  <si>
+    <t>0102900079606371215Eqi:yqRkXS&gt;:</t>
+  </si>
+  <si>
+    <t>02900079606371</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 70 х 70 - М - 323 Серый</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:24:49.426Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:08:38.523Z</t>
+  </si>
+  <si>
+    <t>0102900079606371215hXFhPi?7?rVk</t>
+  </si>
+  <si>
+    <t>0102900237884887215+"UJ=!jtoQMz</t>
+  </si>
+  <si>
+    <t>02900237884887</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 160х200х20 - М - 323 Серый</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:24:48.801Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:08:38.500Z</t>
+  </si>
+  <si>
+    <t>0102900076844066215Nbj_oFoUDG'l</t>
+  </si>
+  <si>
+    <t>02900076844066</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50 х 70 - М - Белый</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:23:48.468Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:07:21.440Z</t>
+  </si>
+  <si>
+    <t>0102900076844066215jJJ5RrKzywn!</t>
+  </si>
+  <si>
+    <t>0102900079606272215a,LStWkau/2M</t>
+  </si>
+  <si>
+    <t>02900079606272</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 200 х 200 - М - 323 Серый</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:24:48.153Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:07:21.192Z</t>
+  </si>
+  <si>
+    <t>0102900260773677215i2PQ-QdloIxO</t>
+  </si>
+  <si>
+    <t>02900260773677</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:07:20.961Z</t>
+  </si>
+  <si>
+    <t>0102900260773660215GFRQL,m_RcBc</t>
+  </si>
+  <si>
+    <t>02900260773660</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:22:47.963Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:07:20.699Z</t>
+  </si>
+  <si>
+    <t>0102900260773653215AdMtd/P&lt;n/Ck</t>
+  </si>
+  <si>
+    <t>02900260773653</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:21:47.325Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:07:20.633Z</t>
+  </si>
+  <si>
+    <t>01029002607736392153orYK-LZGnMR</t>
+  </si>
+  <si>
+    <t>02900260773639</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:21:47.055Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:07:20.384Z</t>
+  </si>
+  <si>
+    <t>0102900260773646215drfV)pNs2r=t</t>
+  </si>
+  <si>
+    <t>02900260773646</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:21:47.355Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:07:20.213Z</t>
+  </si>
+  <si>
+    <t>0102900074852674215"K6'IDN_&gt;T7Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:21:46.707Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:07:19.753Z</t>
+  </si>
+  <si>
+    <t>01029002559784832153&amp;YaWMhHl;Y0</t>
+  </si>
+  <si>
+    <t>02900255978483</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп сатина Евро на резинке 160х200х30 - М - 125 - Шампань 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:07:19.486Z</t>
+  </si>
+  <si>
+    <t>0102900244291036215aOAPtp?'O3PA</t>
+  </si>
+  <si>
+    <t>02900244291036</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп-сатина 1,5 спальное на резинке 90х200х30 - М - 125 - Белый 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:20:46.686Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T07:07:19.253Z</t>
+  </si>
+  <si>
+    <t>0102900260763210215v&gt;VIq-0dESlp</t>
+  </si>
+  <si>
+    <t>02900260763210</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:37:27.232Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:26:22.872Z</t>
+  </si>
+  <si>
+    <t>0102900102855608215xnfE+CAAhXgO</t>
+  </si>
+  <si>
+    <t>02900102855608</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 160 х 200 х 20 - М - 140 - Золото заката 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:35:26.173Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:26:22.747Z</t>
+  </si>
+  <si>
+    <t>0102900260763203215ZmUUTClH&gt;qU"</t>
+  </si>
+  <si>
+    <t>02900260763203</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:37:27.103Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:26:22.103Z</t>
+  </si>
+  <si>
+    <t>0102900127127629215qd?oJ%CyIGTB</t>
+  </si>
+  <si>
+    <t>02900127127629</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 120 х 200 х 40 - М - 140 - Серый Люкс</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:35:25.906Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:26:21.834Z</t>
+  </si>
+  <si>
+    <t>0102900260763197215fTPqPCYa,4C6</t>
+  </si>
+  <si>
+    <t>02900260763197</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:36:26.489Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:26:21.786Z</t>
+  </si>
+  <si>
+    <t>0102900260763180215V2nJqR!WzPO5</t>
+  </si>
+  <si>
+    <t>02900260763180</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:36:26.256Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:26:21.783Z</t>
+  </si>
+  <si>
+    <t>0102900259391394215Ik&gt;zBZmoOWfZ</t>
   </si>
   <si>
     <t>02900259391394</t>
   </si>
   <si>
-    <t>2023-08-14T17:20:41.776Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:20:31.406Z</t>
-  </si>
-  <si>
-    <t>0102900259391387215Oia5==rLfBMG</t>
-  </si>
-  <si>
-    <t>02900259391387</t>
-  </si>
-  <si>
-    <t>2023-08-14T17:20:41.662Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:20:30.899Z</t>
-  </si>
-  <si>
-    <t>0102900237820694215nb-p8FEiJpr+</t>
-  </si>
-  <si>
-    <t>02900237820694</t>
-  </si>
-  <si>
-    <t>Матрас ватный тик с бортом 110 х 190 - СИН - Вата белая</t>
-  </si>
-  <si>
-    <t>2023-08-14T17:11:40.408Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:20:30.853Z</t>
-  </si>
-  <si>
-    <t>0102900237884887215CrWHDq(xkl,k</t>
-  </si>
-  <si>
-    <t>02900237884887</t>
-  </si>
-  <si>
-    <t>Простыня из варёного хлопка на резинке 160х200х20 - М - 323 Серый</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:14:19.952Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:43:07.156Z</t>
-  </si>
-  <si>
-    <t>0102900256939483215ZJliYUVae)m0</t>
-  </si>
-  <si>
-    <t>02900256939483</t>
-  </si>
-  <si>
-    <t>Пододеяльник из варёного хлопка 145 х 215 - М - 323 Серый</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:14:19.141Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:43:07.044Z</t>
-  </si>
-  <si>
-    <t>0102900077751646215ZalVGG-LOpuU</t>
-  </si>
-  <si>
-    <t>02900077751646</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина на резинке 180 х 200 х 30 - М - 135 - Белая 3х3</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:14:20.256Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:43:07.041Z</t>
-  </si>
-  <si>
-    <t>01029001271276122153muezPkVgjeW</t>
-  </si>
-  <si>
-    <t>02900127127612</t>
-  </si>
-  <si>
-    <t>Простыня круглая из страйп-сатина на резинке 230 х 230 х 30 - М - 135 - Белый 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:13:18.562Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:43:06.828Z</t>
-  </si>
-  <si>
-    <t>0102900079419261215tTKvnbGyi7qb</t>
-  </si>
-  <si>
-    <t>02900079419261</t>
-  </si>
-  <si>
-    <t>Наволочка из варёного хлопка 50 х 70 - М - 323 Серый</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:14:20.352Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:43:06.207Z</t>
-  </si>
-  <si>
-    <t>0102900079419261215vD2,bSDYnh32</t>
-  </si>
-  <si>
-    <t>0102900074694922215&lt;Ak?Q+T/n(UF</t>
-  </si>
-  <si>
-    <t>02900074694922</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 200 х 220 - М - 125 - Фисташка 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:13:18.428Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:43:05.429Z</t>
-  </si>
-  <si>
-    <t>0102900074694922215E:oc-0lmNaRm</t>
-  </si>
-  <si>
-    <t>0102900259389162215&amp;VmntTi'TXnn</t>
-  </si>
-  <si>
-    <t>02900259389162</t>
-  </si>
-  <si>
-    <t>2023-08-14T13:14:19.142Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:43:05.393Z</t>
-  </si>
-  <si>
-    <t>0102900076437374215SOeFFEBIHnl1</t>
-  </si>
-  <si>
-    <t>02900076437374</t>
-  </si>
-  <si>
-    <t>Простыня из тенселя на резинке 140х200х30 - М - 60S 103 Пудровый</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:38:57.963Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:23:29.985Z</t>
-  </si>
-  <si>
-    <t>0102900080393192215_oueuidojBS&lt;</t>
-  </si>
-  <si>
-    <t>02900080393192</t>
-  </si>
-  <si>
-    <t>Простыня непромокаемая 200 х 220 - М - Мулетон Полиэстер</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:38:57.856Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:23:29.069Z</t>
-  </si>
-  <si>
-    <t>0102900259132652215aT8aHbaf)DP;</t>
-  </si>
-  <si>
-    <t>02900259132652</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:36:58.554Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:33:01.060Z</t>
-  </si>
-  <si>
-    <t>01029002591326382154:oQQMpEsQBJ</t>
-  </si>
-  <si>
-    <t>02900259132638</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:36:58.557Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:33:00.795Z</t>
-  </si>
-  <si>
-    <t>0102900259132591215urbpUFLzQ?A4</t>
-  </si>
-  <si>
-    <t>02900259132591</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:35:57.521Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:33:00.576Z</t>
-  </si>
-  <si>
-    <t>0102900259132614215ZvDRhZLw5EXO</t>
-  </si>
-  <si>
-    <t>02900259132614</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:33:00.563Z</t>
-  </si>
-  <si>
-    <t>0102900259132577215aVKrRueEVFi,</t>
-  </si>
-  <si>
-    <t>02900259132577</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:35:57.264Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:33:00.334Z</t>
-  </si>
-  <si>
-    <t>0102900259132546215)YNXh;dLqCPP</t>
-  </si>
-  <si>
-    <t>02900259132546</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:35:57.520Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:32:59.793Z</t>
-  </si>
-  <si>
-    <t>0102900084701238215CZ)U+!d&lt;uAS1</t>
-  </si>
-  <si>
-    <t>02900084701238</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 70 х 70 - М - 60S 4384 Пыльная роза</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:35:57.265Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:32:59.398Z</t>
-  </si>
-  <si>
-    <t>0102900246758612215EUqQpol6mBD8</t>
-  </si>
-  <si>
-    <t>02900246758612</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 60 х 60 - М - 60S 4216 Серебро</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:35:56.986Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:32:59.194Z</t>
-  </si>
-  <si>
-    <t>0102900255122923215tD-3S";JZb_I</t>
-  </si>
-  <si>
-    <t>02900255122923</t>
-  </si>
-  <si>
-    <t>Простыня из сатина 180 х 220 - М - 125 - Серый</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:35:56.892Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:32:58.737Z</t>
-  </si>
-  <si>
-    <t>0102900177442512215%LdB'8BAf6uv</t>
-  </si>
-  <si>
-    <t>02900177442512</t>
-  </si>
-  <si>
-    <t>Наволочка из варёного хлопка 60 х 60 - М - 5609 Светло-серый</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:34:56.815Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:32:58.254Z</t>
-  </si>
-  <si>
-    <t>0102900177442512215W61kkbxo:iuD</t>
-  </si>
-  <si>
-    <t>0102900256089508215qe5HRvkQFYLm</t>
-  </si>
-  <si>
-    <t>02900256089508</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 40 х 40 - М - 60S 38 Сиренево-розовый</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:34:56.763Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:32:57.944Z</t>
-  </si>
-  <si>
-    <t>0102900077516030215IOeOq&gt;e?pQQL</t>
-  </si>
-  <si>
-    <t>02900077516030</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 40 х 60 - М - 60S 27 Бирюзовый берег</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:34:56.657Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:32:54.598Z</t>
-  </si>
-  <si>
-    <t>0102900240356708215o;m&gt;&amp;xH/Rrxl</t>
-  </si>
-  <si>
-    <t>02900240356708</t>
-  </si>
-  <si>
-    <t>Простыня из тенселя на резинке 80х200х40 - М - 60S 4236 Медный</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:34:56.260Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:32:54.380Z</t>
-  </si>
-  <si>
-    <t>0102900112009237215n.T2KTE1-jF%</t>
-  </si>
-  <si>
-    <t>02900112009237</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 40 х 60 - М - 60S 4302 Зеленая</t>
-  </si>
-  <si>
-    <t>2023-08-14T12:34:56.164Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:32:54.173Z</t>
-  </si>
-  <si>
-    <t>01029002591210522152:jTTEH&gt;;NEt</t>
-  </si>
-  <si>
-    <t>02900259121052</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:31:40.255Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:51:02.575Z</t>
-  </si>
-  <si>
-    <t>0102900079758803215wNFROE!sJt2i</t>
-  </si>
-  <si>
-    <t>02900079758803</t>
-  </si>
-  <si>
-    <t>Простыня из тенселя 240 х 260 - М - 60S 4216 Серебро</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:31:39.963Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:51:02.277Z</t>
-  </si>
-  <si>
-    <t>0102900259121069215YkVB&lt;sH:Sgd:</t>
-  </si>
-  <si>
-    <t>02900259121069</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:31:40.175Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:50:55.376Z</t>
-  </si>
-  <si>
-    <t>0102900081979203215LLtf6Thr'5-X</t>
-  </si>
-  <si>
-    <t>02900081979203</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 50 х 70 - М - 60S 4230 Молочный шоколад</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:31:40.223Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:50:55.167Z</t>
-  </si>
-  <si>
-    <t>0102900081979203215No&amp;sJgKpET,D</t>
-  </si>
-  <si>
-    <t>0102900259121076215pFXFBX!6-N6,</t>
-  </si>
-  <si>
-    <t>02900259121076</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:31:39.762Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:50:54.563Z</t>
-  </si>
-  <si>
-    <t>0102900259083626215Vda3&gt;eiCllDc</t>
-  </si>
-  <si>
-    <t>02900259083626</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:28:36.507Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:18.495Z</t>
-  </si>
-  <si>
-    <t>0102900259083411215O)eW-ftbWjY+</t>
-  </si>
-  <si>
-    <t>02900259083411</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:26:34.076Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:18.282Z</t>
-  </si>
-  <si>
-    <t>0102900259083602215_GeQKt8QGrDP</t>
-  </si>
-  <si>
-    <t>02900259083602</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:28:36.738Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:18.203Z</t>
-  </si>
-  <si>
-    <t>0102900259083398215vjuI/a6q'C4g</t>
-  </si>
-  <si>
-    <t>02900259083398</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:25:33.866Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:17.995Z</t>
-  </si>
-  <si>
-    <t>0102900259083589215haVMmb&gt;oEom-</t>
-  </si>
-  <si>
-    <t>02900259083589</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:28:36.742Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:17.840Z</t>
-  </si>
-  <si>
-    <t>01029002590835652159=LR7wUm59b;</t>
-  </si>
-  <si>
-    <t>02900259083565</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:28:35.987Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:17.788Z</t>
-  </si>
-  <si>
-    <t>0102900259083374215iCR+ObRGEN(U</t>
-  </si>
-  <si>
-    <t>02900259083374</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:25:33.906Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:17.783Z</t>
-  </si>
-  <si>
-    <t>01029002590833362154C0jNKHgN?hd</t>
-  </si>
-  <si>
-    <t>02900259083336</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:25:33.872Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:17.542Z</t>
-  </si>
-  <si>
-    <t>0102900259083350215P6lVucjn!Zsf</t>
-  </si>
-  <si>
-    <t>02900259083350</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:25:33.978Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:17.428Z</t>
-  </si>
-  <si>
-    <t>0102900259083541215NrOU8IZq=JpH</t>
-  </si>
-  <si>
-    <t>02900259083541</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:27:37.322Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:17.423Z</t>
-  </si>
-  <si>
-    <t>0102900259083527215U8njeZ2cpoNW</t>
-  </si>
-  <si>
-    <t>02900259083527</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:27:37.313Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:17.357Z</t>
-  </si>
-  <si>
-    <t>0102900259083503215dmkllJ6/jKhf</t>
-  </si>
-  <si>
-    <t>02900259083503</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:27:37.317Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:17.047Z</t>
-  </si>
-  <si>
-    <t>0102900259083312215TaepLW)MEQSZ</t>
-  </si>
-  <si>
-    <t>02900259083312</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:25:33.865Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:16.920Z</t>
-  </si>
-  <si>
-    <t>0102900259083299215RGnfB0&amp;yE'Eo</t>
-  </si>
-  <si>
-    <t>02900259083299</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:16.913Z</t>
-  </si>
-  <si>
-    <t>01029002590834802158&gt;isVb.cE:go</t>
-  </si>
-  <si>
-    <t>02900259083480</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:27:36.473Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:16.729Z</t>
-  </si>
-  <si>
-    <t>0102900259083275215Qg2HPVlmPpTh</t>
-  </si>
-  <si>
-    <t>02900259083275</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:16.568Z</t>
-  </si>
-  <si>
-    <t>0102900259083251215+ila5Mf=6fB?</t>
-  </si>
-  <si>
-    <t>02900259083251</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:25:33.870Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:16.455Z</t>
-  </si>
-  <si>
-    <t>0102900259083237215g=IJ9&lt;Mgt_Dq</t>
-  </si>
-  <si>
-    <t>02900259083237</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:24:33.267Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:16.353Z</t>
-  </si>
-  <si>
-    <t>0102900259083831215JxWlOfofPlEK</t>
-  </si>
-  <si>
-    <t>02900259083831</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:30:39.132Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:15.500Z</t>
-  </si>
-  <si>
-    <t>0102900259083817215SZnr.LXXOCNS</t>
-  </si>
-  <si>
-    <t>02900259083817</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:15.095Z</t>
-  </si>
-  <si>
-    <t>0102900259083794215_3TnLtI2=*PK</t>
-  </si>
-  <si>
-    <t>02900259083794</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:30:38.933Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:14.947Z</t>
-  </si>
-  <si>
-    <t>0102900259083725215_-HkcIk"Ek(b</t>
-  </si>
-  <si>
-    <t>02900259083725</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:30:38.366Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:14.591Z</t>
-  </si>
-  <si>
-    <t>0102900259083770215gdFxclVMZA3W</t>
-  </si>
-  <si>
-    <t>02900259083770</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:30:38.929Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:14.583Z</t>
-  </si>
-  <si>
-    <t>0102900259083756215RnfFVkYju+dx</t>
-  </si>
-  <si>
-    <t>02900259083756</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:30:38.934Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:14.546Z</t>
-  </si>
-  <si>
-    <t>0102900259083701215oqjD&lt;dLa"oiS</t>
-  </si>
-  <si>
-    <t>02900259083701</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:29:37.210Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:13.868Z</t>
-  </si>
-  <si>
-    <t>0102900259083466215UQYr&lt;FsvN*.!</t>
-  </si>
-  <si>
-    <t>02900259083466</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:13.788Z</t>
-  </si>
-  <si>
-    <t>0102900259083688215cgqEBU9y4=Mp</t>
-  </si>
-  <si>
-    <t>02900259083688</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:29:37Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:13.586Z</t>
-  </si>
-  <si>
-    <t>0102900259083640215)m1WPbugp=e9</t>
-  </si>
-  <si>
-    <t>02900259083640</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:29:36.559Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:13.365Z</t>
-  </si>
-  <si>
-    <t>0102900259083664215JozQBgVDLpmq</t>
-  </si>
-  <si>
-    <t>02900259083664</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:29:36.768Z</t>
-  </si>
-  <si>
-    <t>0102900259083442215TVWM1E99ppH8</t>
-  </si>
-  <si>
-    <t>02900259083442</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:26:34.566Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:13.228Z</t>
-  </si>
-  <si>
-    <t>0102900259083855215qecT5Q:SSiix</t>
-  </si>
-  <si>
-    <t>02900259083855</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:13.110Z</t>
-  </si>
-  <si>
-    <t>0102900098221227215VTc,et2l7L*l</t>
-  </si>
-  <si>
-    <t>02900098221227</t>
-  </si>
-  <si>
-    <t>Простыня из тенселя 260 х 260 - М - 60S 18 Насыщенный розовый</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:24:33.661Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:12.649Z</t>
-  </si>
-  <si>
-    <t>0102900257996522215eOCYP,K&amp;KNGU</t>
-  </si>
-  <si>
-    <t>02900257996522</t>
-  </si>
-  <si>
-    <t>Простыня из тенселя 240 х 260 - М - 60S 54-020 Розовая лаванда</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:24:33.707Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:12.293Z</t>
-  </si>
-  <si>
-    <t>0102900174333721215okNw=BNjLGt*</t>
-  </si>
-  <si>
-    <t>02900174333721</t>
-  </si>
-  <si>
-    <t>Простыня из сатина на резинке 180 х 200 х 30 - М - 125 - Бордо</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:24:33.266Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:11.535Z</t>
-  </si>
-  <si>
-    <t>0102900219022122215RjEGOB)DO4iK</t>
-  </si>
-  <si>
-    <t>02900219022122</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 50 х 70 - М - 60S 4225 Зелёный лесной</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:24:33.360Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:11.415Z</t>
-  </si>
-  <si>
-    <t>0102900255580105215m=o&amp;cazBfK0o</t>
-  </si>
-  <si>
-    <t>02900255580105</t>
-  </si>
-  <si>
-    <t>Постельное белье тенсель 1,5 спальное на резинке 140х200х30 - М - 60S 44 Морской с наволочками 50х70</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:11.043Z</t>
-  </si>
-  <si>
-    <t>0102900076450588215lk8wE2se5_cy</t>
-  </si>
-  <si>
-    <t>02900076450588</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 70 х 70 - М - 60S 129 Темно-зеленый</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:24:33.662Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:10.824Z</t>
-  </si>
-  <si>
-    <t>0102900245821249215+-mLGbaNqT?S</t>
-  </si>
-  <si>
-    <t>02900245821249</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 300 х 300 - М - 125 - Шоколад 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:10.656Z</t>
-  </si>
-  <si>
-    <t>0102900241409991215t5UH'.BHUYyC</t>
-  </si>
-  <si>
-    <t>02900241409991</t>
-  </si>
-  <si>
-    <t>Постельное белье варёный хлопок семейное - М - 181222 Коричневый</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:24:33.706Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:10.435Z</t>
-  </si>
-  <si>
-    <t>0102900076259396215ianv;NlF,8ZQ</t>
-  </si>
-  <si>
-    <t>02900076259396</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп-сатина 50 х 70 - М - 135 - Светлая лаванда 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:24:32.971Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:10.191Z</t>
-  </si>
-  <si>
-    <t>0102900254444460215cOyPIH!?nzlU</t>
-  </si>
-  <si>
-    <t>02900254444460</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 300 х 300 - М - 135 - Мокрый асфальт 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:24:33.055Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:10.129Z</t>
-  </si>
-  <si>
-    <t>0102900236620417215dZtR8dczcHke</t>
-  </si>
-  <si>
-    <t>02900236620417</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина на резинке 200 х 220 х 30 - М - 130 - Белая 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:24:32.576Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:09.786Z</t>
-  </si>
-  <si>
-    <t>0102900236620417215eFx_J!C6*u2D</t>
-  </si>
-  <si>
-    <t>0102900234017912215AfnX!3.VvDO8</t>
-  </si>
-  <si>
-    <t>02900234017912</t>
-  </si>
-  <si>
-    <t>Простыня круглая из страйп-сатина на резинке 220 х 220 х 30 - М - 125 - Черный 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-14T07:24:32.371Z</t>
-  </si>
-  <si>
-    <t>2023-08-14T06:14:09.669Z</t>
-  </si>
-  <si>
-    <t>0102900112754120215htIQ&lt;Q//iW:j</t>
-  </si>
-  <si>
-    <t>02900112754120</t>
-  </si>
-  <si>
-    <t>Простыня из тенселя на резинке 160х200х30 - М - 60S Белый Страйп 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:58:03.266Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:43:06.484Z</t>
-  </si>
-  <si>
-    <t>0102900245393197215iaHfhCe1Mg_L</t>
-  </si>
-  <si>
-    <t>02900245393197</t>
-  </si>
-  <si>
-    <t>Пододеяльник из тенселя 150 х 200 - М - 60S Белый Страйп 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:57:03.213Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:43:06.183Z</t>
-  </si>
-  <si>
-    <t>01029002589789782152Qg*_H1G!rM;</t>
-  </si>
-  <si>
-    <t>02900258978978</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 50 х 70 - М - 60S 033 Светлая сирень</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:55:03.018Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:43:05.750Z</t>
-  </si>
-  <si>
-    <t>0102900258978978215dAbblK9QJ"VZ</t>
-  </si>
-  <si>
-    <t>0102900080272220215-mJnebVlU.gG</t>
-  </si>
-  <si>
-    <t>02900080272220</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 50 х 70 - М - 60S Белый Страйп 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:52:03.055Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:43:05.668Z</t>
-  </si>
-  <si>
-    <t>0102900080272220215FoU,j(jVeoHH</t>
-  </si>
-  <si>
-    <t>0102900258978961215lJhBNeZpLQOd</t>
-  </si>
-  <si>
-    <t>02900258978961</t>
-  </si>
-  <si>
-    <t>Постельное бельё из твил сатина 1,5 спальное на резинке 90х200х30 - М - 6-50 Апельсинки с наволочками 50х70</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:51:02.859Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:43:05.521Z</t>
-  </si>
-  <si>
-    <t>0102900258955122215;OQb&lt;nb.jDOB</t>
-  </si>
-  <si>
-    <t>02900258955122</t>
-  </si>
-  <si>
-    <t>Пододеяльник из сатина 200 х 220 - М - 125 - Черника</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:32:59.666Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:20:41.866Z</t>
-  </si>
-  <si>
-    <t>0102900258955108215WFNlc+waOoCT</t>
-  </si>
-  <si>
-    <t>02900258955108</t>
-  </si>
-  <si>
-    <t>Пододеяльник из тенселя 200 х 220 - М - 60S 44 Морской</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:32:59.460Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:20:41.630Z</t>
-  </si>
-  <si>
-    <t>0102900258955115215=1RDiTJijMTu</t>
-  </si>
-  <si>
-    <t>02900258955115</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 200 х 220 - М - 140 - Шоколад 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:32:59.162Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:20:41.300Z</t>
-  </si>
-  <si>
-    <t>0102900253954335215XBeQT&lt;DFpQ*W</t>
-  </si>
-  <si>
-    <t>02900253954335</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 50 х 70 - М - 60S 4234 Морская нимфа</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:31:58.797Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T12:44:14.123Z</t>
-  </si>
-  <si>
-    <t>0102900076983482215eDi)r&amp;mTTfkY</t>
-  </si>
-  <si>
-    <t>02900076983482</t>
-  </si>
-  <si>
-    <t>Пододеяльник из сатина 240 х 260 - М - 120 - Синий</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:31:59.540Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T12:44:14.115Z</t>
-  </si>
-  <si>
-    <t>0102900252776143215jY+Xrfj&lt;OFU(</t>
-  </si>
-  <si>
-    <t>02900252776143</t>
-  </si>
-  <si>
-    <t>Постельное белье тенсель семейное на резинке 160х200х30 - М - 60S 54-020 Розовая лаванда</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:31:59.127Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T12:44:13.879Z</t>
-  </si>
-  <si>
-    <t>0102900076409623215gCQaE!-!/Wt3</t>
-  </si>
-  <si>
-    <t>02900076409623</t>
-  </si>
-  <si>
-    <t>Наволочка из сатина 50 х 70 - Р - М - Черника</t>
-  </si>
-  <si>
-    <t>2023-08-11T16:31:58.940Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T12:44:13.485Z</t>
-  </si>
-  <si>
-    <t>0102900247910019215Y?sIqN6aNi/D</t>
-  </si>
-  <si>
-    <t>02900247910019</t>
-  </si>
-  <si>
-    <t>Пододеяльник из варёного хлопка 150 х 200 - М - 181222 Коричневый</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:24:53.487Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:16:47.444Z</t>
-  </si>
-  <si>
-    <t>0102900247910019215cutA:YT='OoO</t>
-  </si>
-  <si>
-    <t>0102900078095350215BBzA&amp;7ZblpvC</t>
-  </si>
-  <si>
-    <t>02900078095350</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп-сатина 50 х 70 - М - 125 - Графит 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:22:52.059Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:16:03.266Z</t>
-  </si>
-  <si>
-    <t>0102900078095350215KR5InhTkpDkt</t>
-  </si>
-  <si>
-    <t>0102900247622257215gRAI*E*S9&lt;FT</t>
-  </si>
-  <si>
-    <t>02900247622257</t>
-  </si>
-  <si>
-    <t>Постельное белье варёный хлопок 1,5 спальное на резинке 140х200х30 - М - 225 Молочный</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:22:51.865Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:16:03.025Z</t>
-  </si>
-  <si>
-    <t>0102900243937898215BT2(lmjB8jl8</t>
-  </si>
-  <si>
-    <t>02900243937898</t>
-  </si>
-  <si>
-    <t>Простыня из варёного хлопка 180 х 220 - М - 225 Молочный</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:22:51.804Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:16:02.318Z</t>
-  </si>
-  <si>
-    <t>0102900081979302215FlFl7iNYcfea</t>
-  </si>
-  <si>
-    <t>02900081979302</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 140 - Вулкан 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:23:51.663Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:16:02.307Z</t>
-  </si>
-  <si>
-    <t>0102900082733767215Toyp9ClKE"5_</t>
-  </si>
-  <si>
-    <t>02900082733767</t>
-  </si>
-  <si>
-    <t>Наволочка из варёного хлопка 50 х 70 - М - 225 Молочный</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:22:51.907Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:16:02.300Z</t>
-  </si>
-  <si>
-    <t>0102900082733767215z?hna'F.K8sk</t>
-  </si>
-  <si>
-    <t>0102900258491583215V3:JIfFYG"SQ</t>
-  </si>
-  <si>
-    <t>02900258491583</t>
-  </si>
-  <si>
-    <t>Простыня из сатина на резинке 160 х 200 х 20 - М - 140 - Серый Люкс</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:16:50.386Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T05:39:17.882Z</t>
-  </si>
-  <si>
-    <t>0102900258491576215&amp;qYz.lIOSa)0</t>
-  </si>
-  <si>
-    <t>02900258491576</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина на резинке 80 х 200 х 20 - М - 125 - Персик 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:16:50.162Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T05:39:17.298Z</t>
-  </si>
-  <si>
-    <t>0102900258491569215AVuU4p,UkRl9</t>
-  </si>
-  <si>
-    <t>02900258491569</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина на резинке 80 х 200 х 20 - М - 125 - Розовый 1х1</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:15:50.420Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T05:39:17.074Z</t>
-  </si>
-  <si>
-    <t>0102900258491552215&lt;2TETEzqfvGC</t>
-  </si>
-  <si>
-    <t>02900258491552</t>
-  </si>
-  <si>
-    <t>Постельное белье тенсель 2 спальное на резинке 160х200х30 - М - 60S 4229 Коричневый с наволочками 50х70</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:15:50.121Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T05:39:16.893Z</t>
-  </si>
-  <si>
-    <t>0102900258491545215K%-HLcZaeWsi</t>
-  </si>
-  <si>
-    <t>02900258491545</t>
-  </si>
-  <si>
-    <t>Пододеяльник из варёного хлопка 150 х 200 - М - 221 Бежевый</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:15:50.228Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T05:39:16.690Z</t>
-  </si>
-  <si>
-    <t>0102900241778882215RW-nCq'BiRsz</t>
-  </si>
-  <si>
-    <t>02900241778882</t>
-  </si>
-  <si>
-    <t>Простыня из тенселя на резинке 200х200х40 - М - 60S 4373 Пудровый</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:14:50.974Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T05:39:15.364Z</t>
-  </si>
-  <si>
-    <t>0102900255613445215KnDAOdk/TdC/</t>
-  </si>
-  <si>
-    <t>02900255613445</t>
-  </si>
-  <si>
-    <t>Простыня из тенселя на резинке 200х200х40 - М - 60S 4292 Кремовый</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:14:50.973Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T05:39:15.037Z</t>
-  </si>
-  <si>
-    <t>0102900240842133215gUmaS?OnvIrM</t>
+    <t>Пододеяльник из тенселя 150 х 200 - М - 60S 103 Пудровый</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:26:21.717Z</t>
+  </si>
+  <si>
+    <t>0102900079427990215J-q2It!TlfJS</t>
+  </si>
+  <si>
+    <t>02900079427990</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 125 - Шампань 3х3</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:35:25.960Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:26:21.476Z</t>
+  </si>
+  <si>
+    <t>0102900079427990215XCpoeTCC0rX&gt;</t>
+  </si>
+  <si>
+    <t>0102900219021750215Kh;_/1sTLh*L</t>
+  </si>
+  <si>
+    <t>02900219021750</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:26:21.262Z</t>
+  </si>
+  <si>
+    <t>0102900260763173215eI!FnT.S,SYe</t>
+  </si>
+  <si>
+    <t>02900260763173</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:36:26.267Z</t>
+  </si>
+  <si>
+    <t>0102900078174697215GPV9hqgJbtfm</t>
+  </si>
+  <si>
+    <t>02900078174697</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 125 - Шампань 3х3</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:35:25.958Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:26:21.218Z</t>
+  </si>
+  <si>
+    <t>0102900078174697215VdB+nyH'skCH</t>
+  </si>
+  <si>
+    <t>0102900260763166215ATRm9IvT:Q6H</t>
+  </si>
+  <si>
+    <t>02900260763166</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:36:26.258Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:26:21.048Z</t>
+  </si>
+  <si>
+    <t>0102900252201492215q"W_jpyJld.f</t>
+  </si>
+  <si>
+    <t>02900252201492</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 125 - Черника 1х1</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:26:20.950Z</t>
+  </si>
+  <si>
+    <t>0102900260763159215gchWCYIcZPYM</t>
+  </si>
+  <si>
+    <t>02900260763159</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:36:25.961Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:26:20.873Z</t>
+  </si>
+  <si>
+    <t>0102900260763142215UncVaktUWrGn</t>
+  </si>
+  <si>
+    <t>02900260763142</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:36:25.796Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:26:20.686Z</t>
+  </si>
+  <si>
+    <t>0102900260048683215.SqED)o'Q;8O</t>
+  </si>
+  <si>
+    <t>02900260048683</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 90 х 200 х 30 - М - 135 - Небесный 0,5х0,5</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:27:21.853Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:22:57.430Z</t>
+  </si>
+  <si>
+    <t>0102900260048683215fX-r!khoR)MJ</t>
+  </si>
+  <si>
+    <t>01029002408421332152'Yz9Al'qGRe</t>
   </si>
   <si>
     <t>02900240842133</t>
@@ -1710,61 +1515,19 @@
     <t>Простыня из сатина 300 х 300 - М - 125 - Капучино</t>
   </si>
   <si>
-    <t>2023-08-11T06:14:50.975Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T05:39:14.677Z</t>
-  </si>
-  <si>
-    <t>0102900234018018215M-sVi3MbBLg4</t>
-  </si>
-  <si>
-    <t>02900234018018</t>
-  </si>
-  <si>
-    <t>Постельное белье тенсель 2 спальное на резинке 160х200х30 - М - 60S 4216 Серебро с наволочками 50х70</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:14:50.979Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T05:39:14.495Z</t>
-  </si>
-  <si>
-    <t>01029002559777072154fWxEh1gZZIk</t>
-  </si>
-  <si>
-    <t>02900255977707</t>
-  </si>
-  <si>
-    <t>Постельное белье тенсель 1,5 спальное на резинке 140х200х30 - М - 60S 4216 Серебро с наволочками 50х70</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:13:49.623Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T05:39:13.335Z</t>
-  </si>
-  <si>
-    <t>0102900112754120215kBm+SkyEjQJQ</t>
-  </si>
-  <si>
-    <t>2023-08-11T06:13:49.778Z</t>
-  </si>
-  <si>
-    <t>2023-08-11T05:39:13.330Z</t>
-  </si>
-  <si>
-    <t>0102900258491538215cYLUlMc8YQmH</t>
-  </si>
-  <si>
-    <t>02900258491538</t>
-  </si>
-  <si>
-    <t>Постельное белье тенсель 2 спальное на резинке 160х200х30 - М - 60S 4384 Пыльная роза с наволочками 50х70</t>
-  </si>
-  <si>
-    <t>2023-08-11T05:39:12.667Z</t>
+    <t>2023-08-22T06:26:21.666Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:22:56.102Z</t>
+  </si>
+  <si>
+    <t>0102900219021750215QPitMbC37FIN</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:26:21.567Z</t>
+  </si>
+  <si>
+    <t>2023-08-22T06:22:56.031Z</t>
   </si>
 </sst>
 </file>
@@ -2104,9 +1867,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC138"/>
+  <dimension ref="A1:AC119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD119"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2247,7 +2012,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>372900043349</v>
@@ -2255,6 +2020,12 @@
       <c r="H4">
         <v>372900043349</v>
       </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
       <c r="L4" t="s">
         <v>32</v>
       </c>
@@ -2274,18 +2045,18 @@
         <v>36</v>
       </c>
       <c r="V4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="W4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>372900043349</v>
@@ -2312,18 +2083,18 @@
         <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="W5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>372900043349</v>
@@ -2350,18 +2121,18 @@
         <v>36</v>
       </c>
       <c r="V6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="W6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G7">
         <v>372900043349</v>
@@ -2369,6 +2140,12 @@
       <c r="H7">
         <v>372900043349</v>
       </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
       <c r="L7" t="s">
         <v>32</v>
       </c>
@@ -2388,18 +2165,18 @@
         <v>36</v>
       </c>
       <c r="V7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G8">
         <v>372900043349</v>
@@ -2408,10 +2185,10 @@
         <v>372900043349</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
@@ -2432,18 +2209,18 @@
         <v>36</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <v>372900043349</v>
@@ -2452,10 +2229,10 @@
         <v>372900043349</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
         <v>32</v>
@@ -2476,18 +2253,18 @@
         <v>36</v>
       </c>
       <c r="V9" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="W9" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G10">
         <v>372900043349</v>
@@ -2496,10 +2273,10 @@
         <v>372900043349</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
@@ -2520,18 +2297,18 @@
         <v>36</v>
       </c>
       <c r="V10" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="W10" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G11">
         <v>372900043349</v>
@@ -2539,12 +2316,6 @@
       <c r="H11">
         <v>372900043349</v>
       </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>52</v>
-      </c>
       <c r="L11" t="s">
         <v>32</v>
       </c>
@@ -2564,18 +2335,18 @@
         <v>36</v>
       </c>
       <c r="V11" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="W11" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G12">
         <v>372900043349</v>
@@ -2583,12 +2354,6 @@
       <c r="H12">
         <v>372900043349</v>
       </c>
-      <c r="J12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" t="s">
-        <v>52</v>
-      </c>
       <c r="L12" t="s">
         <v>32</v>
       </c>
@@ -2608,18 +2373,18 @@
         <v>36</v>
       </c>
       <c r="V12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="W12" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G13">
         <v>372900043349</v>
@@ -2627,12 +2392,6 @@
       <c r="H13">
         <v>372900043349</v>
       </c>
-      <c r="J13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" t="s">
-        <v>52</v>
-      </c>
       <c r="L13" t="s">
         <v>32</v>
       </c>
@@ -2652,18 +2411,18 @@
         <v>36</v>
       </c>
       <c r="V13" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G14">
         <v>372900043349</v>
@@ -2671,12 +2430,6 @@
       <c r="H14">
         <v>372900043349</v>
       </c>
-      <c r="J14" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" t="s">
-        <v>52</v>
-      </c>
       <c r="L14" t="s">
         <v>32</v>
       </c>
@@ -2696,18 +2449,18 @@
         <v>36</v>
       </c>
       <c r="V14" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="W14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G15">
         <v>372900043349</v>
@@ -2715,12 +2468,6 @@
       <c r="H15">
         <v>372900043349</v>
       </c>
-      <c r="J15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" t="s">
-        <v>52</v>
-      </c>
       <c r="L15" t="s">
         <v>32</v>
       </c>
@@ -2740,18 +2487,18 @@
         <v>36</v>
       </c>
       <c r="V15" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="W15" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G16">
         <v>372900043349</v>
@@ -2759,12 +2506,6 @@
       <c r="H16">
         <v>372900043349</v>
       </c>
-      <c r="J16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" t="s">
-        <v>52</v>
-      </c>
       <c r="L16" t="s">
         <v>32</v>
       </c>
@@ -2784,18 +2525,18 @@
         <v>36</v>
       </c>
       <c r="V16" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="W16" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G17">
         <v>372900043349</v>
@@ -2803,12 +2544,6 @@
       <c r="H17">
         <v>372900043349</v>
       </c>
-      <c r="J17" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" t="s">
-        <v>52</v>
-      </c>
       <c r="L17" t="s">
         <v>32</v>
       </c>
@@ -2828,18 +2563,18 @@
         <v>36</v>
       </c>
       <c r="V17" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="W17" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G18">
         <v>372900043349</v>
@@ -2848,10 +2583,10 @@
         <v>372900043349</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L18" t="s">
         <v>32</v>
@@ -2872,18 +2607,18 @@
         <v>36</v>
       </c>
       <c r="V18" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="W18" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G19">
         <v>372900043349</v>
@@ -2892,10 +2627,10 @@
         <v>372900043349</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L19" t="s">
         <v>32</v>
@@ -2916,18 +2651,18 @@
         <v>36</v>
       </c>
       <c r="V19" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="W19" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G20">
         <v>372900043349</v>
@@ -2936,10 +2671,10 @@
         <v>372900043349</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L20" t="s">
         <v>32</v>
@@ -2960,18 +2695,18 @@
         <v>36</v>
       </c>
       <c r="V20" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="W20" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G21">
         <v>372900043349</v>
@@ -2979,6 +2714,12 @@
       <c r="H21">
         <v>372900043349</v>
       </c>
+      <c r="J21" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" t="s">
+        <v>42</v>
+      </c>
       <c r="L21" t="s">
         <v>32</v>
       </c>
@@ -2998,56 +2739,62 @@
         <v>36</v>
       </c>
       <c r="V21" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="W21" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22">
+        <v>372900043349</v>
+      </c>
+      <c r="H22">
+        <v>372900043349</v>
+      </c>
+      <c r="J22" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22" t="s">
+        <v>36</v>
+      </c>
+      <c r="V22" t="s">
         <v>99</v>
       </c>
-      <c r="G22">
-        <v>372900043349</v>
-      </c>
-      <c r="H22">
-        <v>372900043349</v>
-      </c>
-      <c r="L22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" t="s">
-        <v>33</v>
-      </c>
-      <c r="R22" t="s">
-        <v>34</v>
-      </c>
-      <c r="T22" t="s">
-        <v>35</v>
-      </c>
-      <c r="U22" t="s">
-        <v>36</v>
-      </c>
-      <c r="V22" t="s">
-        <v>100</v>
-      </c>
       <c r="W22" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G23">
         <v>372900043349</v>
@@ -3055,6 +2802,12 @@
       <c r="H23">
         <v>372900043349</v>
       </c>
+      <c r="J23" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" t="s">
+        <v>42</v>
+      </c>
       <c r="L23" t="s">
         <v>32</v>
       </c>
@@ -3074,18 +2827,18 @@
         <v>36</v>
       </c>
       <c r="V23" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="W23" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G24">
         <v>372900043349</v>
@@ -3112,18 +2865,18 @@
         <v>36</v>
       </c>
       <c r="V24" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="W24" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="G25">
         <v>372900043349</v>
@@ -3131,6 +2884,12 @@
       <c r="H25">
         <v>372900043349</v>
       </c>
+      <c r="J25" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" t="s">
+        <v>42</v>
+      </c>
       <c r="L25" t="s">
         <v>32</v>
       </c>
@@ -3150,18 +2909,18 @@
         <v>36</v>
       </c>
       <c r="V25" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="W25" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G26">
         <v>372900043349</v>
@@ -3169,6 +2928,12 @@
       <c r="H26">
         <v>372900043349</v>
       </c>
+      <c r="J26" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" t="s">
+        <v>42</v>
+      </c>
       <c r="L26" t="s">
         <v>32</v>
       </c>
@@ -3188,18 +2953,18 @@
         <v>36</v>
       </c>
       <c r="V26" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="W26" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G27">
         <v>372900043349</v>
@@ -3208,10 +2973,10 @@
         <v>372900043349</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L27" t="s">
         <v>32</v>
@@ -3232,18 +2997,18 @@
         <v>36</v>
       </c>
       <c r="V27" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="W27" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G28">
         <v>372900043349</v>
@@ -3252,10 +3017,10 @@
         <v>372900043349</v>
       </c>
       <c r="J28" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L28" t="s">
         <v>32</v>
@@ -3276,18 +3041,18 @@
         <v>36</v>
       </c>
       <c r="V28" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="W28" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G29">
         <v>372900043349</v>
@@ -3295,12 +3060,6 @@
       <c r="H29">
         <v>372900043349</v>
       </c>
-      <c r="J29" t="s">
-        <v>127</v>
-      </c>
-      <c r="K29" t="s">
-        <v>52</v>
-      </c>
       <c r="L29" t="s">
         <v>32</v>
       </c>
@@ -3320,18 +3079,18 @@
         <v>36</v>
       </c>
       <c r="V29" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="W29" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G30">
         <v>372900043349</v>
@@ -3340,10 +3099,10 @@
         <v>372900043349</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L30" t="s">
         <v>32</v>
@@ -3364,18 +3123,18 @@
         <v>36</v>
       </c>
       <c r="V30" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="W30" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G31">
         <v>372900043349</v>
@@ -3384,10 +3143,10 @@
         <v>372900043349</v>
       </c>
       <c r="J31" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L31" t="s">
         <v>32</v>
@@ -3408,18 +3167,18 @@
         <v>36</v>
       </c>
       <c r="V31" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="W31" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G32">
         <v>372900043349</v>
@@ -3428,10 +3187,10 @@
         <v>372900043349</v>
       </c>
       <c r="J32" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L32" t="s">
         <v>32</v>
@@ -3452,18 +3211,18 @@
         <v>36</v>
       </c>
       <c r="V32" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="W32" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G33">
         <v>372900043349</v>
@@ -3471,12 +3230,6 @@
       <c r="H33">
         <v>372900043349</v>
       </c>
-      <c r="J33" t="s">
-        <v>142</v>
-      </c>
-      <c r="K33" t="s">
-        <v>52</v>
-      </c>
       <c r="L33" t="s">
         <v>32</v>
       </c>
@@ -3496,18 +3249,18 @@
         <v>36</v>
       </c>
       <c r="V33" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="W33" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G34">
         <v>372900043349</v>
@@ -3516,10 +3269,10 @@
         <v>372900043349</v>
       </c>
       <c r="J34" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K34" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L34" t="s">
         <v>32</v>
@@ -3540,18 +3293,18 @@
         <v>36</v>
       </c>
       <c r="V34" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="W34" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G35">
         <v>372900043349</v>
@@ -3560,10 +3313,10 @@
         <v>372900043349</v>
       </c>
       <c r="J35" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="K35" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L35" t="s">
         <v>32</v>
@@ -3584,18 +3337,18 @@
         <v>36</v>
       </c>
       <c r="V35" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="W35" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G36">
         <v>372900043349</v>
@@ -3622,18 +3375,18 @@
         <v>36</v>
       </c>
       <c r="V36" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="W36" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G37">
         <v>372900043349</v>
@@ -3642,10 +3395,10 @@
         <v>372900043349</v>
       </c>
       <c r="J37" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K37" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L37" t="s">
         <v>32</v>
@@ -3666,18 +3419,18 @@
         <v>36</v>
       </c>
       <c r="V37" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="W37" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G38">
         <v>372900043349</v>
@@ -3685,12 +3438,6 @@
       <c r="H38">
         <v>372900043349</v>
       </c>
-      <c r="J38" t="s">
-        <v>163</v>
-      </c>
-      <c r="K38" t="s">
-        <v>52</v>
-      </c>
       <c r="L38" t="s">
         <v>32</v>
       </c>
@@ -3710,18 +3457,18 @@
         <v>36</v>
       </c>
       <c r="V38" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="W38" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G39">
         <v>372900043349</v>
@@ -3729,6 +3476,12 @@
       <c r="H39">
         <v>372900043349</v>
       </c>
+      <c r="J39" t="s">
+        <v>184</v>
+      </c>
+      <c r="K39" t="s">
+        <v>42</v>
+      </c>
       <c r="L39" t="s">
         <v>32</v>
       </c>
@@ -3748,18 +3501,18 @@
         <v>36</v>
       </c>
       <c r="V39" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="W39" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G40">
         <v>372900043349</v>
@@ -3786,18 +3539,18 @@
         <v>36</v>
       </c>
       <c r="V40" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="W40" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G41">
         <v>372900043349</v>
@@ -3805,6 +3558,12 @@
       <c r="H41">
         <v>372900043349</v>
       </c>
+      <c r="J41" t="s">
+        <v>193</v>
+      </c>
+      <c r="K41" t="s">
+        <v>42</v>
+      </c>
       <c r="L41" t="s">
         <v>32</v>
       </c>
@@ -3824,18 +3583,18 @@
         <v>36</v>
       </c>
       <c r="V41" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="W41" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G42">
         <v>372900043349</v>
@@ -3843,6 +3602,12 @@
       <c r="H42">
         <v>372900043349</v>
       </c>
+      <c r="J42" t="s">
+        <v>198</v>
+      </c>
+      <c r="K42" t="s">
+        <v>42</v>
+      </c>
       <c r="L42" t="s">
         <v>32</v>
       </c>
@@ -3862,18 +3627,18 @@
         <v>36</v>
       </c>
       <c r="V42" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="W42" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G43">
         <v>372900043349</v>
@@ -3900,18 +3665,18 @@
         <v>36</v>
       </c>
       <c r="V43" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="W43" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G44">
         <v>372900043349</v>
@@ -3938,18 +3703,18 @@
         <v>36</v>
       </c>
       <c r="V44" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="W44" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G45">
         <v>372900043349</v>
@@ -3957,12 +3722,6 @@
       <c r="H45">
         <v>372900043349</v>
       </c>
-      <c r="J45" t="s">
-        <v>191</v>
-      </c>
-      <c r="K45" t="s">
-        <v>52</v>
-      </c>
       <c r="L45" t="s">
         <v>32</v>
       </c>
@@ -3982,18 +3741,18 @@
         <v>36</v>
       </c>
       <c r="V45" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="W45" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="G46">
         <v>372900043349</v>
@@ -4002,10 +3761,10 @@
         <v>372900043349</v>
       </c>
       <c r="J46" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="K46" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L46" t="s">
         <v>32</v>
@@ -4026,18 +3785,18 @@
         <v>36</v>
       </c>
       <c r="V46" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="W46" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="G47">
         <v>372900043349</v>
@@ -4045,12 +3804,6 @@
       <c r="H47">
         <v>372900043349</v>
       </c>
-      <c r="J47" t="s">
-        <v>201</v>
-      </c>
-      <c r="K47" t="s">
-        <v>52</v>
-      </c>
       <c r="L47" t="s">
         <v>32</v>
       </c>
@@ -4070,18 +3823,18 @@
         <v>36</v>
       </c>
       <c r="V47" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="W47" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G48">
         <v>372900043349</v>
@@ -4090,10 +3843,10 @@
         <v>372900043349</v>
       </c>
       <c r="J48" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K48" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L48" t="s">
         <v>32</v>
@@ -4114,18 +3867,18 @@
         <v>36</v>
       </c>
       <c r="V48" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="W48" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="G49">
         <v>372900043349</v>
@@ -4133,12 +3886,6 @@
       <c r="H49">
         <v>372900043349</v>
       </c>
-      <c r="J49" t="s">
-        <v>206</v>
-      </c>
-      <c r="K49" t="s">
-        <v>52</v>
-      </c>
       <c r="L49" t="s">
         <v>32</v>
       </c>
@@ -4158,18 +3905,18 @@
         <v>36</v>
       </c>
       <c r="V49" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="W49" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G50">
         <v>372900043349</v>
@@ -4177,12 +3924,6 @@
       <c r="H50">
         <v>372900043349</v>
       </c>
-      <c r="J50" t="s">
-        <v>212</v>
-      </c>
-      <c r="K50" t="s">
-        <v>52</v>
-      </c>
       <c r="L50" t="s">
         <v>32</v>
       </c>
@@ -4202,18 +3943,18 @@
         <v>36</v>
       </c>
       <c r="V50" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="W50" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="G51">
         <v>372900043349</v>
@@ -4222,10 +3963,10 @@
         <v>372900043349</v>
       </c>
       <c r="J51" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="K51" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L51" t="s">
         <v>32</v>
@@ -4246,18 +3987,18 @@
         <v>36</v>
       </c>
       <c r="V51" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="W51" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="G52">
         <v>372900043349</v>
@@ -4266,10 +4007,10 @@
         <v>372900043349</v>
       </c>
       <c r="J52" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="K52" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L52" t="s">
         <v>32</v>
@@ -4290,18 +4031,18 @@
         <v>36</v>
       </c>
       <c r="V52" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="W52" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="G53">
         <v>372900043349</v>
@@ -4310,10 +4051,10 @@
         <v>372900043349</v>
       </c>
       <c r="J53" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="K53" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L53" t="s">
         <v>32</v>
@@ -4334,18 +4075,18 @@
         <v>36</v>
       </c>
       <c r="V53" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="W53" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="B54" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="G54">
         <v>372900043349</v>
@@ -4372,18 +4113,18 @@
         <v>36</v>
       </c>
       <c r="V54" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="W54" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="B55" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="G55">
         <v>372900043349</v>
@@ -4392,10 +4133,10 @@
         <v>372900043349</v>
       </c>
       <c r="J55" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="K55" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L55" t="s">
         <v>32</v>
@@ -4416,18 +4157,18 @@
         <v>36</v>
       </c>
       <c r="V55" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="W55" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="B56" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="G56">
         <v>372900043349</v>
@@ -4435,6 +4176,12 @@
       <c r="H56">
         <v>372900043349</v>
       </c>
+      <c r="J56" t="s">
+        <v>259</v>
+      </c>
+      <c r="K56" t="s">
+        <v>42</v>
+      </c>
       <c r="L56" t="s">
         <v>32</v>
       </c>
@@ -4454,18 +4201,18 @@
         <v>36</v>
       </c>
       <c r="V56" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="W56" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="G57">
         <v>372900043349</v>
@@ -4474,10 +4221,10 @@
         <v>372900043349</v>
       </c>
       <c r="J57" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="K57" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L57" t="s">
         <v>32</v>
@@ -4498,18 +4245,18 @@
         <v>36</v>
       </c>
       <c r="V57" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="W57" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="B58" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G58">
         <v>372900043349</v>
@@ -4518,10 +4265,10 @@
         <v>372900043349</v>
       </c>
       <c r="J58" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K58" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L58" t="s">
         <v>32</v>
@@ -4542,18 +4289,18 @@
         <v>36</v>
       </c>
       <c r="V58" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="W58" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="B59" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="G59">
         <v>372900043349</v>
@@ -4580,18 +4327,18 @@
         <v>36</v>
       </c>
       <c r="V59" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="W59" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="B60" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="G60">
         <v>372900043349</v>
@@ -4618,18 +4365,18 @@
         <v>36</v>
       </c>
       <c r="V60" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="W60" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="B61" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="G61">
         <v>372900043349</v>
@@ -4637,6 +4384,12 @@
       <c r="H61">
         <v>372900043349</v>
       </c>
+      <c r="J61" t="s">
+        <v>281</v>
+      </c>
+      <c r="K61" t="s">
+        <v>42</v>
+      </c>
       <c r="L61" t="s">
         <v>32</v>
       </c>
@@ -4656,18 +4409,18 @@
         <v>36</v>
       </c>
       <c r="V61" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="W61" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="B62" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="G62">
         <v>372900043349</v>
@@ -4675,6 +4428,12 @@
       <c r="H62">
         <v>372900043349</v>
       </c>
+      <c r="J62" t="s">
+        <v>281</v>
+      </c>
+      <c r="K62" t="s">
+        <v>42</v>
+      </c>
       <c r="L62" t="s">
         <v>32</v>
       </c>
@@ -4694,18 +4453,18 @@
         <v>36</v>
       </c>
       <c r="V62" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="W62" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G63">
         <v>372900043349</v>
@@ -4713,6 +4472,12 @@
       <c r="H63">
         <v>372900043349</v>
       </c>
+      <c r="J63" t="s">
+        <v>287</v>
+      </c>
+      <c r="K63" t="s">
+        <v>42</v>
+      </c>
       <c r="L63" t="s">
         <v>32</v>
       </c>
@@ -4732,18 +4497,18 @@
         <v>36</v>
       </c>
       <c r="V63" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="W63" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="B64" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="G64">
         <v>372900043349</v>
@@ -4751,6 +4516,12 @@
       <c r="H64">
         <v>372900043349</v>
       </c>
+      <c r="J64" t="s">
+        <v>287</v>
+      </c>
+      <c r="K64" t="s">
+        <v>42</v>
+      </c>
       <c r="L64" t="s">
         <v>32</v>
       </c>
@@ -4770,18 +4541,18 @@
         <v>36</v>
       </c>
       <c r="V64" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="W64" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="B65" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="G65">
         <v>372900043349</v>
@@ -4808,18 +4579,18 @@
         <v>36</v>
       </c>
       <c r="V65" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="W65" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="G66">
         <v>372900043349</v>
@@ -4827,6 +4598,12 @@
       <c r="H66">
         <v>372900043349</v>
       </c>
+      <c r="J66" t="s">
+        <v>297</v>
+      </c>
+      <c r="K66" t="s">
+        <v>42</v>
+      </c>
       <c r="L66" t="s">
         <v>32</v>
       </c>
@@ -4846,18 +4623,18 @@
         <v>36</v>
       </c>
       <c r="V66" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="W66" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B67" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="G67">
         <v>372900043349</v>
@@ -4865,6 +4642,12 @@
       <c r="H67">
         <v>372900043349</v>
       </c>
+      <c r="J67" t="s">
+        <v>297</v>
+      </c>
+      <c r="K67" t="s">
+        <v>42</v>
+      </c>
       <c r="L67" t="s">
         <v>32</v>
       </c>
@@ -4884,18 +4667,18 @@
         <v>36</v>
       </c>
       <c r="V67" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="W67" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B68" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="G68">
         <v>372900043349</v>
@@ -4903,6 +4686,12 @@
       <c r="H68">
         <v>372900043349</v>
       </c>
+      <c r="J68" t="s">
+        <v>303</v>
+      </c>
+      <c r="K68" t="s">
+        <v>42</v>
+      </c>
       <c r="L68" t="s">
         <v>32</v>
       </c>
@@ -4922,18 +4711,18 @@
         <v>36</v>
       </c>
       <c r="V68" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="W68" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="B69" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G69">
         <v>372900043349</v>
@@ -4960,18 +4749,18 @@
         <v>36</v>
       </c>
       <c r="V69" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="W69" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="B70" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="G70">
         <v>372900043349</v>
@@ -4979,6 +4768,12 @@
       <c r="H70">
         <v>372900043349</v>
       </c>
+      <c r="J70" t="s">
+        <v>312</v>
+      </c>
+      <c r="K70" t="s">
+        <v>42</v>
+      </c>
       <c r="L70" t="s">
         <v>32</v>
       </c>
@@ -4998,18 +4793,18 @@
         <v>36</v>
       </c>
       <c r="V70" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="W70" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="B71" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="G71">
         <v>372900043349</v>
@@ -5036,18 +4831,18 @@
         <v>36</v>
       </c>
       <c r="V71" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="W71" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="B72" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="G72">
         <v>372900043349</v>
@@ -5055,6 +4850,12 @@
       <c r="H72">
         <v>372900043349</v>
       </c>
+      <c r="J72" t="s">
+        <v>321</v>
+      </c>
+      <c r="K72" t="s">
+        <v>42</v>
+      </c>
       <c r="L72" t="s">
         <v>32</v>
       </c>
@@ -5074,18 +4875,18 @@
         <v>36</v>
       </c>
       <c r="V72" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="W72" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="B73" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="G73">
         <v>372900043349</v>
@@ -5093,6 +4894,12 @@
       <c r="H73">
         <v>372900043349</v>
       </c>
+      <c r="J73" t="s">
+        <v>321</v>
+      </c>
+      <c r="K73" t="s">
+        <v>42</v>
+      </c>
       <c r="L73" t="s">
         <v>32</v>
       </c>
@@ -5112,18 +4919,18 @@
         <v>36</v>
       </c>
       <c r="V73" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="W73" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="B74" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="G74">
         <v>372900043349</v>
@@ -5150,18 +4957,18 @@
         <v>36</v>
       </c>
       <c r="V74" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="W74" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B75" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="G75">
         <v>372900043349</v>
@@ -5169,6 +4976,12 @@
       <c r="H75">
         <v>372900043349</v>
       </c>
+      <c r="J75" t="s">
+        <v>331</v>
+      </c>
+      <c r="K75" t="s">
+        <v>42</v>
+      </c>
       <c r="L75" t="s">
         <v>32</v>
       </c>
@@ -5188,18 +5001,18 @@
         <v>36</v>
       </c>
       <c r="V75" t="s">
-        <v>267</v>
+        <v>332</v>
       </c>
       <c r="W75" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="B76" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="G76">
         <v>372900043349</v>
@@ -5207,6 +5020,12 @@
       <c r="H76">
         <v>372900043349</v>
       </c>
+      <c r="J76" t="s">
+        <v>336</v>
+      </c>
+      <c r="K76" t="s">
+        <v>42</v>
+      </c>
       <c r="L76" t="s">
         <v>32</v>
       </c>
@@ -5226,18 +5045,18 @@
         <v>36</v>
       </c>
       <c r="V76" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="W76" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="B77" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="G77">
         <v>372900043349</v>
@@ -5264,18 +5083,18 @@
         <v>36</v>
       </c>
       <c r="V77" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="W77" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="B78" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="G78">
         <v>372900043349</v>
@@ -5302,18 +5121,18 @@
         <v>36</v>
       </c>
       <c r="V78" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="W78" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="B79" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G79">
         <v>372900043349</v>
@@ -5321,6 +5140,12 @@
       <c r="H79">
         <v>372900043349</v>
       </c>
+      <c r="J79" t="s">
+        <v>349</v>
+      </c>
+      <c r="K79" t="s">
+        <v>42</v>
+      </c>
       <c r="L79" t="s">
         <v>32</v>
       </c>
@@ -5340,18 +5165,18 @@
         <v>36</v>
       </c>
       <c r="V79" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="W79" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="B80" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="G80">
         <v>372900043349</v>
@@ -5359,6 +5184,12 @@
       <c r="H80">
         <v>372900043349</v>
       </c>
+      <c r="J80" t="s">
+        <v>349</v>
+      </c>
+      <c r="K80" t="s">
+        <v>42</v>
+      </c>
       <c r="L80" t="s">
         <v>32</v>
       </c>
@@ -5378,18 +5209,18 @@
         <v>36</v>
       </c>
       <c r="V80" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="W80" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="B81" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="G81">
         <v>372900043349</v>
@@ -5397,6 +5228,12 @@
       <c r="H81">
         <v>372900043349</v>
       </c>
+      <c r="J81" t="s">
+        <v>355</v>
+      </c>
+      <c r="K81" t="s">
+        <v>42</v>
+      </c>
       <c r="L81" t="s">
         <v>32</v>
       </c>
@@ -5416,18 +5253,18 @@
         <v>36</v>
       </c>
       <c r="V81" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="W81" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="B82" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="G82">
         <v>372900043349</v>
@@ -5435,6 +5272,12 @@
       <c r="H82">
         <v>372900043349</v>
       </c>
+      <c r="J82" t="s">
+        <v>360</v>
+      </c>
+      <c r="K82" t="s">
+        <v>42</v>
+      </c>
       <c r="L82" t="s">
         <v>32</v>
       </c>
@@ -5454,18 +5297,18 @@
         <v>36</v>
       </c>
       <c r="V82" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="W82" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="B83" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="G83">
         <v>372900043349</v>
@@ -5492,18 +5335,18 @@
         <v>36</v>
       </c>
       <c r="V83" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="W83" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="B84" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="G84">
         <v>372900043349</v>
@@ -5530,18 +5373,18 @@
         <v>36</v>
       </c>
       <c r="V84" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="W84" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="B85" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="G85">
         <v>372900043349</v>
@@ -5549,6 +5392,12 @@
       <c r="H85">
         <v>372900043349</v>
       </c>
+      <c r="J85" t="s">
+        <v>373</v>
+      </c>
+      <c r="K85" t="s">
+        <v>42</v>
+      </c>
       <c r="L85" t="s">
         <v>32</v>
       </c>
@@ -5568,18 +5417,18 @@
         <v>36</v>
       </c>
       <c r="V85" t="s">
-        <v>310</v>
+        <v>374</v>
       </c>
       <c r="W85" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="B86" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="G86">
         <v>372900043349</v>
@@ -5587,6 +5436,12 @@
       <c r="H86">
         <v>372900043349</v>
       </c>
+      <c r="J86" t="s">
+        <v>373</v>
+      </c>
+      <c r="K86" t="s">
+        <v>42</v>
+      </c>
       <c r="L86" t="s">
         <v>32</v>
       </c>
@@ -5606,18 +5461,18 @@
         <v>36</v>
       </c>
       <c r="V86" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="W86" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="B87" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="G87">
         <v>372900043349</v>
@@ -5625,6 +5480,12 @@
       <c r="H87">
         <v>372900043349</v>
       </c>
+      <c r="J87" t="s">
+        <v>379</v>
+      </c>
+      <c r="K87" t="s">
+        <v>42</v>
+      </c>
       <c r="L87" t="s">
         <v>32</v>
       </c>
@@ -5644,18 +5505,18 @@
         <v>36</v>
       </c>
       <c r="V87" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="W87" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="B88" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="G88">
         <v>372900043349</v>
@@ -5663,6 +5524,12 @@
       <c r="H88">
         <v>372900043349</v>
       </c>
+      <c r="J88" t="s">
+        <v>384</v>
+      </c>
+      <c r="K88" t="s">
+        <v>42</v>
+      </c>
       <c r="L88" t="s">
         <v>32</v>
       </c>
@@ -5682,18 +5549,18 @@
         <v>36</v>
       </c>
       <c r="V88" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="W88" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="B89" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="G89">
         <v>372900043349</v>
@@ -5701,6 +5568,12 @@
       <c r="H89">
         <v>372900043349</v>
       </c>
+      <c r="J89" t="s">
+        <v>384</v>
+      </c>
+      <c r="K89" t="s">
+        <v>42</v>
+      </c>
       <c r="L89" t="s">
         <v>32</v>
       </c>
@@ -5720,18 +5593,18 @@
         <v>36</v>
       </c>
       <c r="V89" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="W89" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="B90" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="G90">
         <v>372900043349</v>
@@ -5739,6 +5612,12 @@
       <c r="H90">
         <v>372900043349</v>
       </c>
+      <c r="J90" t="s">
+        <v>390</v>
+      </c>
+      <c r="K90" t="s">
+        <v>42</v>
+      </c>
       <c r="L90" t="s">
         <v>32</v>
       </c>
@@ -5758,18 +5637,18 @@
         <v>36</v>
       </c>
       <c r="V90" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="W90" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="B91" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="G91">
         <v>372900043349</v>
@@ -5777,12 +5656,6 @@
       <c r="H91">
         <v>372900043349</v>
       </c>
-      <c r="J91" t="s">
-        <v>373</v>
-      </c>
-      <c r="K91" t="s">
-        <v>52</v>
-      </c>
       <c r="L91" t="s">
         <v>32</v>
       </c>
@@ -5802,18 +5675,18 @@
         <v>36</v>
       </c>
       <c r="V91" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="W91" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="B92" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="G92">
         <v>372900043349</v>
@@ -5821,12 +5694,6 @@
       <c r="H92">
         <v>372900043349</v>
       </c>
-      <c r="J92" t="s">
-        <v>378</v>
-      </c>
-      <c r="K92" t="s">
-        <v>52</v>
-      </c>
       <c r="L92" t="s">
         <v>32</v>
       </c>
@@ -5846,18 +5713,18 @@
         <v>36</v>
       </c>
       <c r="V92" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="W92" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="B93" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="G93">
         <v>372900043349</v>
@@ -5865,12 +5732,6 @@
       <c r="H93">
         <v>372900043349</v>
       </c>
-      <c r="J93" t="s">
-        <v>383</v>
-      </c>
-      <c r="K93" t="s">
-        <v>52</v>
-      </c>
       <c r="L93" t="s">
         <v>32</v>
       </c>
@@ -5890,18 +5751,18 @@
         <v>36</v>
       </c>
       <c r="V93" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="W93" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="B94" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="G94">
         <v>372900043349</v>
@@ -5909,12 +5770,6 @@
       <c r="H94">
         <v>372900043349</v>
       </c>
-      <c r="J94" t="s">
-        <v>388</v>
-      </c>
-      <c r="K94" t="s">
-        <v>52</v>
-      </c>
       <c r="L94" t="s">
         <v>32</v>
       </c>
@@ -5934,18 +5789,18 @@
         <v>36</v>
       </c>
       <c r="V94" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="W94" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B95" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="G95">
         <v>372900043349</v>
@@ -5953,12 +5808,6 @@
       <c r="H95">
         <v>372900043349</v>
       </c>
-      <c r="J95" t="s">
-        <v>393</v>
-      </c>
-      <c r="K95" t="s">
-        <v>52</v>
-      </c>
       <c r="L95" t="s">
         <v>32</v>
       </c>
@@ -5978,18 +5827,18 @@
         <v>36</v>
       </c>
       <c r="V95" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="W95" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="B96" t="s">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="G96">
         <v>372900043349</v>
@@ -5998,10 +5847,10 @@
         <v>372900043349</v>
       </c>
       <c r="J96" t="s">
-        <v>397</v>
+        <v>264</v>
       </c>
       <c r="K96" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L96" t="s">
         <v>32</v>
@@ -6022,18 +5871,18 @@
         <v>36</v>
       </c>
       <c r="V96" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="W96" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="B97" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="G97">
         <v>372900043349</v>
@@ -6042,10 +5891,10 @@
         <v>372900043349</v>
       </c>
       <c r="J97" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="K97" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L97" t="s">
         <v>32</v>
@@ -6066,18 +5915,18 @@
         <v>36</v>
       </c>
       <c r="V97" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="W97" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="B98" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G98">
         <v>372900043349</v>
@@ -6086,10 +5935,10 @@
         <v>372900043349</v>
       </c>
       <c r="J98" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="K98" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L98" t="s">
         <v>32</v>
@@ -6110,18 +5959,18 @@
         <v>36</v>
       </c>
       <c r="V98" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="W98" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="B99" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="G99">
         <v>372900043349</v>
@@ -6129,12 +5978,6 @@
       <c r="H99">
         <v>372900043349</v>
       </c>
-      <c r="J99" t="s">
-        <v>411</v>
-      </c>
-      <c r="K99" t="s">
-        <v>52</v>
-      </c>
       <c r="L99" t="s">
         <v>32</v>
       </c>
@@ -6154,18 +5997,18 @@
         <v>36</v>
       </c>
       <c r="V99" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="W99" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B100" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="G100">
         <v>372900043349</v>
@@ -6174,10 +6017,10 @@
         <v>372900043349</v>
       </c>
       <c r="J100" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="K100" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L100" t="s">
         <v>32</v>
@@ -6198,18 +6041,18 @@
         <v>36</v>
       </c>
       <c r="V100" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="W100" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B101" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="G101">
         <v>372900043349</v>
@@ -6217,12 +6060,6 @@
       <c r="H101">
         <v>372900043349</v>
       </c>
-      <c r="J101" t="s">
-        <v>421</v>
-      </c>
-      <c r="K101" t="s">
-        <v>52</v>
-      </c>
       <c r="L101" t="s">
         <v>32</v>
       </c>
@@ -6242,18 +6079,18 @@
         <v>36</v>
       </c>
       <c r="V101" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="W101" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="B102" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="G102">
         <v>372900043349</v>
@@ -6262,10 +6099,10 @@
         <v>372900043349</v>
       </c>
       <c r="J102" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="K102" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L102" t="s">
         <v>32</v>
@@ -6286,18 +6123,18 @@
         <v>36</v>
       </c>
       <c r="V102" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="W102" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="B103" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="G103">
         <v>372900043349</v>
@@ -6305,12 +6142,6 @@
       <c r="H103">
         <v>372900043349</v>
       </c>
-      <c r="J103" t="s">
-        <v>427</v>
-      </c>
-      <c r="K103" t="s">
-        <v>52</v>
-      </c>
       <c r="L103" t="s">
         <v>32</v>
       </c>
@@ -6330,18 +6161,18 @@
         <v>36</v>
       </c>
       <c r="V103" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="W103" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="B104" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="G104">
         <v>372900043349</v>
@@ -6349,12 +6180,6 @@
       <c r="H104">
         <v>372900043349</v>
       </c>
-      <c r="J104" t="s">
-        <v>432</v>
-      </c>
-      <c r="K104" t="s">
-        <v>52</v>
-      </c>
       <c r="L104" t="s">
         <v>32</v>
       </c>
@@ -6374,18 +6199,18 @@
         <v>36</v>
       </c>
       <c r="V104" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="W104" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="B105" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="G105">
         <v>372900043349</v>
@@ -6394,10 +6219,10 @@
         <v>372900043349</v>
       </c>
       <c r="J105" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="K105" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L105" t="s">
         <v>32</v>
@@ -6418,18 +6243,18 @@
         <v>36</v>
       </c>
       <c r="V105" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="W105" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="B106" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="G106">
         <v>372900043349</v>
@@ -6438,10 +6263,10 @@
         <v>372900043349</v>
       </c>
       <c r="J106" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="K106" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L106" t="s">
         <v>32</v>
@@ -6462,18 +6287,18 @@
         <v>36</v>
       </c>
       <c r="V106" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="W106" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="B107" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="G107">
         <v>372900043349</v>
@@ -6482,10 +6307,10 @@
         <v>372900043349</v>
       </c>
       <c r="J107" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="K107" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L107" t="s">
         <v>32</v>
@@ -6506,18 +6331,18 @@
         <v>36</v>
       </c>
       <c r="V107" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="W107" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="B108" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="G108">
         <v>372900043349</v>
@@ -6526,10 +6351,10 @@
         <v>372900043349</v>
       </c>
       <c r="J108" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="K108" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L108" t="s">
         <v>32</v>
@@ -6550,18 +6375,18 @@
         <v>36</v>
       </c>
       <c r="V108" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="W108" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B109" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="G109">
         <v>372900043349</v>
@@ -6569,12 +6394,6 @@
       <c r="H109">
         <v>372900043349</v>
       </c>
-      <c r="J109" t="s">
-        <v>448</v>
-      </c>
-      <c r="K109" t="s">
-        <v>52</v>
-      </c>
       <c r="L109" t="s">
         <v>32</v>
       </c>
@@ -6594,18 +6413,18 @@
         <v>36</v>
       </c>
       <c r="V109" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="W109" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B110" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="G110">
         <v>372900043349</v>
@@ -6614,10 +6433,10 @@
         <v>372900043349</v>
       </c>
       <c r="J110" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="K110" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L110" t="s">
         <v>32</v>
@@ -6638,18 +6457,18 @@
         <v>36</v>
       </c>
       <c r="V110" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="W110" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="B111" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="G111">
         <v>372900043349</v>
@@ -6658,10 +6477,10 @@
         <v>372900043349</v>
       </c>
       <c r="J111" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="K111" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L111" t="s">
         <v>32</v>
@@ -6682,18 +6501,18 @@
         <v>36</v>
       </c>
       <c r="V111" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="W111" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="B112" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="G112">
         <v>372900043349</v>
@@ -6701,12 +6520,6 @@
       <c r="H112">
         <v>372900043349</v>
       </c>
-      <c r="J112" t="s">
-        <v>464</v>
-      </c>
-      <c r="K112" t="s">
-        <v>52</v>
-      </c>
       <c r="L112" t="s">
         <v>32</v>
       </c>
@@ -6726,18 +6539,18 @@
         <v>36</v>
       </c>
       <c r="V112" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="W112" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B113" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="G113">
         <v>372900043349</v>
@@ -6746,10 +6559,10 @@
         <v>372900043349</v>
       </c>
       <c r="J113" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="K113" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L113" t="s">
         <v>32</v>
@@ -6770,18 +6583,18 @@
         <v>36</v>
       </c>
       <c r="V113" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="W113" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B114" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="G114">
         <v>372900043349</v>
@@ -6789,12 +6602,6 @@
       <c r="H114">
         <v>372900043349</v>
       </c>
-      <c r="J114" t="s">
-        <v>474</v>
-      </c>
-      <c r="K114" t="s">
-        <v>52</v>
-      </c>
       <c r="L114" t="s">
         <v>32</v>
       </c>
@@ -6814,18 +6621,18 @@
         <v>36</v>
       </c>
       <c r="V114" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="W114" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B115" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="G115">
         <v>372900043349</v>
@@ -6833,12 +6640,6 @@
       <c r="H115">
         <v>372900043349</v>
       </c>
-      <c r="J115" t="s">
-        <v>479</v>
-      </c>
-      <c r="K115" t="s">
-        <v>52</v>
-      </c>
       <c r="L115" t="s">
         <v>32</v>
       </c>
@@ -6858,18 +6659,18 @@
         <v>36</v>
       </c>
       <c r="V115" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="W115" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B116" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="G116">
         <v>372900043349</v>
@@ -6878,10 +6679,10 @@
         <v>372900043349</v>
       </c>
       <c r="J116" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="K116" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L116" t="s">
         <v>32</v>
@@ -6902,18 +6703,18 @@
         <v>36</v>
       </c>
       <c r="V116" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="W116" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="B117" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G117">
         <v>372900043349</v>
@@ -6922,10 +6723,10 @@
         <v>372900043349</v>
       </c>
       <c r="J117" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K117" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L117" t="s">
         <v>32</v>
@@ -6946,18 +6747,18 @@
         <v>36</v>
       </c>
       <c r="V117" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="W117" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B118" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G118">
         <v>372900043349</v>
@@ -6966,10 +6767,10 @@
         <v>372900043349</v>
       </c>
       <c r="J118" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K118" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L118" t="s">
         <v>32</v>
@@ -6990,18 +6791,18 @@
         <v>36</v>
       </c>
       <c r="V118" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="W118" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B119" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="G119">
         <v>372900043349</v>
@@ -7010,10 +6811,10 @@
         <v>372900043349</v>
       </c>
       <c r="J119" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="K119" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L119" t="s">
         <v>32</v>
@@ -7034,846 +6835,10 @@
         <v>36</v>
       </c>
       <c r="V119" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="W119" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>498</v>
-      </c>
-      <c r="B120" t="s">
-        <v>499</v>
-      </c>
-      <c r="G120">
-        <v>372900043349</v>
-      </c>
-      <c r="H120">
-        <v>372900043349</v>
-      </c>
-      <c r="J120" t="s">
-        <v>500</v>
-      </c>
-      <c r="K120" t="s">
-        <v>52</v>
-      </c>
-      <c r="L120" t="s">
-        <v>32</v>
-      </c>
-      <c r="M120" t="s">
-        <v>32</v>
-      </c>
-      <c r="P120" t="s">
-        <v>33</v>
-      </c>
-      <c r="R120" t="s">
-        <v>34</v>
-      </c>
-      <c r="T120" t="s">
-        <v>35</v>
-      </c>
-      <c r="U120" t="s">
-        <v>36</v>
-      </c>
-      <c r="V120" t="s">
-        <v>501</v>
-      </c>
-      <c r="W120" t="s">
         <v>502</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>503</v>
-      </c>
-      <c r="B121" t="s">
-        <v>499</v>
-      </c>
-      <c r="G121">
-        <v>372900043349</v>
-      </c>
-      <c r="H121">
-        <v>372900043349</v>
-      </c>
-      <c r="J121" t="s">
-        <v>500</v>
-      </c>
-      <c r="K121" t="s">
-        <v>52</v>
-      </c>
-      <c r="L121" t="s">
-        <v>32</v>
-      </c>
-      <c r="M121" t="s">
-        <v>32</v>
-      </c>
-      <c r="P121" t="s">
-        <v>33</v>
-      </c>
-      <c r="R121" t="s">
-        <v>34</v>
-      </c>
-      <c r="T121" t="s">
-        <v>35</v>
-      </c>
-      <c r="U121" t="s">
-        <v>36</v>
-      </c>
-      <c r="V121" t="s">
-        <v>501</v>
-      </c>
-      <c r="W121" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>504</v>
-      </c>
-      <c r="B122" t="s">
-        <v>505</v>
-      </c>
-      <c r="G122">
-        <v>372900043349</v>
-      </c>
-      <c r="H122">
-        <v>372900043349</v>
-      </c>
-      <c r="J122" t="s">
-        <v>506</v>
-      </c>
-      <c r="K122" t="s">
-        <v>52</v>
-      </c>
-      <c r="L122" t="s">
-        <v>32</v>
-      </c>
-      <c r="M122" t="s">
-        <v>32</v>
-      </c>
-      <c r="P122" t="s">
-        <v>33</v>
-      </c>
-      <c r="R122" t="s">
-        <v>34</v>
-      </c>
-      <c r="T122" t="s">
-        <v>35</v>
-      </c>
-      <c r="U122" t="s">
-        <v>36</v>
-      </c>
-      <c r="V122" t="s">
-        <v>507</v>
-      </c>
-      <c r="W122" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>509</v>
-      </c>
-      <c r="B123" t="s">
-        <v>510</v>
-      </c>
-      <c r="G123">
-        <v>372900043349</v>
-      </c>
-      <c r="H123">
-        <v>372900043349</v>
-      </c>
-      <c r="J123" t="s">
-        <v>511</v>
-      </c>
-      <c r="K123" t="s">
-        <v>52</v>
-      </c>
-      <c r="L123" t="s">
-        <v>32</v>
-      </c>
-      <c r="M123" t="s">
-        <v>32</v>
-      </c>
-      <c r="P123" t="s">
-        <v>33</v>
-      </c>
-      <c r="R123" t="s">
-        <v>34</v>
-      </c>
-      <c r="T123" t="s">
-        <v>35</v>
-      </c>
-      <c r="U123" t="s">
-        <v>36</v>
-      </c>
-      <c r="V123" t="s">
-        <v>512</v>
-      </c>
-      <c r="W123" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>514</v>
-      </c>
-      <c r="B124" t="s">
-        <v>515</v>
-      </c>
-      <c r="G124">
-        <v>372900043349</v>
-      </c>
-      <c r="H124">
-        <v>372900043349</v>
-      </c>
-      <c r="J124" t="s">
-        <v>516</v>
-      </c>
-      <c r="K124" t="s">
-        <v>52</v>
-      </c>
-      <c r="L124" t="s">
-        <v>32</v>
-      </c>
-      <c r="M124" t="s">
-        <v>32</v>
-      </c>
-      <c r="P124" t="s">
-        <v>33</v>
-      </c>
-      <c r="R124" t="s">
-        <v>34</v>
-      </c>
-      <c r="T124" t="s">
-        <v>35</v>
-      </c>
-      <c r="U124" t="s">
-        <v>36</v>
-      </c>
-      <c r="V124" t="s">
-        <v>517</v>
-      </c>
-      <c r="W124" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>519</v>
-      </c>
-      <c r="B125" t="s">
-        <v>520</v>
-      </c>
-      <c r="G125">
-        <v>372900043349</v>
-      </c>
-      <c r="H125">
-        <v>372900043349</v>
-      </c>
-      <c r="J125" t="s">
-        <v>521</v>
-      </c>
-      <c r="K125" t="s">
-        <v>52</v>
-      </c>
-      <c r="L125" t="s">
-        <v>32</v>
-      </c>
-      <c r="M125" t="s">
-        <v>32</v>
-      </c>
-      <c r="P125" t="s">
-        <v>33</v>
-      </c>
-      <c r="R125" t="s">
-        <v>34</v>
-      </c>
-      <c r="T125" t="s">
-        <v>35</v>
-      </c>
-      <c r="U125" t="s">
-        <v>36</v>
-      </c>
-      <c r="V125" t="s">
-        <v>522</v>
-      </c>
-      <c r="W125" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>524</v>
-      </c>
-      <c r="B126" t="s">
-        <v>520</v>
-      </c>
-      <c r="G126">
-        <v>372900043349</v>
-      </c>
-      <c r="H126">
-        <v>372900043349</v>
-      </c>
-      <c r="J126" t="s">
-        <v>521</v>
-      </c>
-      <c r="K126" t="s">
-        <v>52</v>
-      </c>
-      <c r="L126" t="s">
-        <v>32</v>
-      </c>
-      <c r="M126" t="s">
-        <v>32</v>
-      </c>
-      <c r="P126" t="s">
-        <v>33</v>
-      </c>
-      <c r="R126" t="s">
-        <v>34</v>
-      </c>
-      <c r="T126" t="s">
-        <v>35</v>
-      </c>
-      <c r="U126" t="s">
-        <v>36</v>
-      </c>
-      <c r="V126" t="s">
-        <v>522</v>
-      </c>
-      <c r="W126" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>525</v>
-      </c>
-      <c r="B127" t="s">
-        <v>526</v>
-      </c>
-      <c r="G127">
-        <v>372900043349</v>
-      </c>
-      <c r="H127">
-        <v>372900043349</v>
-      </c>
-      <c r="J127" t="s">
-        <v>527</v>
-      </c>
-      <c r="K127" t="s">
-        <v>52</v>
-      </c>
-      <c r="L127" t="s">
-        <v>32</v>
-      </c>
-      <c r="M127" t="s">
-        <v>32</v>
-      </c>
-      <c r="P127" t="s">
-        <v>33</v>
-      </c>
-      <c r="R127" t="s">
-        <v>34</v>
-      </c>
-      <c r="T127" t="s">
-        <v>35</v>
-      </c>
-      <c r="U127" t="s">
-        <v>36</v>
-      </c>
-      <c r="V127" t="s">
-        <v>528</v>
-      </c>
-      <c r="W127" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>530</v>
-      </c>
-      <c r="B128" t="s">
-        <v>531</v>
-      </c>
-      <c r="G128">
-        <v>372900043349</v>
-      </c>
-      <c r="H128">
-        <v>372900043349</v>
-      </c>
-      <c r="J128" t="s">
-        <v>532</v>
-      </c>
-      <c r="K128" t="s">
-        <v>52</v>
-      </c>
-      <c r="L128" t="s">
-        <v>32</v>
-      </c>
-      <c r="M128" t="s">
-        <v>32</v>
-      </c>
-      <c r="P128" t="s">
-        <v>33</v>
-      </c>
-      <c r="R128" t="s">
-        <v>34</v>
-      </c>
-      <c r="T128" t="s">
-        <v>35</v>
-      </c>
-      <c r="U128" t="s">
-        <v>36</v>
-      </c>
-      <c r="V128" t="s">
-        <v>533</v>
-      </c>
-      <c r="W128" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>535</v>
-      </c>
-      <c r="B129" t="s">
-        <v>536</v>
-      </c>
-      <c r="G129">
-        <v>372900043349</v>
-      </c>
-      <c r="H129">
-        <v>372900043349</v>
-      </c>
-      <c r="J129" t="s">
-        <v>537</v>
-      </c>
-      <c r="K129" t="s">
-        <v>52</v>
-      </c>
-      <c r="L129" t="s">
-        <v>32</v>
-      </c>
-      <c r="M129" t="s">
-        <v>32</v>
-      </c>
-      <c r="P129" t="s">
-        <v>33</v>
-      </c>
-      <c r="R129" t="s">
-        <v>34</v>
-      </c>
-      <c r="T129" t="s">
-        <v>35</v>
-      </c>
-      <c r="U129" t="s">
-        <v>36</v>
-      </c>
-      <c r="V129" t="s">
-        <v>538</v>
-      </c>
-      <c r="W129" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>540</v>
-      </c>
-      <c r="B130" t="s">
-        <v>541</v>
-      </c>
-      <c r="G130">
-        <v>372900043349</v>
-      </c>
-      <c r="H130">
-        <v>372900043349</v>
-      </c>
-      <c r="J130" t="s">
-        <v>542</v>
-      </c>
-      <c r="K130" t="s">
-        <v>52</v>
-      </c>
-      <c r="L130" t="s">
-        <v>32</v>
-      </c>
-      <c r="M130" t="s">
-        <v>32</v>
-      </c>
-      <c r="P130" t="s">
-        <v>33</v>
-      </c>
-      <c r="R130" t="s">
-        <v>34</v>
-      </c>
-      <c r="T130" t="s">
-        <v>35</v>
-      </c>
-      <c r="U130" t="s">
-        <v>36</v>
-      </c>
-      <c r="V130" t="s">
-        <v>543</v>
-      </c>
-      <c r="W130" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>545</v>
-      </c>
-      <c r="B131" t="s">
-        <v>546</v>
-      </c>
-      <c r="G131">
-        <v>372900043349</v>
-      </c>
-      <c r="H131">
-        <v>372900043349</v>
-      </c>
-      <c r="J131" t="s">
-        <v>547</v>
-      </c>
-      <c r="K131" t="s">
-        <v>52</v>
-      </c>
-      <c r="L131" t="s">
-        <v>32</v>
-      </c>
-      <c r="M131" t="s">
-        <v>32</v>
-      </c>
-      <c r="P131" t="s">
-        <v>33</v>
-      </c>
-      <c r="R131" t="s">
-        <v>34</v>
-      </c>
-      <c r="T131" t="s">
-        <v>35</v>
-      </c>
-      <c r="U131" t="s">
-        <v>36</v>
-      </c>
-      <c r="V131" t="s">
-        <v>548</v>
-      </c>
-      <c r="W131" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>550</v>
-      </c>
-      <c r="B132" t="s">
-        <v>551</v>
-      </c>
-      <c r="G132">
-        <v>372900043349</v>
-      </c>
-      <c r="H132">
-        <v>372900043349</v>
-      </c>
-      <c r="J132" t="s">
-        <v>552</v>
-      </c>
-      <c r="K132" t="s">
-        <v>52</v>
-      </c>
-      <c r="L132" t="s">
-        <v>32</v>
-      </c>
-      <c r="M132" t="s">
-        <v>32</v>
-      </c>
-      <c r="P132" t="s">
-        <v>33</v>
-      </c>
-      <c r="R132" t="s">
-        <v>34</v>
-      </c>
-      <c r="T132" t="s">
-        <v>35</v>
-      </c>
-      <c r="U132" t="s">
-        <v>36</v>
-      </c>
-      <c r="V132" t="s">
-        <v>553</v>
-      </c>
-      <c r="W132" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>555</v>
-      </c>
-      <c r="B133" t="s">
-        <v>556</v>
-      </c>
-      <c r="G133">
-        <v>372900043349</v>
-      </c>
-      <c r="H133">
-        <v>372900043349</v>
-      </c>
-      <c r="J133" t="s">
-        <v>557</v>
-      </c>
-      <c r="K133" t="s">
-        <v>52</v>
-      </c>
-      <c r="L133" t="s">
-        <v>32</v>
-      </c>
-      <c r="M133" t="s">
-        <v>32</v>
-      </c>
-      <c r="P133" t="s">
-        <v>33</v>
-      </c>
-      <c r="R133" t="s">
-        <v>34</v>
-      </c>
-      <c r="T133" t="s">
-        <v>35</v>
-      </c>
-      <c r="U133" t="s">
-        <v>36</v>
-      </c>
-      <c r="V133" t="s">
-        <v>558</v>
-      </c>
-      <c r="W133" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>560</v>
-      </c>
-      <c r="B134" t="s">
-        <v>561</v>
-      </c>
-      <c r="G134">
-        <v>372900043349</v>
-      </c>
-      <c r="H134">
-        <v>372900043349</v>
-      </c>
-      <c r="J134" t="s">
-        <v>562</v>
-      </c>
-      <c r="K134" t="s">
-        <v>52</v>
-      </c>
-      <c r="L134" t="s">
-        <v>32</v>
-      </c>
-      <c r="M134" t="s">
-        <v>32</v>
-      </c>
-      <c r="P134" t="s">
-        <v>33</v>
-      </c>
-      <c r="R134" t="s">
-        <v>34</v>
-      </c>
-      <c r="T134" t="s">
-        <v>35</v>
-      </c>
-      <c r="U134" t="s">
-        <v>36</v>
-      </c>
-      <c r="V134" t="s">
-        <v>563</v>
-      </c>
-      <c r="W134" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>565</v>
-      </c>
-      <c r="B135" t="s">
-        <v>566</v>
-      </c>
-      <c r="G135">
-        <v>372900043349</v>
-      </c>
-      <c r="H135">
-        <v>372900043349</v>
-      </c>
-      <c r="J135" t="s">
-        <v>567</v>
-      </c>
-      <c r="K135" t="s">
-        <v>52</v>
-      </c>
-      <c r="L135" t="s">
-        <v>32</v>
-      </c>
-      <c r="M135" t="s">
-        <v>32</v>
-      </c>
-      <c r="P135" t="s">
-        <v>33</v>
-      </c>
-      <c r="R135" t="s">
-        <v>34</v>
-      </c>
-      <c r="T135" t="s">
-        <v>35</v>
-      </c>
-      <c r="U135" t="s">
-        <v>36</v>
-      </c>
-      <c r="V135" t="s">
-        <v>568</v>
-      </c>
-      <c r="W135" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>570</v>
-      </c>
-      <c r="B136" t="s">
-        <v>571</v>
-      </c>
-      <c r="G136">
-        <v>372900043349</v>
-      </c>
-      <c r="H136">
-        <v>372900043349</v>
-      </c>
-      <c r="J136" t="s">
-        <v>572</v>
-      </c>
-      <c r="K136" t="s">
-        <v>52</v>
-      </c>
-      <c r="L136" t="s">
-        <v>32</v>
-      </c>
-      <c r="M136" t="s">
-        <v>32</v>
-      </c>
-      <c r="P136" t="s">
-        <v>33</v>
-      </c>
-      <c r="R136" t="s">
-        <v>34</v>
-      </c>
-      <c r="T136" t="s">
-        <v>35</v>
-      </c>
-      <c r="U136" t="s">
-        <v>36</v>
-      </c>
-      <c r="V136" t="s">
-        <v>573</v>
-      </c>
-      <c r="W136" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>575</v>
-      </c>
-      <c r="B137" t="s">
-        <v>431</v>
-      </c>
-      <c r="G137">
-        <v>372900043349</v>
-      </c>
-      <c r="H137">
-        <v>372900043349</v>
-      </c>
-      <c r="J137" t="s">
-        <v>432</v>
-      </c>
-      <c r="K137" t="s">
-        <v>52</v>
-      </c>
-      <c r="L137" t="s">
-        <v>32</v>
-      </c>
-      <c r="M137" t="s">
-        <v>32</v>
-      </c>
-      <c r="P137" t="s">
-        <v>33</v>
-      </c>
-      <c r="R137" t="s">
-        <v>34</v>
-      </c>
-      <c r="T137" t="s">
-        <v>35</v>
-      </c>
-      <c r="U137" t="s">
-        <v>36</v>
-      </c>
-      <c r="V137" t="s">
-        <v>576</v>
-      </c>
-      <c r="W137" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>578</v>
-      </c>
-      <c r="B138" t="s">
-        <v>579</v>
-      </c>
-      <c r="G138">
-        <v>372900043349</v>
-      </c>
-      <c r="H138">
-        <v>372900043349</v>
-      </c>
-      <c r="J138" t="s">
-        <v>580</v>
-      </c>
-      <c r="K138" t="s">
-        <v>52</v>
-      </c>
-      <c r="L138" t="s">
-        <v>32</v>
-      </c>
-      <c r="M138" t="s">
-        <v>32</v>
-      </c>
-      <c r="P138" t="s">
-        <v>33</v>
-      </c>
-      <c r="R138" t="s">
-        <v>34</v>
-      </c>
-      <c r="T138" t="s">
-        <v>35</v>
-      </c>
-      <c r="U138" t="s">
-        <v>36</v>
-      </c>
-      <c r="V138" t="s">
-        <v>568</v>
-      </c>
-      <c r="W138" t="s">
-        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/public/inputinsale/marks.xlsx
+++ b/public/inputinsale/marks.xlsx
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="68">
-  <si>
-    <t>Filter(participantInn=372900043349, productGroup=LP, packageType=[UNIT], status=APPLIED, includeGtin=[02900269797070], excludeGtin=[], appliedPeriod=null, emissionPeriod=Period(start=2023-10-11T21:00:00Z, end=2023-10-12T20:59:59Z), productionPeriod=null)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="374">
+  <si>
+    <t>Filter(participantInn=372900043349, productGroup=LP, packageType=[UNIT], status=APPLIED, includeGtin=[], excludeGtin=[], appliedPeriod=null, emissionPeriod=Period(start=2023-10-18T21:00:00Z, end=2023-10-19T20:59:59Z), productionPeriod=null)</t>
   </si>
   <si>
     <t>requestedCis</t>
@@ -111,10 +111,10 @@
     <t>aggregationType</t>
   </si>
   <si>
-    <t>0102900269797070215!_Xj%whofsPr</t>
-  </si>
-  <si>
-    <t>02900269797070</t>
+    <t>0102900271085257215CtjypI67!W,s</t>
+  </si>
+  <si>
+    <t>02900271085257</t>
   </si>
   <si>
     <t>ИП ЗОТОВ ВЯЧЕСЛАВ ВАЛЕРЬЕВИЧ</t>
@@ -132,97 +132,1015 @@
     <t>LP</t>
   </si>
   <si>
-    <t>2023-10-12T14:02:29.440Z</t>
-  </si>
-  <si>
-    <t>2023-10-12T13:59:59.233Z</t>
-  </si>
-  <si>
-    <t>0102900269797070215!hacWJjPXDqX</t>
-  </si>
-  <si>
-    <t>0102900269797070215)Ys2Qv,,dVw8</t>
-  </si>
-  <si>
-    <t>0102900269797070215.IlL7"1WrTgO</t>
-  </si>
-  <si>
-    <t>01029002697970702152Kccn9qrb.3g</t>
-  </si>
-  <si>
-    <t>01029002697970702155=aB"oNDmaLk</t>
-  </si>
-  <si>
-    <t>0102900269797070215A=mr1qC/tnZ+</t>
-  </si>
-  <si>
-    <t>0102900269797070215C+SL!SU5//zN</t>
-  </si>
-  <si>
-    <t>0102900269797070215DOs4PjLxpP'l</t>
-  </si>
-  <si>
-    <t>0102900269797070215GA1uXy+es!)M</t>
-  </si>
-  <si>
-    <t>0102900269797070215IjrS&lt;M9ukYnj</t>
-  </si>
-  <si>
-    <t>0102900269797070215Lt4kaHqWyL?S</t>
-  </si>
-  <si>
-    <t>0102900269797070215Nf7uujzdwZce</t>
-  </si>
-  <si>
-    <t>0102900269797070215O,a:f.wImp/c</t>
-  </si>
-  <si>
-    <t>0102900269797070215PqAk?_QDFHIZ</t>
-  </si>
-  <si>
-    <t>0102900269797070215QDN1TgUyScVm</t>
-  </si>
-  <si>
-    <t>0102900269797070215R947jk8jH/Qb</t>
-  </si>
-  <si>
-    <t>0102900269797070215ZC,Q"WljjtD0</t>
-  </si>
-  <si>
-    <t>0102900269797070215bGuZqHWWbVFP</t>
-  </si>
-  <si>
-    <t>0102900269797070215dSyHoB"nEk8h</t>
-  </si>
-  <si>
-    <t>0102900269797070215g/3HOVFM:MJC</t>
-  </si>
-  <si>
-    <t>0102900269797070215hcfls7Qqy.0I</t>
-  </si>
-  <si>
-    <t>0102900269797070215iQ.QES;RiS.9</t>
-  </si>
-  <si>
-    <t>0102900269797070215jV(f/BDOoaRN</t>
-  </si>
-  <si>
-    <t>0102900269797070215okMtsai*Z+8k</t>
-  </si>
-  <si>
-    <t>0102900269797070215pJ+spZK8&gt;Pi(</t>
-  </si>
-  <si>
-    <t>0102900269797070215rF)d-3d3d8ND</t>
-  </si>
-  <si>
-    <t>0102900269797070215scOXPGieR'"f</t>
-  </si>
-  <si>
-    <t>0102900269797070215sol(b")DlUl&gt;</t>
-  </si>
-  <si>
-    <t>0102900269797070215yoKw'Di.*pTu</t>
+    <t>2023-10-19T16:22:29.496Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T16:18:15.496Z</t>
+  </si>
+  <si>
+    <t>0102900271083680215eZOsC3j;2D,Q</t>
+  </si>
+  <si>
+    <t>02900271083680</t>
+  </si>
+  <si>
+    <t>2023-10-19T16:09:16.856Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T16:03:18.593Z</t>
+  </si>
+  <si>
+    <t>0102900271083703215FN"kTyvXh"EC</t>
+  </si>
+  <si>
+    <t>02900271083703</t>
+  </si>
+  <si>
+    <t>2023-10-19T16:10:15.737Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T16:03:18.162Z</t>
+  </si>
+  <si>
+    <t>010290027108365921591+"Bd8FWY8b</t>
+  </si>
+  <si>
+    <t>02900271083659</t>
+  </si>
+  <si>
+    <t>2023-10-19T16:08:15.307Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T16:03:16.867Z</t>
+  </si>
+  <si>
+    <t>0102900267666118215t*TMUbodjRjq</t>
+  </si>
+  <si>
+    <t>02900267666118</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 125 - Синий 1х1</t>
+  </si>
+  <si>
+    <t>ИВАНОВСКИЙ ТЕКСТИЛЬ</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:48:03.621Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:44:39.018Z</t>
+  </si>
+  <si>
+    <t>0102900237820694215MoRVtovFsYAC</t>
+  </si>
+  <si>
+    <t>02900237820694</t>
+  </si>
+  <si>
+    <t>Матрас ватный тик с бортом 110 х 190 - СИН - Вата белая</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:49:04.967Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:37:59.031Z</t>
+  </si>
+  <si>
+    <t>0102900256159034215jhQWP7W4-X(-</t>
+  </si>
+  <si>
+    <t>02900256159034</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 160 х 220 - М - 135 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:49:04.058Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:37:58.662Z</t>
+  </si>
+  <si>
+    <t>0102900203466956215elst1GS1Bn1=</t>
+  </si>
+  <si>
+    <t>02900203466956</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 120 - Синий</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:49:04.162Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:37:58.265Z</t>
+  </si>
+  <si>
+    <t>0102900242862467215g*Zijy&amp;RbqEQ</t>
+  </si>
+  <si>
+    <t>02900242862467</t>
+  </si>
+  <si>
+    <t>Матрас ватный тик с бортом 40 х 80 - СИН - Вата белая</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:49:04.718Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:37:57.805Z</t>
+  </si>
+  <si>
+    <t>0102900077065279215eqHDDYDInQ&amp;;</t>
+  </si>
+  <si>
+    <t>02900077065279</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп микрофибры 200 х 200 - М - 85 - Белый 3х3</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:49:04.545Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:37:57.520Z</t>
+  </si>
+  <si>
+    <t>0102900077065279215kjrqLRfjMcEW</t>
+  </si>
+  <si>
+    <t>0102900271074299215YR7v*Io*ppax</t>
+  </si>
+  <si>
+    <t>02900271074299</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:50:05.932Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:37:55.018Z</t>
+  </si>
+  <si>
+    <t>0102900271074282215zEN5!Py7&lt;peI</t>
+  </si>
+  <si>
+    <t>02900271074282</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:50:05.933Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T15:37:54.528Z</t>
+  </si>
+  <si>
+    <t>01029000808366512152Ymr.*'Zj9lo</t>
+  </si>
+  <si>
+    <t>02900080836651</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 200 х 200 - М - 125 - Черный 1х1</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:48:28.617Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:42:56.283Z</t>
+  </si>
+  <si>
+    <t>0102900242794096215cALnR7YrKT*Z</t>
+  </si>
+  <si>
+    <t>02900242794096</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 70 х 70 - М - 125 - Бордо</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:48:28.857Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:42:55.901Z</t>
+  </si>
+  <si>
+    <t>0102900271058671215PHScVmqKQW&gt;;</t>
+  </si>
+  <si>
+    <t>02900271058671</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:47:28.460Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:42:55.748Z</t>
+  </si>
+  <si>
+    <t>0102900271058664215?o"ml!J:X"E4</t>
+  </si>
+  <si>
+    <t>02900271058664</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:47:28.325Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:42:55.191Z</t>
+  </si>
+  <si>
+    <t>0102900271058664215OXIf'BRnvnSg</t>
+  </si>
+  <si>
+    <t>0102900271058664215rh&amp;:V&amp;j&amp;q'Qs</t>
+  </si>
+  <si>
+    <t>0102900257000038215Q,,BvcEAie'S</t>
+  </si>
+  <si>
+    <t>02900257000038</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 240 х 260 - М - 140 - Лунная ночь</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:48:28.911Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:42:52.360Z</t>
+  </si>
+  <si>
+    <t>0102900240333952215?)Uc7qLSslI/</t>
+  </si>
+  <si>
+    <t>02900240333952</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 135 - Лунная ночь</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:48:28.423Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:42:52.272Z</t>
+  </si>
+  <si>
+    <t>0102900240333952215Li.Qrs6irGCR</t>
+  </si>
+  <si>
+    <t>0102900270979472215Um9fr'A'spvg</t>
+  </si>
+  <si>
+    <t>02900270979472</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:39:21.108Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:33.091Z</t>
+  </si>
+  <si>
+    <t>0102900270979465215DIFlW3fcE)v4</t>
+  </si>
+  <si>
+    <t>02900270979465</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:39:20.780Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:32.611Z</t>
+  </si>
+  <si>
+    <t>0102900270979458215BG)HG,%dZy4"</t>
+  </si>
+  <si>
+    <t>02900270979458</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:39:21.589Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:32.533Z</t>
+  </si>
+  <si>
+    <t>0102900270979458215DwhU:BG3UPQa</t>
+  </si>
+  <si>
+    <t>0102900270979441215QcQ=&gt;&lt;3("%Oe</t>
+  </si>
+  <si>
+    <t>02900270979441</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:38:20.737Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:32.304Z</t>
+  </si>
+  <si>
+    <t>0102900270979441215mg%tefCPhBWb</t>
+  </si>
+  <si>
+    <t>0102900270979434215XEnpPZUlm_(f</t>
+  </si>
+  <si>
+    <t>02900270979434</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:38:20.496Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:31.777Z</t>
+  </si>
+  <si>
+    <t>0102900270979427215q(6nScwNdzOY</t>
+  </si>
+  <si>
+    <t>02900270979427</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:36:19.622Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:31.547Z</t>
+  </si>
+  <si>
+    <t>0102900270979410215k"YNnCNjWmos</t>
+  </si>
+  <si>
+    <t>02900270979410</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:36:19.038Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:31.491Z</t>
+  </si>
+  <si>
+    <t>01029000779957362152RM7:zJd_Rpk</t>
+  </si>
+  <si>
+    <t>02900077995736</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 30 - М - 125 - Василек 1х1</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:33:16.830Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:31.465Z</t>
+  </si>
+  <si>
+    <t>0102900114877360215EF?T*TQGfM)s</t>
+  </si>
+  <si>
+    <t>02900114877360</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 200 х 220 х 30 - М - 125 - Черный</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:35:18.308Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:31.018Z</t>
+  </si>
+  <si>
+    <t>0102900079419247215VE_PR'Emg-no</t>
+  </si>
+  <si>
+    <t>02900079419247</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 140х200х30 - М - 323 Серый</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:34:18.644Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:30.955Z</t>
+  </si>
+  <si>
+    <t>0102900076234324215&lt;X.VHpu4/lAc</t>
+  </si>
+  <si>
+    <t>02900076234324</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 125 - Бирюза 1х1</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:35:18.488Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:30.832Z</t>
+  </si>
+  <si>
+    <t>0102900076234324215X+"guSfdp?rO</t>
+  </si>
+  <si>
+    <t>0102900270329161215gXbtCAs4X""h</t>
+  </si>
+  <si>
+    <t>02900270329161</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель 1,5 спальное - М - 60S 4229 Коричневый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:34:18.179Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:30.155Z</t>
+  </si>
+  <si>
+    <t>0102900150698820215JdvM+LDD!0YX</t>
+  </si>
+  <si>
+    <t>02900150698820</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 220 х 240 - М - 140 - Бежевый Люкс</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:35:18.821Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:29.599Z</t>
+  </si>
+  <si>
+    <t>0102900261686877215&lt;R%mZgTFAoCW</t>
+  </si>
+  <si>
+    <t>02900261686877</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель семейное на резинке 160х200х30 - М - 60S 4318 Черничный смузи с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:35:18.623Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:28.723Z</t>
+  </si>
+  <si>
+    <t>0102900240333952215OPjFGm%f%:gq</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:35:19.052Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:28.157Z</t>
+  </si>
+  <si>
+    <t>0102900240333952215ilsQR6sqcccC</t>
+  </si>
+  <si>
+    <t>01029002570000382150oaQOBZ3YVyF</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:36:19.707Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:28.155Z</t>
+  </si>
+  <si>
+    <t>0102900238683380215kdfu9bWikdGb</t>
+  </si>
+  <si>
+    <t>02900238683380</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - 60S 12 Горчица</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:34:18.344Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:27.596Z</t>
+  </si>
+  <si>
+    <t>0102900258095569215"pq5J&amp;bPHsFq</t>
+  </si>
+  <si>
+    <t>02900258095569</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х200х30 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:33:16.638Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:27.439Z</t>
+  </si>
+  <si>
+    <t>0102900198634491215U;fJ(YDwDaN1</t>
+  </si>
+  <si>
+    <t>02900198634491</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4393 Темно-серый</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:34:17.011Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:27.219Z</t>
+  </si>
+  <si>
+    <t>0102900269035073215Y(BPvm5OvS%?</t>
+  </si>
+  <si>
+    <t>02900269035073</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 200 х 220 х 30 - М - 135 - Голубой 1х1</t>
+  </si>
+  <si>
+    <t>2023-10-19T13:36:19.175Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:26.831Z</t>
+  </si>
+  <si>
+    <t>0102900244791215215TpdktbChrWXe</t>
+  </si>
+  <si>
+    <t>02900244791215</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 180 х 220 - М - Чёрный</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:01:25.082Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:32.841Z</t>
+  </si>
+  <si>
+    <t>0102900266758425215xAhXbor;/x&amp;5</t>
+  </si>
+  <si>
+    <t>02900266758425</t>
+  </si>
+  <si>
+    <t>Постельное бельё из полисатина 2 спальное с Евро простыней - М - 1934-2</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:00:25.534Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:32.303Z</t>
+  </si>
+  <si>
+    <t>0102900078324337215eHuNP&gt;)!Fosn</t>
+  </si>
+  <si>
+    <t>02900078324337</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп сатина Евро макси - М - 140 - Черный 3х3</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:58:23.567Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:31.462Z</t>
+  </si>
+  <si>
+    <t>0102900075722556215i3OWI.MsO;T6</t>
+  </si>
+  <si>
+    <t>02900075722556</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 200 х 220 - М - Чёрный</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:02:26.517Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:31.282Z</t>
+  </si>
+  <si>
+    <t>0102900075722570215Pd&amp;yDX?&gt;pa*b</t>
+  </si>
+  <si>
+    <t>02900075722570</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50 х 70 - М - Чёрный</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:02:26.529Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:31.166Z</t>
+  </si>
+  <si>
+    <t>0102900075722570215c6HnPdEymN8u</t>
+  </si>
+  <si>
+    <t>0102900077002014215So'SrAl2:l'q</t>
+  </si>
+  <si>
+    <t>02900077002014</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп микрофибры Евро - М - Белый</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:02:26.525Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:31.117Z</t>
+  </si>
+  <si>
+    <t>0102900254002554215nWuWNql*eWLJ</t>
+  </si>
+  <si>
+    <t>02900254002554</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 180 х 220 - М - 145 - Серая 1х1</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:30.943Z</t>
+  </si>
+  <si>
+    <t>0102900260479142215QVim/u0'W+'d</t>
+  </si>
+  <si>
+    <t>02900260479142</t>
+  </si>
+  <si>
+    <t>Наматрасник из верблюжьей шерсти 140 х 200 - АЛ - Верблюд</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:01:25.257Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:29.824Z</t>
+  </si>
+  <si>
+    <t>01029002190221222159I2PS3nAa!&lt;9</t>
+  </si>
+  <si>
+    <t>02900219022122</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4225 Зелёный лесной</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:02:26.579Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:29.482Z</t>
+  </si>
+  <si>
+    <t>0102900219022122215BQ9MytEHPXQd</t>
+  </si>
+  <si>
+    <t>0102900255037463215eSLP?g/W5(y?</t>
+  </si>
+  <si>
+    <t>02900255037463</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 140 - Чернила 1х1</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:01:25.289Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:28.991Z</t>
+  </si>
+  <si>
+    <t>0102900261558280215pbKLORXO+NO&gt;</t>
+  </si>
+  <si>
+    <t>02900261558280</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп сатина семейное - М - 140 - Асфальт 1х1</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:58:24.356Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:28.563Z</t>
+  </si>
+  <si>
+    <t>0102900082733903215_aLUs5WttXid</t>
+  </si>
+  <si>
+    <t>02900082733903</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп микрофибры 175 х 215 - М - 85 - Белый 3х3</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:03:26.565Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:28.471Z</t>
+  </si>
+  <si>
+    <t>0102900257467589215a%q1prETuSZA</t>
+  </si>
+  <si>
+    <t>02900257467589</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 300 х 300 - М - 5358 Темно-бежевый</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:00:25.303Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:28.378Z</t>
+  </si>
+  <si>
+    <t>01029002487570882159%FYPo/oPEe:</t>
+  </si>
+  <si>
+    <t>02900248757088</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 150 х 220 - М - 142 ГОСТ - Оранжевый</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:59:24.584Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:28.321Z</t>
+  </si>
+  <si>
+    <t>0102900244585777215y6sKMpMntjf"</t>
+  </si>
+  <si>
+    <t>02900244585777</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 200 х 200 х 40 - М - 140 - Серый Люкс</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:59:24.307Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:27.962Z</t>
+  </si>
+  <si>
+    <t>0102900239232297215'DgqcSihVidm</t>
+  </si>
+  <si>
+    <t>02900239232297</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х200х40 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:00:24.973Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:25.618Z</t>
+  </si>
+  <si>
+    <t>0102900252566041215W.5kdWC.-vEF</t>
+  </si>
+  <si>
+    <t>02900252566041</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 200 х 200 - М - 181222 Коричневый</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:00:24.824Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:25.070Z</t>
+  </si>
+  <si>
+    <t>0102900268099182215FfNl.FQoXLI8</t>
+  </si>
+  <si>
+    <t>02900268099182</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп-сатина семейное на резинке 180х200х30 - М - 125 - Серебро 1х1</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:59:24.731Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:23.928Z</t>
+  </si>
+  <si>
+    <t>0102900223948548215OtgwxNZ!mYTs</t>
+  </si>
+  <si>
+    <t>02900223948548</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 160 х 200 х 30 - М - 125 - Бордо 1х1</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:59:24.202Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:22.077Z</t>
+  </si>
+  <si>
+    <t>0102900082733811215Y=umwmFh6u&lt;f</t>
+  </si>
+  <si>
+    <t>02900082733811</t>
+  </si>
+  <si>
+    <t>Наматрасник мягкий из полиэфирного волокна 140 х 200 - ЗТ - Шарм однотонный</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:58:22.946Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:20.310Z</t>
+  </si>
+  <si>
+    <t>0102900240333945215-FpZpJEtySFR</t>
+  </si>
+  <si>
+    <t>02900240333945</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 120 х 200 х 30 - М - 130 - Лунная ночь</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:58:23.466Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:19.219Z</t>
+  </si>
+  <si>
+    <t>0102900240333945215n5MOn"PKbW(f</t>
+  </si>
+  <si>
+    <t>0102900270928050215bD:3%BrxHq't</t>
+  </si>
+  <si>
+    <t>02900270928050</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:05:28.647Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:16.866Z</t>
+  </si>
+  <si>
+    <t>01029002709280362159eSsn8sZcxst</t>
+  </si>
+  <si>
+    <t>02900270928036</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:03:26.901Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:16.802Z</t>
+  </si>
+  <si>
+    <t>0102900270928036215Kg5a/jgQUuJY</t>
+  </si>
+  <si>
+    <t>0102900270928067215J2Q,rBm+OwMf</t>
+  </si>
+  <si>
+    <t>02900270928067</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:16.487Z</t>
+  </si>
+  <si>
+    <t>01029002709281282157lD&lt;WFMJWdGb</t>
+  </si>
+  <si>
+    <t>02900270928128</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:28.611Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:16.385Z</t>
+  </si>
+  <si>
+    <t>0102900270928043215RB(giSZUYe*I</t>
+  </si>
+  <si>
+    <t>02900270928043</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:05:28.337Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:16.101Z</t>
+  </si>
+  <si>
+    <t>01029002709281352158cuejM/J5PUq</t>
+  </si>
+  <si>
+    <t>02900270928135</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:28.021Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:16.092Z</t>
+  </si>
+  <si>
+    <t>0102900270928029215p9=:X="f9Rsy</t>
+  </si>
+  <si>
+    <t>02900270928029</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:28.610Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:15.870Z</t>
+  </si>
+  <si>
+    <t>0102900270928142215fjJ9tiITT7DA</t>
+  </si>
+  <si>
+    <t>02900270928142</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:03:26.841Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:15.831Z</t>
+  </si>
+  <si>
+    <t>0102900270928104215IBI)HzMyis"=</t>
+  </si>
+  <si>
+    <t>02900270928104</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:28.105Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:14.766Z</t>
+  </si>
+  <si>
+    <t>0102900270928111215pEMY?b2tGm2C</t>
+  </si>
+  <si>
+    <t>02900270928111</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:04:28.612Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:14.332Z</t>
+  </si>
+  <si>
+    <t>0102900270928098215Zhbgi0NR7gKg</t>
+  </si>
+  <si>
+    <t>02900270928098</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:14.165Z</t>
+  </si>
+  <si>
+    <t>01029002709280812150bDYd&gt;o(Xd&gt;g</t>
+  </si>
+  <si>
+    <t>02900270928081</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:03:26.846Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:13.273Z</t>
+  </si>
+  <si>
+    <t>0102900270928074215SkBU=XsGxhfl</t>
+  </si>
+  <si>
+    <t>02900270928074</t>
+  </si>
+  <si>
+    <t>2023-10-19T06:03:26.899Z</t>
+  </si>
+  <si>
+    <t>2023-10-19T05:15:12.838Z</t>
+  </si>
+  <si>
+    <t>0102900270928074215Z0JjEQk5Xg*3</t>
   </si>
 </sst>
 </file>
@@ -562,7 +1480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AC87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +1623,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>372900043349</v>
@@ -732,18 +1650,18 @@
         <v>36</v>
       </c>
       <c r="V4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>372900043349</v>
@@ -770,18 +1688,18 @@
         <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>372900043349</v>
@@ -808,18 +1726,18 @@
         <v>36</v>
       </c>
       <c r="V6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="W6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>372900043349</v>
@@ -827,6 +1745,12 @@
       <c r="H7">
         <v>372900043349</v>
       </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
       <c r="L7" t="s">
         <v>32</v>
       </c>
@@ -846,18 +1770,18 @@
         <v>36</v>
       </c>
       <c r="V7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G8">
         <v>372900043349</v>
@@ -865,6 +1789,12 @@
       <c r="H8">
         <v>372900043349</v>
       </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
       <c r="L8" t="s">
         <v>32</v>
       </c>
@@ -884,18 +1814,18 @@
         <v>36</v>
       </c>
       <c r="V8" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>372900043349</v>
@@ -903,6 +1833,12 @@
       <c r="H9">
         <v>372900043349</v>
       </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
       <c r="L9" t="s">
         <v>32</v>
       </c>
@@ -922,18 +1858,18 @@
         <v>36</v>
       </c>
       <c r="V9" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="W9" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="G10">
         <v>372900043349</v>
@@ -941,6 +1877,12 @@
       <c r="H10">
         <v>372900043349</v>
       </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
       <c r="L10" t="s">
         <v>32</v>
       </c>
@@ -960,18 +1902,18 @@
         <v>36</v>
       </c>
       <c r="V10" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="W10" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G11">
         <v>372900043349</v>
@@ -979,6 +1921,12 @@
       <c r="H11">
         <v>372900043349</v>
       </c>
+      <c r="J11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" t="s">
+        <v>54</v>
+      </c>
       <c r="L11" t="s">
         <v>32</v>
       </c>
@@ -998,18 +1946,18 @@
         <v>36</v>
       </c>
       <c r="V11" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="G12">
         <v>372900043349</v>
@@ -1017,6 +1965,12 @@
       <c r="H12">
         <v>372900043349</v>
       </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
       <c r="L12" t="s">
         <v>32</v>
       </c>
@@ -1036,18 +1990,18 @@
         <v>36</v>
       </c>
       <c r="V12" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="G13">
         <v>372900043349</v>
@@ -1055,6 +2009,12 @@
       <c r="H13">
         <v>372900043349</v>
       </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
       <c r="L13" t="s">
         <v>32</v>
       </c>
@@ -1074,18 +2034,18 @@
         <v>36</v>
       </c>
       <c r="V13" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="G14">
         <v>372900043349</v>
@@ -1112,18 +2072,18 @@
         <v>36</v>
       </c>
       <c r="V14" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="W14" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="G15">
         <v>372900043349</v>
@@ -1150,18 +2110,18 @@
         <v>36</v>
       </c>
       <c r="V15" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="W15" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G16">
         <v>372900043349</v>
@@ -1169,6 +2129,12 @@
       <c r="H16">
         <v>372900043349</v>
       </c>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" t="s">
+        <v>54</v>
+      </c>
       <c r="L16" t="s">
         <v>32</v>
       </c>
@@ -1188,18 +2154,18 @@
         <v>36</v>
       </c>
       <c r="V16" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="W16" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="G17">
         <v>372900043349</v>
@@ -1207,6 +2173,12 @@
       <c r="H17">
         <v>372900043349</v>
       </c>
+      <c r="J17" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" t="s">
+        <v>54</v>
+      </c>
       <c r="L17" t="s">
         <v>32</v>
       </c>
@@ -1226,18 +2198,18 @@
         <v>36</v>
       </c>
       <c r="V17" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="W17" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="G18">
         <v>372900043349</v>
@@ -1264,18 +2236,18 @@
         <v>36</v>
       </c>
       <c r="V18" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="W18" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="G19">
         <v>372900043349</v>
@@ -1302,18 +2274,18 @@
         <v>36</v>
       </c>
       <c r="V19" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="W19" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="G20">
         <v>372900043349</v>
@@ -1340,18 +2312,18 @@
         <v>36</v>
       </c>
       <c r="V20" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="W20" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="G21">
         <v>372900043349</v>
@@ -1378,18 +2350,18 @@
         <v>36</v>
       </c>
       <c r="V21" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="W21" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="G22">
         <v>372900043349</v>
@@ -1397,6 +2369,12 @@
       <c r="H22">
         <v>372900043349</v>
       </c>
+      <c r="J22" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
       <c r="L22" t="s">
         <v>32</v>
       </c>
@@ -1416,18 +2394,18 @@
         <v>36</v>
       </c>
       <c r="V22" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="W22" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="G23">
         <v>372900043349</v>
@@ -1435,6 +2413,12 @@
       <c r="H23">
         <v>372900043349</v>
       </c>
+      <c r="J23" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" t="s">
+        <v>54</v>
+      </c>
       <c r="L23" t="s">
         <v>32</v>
       </c>
@@ -1454,18 +2438,18 @@
         <v>36</v>
       </c>
       <c r="V23" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="W23" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="G24">
         <v>372900043349</v>
@@ -1473,6 +2457,12 @@
       <c r="H24">
         <v>372900043349</v>
       </c>
+      <c r="J24" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" t="s">
+        <v>54</v>
+      </c>
       <c r="L24" t="s">
         <v>32</v>
       </c>
@@ -1492,18 +2482,18 @@
         <v>36</v>
       </c>
       <c r="V24" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="W24" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="G25">
         <v>372900043349</v>
@@ -1530,18 +2520,18 @@
         <v>36</v>
       </c>
       <c r="V25" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="W25" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="G26">
         <v>372900043349</v>
@@ -1568,18 +2558,18 @@
         <v>36</v>
       </c>
       <c r="V26" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="W26" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="G27">
         <v>372900043349</v>
@@ -1606,18 +2596,18 @@
         <v>36</v>
       </c>
       <c r="V27" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="W27" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="G28">
         <v>372900043349</v>
@@ -1644,18 +2634,18 @@
         <v>36</v>
       </c>
       <c r="V28" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="W28" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="G29">
         <v>372900043349</v>
@@ -1682,18 +2672,18 @@
         <v>36</v>
       </c>
       <c r="V29" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="W29" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="G30">
         <v>372900043349</v>
@@ -1720,18 +2710,18 @@
         <v>36</v>
       </c>
       <c r="V30" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="W30" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="G31">
         <v>372900043349</v>
@@ -1758,18 +2748,18 @@
         <v>36</v>
       </c>
       <c r="V31" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="W31" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="G32">
         <v>372900043349</v>
@@ -1796,10 +2786,2334 @@
         <v>36</v>
       </c>
       <c r="V32" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="W32" t="s">
-        <v>38</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33">
+        <v>372900043349</v>
+      </c>
+      <c r="H33">
+        <v>372900043349</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33" t="s">
+        <v>34</v>
+      </c>
+      <c r="T33" t="s">
+        <v>35</v>
+      </c>
+      <c r="U33" t="s">
+        <v>36</v>
+      </c>
+      <c r="V33" t="s">
+        <v>150</v>
+      </c>
+      <c r="W33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34">
+        <v>372900043349</v>
+      </c>
+      <c r="H34">
+        <v>372900043349</v>
+      </c>
+      <c r="J34" t="s">
+        <v>154</v>
+      </c>
+      <c r="K34" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" t="s">
+        <v>34</v>
+      </c>
+      <c r="T34" t="s">
+        <v>35</v>
+      </c>
+      <c r="U34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V34" t="s">
+        <v>155</v>
+      </c>
+      <c r="W34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35">
+        <v>372900043349</v>
+      </c>
+      <c r="H35">
+        <v>372900043349</v>
+      </c>
+      <c r="J35" t="s">
+        <v>159</v>
+      </c>
+      <c r="K35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" t="s">
+        <v>33</v>
+      </c>
+      <c r="R35" t="s">
+        <v>34</v>
+      </c>
+      <c r="T35" t="s">
+        <v>35</v>
+      </c>
+      <c r="U35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V35" t="s">
+        <v>160</v>
+      </c>
+      <c r="W35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36">
+        <v>372900043349</v>
+      </c>
+      <c r="H36">
+        <v>372900043349</v>
+      </c>
+      <c r="J36" t="s">
+        <v>164</v>
+      </c>
+      <c r="K36" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36" t="s">
+        <v>34</v>
+      </c>
+      <c r="T36" t="s">
+        <v>35</v>
+      </c>
+      <c r="U36" t="s">
+        <v>36</v>
+      </c>
+      <c r="V36" t="s">
+        <v>165</v>
+      </c>
+      <c r="W36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37">
+        <v>372900043349</v>
+      </c>
+      <c r="H37">
+        <v>372900043349</v>
+      </c>
+      <c r="J37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K37" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37" t="s">
+        <v>34</v>
+      </c>
+      <c r="T37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U37" t="s">
+        <v>36</v>
+      </c>
+      <c r="V37" t="s">
+        <v>170</v>
+      </c>
+      <c r="W37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38">
+        <v>372900043349</v>
+      </c>
+      <c r="H38">
+        <v>372900043349</v>
+      </c>
+      <c r="J38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38" t="s">
+        <v>34</v>
+      </c>
+      <c r="T38" t="s">
+        <v>35</v>
+      </c>
+      <c r="U38" t="s">
+        <v>36</v>
+      </c>
+      <c r="V38" t="s">
+        <v>170</v>
+      </c>
+      <c r="W38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39">
+        <v>372900043349</v>
+      </c>
+      <c r="H39">
+        <v>372900043349</v>
+      </c>
+      <c r="J39" t="s">
+        <v>175</v>
+      </c>
+      <c r="K39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T39" t="s">
+        <v>35</v>
+      </c>
+      <c r="U39" t="s">
+        <v>36</v>
+      </c>
+      <c r="V39" t="s">
+        <v>176</v>
+      </c>
+      <c r="W39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40">
+        <v>372900043349</v>
+      </c>
+      <c r="H40">
+        <v>372900043349</v>
+      </c>
+      <c r="J40" t="s">
+        <v>180</v>
+      </c>
+      <c r="K40" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" t="s">
+        <v>33</v>
+      </c>
+      <c r="R40" t="s">
+        <v>34</v>
+      </c>
+      <c r="T40" t="s">
+        <v>35</v>
+      </c>
+      <c r="U40" t="s">
+        <v>36</v>
+      </c>
+      <c r="V40" t="s">
+        <v>181</v>
+      </c>
+      <c r="W40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41">
+        <v>372900043349</v>
+      </c>
+      <c r="H41">
+        <v>372900043349</v>
+      </c>
+      <c r="J41" t="s">
+        <v>185</v>
+      </c>
+      <c r="K41" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" t="s">
+        <v>33</v>
+      </c>
+      <c r="R41" t="s">
+        <v>34</v>
+      </c>
+      <c r="T41" t="s">
+        <v>35</v>
+      </c>
+      <c r="U41" t="s">
+        <v>36</v>
+      </c>
+      <c r="V41" t="s">
+        <v>186</v>
+      </c>
+      <c r="W41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42">
+        <v>372900043349</v>
+      </c>
+      <c r="H42">
+        <v>372900043349</v>
+      </c>
+      <c r="J42" t="s">
+        <v>118</v>
+      </c>
+      <c r="K42" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" t="s">
+        <v>33</v>
+      </c>
+      <c r="R42" t="s">
+        <v>34</v>
+      </c>
+      <c r="T42" t="s">
+        <v>35</v>
+      </c>
+      <c r="U42" t="s">
+        <v>36</v>
+      </c>
+      <c r="V42" t="s">
+        <v>189</v>
+      </c>
+      <c r="W42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43">
+        <v>372900043349</v>
+      </c>
+      <c r="H43">
+        <v>372900043349</v>
+      </c>
+      <c r="J43" t="s">
+        <v>118</v>
+      </c>
+      <c r="K43" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P43" t="s">
+        <v>33</v>
+      </c>
+      <c r="R43" t="s">
+        <v>34</v>
+      </c>
+      <c r="T43" t="s">
+        <v>35</v>
+      </c>
+      <c r="U43" t="s">
+        <v>36</v>
+      </c>
+      <c r="V43" t="s">
+        <v>189</v>
+      </c>
+      <c r="W43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44">
+        <v>372900043349</v>
+      </c>
+      <c r="H44">
+        <v>372900043349</v>
+      </c>
+      <c r="J44" t="s">
+        <v>113</v>
+      </c>
+      <c r="K44" t="s">
+        <v>54</v>
+      </c>
+      <c r="L44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" t="s">
+        <v>33</v>
+      </c>
+      <c r="R44" t="s">
+        <v>34</v>
+      </c>
+      <c r="T44" t="s">
+        <v>35</v>
+      </c>
+      <c r="U44" t="s">
+        <v>36</v>
+      </c>
+      <c r="V44" t="s">
+        <v>193</v>
+      </c>
+      <c r="W44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" t="s">
+        <v>196</v>
+      </c>
+      <c r="G45">
+        <v>372900043349</v>
+      </c>
+      <c r="H45">
+        <v>372900043349</v>
+      </c>
+      <c r="J45" t="s">
+        <v>197</v>
+      </c>
+      <c r="K45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" t="s">
+        <v>32</v>
+      </c>
+      <c r="P45" t="s">
+        <v>33</v>
+      </c>
+      <c r="R45" t="s">
+        <v>34</v>
+      </c>
+      <c r="T45" t="s">
+        <v>35</v>
+      </c>
+      <c r="U45" t="s">
+        <v>36</v>
+      </c>
+      <c r="V45" t="s">
+        <v>198</v>
+      </c>
+      <c r="W45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" t="s">
+        <v>201</v>
+      </c>
+      <c r="G46">
+        <v>372900043349</v>
+      </c>
+      <c r="H46">
+        <v>372900043349</v>
+      </c>
+      <c r="J46" t="s">
+        <v>202</v>
+      </c>
+      <c r="K46" t="s">
+        <v>54</v>
+      </c>
+      <c r="L46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" t="s">
+        <v>32</v>
+      </c>
+      <c r="P46" t="s">
+        <v>33</v>
+      </c>
+      <c r="R46" t="s">
+        <v>34</v>
+      </c>
+      <c r="T46" t="s">
+        <v>35</v>
+      </c>
+      <c r="U46" t="s">
+        <v>36</v>
+      </c>
+      <c r="V46" t="s">
+        <v>203</v>
+      </c>
+      <c r="W46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" t="s">
+        <v>206</v>
+      </c>
+      <c r="G47">
+        <v>372900043349</v>
+      </c>
+      <c r="H47">
+        <v>372900043349</v>
+      </c>
+      <c r="J47" t="s">
+        <v>207</v>
+      </c>
+      <c r="K47" t="s">
+        <v>54</v>
+      </c>
+      <c r="L47" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" t="s">
+        <v>33</v>
+      </c>
+      <c r="R47" t="s">
+        <v>34</v>
+      </c>
+      <c r="T47" t="s">
+        <v>35</v>
+      </c>
+      <c r="U47" t="s">
+        <v>36</v>
+      </c>
+      <c r="V47" t="s">
+        <v>208</v>
+      </c>
+      <c r="W47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48">
+        <v>372900043349</v>
+      </c>
+      <c r="H48">
+        <v>372900043349</v>
+      </c>
+      <c r="J48" t="s">
+        <v>212</v>
+      </c>
+      <c r="K48" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" t="s">
+        <v>33</v>
+      </c>
+      <c r="R48" t="s">
+        <v>34</v>
+      </c>
+      <c r="T48" t="s">
+        <v>35</v>
+      </c>
+      <c r="U48" t="s">
+        <v>36</v>
+      </c>
+      <c r="V48" t="s">
+        <v>213</v>
+      </c>
+      <c r="W48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49">
+        <v>372900043349</v>
+      </c>
+      <c r="H49">
+        <v>372900043349</v>
+      </c>
+      <c r="J49" t="s">
+        <v>217</v>
+      </c>
+      <c r="K49" t="s">
+        <v>54</v>
+      </c>
+      <c r="L49" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" t="s">
+        <v>33</v>
+      </c>
+      <c r="R49" t="s">
+        <v>34</v>
+      </c>
+      <c r="T49" t="s">
+        <v>35</v>
+      </c>
+      <c r="U49" t="s">
+        <v>36</v>
+      </c>
+      <c r="V49" t="s">
+        <v>218</v>
+      </c>
+      <c r="W49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" t="s">
+        <v>221</v>
+      </c>
+      <c r="G50">
+        <v>372900043349</v>
+      </c>
+      <c r="H50">
+        <v>372900043349</v>
+      </c>
+      <c r="J50" t="s">
+        <v>222</v>
+      </c>
+      <c r="K50" t="s">
+        <v>54</v>
+      </c>
+      <c r="L50" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" t="s">
+        <v>33</v>
+      </c>
+      <c r="R50" t="s">
+        <v>34</v>
+      </c>
+      <c r="T50" t="s">
+        <v>35</v>
+      </c>
+      <c r="U50" t="s">
+        <v>36</v>
+      </c>
+      <c r="V50" t="s">
+        <v>223</v>
+      </c>
+      <c r="W50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>225</v>
+      </c>
+      <c r="B51" t="s">
+        <v>226</v>
+      </c>
+      <c r="G51">
+        <v>372900043349</v>
+      </c>
+      <c r="H51">
+        <v>372900043349</v>
+      </c>
+      <c r="J51" t="s">
+        <v>227</v>
+      </c>
+      <c r="K51" t="s">
+        <v>54</v>
+      </c>
+      <c r="L51" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" t="s">
+        <v>33</v>
+      </c>
+      <c r="R51" t="s">
+        <v>34</v>
+      </c>
+      <c r="T51" t="s">
+        <v>35</v>
+      </c>
+      <c r="U51" t="s">
+        <v>36</v>
+      </c>
+      <c r="V51" t="s">
+        <v>228</v>
+      </c>
+      <c r="W51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" t="s">
+        <v>231</v>
+      </c>
+      <c r="G52">
+        <v>372900043349</v>
+      </c>
+      <c r="H52">
+        <v>372900043349</v>
+      </c>
+      <c r="J52" t="s">
+        <v>232</v>
+      </c>
+      <c r="K52" t="s">
+        <v>54</v>
+      </c>
+      <c r="L52" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" t="s">
+        <v>34</v>
+      </c>
+      <c r="T52" t="s">
+        <v>35</v>
+      </c>
+      <c r="U52" t="s">
+        <v>36</v>
+      </c>
+      <c r="V52" t="s">
+        <v>233</v>
+      </c>
+      <c r="W52" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" t="s">
+        <v>236</v>
+      </c>
+      <c r="G53">
+        <v>372900043349</v>
+      </c>
+      <c r="H53">
+        <v>372900043349</v>
+      </c>
+      <c r="J53" t="s">
+        <v>237</v>
+      </c>
+      <c r="K53" t="s">
+        <v>54</v>
+      </c>
+      <c r="L53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" t="s">
+        <v>32</v>
+      </c>
+      <c r="P53" t="s">
+        <v>33</v>
+      </c>
+      <c r="R53" t="s">
+        <v>34</v>
+      </c>
+      <c r="T53" t="s">
+        <v>35</v>
+      </c>
+      <c r="U53" t="s">
+        <v>36</v>
+      </c>
+      <c r="V53" t="s">
+        <v>238</v>
+      </c>
+      <c r="W53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" t="s">
+        <v>236</v>
+      </c>
+      <c r="G54">
+        <v>372900043349</v>
+      </c>
+      <c r="H54">
+        <v>372900043349</v>
+      </c>
+      <c r="J54" t="s">
+        <v>237</v>
+      </c>
+      <c r="K54" t="s">
+        <v>54</v>
+      </c>
+      <c r="L54" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" t="s">
+        <v>33</v>
+      </c>
+      <c r="R54" t="s">
+        <v>34</v>
+      </c>
+      <c r="T54" t="s">
+        <v>35</v>
+      </c>
+      <c r="U54" t="s">
+        <v>36</v>
+      </c>
+      <c r="V54" t="s">
+        <v>238</v>
+      </c>
+      <c r="W54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" t="s">
+        <v>242</v>
+      </c>
+      <c r="G55">
+        <v>372900043349</v>
+      </c>
+      <c r="H55">
+        <v>372900043349</v>
+      </c>
+      <c r="J55" t="s">
+        <v>243</v>
+      </c>
+      <c r="K55" t="s">
+        <v>54</v>
+      </c>
+      <c r="L55" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" t="s">
+        <v>33</v>
+      </c>
+      <c r="R55" t="s">
+        <v>34</v>
+      </c>
+      <c r="T55" t="s">
+        <v>35</v>
+      </c>
+      <c r="U55" t="s">
+        <v>36</v>
+      </c>
+      <c r="V55" t="s">
+        <v>244</v>
+      </c>
+      <c r="W55" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56" t="s">
+        <v>247</v>
+      </c>
+      <c r="G56">
+        <v>372900043349</v>
+      </c>
+      <c r="H56">
+        <v>372900043349</v>
+      </c>
+      <c r="J56" t="s">
+        <v>248</v>
+      </c>
+      <c r="K56" t="s">
+        <v>54</v>
+      </c>
+      <c r="L56" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" t="s">
+        <v>33</v>
+      </c>
+      <c r="R56" t="s">
+        <v>34</v>
+      </c>
+      <c r="T56" t="s">
+        <v>35</v>
+      </c>
+      <c r="U56" t="s">
+        <v>36</v>
+      </c>
+      <c r="V56" t="s">
+        <v>244</v>
+      </c>
+      <c r="W56" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" t="s">
+        <v>251</v>
+      </c>
+      <c r="G57">
+        <v>372900043349</v>
+      </c>
+      <c r="H57">
+        <v>372900043349</v>
+      </c>
+      <c r="J57" t="s">
+        <v>252</v>
+      </c>
+      <c r="K57" t="s">
+        <v>54</v>
+      </c>
+      <c r="L57" t="s">
+        <v>32</v>
+      </c>
+      <c r="M57" t="s">
+        <v>32</v>
+      </c>
+      <c r="P57" t="s">
+        <v>33</v>
+      </c>
+      <c r="R57" t="s">
+        <v>34</v>
+      </c>
+      <c r="T57" t="s">
+        <v>35</v>
+      </c>
+      <c r="U57" t="s">
+        <v>36</v>
+      </c>
+      <c r="V57" t="s">
+        <v>253</v>
+      </c>
+      <c r="W57" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" t="s">
+        <v>256</v>
+      </c>
+      <c r="G58">
+        <v>372900043349</v>
+      </c>
+      <c r="H58">
+        <v>372900043349</v>
+      </c>
+      <c r="J58" t="s">
+        <v>257</v>
+      </c>
+      <c r="K58" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" t="s">
+        <v>33</v>
+      </c>
+      <c r="R58" t="s">
+        <v>34</v>
+      </c>
+      <c r="T58" t="s">
+        <v>35</v>
+      </c>
+      <c r="U58" t="s">
+        <v>36</v>
+      </c>
+      <c r="V58" t="s">
+        <v>258</v>
+      </c>
+      <c r="W58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" t="s">
+        <v>256</v>
+      </c>
+      <c r="G59">
+        <v>372900043349</v>
+      </c>
+      <c r="H59">
+        <v>372900043349</v>
+      </c>
+      <c r="J59" t="s">
+        <v>257</v>
+      </c>
+      <c r="K59" t="s">
+        <v>54</v>
+      </c>
+      <c r="L59" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" t="s">
+        <v>33</v>
+      </c>
+      <c r="R59" t="s">
+        <v>34</v>
+      </c>
+      <c r="T59" t="s">
+        <v>35</v>
+      </c>
+      <c r="U59" t="s">
+        <v>36</v>
+      </c>
+      <c r="V59" t="s">
+        <v>258</v>
+      </c>
+      <c r="W59" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" t="s">
+        <v>262</v>
+      </c>
+      <c r="G60">
+        <v>372900043349</v>
+      </c>
+      <c r="H60">
+        <v>372900043349</v>
+      </c>
+      <c r="J60" t="s">
+        <v>263</v>
+      </c>
+      <c r="K60" t="s">
+        <v>54</v>
+      </c>
+      <c r="L60" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" t="s">
+        <v>33</v>
+      </c>
+      <c r="R60" t="s">
+        <v>34</v>
+      </c>
+      <c r="T60" t="s">
+        <v>35</v>
+      </c>
+      <c r="U60" t="s">
+        <v>36</v>
+      </c>
+      <c r="V60" t="s">
+        <v>264</v>
+      </c>
+      <c r="W60" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>266</v>
+      </c>
+      <c r="B61" t="s">
+        <v>267</v>
+      </c>
+      <c r="G61">
+        <v>372900043349</v>
+      </c>
+      <c r="H61">
+        <v>372900043349</v>
+      </c>
+      <c r="J61" t="s">
+        <v>268</v>
+      </c>
+      <c r="K61" t="s">
+        <v>54</v>
+      </c>
+      <c r="L61" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" t="s">
+        <v>33</v>
+      </c>
+      <c r="R61" t="s">
+        <v>34</v>
+      </c>
+      <c r="T61" t="s">
+        <v>35</v>
+      </c>
+      <c r="U61" t="s">
+        <v>36</v>
+      </c>
+      <c r="V61" t="s">
+        <v>269</v>
+      </c>
+      <c r="W61" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>271</v>
+      </c>
+      <c r="B62" t="s">
+        <v>272</v>
+      </c>
+      <c r="G62">
+        <v>372900043349</v>
+      </c>
+      <c r="H62">
+        <v>372900043349</v>
+      </c>
+      <c r="J62" t="s">
+        <v>273</v>
+      </c>
+      <c r="K62" t="s">
+        <v>54</v>
+      </c>
+      <c r="L62" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" t="s">
+        <v>33</v>
+      </c>
+      <c r="R62" t="s">
+        <v>34</v>
+      </c>
+      <c r="T62" t="s">
+        <v>35</v>
+      </c>
+      <c r="U62" t="s">
+        <v>36</v>
+      </c>
+      <c r="V62" t="s">
+        <v>274</v>
+      </c>
+      <c r="W62" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" t="s">
+        <v>277</v>
+      </c>
+      <c r="G63">
+        <v>372900043349</v>
+      </c>
+      <c r="H63">
+        <v>372900043349</v>
+      </c>
+      <c r="J63" t="s">
+        <v>278</v>
+      </c>
+      <c r="K63" t="s">
+        <v>54</v>
+      </c>
+      <c r="L63" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" t="s">
+        <v>32</v>
+      </c>
+      <c r="P63" t="s">
+        <v>33</v>
+      </c>
+      <c r="R63" t="s">
+        <v>34</v>
+      </c>
+      <c r="T63" t="s">
+        <v>35</v>
+      </c>
+      <c r="U63" t="s">
+        <v>36</v>
+      </c>
+      <c r="V63" t="s">
+        <v>279</v>
+      </c>
+      <c r="W63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64" t="s">
+        <v>282</v>
+      </c>
+      <c r="G64">
+        <v>372900043349</v>
+      </c>
+      <c r="H64">
+        <v>372900043349</v>
+      </c>
+      <c r="J64" t="s">
+        <v>283</v>
+      </c>
+      <c r="K64" t="s">
+        <v>54</v>
+      </c>
+      <c r="L64" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" t="s">
+        <v>32</v>
+      </c>
+      <c r="P64" t="s">
+        <v>33</v>
+      </c>
+      <c r="R64" t="s">
+        <v>34</v>
+      </c>
+      <c r="T64" t="s">
+        <v>35</v>
+      </c>
+      <c r="U64" t="s">
+        <v>36</v>
+      </c>
+      <c r="V64" t="s">
+        <v>284</v>
+      </c>
+      <c r="W64" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65" t="s">
+        <v>287</v>
+      </c>
+      <c r="G65">
+        <v>372900043349</v>
+      </c>
+      <c r="H65">
+        <v>372900043349</v>
+      </c>
+      <c r="J65" t="s">
+        <v>288</v>
+      </c>
+      <c r="K65" t="s">
+        <v>54</v>
+      </c>
+      <c r="L65" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" t="s">
+        <v>33</v>
+      </c>
+      <c r="R65" t="s">
+        <v>34</v>
+      </c>
+      <c r="T65" t="s">
+        <v>35</v>
+      </c>
+      <c r="U65" t="s">
+        <v>36</v>
+      </c>
+      <c r="V65" t="s">
+        <v>289</v>
+      </c>
+      <c r="W65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>291</v>
+      </c>
+      <c r="B66" t="s">
+        <v>292</v>
+      </c>
+      <c r="G66">
+        <v>372900043349</v>
+      </c>
+      <c r="H66">
+        <v>372900043349</v>
+      </c>
+      <c r="J66" t="s">
+        <v>293</v>
+      </c>
+      <c r="K66" t="s">
+        <v>54</v>
+      </c>
+      <c r="L66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" t="s">
+        <v>33</v>
+      </c>
+      <c r="R66" t="s">
+        <v>34</v>
+      </c>
+      <c r="T66" t="s">
+        <v>35</v>
+      </c>
+      <c r="U66" t="s">
+        <v>36</v>
+      </c>
+      <c r="V66" t="s">
+        <v>294</v>
+      </c>
+      <c r="W66" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>296</v>
+      </c>
+      <c r="B67" t="s">
+        <v>297</v>
+      </c>
+      <c r="G67">
+        <v>372900043349</v>
+      </c>
+      <c r="H67">
+        <v>372900043349</v>
+      </c>
+      <c r="J67" t="s">
+        <v>298</v>
+      </c>
+      <c r="K67" t="s">
+        <v>54</v>
+      </c>
+      <c r="L67" t="s">
+        <v>32</v>
+      </c>
+      <c r="M67" t="s">
+        <v>32</v>
+      </c>
+      <c r="P67" t="s">
+        <v>33</v>
+      </c>
+      <c r="R67" t="s">
+        <v>34</v>
+      </c>
+      <c r="T67" t="s">
+        <v>35</v>
+      </c>
+      <c r="U67" t="s">
+        <v>36</v>
+      </c>
+      <c r="V67" t="s">
+        <v>299</v>
+      </c>
+      <c r="W67" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>301</v>
+      </c>
+      <c r="B68" t="s">
+        <v>302</v>
+      </c>
+      <c r="G68">
+        <v>372900043349</v>
+      </c>
+      <c r="H68">
+        <v>372900043349</v>
+      </c>
+      <c r="J68" t="s">
+        <v>303</v>
+      </c>
+      <c r="K68" t="s">
+        <v>54</v>
+      </c>
+      <c r="L68" t="s">
+        <v>32</v>
+      </c>
+      <c r="M68" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68" t="s">
+        <v>33</v>
+      </c>
+      <c r="R68" t="s">
+        <v>34</v>
+      </c>
+      <c r="T68" t="s">
+        <v>35</v>
+      </c>
+      <c r="U68" t="s">
+        <v>36</v>
+      </c>
+      <c r="V68" t="s">
+        <v>304</v>
+      </c>
+      <c r="W68" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>306</v>
+      </c>
+      <c r="B69" t="s">
+        <v>307</v>
+      </c>
+      <c r="G69">
+        <v>372900043349</v>
+      </c>
+      <c r="H69">
+        <v>372900043349</v>
+      </c>
+      <c r="J69" t="s">
+        <v>308</v>
+      </c>
+      <c r="K69" t="s">
+        <v>54</v>
+      </c>
+      <c r="L69" t="s">
+        <v>32</v>
+      </c>
+      <c r="M69" t="s">
+        <v>32</v>
+      </c>
+      <c r="P69" t="s">
+        <v>33</v>
+      </c>
+      <c r="R69" t="s">
+        <v>34</v>
+      </c>
+      <c r="T69" t="s">
+        <v>35</v>
+      </c>
+      <c r="U69" t="s">
+        <v>36</v>
+      </c>
+      <c r="V69" t="s">
+        <v>309</v>
+      </c>
+      <c r="W69" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>311</v>
+      </c>
+      <c r="B70" t="s">
+        <v>312</v>
+      </c>
+      <c r="G70">
+        <v>372900043349</v>
+      </c>
+      <c r="H70">
+        <v>372900043349</v>
+      </c>
+      <c r="J70" t="s">
+        <v>313</v>
+      </c>
+      <c r="K70" t="s">
+        <v>54</v>
+      </c>
+      <c r="L70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M70" t="s">
+        <v>32</v>
+      </c>
+      <c r="P70" t="s">
+        <v>33</v>
+      </c>
+      <c r="R70" t="s">
+        <v>34</v>
+      </c>
+      <c r="T70" t="s">
+        <v>35</v>
+      </c>
+      <c r="U70" t="s">
+        <v>36</v>
+      </c>
+      <c r="V70" t="s">
+        <v>314</v>
+      </c>
+      <c r="W70" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>316</v>
+      </c>
+      <c r="B71" t="s">
+        <v>317</v>
+      </c>
+      <c r="G71">
+        <v>372900043349</v>
+      </c>
+      <c r="H71">
+        <v>372900043349</v>
+      </c>
+      <c r="J71" t="s">
+        <v>318</v>
+      </c>
+      <c r="K71" t="s">
+        <v>54</v>
+      </c>
+      <c r="L71" t="s">
+        <v>32</v>
+      </c>
+      <c r="M71" t="s">
+        <v>32</v>
+      </c>
+      <c r="P71" t="s">
+        <v>33</v>
+      </c>
+      <c r="R71" t="s">
+        <v>34</v>
+      </c>
+      <c r="T71" t="s">
+        <v>35</v>
+      </c>
+      <c r="U71" t="s">
+        <v>36</v>
+      </c>
+      <c r="V71" t="s">
+        <v>319</v>
+      </c>
+      <c r="W71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>321</v>
+      </c>
+      <c r="B72" t="s">
+        <v>317</v>
+      </c>
+      <c r="G72">
+        <v>372900043349</v>
+      </c>
+      <c r="H72">
+        <v>372900043349</v>
+      </c>
+      <c r="J72" t="s">
+        <v>318</v>
+      </c>
+      <c r="K72" t="s">
+        <v>54</v>
+      </c>
+      <c r="L72" t="s">
+        <v>32</v>
+      </c>
+      <c r="M72" t="s">
+        <v>32</v>
+      </c>
+      <c r="P72" t="s">
+        <v>33</v>
+      </c>
+      <c r="R72" t="s">
+        <v>34</v>
+      </c>
+      <c r="T72" t="s">
+        <v>35</v>
+      </c>
+      <c r="U72" t="s">
+        <v>36</v>
+      </c>
+      <c r="V72" t="s">
+        <v>319</v>
+      </c>
+      <c r="W72" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>322</v>
+      </c>
+      <c r="B73" t="s">
+        <v>323</v>
+      </c>
+      <c r="G73">
+        <v>372900043349</v>
+      </c>
+      <c r="H73">
+        <v>372900043349</v>
+      </c>
+      <c r="L73" t="s">
+        <v>32</v>
+      </c>
+      <c r="M73" t="s">
+        <v>32</v>
+      </c>
+      <c r="P73" t="s">
+        <v>33</v>
+      </c>
+      <c r="R73" t="s">
+        <v>34</v>
+      </c>
+      <c r="T73" t="s">
+        <v>35</v>
+      </c>
+      <c r="U73" t="s">
+        <v>36</v>
+      </c>
+      <c r="V73" t="s">
+        <v>324</v>
+      </c>
+      <c r="W73" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>326</v>
+      </c>
+      <c r="B74" t="s">
+        <v>327</v>
+      </c>
+      <c r="G74">
+        <v>372900043349</v>
+      </c>
+      <c r="H74">
+        <v>372900043349</v>
+      </c>
+      <c r="L74" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" t="s">
+        <v>33</v>
+      </c>
+      <c r="R74" t="s">
+        <v>34</v>
+      </c>
+      <c r="T74" t="s">
+        <v>35</v>
+      </c>
+      <c r="U74" t="s">
+        <v>36</v>
+      </c>
+      <c r="V74" t="s">
+        <v>328</v>
+      </c>
+      <c r="W74" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>330</v>
+      </c>
+      <c r="B75" t="s">
+        <v>327</v>
+      </c>
+      <c r="G75">
+        <v>372900043349</v>
+      </c>
+      <c r="H75">
+        <v>372900043349</v>
+      </c>
+      <c r="L75" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" t="s">
+        <v>33</v>
+      </c>
+      <c r="R75" t="s">
+        <v>34</v>
+      </c>
+      <c r="T75" t="s">
+        <v>35</v>
+      </c>
+      <c r="U75" t="s">
+        <v>36</v>
+      </c>
+      <c r="V75" t="s">
+        <v>328</v>
+      </c>
+      <c r="W75" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>331</v>
+      </c>
+      <c r="B76" t="s">
+        <v>332</v>
+      </c>
+      <c r="G76">
+        <v>372900043349</v>
+      </c>
+      <c r="H76">
+        <v>372900043349</v>
+      </c>
+      <c r="L76" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" t="s">
+        <v>33</v>
+      </c>
+      <c r="R76" t="s">
+        <v>34</v>
+      </c>
+      <c r="T76" t="s">
+        <v>35</v>
+      </c>
+      <c r="U76" t="s">
+        <v>36</v>
+      </c>
+      <c r="V76" t="s">
+        <v>324</v>
+      </c>
+      <c r="W76" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>334</v>
+      </c>
+      <c r="B77" t="s">
+        <v>335</v>
+      </c>
+      <c r="G77">
+        <v>372900043349</v>
+      </c>
+      <c r="H77">
+        <v>372900043349</v>
+      </c>
+      <c r="L77" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" t="s">
+        <v>32</v>
+      </c>
+      <c r="P77" t="s">
+        <v>33</v>
+      </c>
+      <c r="R77" t="s">
+        <v>34</v>
+      </c>
+      <c r="T77" t="s">
+        <v>35</v>
+      </c>
+      <c r="U77" t="s">
+        <v>36</v>
+      </c>
+      <c r="V77" t="s">
+        <v>336</v>
+      </c>
+      <c r="W77" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>338</v>
+      </c>
+      <c r="B78" t="s">
+        <v>339</v>
+      </c>
+      <c r="G78">
+        <v>372900043349</v>
+      </c>
+      <c r="H78">
+        <v>372900043349</v>
+      </c>
+      <c r="L78" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" t="s">
+        <v>33</v>
+      </c>
+      <c r="R78" t="s">
+        <v>34</v>
+      </c>
+      <c r="T78" t="s">
+        <v>35</v>
+      </c>
+      <c r="U78" t="s">
+        <v>36</v>
+      </c>
+      <c r="V78" t="s">
+        <v>340</v>
+      </c>
+      <c r="W78" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>342</v>
+      </c>
+      <c r="B79" t="s">
+        <v>343</v>
+      </c>
+      <c r="G79">
+        <v>372900043349</v>
+      </c>
+      <c r="H79">
+        <v>372900043349</v>
+      </c>
+      <c r="L79" t="s">
+        <v>32</v>
+      </c>
+      <c r="M79" t="s">
+        <v>32</v>
+      </c>
+      <c r="P79" t="s">
+        <v>33</v>
+      </c>
+      <c r="R79" t="s">
+        <v>34</v>
+      </c>
+      <c r="T79" t="s">
+        <v>35</v>
+      </c>
+      <c r="U79" t="s">
+        <v>36</v>
+      </c>
+      <c r="V79" t="s">
+        <v>344</v>
+      </c>
+      <c r="W79" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>346</v>
+      </c>
+      <c r="B80" t="s">
+        <v>347</v>
+      </c>
+      <c r="G80">
+        <v>372900043349</v>
+      </c>
+      <c r="H80">
+        <v>372900043349</v>
+      </c>
+      <c r="L80" t="s">
+        <v>32</v>
+      </c>
+      <c r="M80" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" t="s">
+        <v>33</v>
+      </c>
+      <c r="R80" t="s">
+        <v>34</v>
+      </c>
+      <c r="T80" t="s">
+        <v>35</v>
+      </c>
+      <c r="U80" t="s">
+        <v>36</v>
+      </c>
+      <c r="V80" t="s">
+        <v>348</v>
+      </c>
+      <c r="W80" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>350</v>
+      </c>
+      <c r="B81" t="s">
+        <v>351</v>
+      </c>
+      <c r="G81">
+        <v>372900043349</v>
+      </c>
+      <c r="H81">
+        <v>372900043349</v>
+      </c>
+      <c r="L81" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" t="s">
+        <v>33</v>
+      </c>
+      <c r="R81" t="s">
+        <v>34</v>
+      </c>
+      <c r="T81" t="s">
+        <v>35</v>
+      </c>
+      <c r="U81" t="s">
+        <v>36</v>
+      </c>
+      <c r="V81" t="s">
+        <v>352</v>
+      </c>
+      <c r="W81" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>354</v>
+      </c>
+      <c r="B82" t="s">
+        <v>355</v>
+      </c>
+      <c r="G82">
+        <v>372900043349</v>
+      </c>
+      <c r="H82">
+        <v>372900043349</v>
+      </c>
+      <c r="L82" t="s">
+        <v>32</v>
+      </c>
+      <c r="M82" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" t="s">
+        <v>33</v>
+      </c>
+      <c r="R82" t="s">
+        <v>34</v>
+      </c>
+      <c r="T82" t="s">
+        <v>35</v>
+      </c>
+      <c r="U82" t="s">
+        <v>36</v>
+      </c>
+      <c r="V82" t="s">
+        <v>356</v>
+      </c>
+      <c r="W82" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>358</v>
+      </c>
+      <c r="B83" t="s">
+        <v>359</v>
+      </c>
+      <c r="G83">
+        <v>372900043349</v>
+      </c>
+      <c r="H83">
+        <v>372900043349</v>
+      </c>
+      <c r="L83" t="s">
+        <v>32</v>
+      </c>
+      <c r="M83" t="s">
+        <v>32</v>
+      </c>
+      <c r="P83" t="s">
+        <v>33</v>
+      </c>
+      <c r="R83" t="s">
+        <v>34</v>
+      </c>
+      <c r="T83" t="s">
+        <v>35</v>
+      </c>
+      <c r="U83" t="s">
+        <v>36</v>
+      </c>
+      <c r="V83" t="s">
+        <v>360</v>
+      </c>
+      <c r="W83" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>362</v>
+      </c>
+      <c r="B84" t="s">
+        <v>363</v>
+      </c>
+      <c r="G84">
+        <v>372900043349</v>
+      </c>
+      <c r="H84">
+        <v>372900043349</v>
+      </c>
+      <c r="L84" t="s">
+        <v>32</v>
+      </c>
+      <c r="M84" t="s">
+        <v>32</v>
+      </c>
+      <c r="P84" t="s">
+        <v>33</v>
+      </c>
+      <c r="R84" t="s">
+        <v>34</v>
+      </c>
+      <c r="T84" t="s">
+        <v>35</v>
+      </c>
+      <c r="U84" t="s">
+        <v>36</v>
+      </c>
+      <c r="V84" t="s">
+        <v>352</v>
+      </c>
+      <c r="W84" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>365</v>
+      </c>
+      <c r="B85" t="s">
+        <v>366</v>
+      </c>
+      <c r="G85">
+        <v>372900043349</v>
+      </c>
+      <c r="H85">
+        <v>372900043349</v>
+      </c>
+      <c r="L85" t="s">
+        <v>32</v>
+      </c>
+      <c r="M85" t="s">
+        <v>32</v>
+      </c>
+      <c r="P85" t="s">
+        <v>33</v>
+      </c>
+      <c r="R85" t="s">
+        <v>34</v>
+      </c>
+      <c r="T85" t="s">
+        <v>35</v>
+      </c>
+      <c r="U85" t="s">
+        <v>36</v>
+      </c>
+      <c r="V85" t="s">
+        <v>367</v>
+      </c>
+      <c r="W85" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>369</v>
+      </c>
+      <c r="B86" t="s">
+        <v>370</v>
+      </c>
+      <c r="G86">
+        <v>372900043349</v>
+      </c>
+      <c r="H86">
+        <v>372900043349</v>
+      </c>
+      <c r="L86" t="s">
+        <v>32</v>
+      </c>
+      <c r="M86" t="s">
+        <v>32</v>
+      </c>
+      <c r="P86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R86" t="s">
+        <v>34</v>
+      </c>
+      <c r="T86" t="s">
+        <v>35</v>
+      </c>
+      <c r="U86" t="s">
+        <v>36</v>
+      </c>
+      <c r="V86" t="s">
+        <v>371</v>
+      </c>
+      <c r="W86" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>373</v>
+      </c>
+      <c r="B87" t="s">
+        <v>370</v>
+      </c>
+      <c r="G87">
+        <v>372900043349</v>
+      </c>
+      <c r="H87">
+        <v>372900043349</v>
+      </c>
+      <c r="L87" t="s">
+        <v>32</v>
+      </c>
+      <c r="M87" t="s">
+        <v>32</v>
+      </c>
+      <c r="P87" t="s">
+        <v>33</v>
+      </c>
+      <c r="R87" t="s">
+        <v>34</v>
+      </c>
+      <c r="T87" t="s">
+        <v>35</v>
+      </c>
+      <c r="U87" t="s">
+        <v>36</v>
+      </c>
+      <c r="V87" t="s">
+        <v>371</v>
+      </c>
+      <c r="W87" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/public/inputinsale/marks.xlsx
+++ b/public/inputinsale/marks.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\job\public\inputinsale\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A77DFD6-66F3-4791-869B-7CB41DFD678F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="245">
-  <si>
-    <t>Filter(participantInn=372900043349, productGroup=LP, packageType=[UNIT], status=APPLIED, includeGtin=[], excludeGtin=[], appliedPeriod=null, emissionPeriod=Period(start=2023-12-25T21:00:00Z, end=2023-12-27T20:59:59Z), productionPeriod=null)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="504">
+  <si>
+    <t>Filter(participantInn=372900043349, productGroup=LP, packageType=[UNIT], status=APPLIED, includeGtin=[], excludeGtin=[], appliedPeriod=null, emissionPeriod=Period(start=2024-03-17T21:00:00Z, end=2024-03-18T20:59:59Z), productionPeriod=null)</t>
   </si>
   <si>
     <t>requestedCis</t>
@@ -111,13 +112,13 @@
     <t>aggregationType</t>
   </si>
   <si>
-    <t>0102900269558916215TO4s&gt;_Dch,VX</t>
-  </si>
-  <si>
-    <t>02900269558916</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп микрофибры 145 х 215 - М - 85 - Белый 3х3</t>
+    <t>0102900275566370215q'_LJRMC-+IB</t>
+  </si>
+  <si>
+    <t>02900275566370</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 140х200х30 - М - 181222 Коричневый</t>
   </si>
   <si>
     <t>ИВАНОВСКИЙ ТЕКСТИЛЬ</t>
@@ -138,628 +139,1405 @@
     <t>LP</t>
   </si>
   <si>
-    <t>2023-12-27T17:36:10.177Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T17:27:34.455Z</t>
-  </si>
-  <si>
-    <t>0102900269181602215tPL)SzRISj"&amp;</t>
-  </si>
-  <si>
-    <t>02900269181602</t>
-  </si>
-  <si>
-    <t>Постельное бельё из страйп-сатина Евро на резинке 160х200х30 - М - 135 - Углерод 1х1</t>
-  </si>
-  <si>
-    <t>2023-12-27T17:35:10.013Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T17:27:30.732Z</t>
-  </si>
-  <si>
-    <t>01029001246356392152M/6lTTCTaKn</t>
-  </si>
-  <si>
-    <t>02900124635639</t>
-  </si>
-  <si>
-    <t>Наматрасник из овечьей шерсти 160 х 200 - ЗТ - Престиж однотонный</t>
-  </si>
-  <si>
-    <t>2023-12-27T17:36:10.413Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T17:27:30.599Z</t>
-  </si>
-  <si>
-    <t>0102900263167718215JFDrYb4;Z2Cm</t>
-  </si>
-  <si>
-    <t>02900263167718</t>
-  </si>
-  <si>
-    <t>Наволочка из сатина 40 х 60 - М - 125 - Белая</t>
-  </si>
-  <si>
-    <t>2023-12-27T17:37:10.935Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T17:27:25.553Z</t>
-  </si>
-  <si>
-    <t>0102900263167718215qs1mZ9BzFQbZ</t>
-  </si>
-  <si>
-    <t>2023-12-27T17:37:10.797Z</t>
-  </si>
-  <si>
-    <t>01029002703373882156&amp;/kH1mGZDJZ</t>
-  </si>
-  <si>
-    <t>02900270337388</t>
-  </si>
-  <si>
-    <t>Постельное белье тенсель семейное - М - 60S 11 Темный изумруд</t>
-  </si>
-  <si>
-    <t>2023-12-27T17:35:10.093Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T17:27:23.342Z</t>
-  </si>
-  <si>
-    <t>0102900275337796215ljeVgGcnur9W</t>
-  </si>
-  <si>
-    <t>02900275337796</t>
-  </si>
-  <si>
-    <t>Постельное белье варёный хлопок Евро - М - 5358 Темно-бежевый</t>
-  </si>
-  <si>
-    <t>2023-12-27T14:52:28.081Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T14:47:45.163Z</t>
-  </si>
-  <si>
-    <t>0102900237884917215=ZWnTA,jCHMb</t>
-  </si>
-  <si>
-    <t>02900237884917</t>
-  </si>
-  <si>
-    <t>Наволочка из сатина 50 х 70 - М - 135 - Небесный глянцевая</t>
-  </si>
-  <si>
-    <t>2023-12-27T14:53:28.208Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T14:47:44.376Z</t>
-  </si>
-  <si>
-    <t>0102900198817467215n%&lt;LI6IEs2UJ</t>
-  </si>
-  <si>
-    <t>02900198817467</t>
-  </si>
-  <si>
-    <t>Пододеяльник из сатина 220 х 240 - М - 125 - Светло-серый</t>
-  </si>
-  <si>
-    <t>2023-12-27T14:53:27.845Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T14:47:44.188Z</t>
-  </si>
-  <si>
-    <t>0102900120740863215gM2qMTd7&amp;:6-</t>
-  </si>
-  <si>
-    <t>02900120740863</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп-сатина 40 х 60 - М - 125 - Серебро 1х1</t>
-  </si>
-  <si>
-    <t>2023-12-27T14:52:27.529Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T14:47:43.797Z</t>
-  </si>
-  <si>
-    <t>0102900241410133215:jahZ"L(P8+a</t>
-  </si>
-  <si>
-    <t>02900241410133</t>
-  </si>
-  <si>
-    <t>Простыня из сатина 300 х 300 - М - 140 - Белая</t>
-  </si>
-  <si>
-    <t>2023-12-27T14:52:28.641Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T14:47:43.784Z</t>
-  </si>
-  <si>
-    <t>0102900279356199215?t;hYqH0U5eU</t>
-  </si>
-  <si>
-    <t>02900279356199</t>
-  </si>
-  <si>
-    <t>2023-12-27T14:52:27.323Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T14:47:24.036Z</t>
-  </si>
-  <si>
-    <t>0102900246841925215mQ_sn;Bfs/cZ</t>
-  </si>
-  <si>
-    <t>02900246841925</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 200 х 200 - М - 135 - Темно-синий 0,5х0,5</t>
-  </si>
-  <si>
-    <t>2023-12-27T14:35:19.998Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T14:32:50.813Z</t>
-  </si>
-  <si>
-    <t>0102900279280906215eiXkJWWZm+lZ</t>
-  </si>
-  <si>
-    <t>02900279280906</t>
-  </si>
-  <si>
-    <t>2023-12-27T06:19:42.154Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T06:03:05.902Z</t>
-  </si>
-  <si>
-    <t>0102900079606425215SdVLs:Utn;jf</t>
-  </si>
-  <si>
-    <t>02900079606425</t>
-  </si>
-  <si>
-    <t>Простыня из тенселя на резинке 180х200х30 - М - 60S 11 Темный изумруд</t>
-  </si>
-  <si>
-    <t>2023-12-27T06:19:42.046Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T06:03:05.687Z</t>
-  </si>
-  <si>
-    <t>0102900077113420215EBDdXvTsUOET</t>
-  </si>
-  <si>
-    <t>02900077113420</t>
-  </si>
-  <si>
-    <t>Пододеяльник из тенселя 200 х 220 - М - 60S 4379 Голубая звезда</t>
-  </si>
-  <si>
-    <t>2023-12-27T06:20:42.437Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T06:03:05.667Z</t>
-  </si>
-  <si>
-    <t>0102900279280890215GPjqEa+PYa*M</t>
-  </si>
-  <si>
-    <t>02900279280890</t>
-  </si>
-  <si>
-    <t>2023-12-27T06:19:42.690Z</t>
-  </si>
-  <si>
-    <t>2023-12-27T06:03:05.467Z</t>
-  </si>
-  <si>
-    <t>0102900277264298215DclM!0TtHK1(</t>
-  </si>
-  <si>
-    <t>02900277264298</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 300 х 300 - М - 140 - Ежевика 1х1</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:34:32.134Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:14:07.370Z</t>
-  </si>
-  <si>
-    <t>0102900279262964215YZs,pMhgByPW</t>
-  </si>
-  <si>
-    <t>02900279262964</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:17:27.957Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:14:07.285Z</t>
-  </si>
-  <si>
-    <t>0102900276919823215IF5BNK5aQ.(U</t>
-  </si>
-  <si>
-    <t>02900276919823</t>
-  </si>
-  <si>
-    <t>Постельное бельё из ранфорса 2 спальное на резинке 160х200х30 - М - Белый с наволочками 50х70</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:32:31.377Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:14:07.226Z</t>
-  </si>
-  <si>
-    <t>0102900075848218215KC0GYPHJ=lZ&amp;</t>
-  </si>
-  <si>
-    <t>02900075848218</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 240 х 260 - М - 130 - Белый 1х1</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:27:29.012Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:14:06.775Z</t>
-  </si>
-  <si>
-    <t>0102900237161988215h&gt;NM&gt;4V8Z)eo</t>
-  </si>
-  <si>
-    <t>02900237161988</t>
-  </si>
-  <si>
-    <t>Наволочка из варёного хлопка 40 х 60 - М - Чёрный</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:26:28.815Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:14:06.562Z</t>
-  </si>
-  <si>
-    <t>0102900074694786215iVRbZEhwdlki</t>
-  </si>
-  <si>
-    <t>02900074694786</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 220 х 240 - М - 125 - Графит 1х1</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:23:28.422Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:14:06.416Z</t>
-  </si>
-  <si>
-    <t>0102900271437698215Q:YdoYHRAmcg</t>
-  </si>
-  <si>
-    <t>02900271437698</t>
-  </si>
-  <si>
-    <t>Постельное бельё из бязи 1,5 спальное - М - 142 ГОСТ - Черный</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:24:28.535Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:14:06.408Z</t>
-  </si>
-  <si>
-    <t>0102900279262933215c!UGx6!La3Tf</t>
-  </si>
-  <si>
-    <t>02900279262933</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:58:24.678Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:39:15.216Z</t>
-  </si>
-  <si>
-    <t>0102900077646041215e+gh52ik"QPQ</t>
-  </si>
-  <si>
-    <t>02900077646041</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 125 - Графит 1х1</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:00:25.039Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:39:14.567Z</t>
-  </si>
-  <si>
-    <t>0102900079800182215BNXk0KphqJ0R</t>
-  </si>
-  <si>
-    <t>02900079800182</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 125 - Белый 1х1</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:58:24.836Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:39:14.456Z</t>
-  </si>
-  <si>
-    <t>0102900278885010215aDVd(cG5XQzW</t>
-  </si>
-  <si>
-    <t>02900278885010</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп-сатина 50 х 50 - М - 125 - Белый 3х3</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:58:24.602Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:39:14.185Z</t>
-  </si>
-  <si>
-    <t>0102900079606333215X"?qeTacTHMJ</t>
-  </si>
-  <si>
-    <t>02900079606333</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп-сатина 50 х 70 - М - 125 - Миндаль 1х1</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:52:23.482Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:39:14.089Z</t>
-  </si>
-  <si>
-    <t>0102900080677087215Hp1TsmT7LH(R</t>
-  </si>
-  <si>
-    <t>02900080677087</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 125 - Миндаль 1х1</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:02:25.763Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:39:14.054Z</t>
-  </si>
-  <si>
-    <t>0102900237246913215PjnEl=.lqT-O</t>
-  </si>
-  <si>
-    <t>02900237246913</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп-сатина 50 х 70 - М - 125 - Капучино 1х1</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:02:25.614Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:39:14.018Z</t>
-  </si>
-  <si>
-    <t>0102900076234324215OmhLGQS0ljLD</t>
-  </si>
-  <si>
-    <t>02900076234324</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп-сатина 50 х 70 - М - 125 - Бирюза 1х1</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:57:24.010Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:39:14Z</t>
-  </si>
-  <si>
-    <t>0102900241778868215JAi+x+*.92AO</t>
-  </si>
-  <si>
-    <t>02900241778868</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина 180 х 220 - М - 125 - Черный 1х1</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:52:24.002Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:39:13.908Z</t>
-  </si>
-  <si>
-    <t>0102900079475380215!;&lt;YzRRB8?eq</t>
-  </si>
-  <si>
-    <t>02900079475380</t>
-  </si>
-  <si>
-    <t>Наволочка из страйп-сатина 70 х 70 - М - 125 - Папирус темный 1х1</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:02:25.522Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:39:13.691Z</t>
-  </si>
-  <si>
-    <t>0102900279262926215nUSa?T0CCRp+</t>
-  </si>
-  <si>
-    <t>02900279262926</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:52:23.372Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:39:13.525Z</t>
-  </si>
-  <si>
-    <t>0102900080272282215MErxotfScg6H</t>
-  </si>
-  <si>
-    <t>02900080272282</t>
-  </si>
-  <si>
-    <t>Простыня из страйп-сатина на резинке 200 х 220 х 30 - М - 135 - Белая 1х1</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:52:24.069Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:39:13.492Z</t>
-  </si>
-  <si>
-    <t>0102900080272282215tF4GsyE5sUwq</t>
-  </si>
-  <si>
-    <t>0102900074695165215Qf/UwZDDLZow</t>
-  </si>
-  <si>
-    <t>02900074695165</t>
-  </si>
-  <si>
-    <t>Пододеяльник из страйп-сатина 145 х 215 - М - 125 - Папирус темный 1х1</t>
-  </si>
-  <si>
-    <t>2023-12-26T17:00:24.943Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:39:13.294Z</t>
-  </si>
-  <si>
-    <t>0102900279262919215ybkD2=yVrwL=</t>
-  </si>
-  <si>
-    <t>02900279262919</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:52:23.826Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T16:39:13.008Z</t>
-  </si>
-  <si>
-    <t>0102900276919694215Zv4Eqf-UN)h=</t>
-  </si>
-  <si>
-    <t>02900276919694</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 50 х 70 - М - Королевский пурпур</t>
-  </si>
-  <si>
-    <t>2023-12-26T06:36:18.152Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T06:30:56.167Z</t>
-  </si>
-  <si>
-    <t>0102900276919694215ho0nQbrm'YDr</t>
-  </si>
-  <si>
-    <t>0102900279191035215MiJroxMxGTKO</t>
-  </si>
-  <si>
-    <t>02900279191035</t>
-  </si>
-  <si>
-    <t>2023-12-26T06:35:17.380Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T06:30:56.062Z</t>
-  </si>
-  <si>
-    <t>0102900279075915215d'kN)Ya&gt;fkAo</t>
-  </si>
-  <si>
-    <t>02900279075915</t>
-  </si>
-  <si>
-    <t>Пододеяльник из тенселя 200 х 220 - М - 60S 11 Темный изумруд</t>
-  </si>
-  <si>
-    <t>2023-12-26T06:37:19.178Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T06:30:55.259Z</t>
-  </si>
-  <si>
-    <t>01029002791910282150pYug!YMOC2e</t>
-  </si>
-  <si>
-    <t>02900279191028</t>
-  </si>
-  <si>
-    <t>2023-12-26T06:33:16.373Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T06:30:54.541Z</t>
-  </si>
-  <si>
-    <t>0102900279190946215YV&amp;Zr0EeyDEs</t>
-  </si>
-  <si>
-    <t>02900279190946</t>
-  </si>
-  <si>
-    <t>2023-12-26T06:32:15.872Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T06:20:37.493Z</t>
-  </si>
-  <si>
-    <t>0102900267420130215sxyEFNIpP9VW</t>
-  </si>
-  <si>
-    <t>02900267420130</t>
-  </si>
-  <si>
-    <t>Наволочка из тенселя 40 х 60 - М - 60S 4234 Морская нимфа</t>
-  </si>
-  <si>
-    <t>2023-12-26T06:32:15.647Z</t>
-  </si>
-  <si>
-    <t>2023-12-26T06:20:37.203Z</t>
+    <t>2024-03-18T18:19:41.007Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:25.756Z</t>
+  </si>
+  <si>
+    <t>0102900242793983215TMmhA3k:mn3d</t>
+  </si>
+  <si>
+    <t>02900242793983</t>
+  </si>
+  <si>
+    <t>Наматрасник непромокаемый трикотажный 160 х 200 - ЭК - Резинка по углам</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:19:41.008Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:25.591Z</t>
+  </si>
+  <si>
+    <t>0102900272443117215*3emZ?qbBe2k</t>
+  </si>
+  <si>
+    <t>02900272443117</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп-сатина семейное - М - 135 - Углерод 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:19:40.895Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:25.305Z</t>
+  </si>
+  <si>
+    <t>0102900272403609215P&gt;EHN;QdYagf</t>
+  </si>
+  <si>
+    <t>02900272403609</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп-сатина 2 спальное на резинке 160х200х30 - М - 135 - Углерод 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:25.196Z</t>
+  </si>
+  <si>
+    <t>0102900273553440215&gt;QeVWsgnhL6'</t>
+  </si>
+  <si>
+    <t>02900273553440</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп-сатина 2 спальное на резинке 160х200х30 - М - 125 - Магеллан 1х1</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:19:40.617Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:25.045Z</t>
+  </si>
+  <si>
+    <t>0102900273553440215K:OTlLL_fY;!</t>
+  </si>
+  <si>
+    <t>0102900297052431215h7eS1NV_Sb,v</t>
+  </si>
+  <si>
+    <t>02900297052431</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп сатина Евро на резинке 160х200х30 - М - 140 - Белый 1х1</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:18:39.917Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:24.747Z</t>
+  </si>
+  <si>
+    <t>0102900308529044215jTG5mECgNbC&gt;</t>
+  </si>
+  <si>
+    <t>02900308529044</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:18:39.461Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:24.601Z</t>
+  </si>
+  <si>
+    <t>0102900308529037215aKcHp?2"D;o&gt;</t>
+  </si>
+  <si>
+    <t>02900308529037</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:18:39.908Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:24.294Z</t>
+  </si>
+  <si>
+    <t>0102900269331328215&amp;pjZV0jGs(TT</t>
+  </si>
+  <si>
+    <t>02900269331328</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп-сатина 1,5 спальное на резинке 140х200х30 - М - 135 - Темно-синий 0,5х0,5 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:18:40.262Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:24.053Z</t>
+  </si>
+  <si>
+    <t>0102900125739817215jZ&gt;4POG+MeT5</t>
+  </si>
+  <si>
+    <t>02900125739817</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50 х 70 - М - 181222 Коричневый</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:18:39.672Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:23.906Z</t>
+  </si>
+  <si>
+    <t>0102900076259389215Z&amp;YvpH2CWlX3</t>
+  </si>
+  <si>
+    <t>02900076259389</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 145 х 215 - М - 135 - Светлая лаванда 1х1</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:18:39.377Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:22.752Z</t>
+  </si>
+  <si>
+    <t>0102900308529099215fY0nrmuZIfX"</t>
+  </si>
+  <si>
+    <t>02900308529099</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:20:43.784Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:22.732Z</t>
+  </si>
+  <si>
+    <t>0102900273553198215:OLlpSLpdO'K</t>
+  </si>
+  <si>
+    <t>02900273553198</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - Коронация</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:18:40.362Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:22.642Z</t>
+  </si>
+  <si>
+    <t>0102900273553198215r&gt;Y-jKmgZbYi</t>
+  </si>
+  <si>
+    <t>0102900308529129215fejO&lt;zBds,GS</t>
+  </si>
+  <si>
+    <t>02900308529129</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:18:40.508Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:22.572Z</t>
+  </si>
+  <si>
+    <t>01029002948284802156jW6E!VQXM/S</t>
+  </si>
+  <si>
+    <t>02900294828480</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - Сарсуэла</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:17:39.565Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:22.478Z</t>
+  </si>
+  <si>
+    <t>0102900294828480215XEZEVG;(lnZK</t>
+  </si>
+  <si>
+    <t>0102900076113766215db0&amp;uPmo"a4b</t>
+  </si>
+  <si>
+    <t>02900076113766</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 240 х 260 - М - 125 - Темно-коричневый</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:20:43.785Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:22.323Z</t>
+  </si>
+  <si>
+    <t>0102900077840890215G%o=tRGSp.I%</t>
+  </si>
+  <si>
+    <t>02900077840890</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4216 Серебро</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:20:43.562Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:22.214Z</t>
+  </si>
+  <si>
+    <t>0102900077840890215aaGu?FtjFmE5</t>
+  </si>
+  <si>
+    <t>0102900077840890215o;4MNr8q7,l+</t>
+  </si>
+  <si>
+    <t>0102900076983482215iXWCJcJnjbi%</t>
+  </si>
+  <si>
+    <t>02900076983482</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 240 х 260 - М - 120 - Синий</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:20:42.928Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:22.187Z</t>
+  </si>
+  <si>
+    <t>01029000782588232151J=RaMrXXLCr</t>
+  </si>
+  <si>
+    <t>02900078258823</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель Евро - М - 60S 4216 Серебро</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:17:38.891Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:22.058Z</t>
+  </si>
+  <si>
+    <t>0102900267574710215CBE7&amp;s+"MKKm</t>
+  </si>
+  <si>
+    <t>02900267574710</t>
+  </si>
+  <si>
+    <t>Наволочка из бязи 50 х 50 - М - 142 ГОСТ - Черный</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:17:39.401Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:21.909Z</t>
+  </si>
+  <si>
+    <t>0102900308529051215uRbA4lBIZh3C</t>
+  </si>
+  <si>
+    <t>02900308529051</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:20:42.601Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:21.848Z</t>
+  </si>
+  <si>
+    <t>0102900290244802215bE0sqhoesGU&amp;</t>
+  </si>
+  <si>
+    <t>02900290244802</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 220 - М - 60S 12 Горчица</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:20:43.223Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:21.777Z</t>
+  </si>
+  <si>
+    <t>0102900235553891215ie&amp;N*Ka(CClD</t>
+  </si>
+  <si>
+    <t>02900235553891</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 175 х 215 - М - 125 - Миндаль 1х1</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:17:38.802Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:21.632Z</t>
+  </si>
+  <si>
+    <t>0102900292441674215SRGg4fG5R&amp;tM</t>
+  </si>
+  <si>
+    <t>02900292441674</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 200 х 200 - М - 60S 12 Горчица</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:20:43.217Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:21.594Z</t>
+  </si>
+  <si>
+    <t>010290023868338021500DMA_ObwpQc</t>
+  </si>
+  <si>
+    <t>02900238683380</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - 60S 12 Горчица</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:19:41.218Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:21.443Z</t>
+  </si>
+  <si>
+    <t>0102900238683380215lppYbeMheORm</t>
+  </si>
+  <si>
+    <t>0102900275336027215Z/jtgX-D0jJm</t>
+  </si>
+  <si>
+    <t>02900275336027</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель Евро Макси - М - 60S Чёрный Страйп 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:17:39.231Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:21.369Z</t>
+  </si>
+  <si>
+    <t>0102900240575796215VjeEa!pYCgah</t>
+  </si>
+  <si>
+    <t>02900240575796</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 125 - Красный</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:17:39.398Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:21.196Z</t>
+  </si>
+  <si>
+    <t>0102900078324429215OKlRTcf+9+Il</t>
+  </si>
+  <si>
+    <t>02900078324429</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 12 Горчица</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:19:41.275Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:21.184Z</t>
+  </si>
+  <si>
+    <t>0102900078324429215OWsr1NJG&gt;Seu</t>
+  </si>
+  <si>
+    <t>0102900125740011215LJ?AcVK/Yt7k</t>
+  </si>
+  <si>
+    <t>02900125740011</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 160х200х30 - М - 60S 129 Темно-зеленый</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:19:40.519Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:21.002Z</t>
+  </si>
+  <si>
+    <t>0102900308529068215rT_CAs0baIB4</t>
+  </si>
+  <si>
+    <t>02900308529068</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:16:36.876Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:20.811Z</t>
+  </si>
+  <si>
+    <t>0102900271434789215ak4a+h:J!h,E</t>
+  </si>
+  <si>
+    <t>02900271434789</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 175 х 215 - М - Сердечко</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:16:37.464Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:20.649Z</t>
+  </si>
+  <si>
+    <t>0102900278885102215%rXT&gt;gtSWGY=</t>
+  </si>
+  <si>
+    <t>02900278885102</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 200 х 220 - М - Сердечко</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:16:36.769Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:20.465Z</t>
+  </si>
+  <si>
+    <t>0102900177256102215H(yXAcYJ9sF_</t>
+  </si>
+  <si>
+    <t>02900177256102</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 150 х 200 - М - 60S 4217 Бежевый</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:16:36.238Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:20.197Z</t>
+  </si>
+  <si>
+    <t>0102900275661785215AWqY5EAO1Jun</t>
+  </si>
+  <si>
+    <t>02900275661785</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 220 х 240 - М - 125 - Магеллан 1х1</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:16:36.494Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:20.002Z</t>
+  </si>
+  <si>
+    <t>0102900308529105215c*)zGeukJoA_</t>
+  </si>
+  <si>
+    <t>02900308529105</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:16:36.338Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:19.866Z</t>
+  </si>
+  <si>
+    <t>0102900279870466215V!&amp;0EiilCs/F</t>
+  </si>
+  <si>
+    <t>02900279870466</t>
+  </si>
+  <si>
+    <t>Постельное бельё из сатина Евро - М - Коронация с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:16:36.041Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:19.543Z</t>
+  </si>
+  <si>
+    <t>0102900273553273215rAaN;X(&lt;Xl2D</t>
+  </si>
+  <si>
+    <t>02900273553273</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 240 х 260 - М - 135 - Углерод 1х1</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:15:36.197Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:19.364Z</t>
+  </si>
+  <si>
+    <t>0102900263603940215Koq*r9&amp;rebk2</t>
+  </si>
+  <si>
+    <t>02900263603940</t>
+  </si>
+  <si>
+    <t>Простыня из бязи 150 х 220 - М - 142 ГОСТ - Черный</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:15:35.753Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:19.169Z</t>
+  </si>
+  <si>
+    <t>0102900276204493215F(hO,5Wrt0la</t>
+  </si>
+  <si>
+    <t>02900276204493</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 160 х 200 х 30 - М - 125 - Бразилин 1х1</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:15:35.943Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:19.143Z</t>
+  </si>
+  <si>
+    <t>0102900251202568215gK53G6yP.85E</t>
+  </si>
+  <si>
+    <t>02900251202568</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 160х200х30 - М - 60S 371 Черный</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:15:35.297Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:19.086Z</t>
+  </si>
+  <si>
+    <t>0102900076259396215PmtM+t?HSIL(</t>
+  </si>
+  <si>
+    <t>02900076259396</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 135 - Светлая лаванда 1х1</t>
+  </si>
+  <si>
+    <t>2024-03-18T18:15:35.808Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:48:18.880Z</t>
+  </si>
+  <si>
+    <t>01029000767716692155aJc9uany66S</t>
+  </si>
+  <si>
+    <t>02900076771669</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 160х200х30 - М - Белый</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:28:15.256Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:12:58.393Z</t>
+  </si>
+  <si>
+    <t>0102900278362580215qEsX&gt;LfwGfXD</t>
+  </si>
+  <si>
+    <t>02900278362580</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 240 х 260 - М - Белый</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:28:14.965Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:12:58.202Z</t>
+  </si>
+  <si>
+    <t>0102900308520546215'fETJFW-v,mZ</t>
+  </si>
+  <si>
+    <t>02900308520546</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:28:15.056Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:12:57.980Z</t>
+  </si>
+  <si>
+    <t>0102900223948500215pKWD&gt;J3ndq*F</t>
+  </si>
+  <si>
+    <t>02900223948500</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 140х200х20 - М - 007 Оливковый</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:30:16.403Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:57:23.345Z</t>
+  </si>
+  <si>
+    <t>0102900308502207215J*sloIpeXUVc</t>
+  </si>
+  <si>
+    <t>02900308502207</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:30:16.400Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:57:23.344Z</t>
+  </si>
+  <si>
+    <t>0102900308502207215gq)j-bPglrws</t>
+  </si>
+  <si>
+    <t>0102900076844066215&gt;SXWut'Uu?WO</t>
+  </si>
+  <si>
+    <t>02900076844066</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50 х 70 - М - Белый</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:30:15.642Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:57:22.888Z</t>
+  </si>
+  <si>
+    <t>0102900076844066215R4gYa!7gT8sH</t>
+  </si>
+  <si>
+    <t>0102900125739145215IMLF&gt;d_FxV'U</t>
+  </si>
+  <si>
+    <t>02900125739145</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 140 х 200 х 30 - М - 125 - Бирюза 1х1</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:30:15.736Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:57:22.877Z</t>
+  </si>
+  <si>
+    <t>0102900117310994215JCfc)sr,IeSu</t>
+  </si>
+  <si>
+    <t>02900117310994</t>
+  </si>
+  <si>
+    <t>Матрас ватный с бортом 110 х 190 - СИН - Вата трикотажная</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:30:16.394Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:57:22.703Z</t>
+  </si>
+  <si>
+    <t>0102900124635592215(E(nK"Hn*Ggk</t>
+  </si>
+  <si>
+    <t>02900124635592</t>
+  </si>
+  <si>
+    <t>Пододеяльник из тенселя 145 х 215 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:30:16.110Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:57:22.490Z</t>
+  </si>
+  <si>
+    <t>0102900124635592215zUeSQm!AZQ!"</t>
+  </si>
+  <si>
+    <t>0102900239232297215seVbxSvNq=QX</t>
+  </si>
+  <si>
+    <t>02900239232297</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 200х200х40 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:29:15.991Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:57:22.411Z</t>
+  </si>
+  <si>
+    <t>0102900076995171215TUf+FCNj=1G&amp;</t>
+  </si>
+  <si>
+    <t>02900076995171</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S Белый</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:29:15.712Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:57:22.195Z</t>
+  </si>
+  <si>
+    <t>0102900076995171215cR68NHwFDb7A</t>
+  </si>
+  <si>
+    <t>0102900076995171215vqtXbNrY="XN</t>
+  </si>
+  <si>
+    <t>0102900268099144215RQ"?Ut=EHtuo</t>
+  </si>
+  <si>
+    <t>02900268099144</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель 1,5 спальное - М - 60S 4384 Пыльная роза</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:29:15.356Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:57:22.100Z</t>
+  </si>
+  <si>
+    <t>0102900120740832215mk&amp;qYP:Eqdcm</t>
+  </si>
+  <si>
+    <t>02900120740832</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4217 Бежевый</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:29:15.709Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:57:22.064Z</t>
+  </si>
+  <si>
+    <t>0102900077688638215yEpS+2:k_&amp;?T</t>
+  </si>
+  <si>
+    <t>02900077688638</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 90х200х30 - М - 60S 371 Черный</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:29:15.270Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:57:21.931Z</t>
+  </si>
+  <si>
+    <t>0102900078137487215:dOKPtDDEmow</t>
+  </si>
+  <si>
+    <t>02900078137487</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4229 Коричневый</t>
+  </si>
+  <si>
+    <t>2024-03-18T17:29:15.513Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:57:21.854Z</t>
+  </si>
+  <si>
+    <t>0102900078137487215rZ0Ua6!VugDj</t>
+  </si>
+  <si>
+    <t>0102900240391143215Q()d'KfcsCgO</t>
+  </si>
+  <si>
+    <t>02900240391143</t>
+  </si>
+  <si>
+    <t>Пододеяльник из жаккарда 175 х 215 - М - Жемчуг</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:56:06.637Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:38:17.341Z</t>
+  </si>
+  <si>
+    <t>0102900308500869215BJDFeb0hVHuD</t>
+  </si>
+  <si>
+    <t>02900308500869</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:56:06.636Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:38:17.080Z</t>
+  </si>
+  <si>
+    <t>0102900237884986215-SNB=XIq&amp;BDr</t>
+  </si>
+  <si>
+    <t>02900237884986</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - 60S 130 Горький шоколад</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:56:06.240Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:38:16.899Z</t>
+  </si>
+  <si>
+    <t>0102900267417796215bbWsXiYyWHhz</t>
+  </si>
+  <si>
+    <t>02900267417796</t>
+  </si>
+  <si>
+    <t>Постельное бельё из ранфорса семейное на резинке 160х200х30 - М - Белый</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:56:06.239Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:38:16.711Z</t>
+  </si>
+  <si>
+    <t>0102900269331106215glcetlm1;PYQ</t>
+  </si>
+  <si>
+    <t>02900269331106</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп-сатина 2 спальное с Евро простыней - М - 125 - Аквамарин 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:55:05.704Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:38:16.574Z</t>
+  </si>
+  <si>
+    <t>0102900308500852215sRD!tjRKV.Ud</t>
+  </si>
+  <si>
+    <t>02900308500852</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:55:05.705Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:38:16.459Z</t>
+  </si>
+  <si>
+    <t>0102900308500845215ZEgsbcaa_+cV</t>
+  </si>
+  <si>
+    <t>02900308500845</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:55:05.601Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:38:13.163Z</t>
+  </si>
+  <si>
+    <t>0102900077778636215n'ebuOpz0.Qu</t>
+  </si>
+  <si>
+    <t>02900077778636</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4302 Зеленая</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:55:05.352Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:38:13.080Z</t>
+  </si>
+  <si>
+    <t>0102900308500821215IotP*eckPp!q</t>
+  </si>
+  <si>
+    <t>02900308500821</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:54:04.967Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:38:12.885Z</t>
+  </si>
+  <si>
+    <t>0102900308500838215sKW?7SldZSIF</t>
+  </si>
+  <si>
+    <t>02900308500838</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:55:05.251Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:38:12.813Z</t>
+  </si>
+  <si>
+    <t>0102900079606296215,n-srqhbl+Dd</t>
+  </si>
+  <si>
+    <t>02900079606296</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп-сатина 1,5 спальное на резинке 140х200х30 - М - 125 - Белый 3х3 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2024-03-18T16:38:09.610Z</t>
+  </si>
+  <si>
+    <t>0102900275783760215n_MB7dmn8Xu;</t>
+  </si>
+  <si>
+    <t>02900275783760</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка на резинке 80х200х20 - М - Чёрный</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:22:47.142Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:18:56.325Z</t>
+  </si>
+  <si>
+    <t>0102900240119051215t*u"haSUVE*+</t>
+  </si>
+  <si>
+    <t>02900240119051</t>
+  </si>
+  <si>
+    <t>Простыня непромокаемая 80 х 160 - М - Мулетон Полиэстер</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:22:47.141Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:18:55.896Z</t>
+  </si>
+  <si>
+    <t>0102900308024549215c7e5yM&lt;=fFil</t>
+  </si>
+  <si>
+    <t>02900308024549</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:22:46.830Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:18:55.466Z</t>
+  </si>
+  <si>
+    <t>0102900308024532215jnUQu0b'0EjO</t>
+  </si>
+  <si>
+    <t>02900308024532</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:18:55.390Z</t>
+  </si>
+  <si>
+    <t>0102900308009607215DQS_X_d-0;dB</t>
+  </si>
+  <si>
+    <t>02900308009607</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:12:14.890Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:07.509Z</t>
+  </si>
+  <si>
+    <t>0102900308009621215"tokSAhwNoTh</t>
+  </si>
+  <si>
+    <t>02900308009621</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:13:18.002Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:07.389Z</t>
+  </si>
+  <si>
+    <t>0102900308009546215WJAOb.o)DL(m</t>
+  </si>
+  <si>
+    <t>02900308009546</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:14:20.563Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:07.384Z</t>
+  </si>
+  <si>
+    <t>0102900308009485215Cde_Q4gbBsSh</t>
+  </si>
+  <si>
+    <t>02900308009485</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:13:16.937Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:07.197Z</t>
+  </si>
+  <si>
+    <t>0102900282012037215RD"bJo(VyJmY</t>
+  </si>
+  <si>
+    <t>02900282012037</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 180 х 220 - М - 120 - Мятный панг</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:14:22.134Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:07.153Z</t>
+  </si>
+  <si>
+    <t>0102900308009423215:VLh/ua8jNnH</t>
+  </si>
+  <si>
+    <t>02900308009423</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:14:22.438Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:07.151Z</t>
+  </si>
+  <si>
+    <t>0102900278054652215gMBHH6CM,fkb</t>
+  </si>
+  <si>
+    <t>02900278054652</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 300 х 300 - М - 140 - Белый Люкс</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:14:22.138Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:07.141Z</t>
+  </si>
+  <si>
+    <t>0102900308009584215ZbZ0"Z(XY)N2</t>
+  </si>
+  <si>
+    <t>02900308009584</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:12:15.300Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:07.003Z</t>
+  </si>
+  <si>
+    <t>0102900308009508215weZ8&gt;dkq(HR7</t>
+  </si>
+  <si>
+    <t>02900308009508</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:14:19.990Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:06.875Z</t>
+  </si>
+  <si>
+    <t>0102900308009645215CA!BPchcXLsP</t>
+  </si>
+  <si>
+    <t>02900308009645</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:13:16.323Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:06.781Z</t>
+  </si>
+  <si>
+    <t>0102900308009522215YLD2;r8%P%aI</t>
+  </si>
+  <si>
+    <t>02900308009522</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:14:20.227Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:06.720Z</t>
+  </si>
+  <si>
+    <t>0102900308009522215kc5Fn"ZJi5'T</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:14:21.594Z</t>
+  </si>
+  <si>
+    <t>0102900077840784215th8bopu&gt;Q:DT</t>
+  </si>
+  <si>
+    <t>02900077840784</t>
+  </si>
+  <si>
+    <t>Постельное белье тенсель 2 спальное - М - 60S 4217 Бежевый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:13:17.060Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:06.590Z</t>
+  </si>
+  <si>
+    <t>0102900285781466215bNRfwGbAkoom</t>
+  </si>
+  <si>
+    <t>02900285781466</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 300 х 300 - М - 125 - Тапиока</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:14:21.595Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:06.451Z</t>
+  </si>
+  <si>
+    <t>01029003080097132150t6WLZMG+Gh.</t>
+  </si>
+  <si>
+    <t>02900308009713</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:12:13.593Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:06.357Z</t>
+  </si>
+  <si>
+    <t>01029003080093932159%l2FUV_sZgl</t>
+  </si>
+  <si>
+    <t>02900308009393</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:06.102Z</t>
+  </si>
+  <si>
+    <t>0102900292107754215En2QMf.E7Y2r</t>
+  </si>
+  <si>
+    <t>02900292107754</t>
+  </si>
+  <si>
+    <t>Комплект Постельное бельё из сатина 1,5 спальное на резинке 140х200х30 - М - 120 - Темный Плющ с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:13:18.575Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:06.026Z</t>
+  </si>
+  <si>
+    <t>0102900086443358215DzodBqjMOy/p</t>
+  </si>
+  <si>
+    <t>02900086443358</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 160х200х30 - М - 60S 4216 Серебро</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:12:14.257Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:05.995Z</t>
+  </si>
+  <si>
+    <t>0102900079653863215TJgdI?WGC5ZI</t>
+  </si>
+  <si>
+    <t>02900079653863</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 300 х 300 - М - 125 - Белый 3х3</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:13:16.572Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:05.840Z</t>
+  </si>
+  <si>
+    <t>0102900278452458215&gt;_t&lt;Ig;mZwDO</t>
+  </si>
+  <si>
+    <t>02900278452458</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 220 х 240 - М - 120 - Разноцветный</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:12:13.189Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:05.666Z</t>
+  </si>
+  <si>
+    <t>0102900278456258215SJt&gt;D;n(=fQ=</t>
+  </si>
+  <si>
+    <t>02900278456258</t>
+  </si>
+  <si>
+    <t>Простыня из сатина 280 х 280 - М - 125 - Серо-бежевый</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:13:19.314Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:05.478Z</t>
+  </si>
+  <si>
+    <t>0102900307884359215e6hylAQ6&lt;fON</t>
+  </si>
+  <si>
+    <t>02900307884359</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:12:13.105Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:05.470Z</t>
+  </si>
+  <si>
+    <t>0102900079991170215OaLno=3iEpos</t>
+  </si>
+  <si>
+    <t>02900079991170</t>
+  </si>
+  <si>
+    <t>Простыня из тенселя на резинке 160х200х30 - М - 60S 4226 Серый</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:12:13.858Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:05.297Z</t>
+  </si>
+  <si>
+    <t>0102900079427990215o01Li2r:yLNr</t>
+  </si>
+  <si>
+    <t>02900079427990</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 150 х 200 - М - 125 - Шампань 3х3</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:11:12.054Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:05.131Z</t>
+  </si>
+  <si>
+    <t>0102900275529832215CIwvSAW=?rKt</t>
+  </si>
+  <si>
+    <t>02900275529832</t>
+  </si>
+  <si>
+    <t>Наволочка из варёного хлопка 50 х 50 - М - 5358 Темно-бежевый</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:12:15.215Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:05.127Z</t>
+  </si>
+  <si>
+    <t>0102900275529832215N5)s+Mnw/Lpt</t>
+  </si>
+  <si>
+    <t>01029003080096902156A"dX&gt;EsmOLE</t>
+  </si>
+  <si>
+    <t>02900308009690</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:11:11.833Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:05.026Z</t>
+  </si>
+  <si>
+    <t>0102900308009676215DyawTvi0p0LR</t>
+  </si>
+  <si>
+    <t>02900308009676</t>
+  </si>
+  <si>
+    <t>2024-03-18T06:11:11.893Z</t>
+  </si>
+  <si>
+    <t>2024-03-18T05:55:04.806Z</t>
+  </si>
+  <si>
+    <t>0102900308009676215kG.KJv-%P"o7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1092,11 +1870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,19 +2143,19 @@
         <v>38</v>
       </c>
       <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
         <v>54</v>
-      </c>
-      <c r="W6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
       <c r="G7">
         <v>372900043349</v>
       </c>
@@ -1385,7 +2163,7 @@
         <v>372900043349</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
         <v>33</v>
@@ -1409,402 +2187,396 @@
         <v>38</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>372900043349</v>
+      </c>
+      <c r="H8">
+        <v>372900043349</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
+      <c r="W8" t="s">
         <v>59</v>
-      </c>
-      <c r="G8">
-        <v>372900043349</v>
-      </c>
-      <c r="H8">
-        <v>372900043349</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" t="s">
-        <v>37</v>
-      </c>
-      <c r="U8" t="s">
-        <v>38</v>
-      </c>
-      <c r="V8" t="s">
-        <v>61</v>
-      </c>
-      <c r="W8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>372900043349</v>
+      </c>
+      <c r="H9">
+        <v>372900043349</v>
+      </c>
+      <c r="J9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" t="s">
         <v>64</v>
       </c>
-      <c r="G9">
-        <v>372900043349</v>
-      </c>
-      <c r="H9">
-        <v>372900043349</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="W9" t="s">
         <v>65</v>
-      </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" t="s">
-        <v>37</v>
-      </c>
-      <c r="U9" t="s">
-        <v>38</v>
-      </c>
-      <c r="V9" t="s">
-        <v>66</v>
-      </c>
-      <c r="W9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>372900043349</v>
+      </c>
+      <c r="H10">
+        <v>372900043349</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" t="s">
+      <c r="W10" t="s">
         <v>69</v>
-      </c>
-      <c r="G10">
-        <v>372900043349</v>
-      </c>
-      <c r="H10">
-        <v>372900043349</v>
-      </c>
-      <c r="J10" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" t="s">
-        <v>37</v>
-      </c>
-      <c r="U10" t="s">
-        <v>38</v>
-      </c>
-      <c r="V10" t="s">
-        <v>71</v>
-      </c>
-      <c r="W10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11">
+        <v>372900043349</v>
+      </c>
+      <c r="H11">
+        <v>372900043349</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11" t="s">
         <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11">
-        <v>372900043349</v>
-      </c>
-      <c r="H11">
-        <v>372900043349</v>
-      </c>
-      <c r="J11" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" t="s">
-        <v>37</v>
-      </c>
-      <c r="U11" t="s">
-        <v>38</v>
-      </c>
-      <c r="V11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12">
+        <v>372900043349</v>
+      </c>
+      <c r="H12">
+        <v>372900043349</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" t="s">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s">
         <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12">
-        <v>372900043349</v>
-      </c>
-      <c r="H12">
-        <v>372900043349</v>
-      </c>
-      <c r="J12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" t="s">
-        <v>35</v>
-      </c>
-      <c r="R12" t="s">
-        <v>36</v>
-      </c>
-      <c r="T12" t="s">
-        <v>37</v>
-      </c>
-      <c r="U12" t="s">
-        <v>38</v>
-      </c>
-      <c r="V12" t="s">
-        <v>81</v>
-      </c>
-      <c r="W12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13">
+        <v>372900043349</v>
+      </c>
+      <c r="H13">
+        <v>372900043349</v>
+      </c>
+      <c r="J13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V13" t="s">
+        <v>82</v>
+      </c>
+      <c r="W13" t="s">
         <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13">
-        <v>372900043349</v>
-      </c>
-      <c r="H13">
-        <v>372900043349</v>
-      </c>
-      <c r="J13" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" t="s">
-        <v>35</v>
-      </c>
-      <c r="R13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" t="s">
-        <v>37</v>
-      </c>
-      <c r="U13" t="s">
-        <v>38</v>
-      </c>
-      <c r="V13" t="s">
-        <v>86</v>
-      </c>
-      <c r="W13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14">
+        <v>372900043349</v>
+      </c>
+      <c r="H14">
+        <v>372900043349</v>
+      </c>
+      <c r="J14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" t="s">
+        <v>87</v>
+      </c>
+      <c r="W14" t="s">
         <v>88</v>
-      </c>
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14">
-        <v>372900043349</v>
-      </c>
-      <c r="H14">
-        <v>372900043349</v>
-      </c>
-      <c r="L14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P14" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" t="s">
-        <v>36</v>
-      </c>
-      <c r="T14" t="s">
-        <v>37</v>
-      </c>
-      <c r="U14" t="s">
-        <v>38</v>
-      </c>
-      <c r="V14" t="s">
-        <v>90</v>
-      </c>
-      <c r="W14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15">
+        <v>372900043349</v>
+      </c>
+      <c r="H15">
+        <v>372900043349</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V15" t="s">
+        <v>91</v>
+      </c>
+      <c r="W15" t="s">
         <v>92</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15">
-        <v>372900043349</v>
-      </c>
-      <c r="H15">
-        <v>372900043349</v>
-      </c>
-      <c r="J15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" t="s">
-        <v>35</v>
-      </c>
-      <c r="R15" t="s">
-        <v>36</v>
-      </c>
-      <c r="T15" t="s">
-        <v>37</v>
-      </c>
-      <c r="U15" t="s">
-        <v>38</v>
-      </c>
-      <c r="V15" t="s">
-        <v>95</v>
-      </c>
-      <c r="W15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16">
+        <v>372900043349</v>
+      </c>
+      <c r="H16">
+        <v>372900043349</v>
+      </c>
+      <c r="J16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" t="s">
+        <v>37</v>
+      </c>
+      <c r="U16" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" t="s">
+        <v>96</v>
+      </c>
+      <c r="W16" t="s">
         <v>97</v>
-      </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16">
-        <v>372900043349</v>
-      </c>
-      <c r="H16">
-        <v>372900043349</v>
-      </c>
-      <c r="L16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" t="s">
-        <v>35</v>
-      </c>
-      <c r="R16" t="s">
-        <v>36</v>
-      </c>
-      <c r="T16" t="s">
-        <v>37</v>
-      </c>
-      <c r="U16" t="s">
-        <v>38</v>
-      </c>
-      <c r="V16" t="s">
-        <v>99</v>
-      </c>
-      <c r="W16" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G17">
         <v>372900043349</v>
@@ -1813,7 +2585,7 @@
         <v>372900043349</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s">
         <v>33</v>
@@ -1837,18 +2609,18 @@
         <v>38</v>
       </c>
       <c r="V17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="W17" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G18">
         <v>372900043349</v>
@@ -1856,12 +2628,6 @@
       <c r="H18">
         <v>372900043349</v>
       </c>
-      <c r="J18" t="s">
-        <v>108</v>
-      </c>
-      <c r="K18" t="s">
-        <v>33</v>
-      </c>
       <c r="L18" t="s">
         <v>34</v>
       </c>
@@ -1881,18 +2647,18 @@
         <v>38</v>
       </c>
       <c r="V18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="W18" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G19">
         <v>372900043349</v>
@@ -1900,6 +2666,12 @@
       <c r="H19">
         <v>372900043349</v>
       </c>
+      <c r="J19" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
       <c r="L19" t="s">
         <v>34</v>
       </c>
@@ -1919,18 +2691,18 @@
         <v>38</v>
       </c>
       <c r="V19" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="W19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G20">
         <v>372900043349</v>
@@ -1939,7 +2711,7 @@
         <v>372900043349</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s">
         <v>33</v>
@@ -1963,18 +2735,18 @@
         <v>38</v>
       </c>
       <c r="V20" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="W20" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G21">
         <v>372900043349</v>
@@ -1982,6 +2754,12 @@
       <c r="H21">
         <v>372900043349</v>
       </c>
+      <c r="J21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
       <c r="L21" t="s">
         <v>34</v>
       </c>
@@ -2001,18 +2779,18 @@
         <v>38</v>
       </c>
       <c r="V21" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="W21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G22">
         <v>372900043349</v>
@@ -2021,7 +2799,7 @@
         <v>372900043349</v>
       </c>
       <c r="J22" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="K22" t="s">
         <v>33</v>
@@ -2045,18 +2823,18 @@
         <v>38</v>
       </c>
       <c r="V22" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W22" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G23">
         <v>372900043349</v>
@@ -2065,7 +2843,7 @@
         <v>372900043349</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="K23" t="s">
         <v>33</v>
@@ -2089,18 +2867,18 @@
         <v>38</v>
       </c>
       <c r="V23" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="W23" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G24">
         <v>372900043349</v>
@@ -2109,7 +2887,7 @@
         <v>372900043349</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="K24" t="s">
         <v>33</v>
@@ -2133,18 +2911,18 @@
         <v>38</v>
       </c>
       <c r="V24" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="W24" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G25">
         <v>372900043349</v>
@@ -2153,7 +2931,7 @@
         <v>372900043349</v>
       </c>
       <c r="J25" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="K25" t="s">
         <v>33</v>
@@ -2177,18 +2955,18 @@
         <v>38</v>
       </c>
       <c r="V25" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="W25" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G26">
         <v>372900043349</v>
@@ -2197,7 +2975,7 @@
         <v>372900043349</v>
       </c>
       <c r="J26" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="K26" t="s">
         <v>33</v>
@@ -2221,18 +2999,18 @@
         <v>38</v>
       </c>
       <c r="V26" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="W26" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G27">
         <v>372900043349</v>
@@ -2240,6 +3018,12 @@
       <c r="H27">
         <v>372900043349</v>
       </c>
+      <c r="J27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
       <c r="L27" t="s">
         <v>34</v>
       </c>
@@ -2259,18 +3043,18 @@
         <v>38</v>
       </c>
       <c r="V27" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="W27" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="G28">
         <v>372900043349</v>
@@ -2278,12 +3062,6 @@
       <c r="H28">
         <v>372900043349</v>
       </c>
-      <c r="J28" t="s">
-        <v>155</v>
-      </c>
-      <c r="K28" t="s">
-        <v>33</v>
-      </c>
       <c r="L28" t="s">
         <v>34</v>
       </c>
@@ -2303,18 +3081,18 @@
         <v>38</v>
       </c>
       <c r="V28" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="W28" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G29">
         <v>372900043349</v>
@@ -2323,7 +3101,7 @@
         <v>372900043349</v>
       </c>
       <c r="J29" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="K29" t="s">
         <v>33</v>
@@ -2347,18 +3125,18 @@
         <v>38</v>
       </c>
       <c r="V29" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="W29" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G30">
         <v>372900043349</v>
@@ -2367,7 +3145,7 @@
         <v>372900043349</v>
       </c>
       <c r="J30" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="K30" t="s">
         <v>33</v>
@@ -2391,18 +3169,18 @@
         <v>38</v>
       </c>
       <c r="V30" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="W30" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G31">
         <v>372900043349</v>
@@ -2411,7 +3189,7 @@
         <v>372900043349</v>
       </c>
       <c r="J31" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="K31" t="s">
         <v>33</v>
@@ -2435,18 +3213,18 @@
         <v>38</v>
       </c>
       <c r="V31" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="W31" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="G32">
         <v>372900043349</v>
@@ -2455,7 +3233,7 @@
         <v>372900043349</v>
       </c>
       <c r="J32" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="K32" t="s">
         <v>33</v>
@@ -2479,18 +3257,18 @@
         <v>38</v>
       </c>
       <c r="V32" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="W32" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="G33">
         <v>372900043349</v>
@@ -2499,7 +3277,7 @@
         <v>372900043349</v>
       </c>
       <c r="J33" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="K33" t="s">
         <v>33</v>
@@ -2523,18 +3301,18 @@
         <v>38</v>
       </c>
       <c r="V33" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="W33" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="G34">
         <v>372900043349</v>
@@ -2543,7 +3321,7 @@
         <v>372900043349</v>
       </c>
       <c r="J34" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="K34" t="s">
         <v>33</v>
@@ -2567,18 +3345,18 @@
         <v>38</v>
       </c>
       <c r="V34" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="W34" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="G35">
         <v>372900043349</v>
@@ -2587,7 +3365,7 @@
         <v>372900043349</v>
       </c>
       <c r="J35" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="K35" t="s">
         <v>33</v>
@@ -2611,18 +3389,18 @@
         <v>38</v>
       </c>
       <c r="V35" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="W35" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="G36">
         <v>372900043349</v>
@@ -2631,7 +3409,7 @@
         <v>372900043349</v>
       </c>
       <c r="J36" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="K36" t="s">
         <v>33</v>
@@ -2655,18 +3433,18 @@
         <v>38</v>
       </c>
       <c r="V36" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="W36" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="G37">
         <v>372900043349</v>
@@ -2674,6 +3452,12 @@
       <c r="H37">
         <v>372900043349</v>
       </c>
+      <c r="J37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K37" t="s">
+        <v>33</v>
+      </c>
       <c r="L37" t="s">
         <v>34</v>
       </c>
@@ -2693,18 +3477,18 @@
         <v>38</v>
       </c>
       <c r="V37" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="W37" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="G38">
         <v>372900043349</v>
@@ -2713,7 +3497,7 @@
         <v>372900043349</v>
       </c>
       <c r="J38" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="K38" t="s">
         <v>33</v>
@@ -2737,18 +3521,18 @@
         <v>38</v>
       </c>
       <c r="V38" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="W38" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="G39">
         <v>372900043349</v>
@@ -2756,12 +3540,6 @@
       <c r="H39">
         <v>372900043349</v>
       </c>
-      <c r="J39" t="s">
-        <v>204</v>
-      </c>
-      <c r="K39" t="s">
-        <v>33</v>
-      </c>
       <c r="L39" t="s">
         <v>34</v>
       </c>
@@ -2781,18 +3559,18 @@
         <v>38</v>
       </c>
       <c r="V39" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="W39" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="G40">
         <v>372900043349</v>
@@ -2801,7 +3579,7 @@
         <v>372900043349</v>
       </c>
       <c r="J40" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="K40" t="s">
         <v>33</v>
@@ -2825,18 +3603,18 @@
         <v>38</v>
       </c>
       <c r="V40" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="W40" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="G41">
         <v>372900043349</v>
@@ -2844,6 +3622,12 @@
       <c r="H41">
         <v>372900043349</v>
       </c>
+      <c r="J41" t="s">
+        <v>193</v>
+      </c>
+      <c r="K41" t="s">
+        <v>33</v>
+      </c>
       <c r="L41" t="s">
         <v>34</v>
       </c>
@@ -2863,18 +3647,18 @@
         <v>38</v>
       </c>
       <c r="V41" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="W41" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="G42">
         <v>372900043349</v>
@@ -2883,7 +3667,7 @@
         <v>372900043349</v>
       </c>
       <c r="J42" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K42" t="s">
         <v>33</v>
@@ -2907,18 +3691,18 @@
         <v>38</v>
       </c>
       <c r="V42" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="W42" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="G43">
         <v>372900043349</v>
@@ -2927,7 +3711,7 @@
         <v>372900043349</v>
       </c>
       <c r="J43" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="K43" t="s">
         <v>33</v>
@@ -2951,18 +3735,18 @@
         <v>38</v>
       </c>
       <c r="V43" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="W43" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="G44">
         <v>372900043349</v>
@@ -2989,18 +3773,18 @@
         <v>38</v>
       </c>
       <c r="V44" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="W44" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="G45">
         <v>372900043349</v>
@@ -3009,7 +3793,7 @@
         <v>372900043349</v>
       </c>
       <c r="J45" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="K45" t="s">
         <v>33</v>
@@ -3033,18 +3817,18 @@
         <v>38</v>
       </c>
       <c r="V45" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="W45" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G46">
         <v>372900043349</v>
@@ -3052,6 +3836,12 @@
       <c r="H46">
         <v>372900043349</v>
       </c>
+      <c r="J46" t="s">
+        <v>217</v>
+      </c>
+      <c r="K46" t="s">
+        <v>33</v>
+      </c>
       <c r="L46" t="s">
         <v>34</v>
       </c>
@@ -3071,18 +3861,18 @@
         <v>38</v>
       </c>
       <c r="V46" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="W46" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="G47">
         <v>372900043349</v>
@@ -3090,6 +3880,12 @@
       <c r="H47">
         <v>372900043349</v>
       </c>
+      <c r="J47" t="s">
+        <v>222</v>
+      </c>
+      <c r="K47" t="s">
+        <v>33</v>
+      </c>
       <c r="L47" t="s">
         <v>34</v>
       </c>
@@ -3109,54 +3905,2846 @@
         <v>38</v>
       </c>
       <c r="V47" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="W47" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48">
+        <v>372900043349</v>
+      </c>
+      <c r="H48">
+        <v>372900043349</v>
+      </c>
+      <c r="J48" t="s">
+        <v>227</v>
+      </c>
+      <c r="K48" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" t="s">
+        <v>34</v>
+      </c>
+      <c r="P48" t="s">
+        <v>35</v>
+      </c>
+      <c r="R48" t="s">
+        <v>36</v>
+      </c>
+      <c r="T48" t="s">
+        <v>37</v>
+      </c>
+      <c r="U48" t="s">
+        <v>38</v>
+      </c>
+      <c r="V48" t="s">
+        <v>228</v>
+      </c>
+      <c r="W48" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" t="s">
+        <v>231</v>
+      </c>
+      <c r="G49">
+        <v>372900043349</v>
+      </c>
+      <c r="H49">
+        <v>372900043349</v>
+      </c>
+      <c r="J49" t="s">
+        <v>232</v>
+      </c>
+      <c r="K49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" t="s">
+        <v>34</v>
+      </c>
+      <c r="P49" t="s">
+        <v>35</v>
+      </c>
+      <c r="R49" t="s">
+        <v>36</v>
+      </c>
+      <c r="T49" t="s">
+        <v>37</v>
+      </c>
+      <c r="U49" t="s">
+        <v>38</v>
+      </c>
+      <c r="V49" t="s">
+        <v>233</v>
+      </c>
+      <c r="W49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" t="s">
+        <v>236</v>
+      </c>
+      <c r="G50">
+        <v>372900043349</v>
+      </c>
+      <c r="H50">
+        <v>372900043349</v>
+      </c>
+      <c r="J50" t="s">
+        <v>237</v>
+      </c>
+      <c r="K50" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" t="s">
+        <v>35</v>
+      </c>
+      <c r="R50" t="s">
+        <v>36</v>
+      </c>
+      <c r="T50" t="s">
+        <v>37</v>
+      </c>
+      <c r="U50" t="s">
+        <v>38</v>
+      </c>
+      <c r="V50" t="s">
+        <v>238</v>
+      </c>
+      <c r="W50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>240</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>241</v>
       </c>
-      <c r="G48">
-        <v>372900043349</v>
-      </c>
-      <c r="H48">
-        <v>372900043349</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="G51">
+        <v>372900043349</v>
+      </c>
+      <c r="H51">
+        <v>372900043349</v>
+      </c>
+      <c r="J51" t="s">
         <v>242</v>
       </c>
-      <c r="K48" t="s">
-        <v>33</v>
-      </c>
-      <c r="L48" t="s">
-        <v>34</v>
-      </c>
-      <c r="M48" t="s">
-        <v>34</v>
-      </c>
-      <c r="P48" t="s">
-        <v>35</v>
-      </c>
-      <c r="R48" t="s">
-        <v>36</v>
-      </c>
-      <c r="T48" t="s">
-        <v>37</v>
-      </c>
-      <c r="U48" t="s">
-        <v>38</v>
-      </c>
-      <c r="V48" t="s">
+      <c r="K51" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" t="s">
+        <v>34</v>
+      </c>
+      <c r="P51" t="s">
+        <v>35</v>
+      </c>
+      <c r="R51" t="s">
+        <v>36</v>
+      </c>
+      <c r="T51" t="s">
+        <v>37</v>
+      </c>
+      <c r="U51" t="s">
+        <v>38</v>
+      </c>
+      <c r="V51" t="s">
         <v>243</v>
       </c>
-      <c r="W48" t="s">
+      <c r="W51" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" t="s">
+        <v>246</v>
+      </c>
+      <c r="G52">
+        <v>372900043349</v>
+      </c>
+      <c r="H52">
+        <v>372900043349</v>
+      </c>
+      <c r="J52" t="s">
+        <v>247</v>
+      </c>
+      <c r="K52" t="s">
+        <v>33</v>
+      </c>
+      <c r="L52" t="s">
+        <v>34</v>
+      </c>
+      <c r="M52" t="s">
+        <v>34</v>
+      </c>
+      <c r="P52" t="s">
+        <v>35</v>
+      </c>
+      <c r="R52" t="s">
+        <v>36</v>
+      </c>
+      <c r="T52" t="s">
+        <v>37</v>
+      </c>
+      <c r="U52" t="s">
+        <v>38</v>
+      </c>
+      <c r="V52" t="s">
+        <v>248</v>
+      </c>
+      <c r="W52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" t="s">
+        <v>251</v>
+      </c>
+      <c r="G53">
+        <v>372900043349</v>
+      </c>
+      <c r="H53">
+        <v>372900043349</v>
+      </c>
+      <c r="L53" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53" t="s">
+        <v>34</v>
+      </c>
+      <c r="P53" t="s">
+        <v>35</v>
+      </c>
+      <c r="R53" t="s">
+        <v>36</v>
+      </c>
+      <c r="T53" t="s">
+        <v>37</v>
+      </c>
+      <c r="U53" t="s">
+        <v>38</v>
+      </c>
+      <c r="V53" t="s">
+        <v>252</v>
+      </c>
+      <c r="W53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" t="s">
+        <v>255</v>
+      </c>
+      <c r="G54">
+        <v>372900043349</v>
+      </c>
+      <c r="H54">
+        <v>372900043349</v>
+      </c>
+      <c r="J54" t="s">
+        <v>256</v>
+      </c>
+      <c r="K54" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54" t="s">
+        <v>35</v>
+      </c>
+      <c r="R54" t="s">
+        <v>36</v>
+      </c>
+      <c r="T54" t="s">
+        <v>37</v>
+      </c>
+      <c r="U54" t="s">
+        <v>38</v>
+      </c>
+      <c r="V54" t="s">
+        <v>257</v>
+      </c>
+      <c r="W54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" t="s">
+        <v>260</v>
+      </c>
+      <c r="G55">
+        <v>372900043349</v>
+      </c>
+      <c r="H55">
+        <v>372900043349</v>
+      </c>
+      <c r="L55" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55" t="s">
+        <v>34</v>
+      </c>
+      <c r="P55" t="s">
+        <v>35</v>
+      </c>
+      <c r="R55" t="s">
+        <v>36</v>
+      </c>
+      <c r="T55" t="s">
+        <v>37</v>
+      </c>
+      <c r="U55" t="s">
+        <v>38</v>
+      </c>
+      <c r="V55" t="s">
+        <v>261</v>
+      </c>
+      <c r="W55" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" t="s">
+        <v>260</v>
+      </c>
+      <c r="G56">
+        <v>372900043349</v>
+      </c>
+      <c r="H56">
+        <v>372900043349</v>
+      </c>
+      <c r="L56" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56" t="s">
+        <v>35</v>
+      </c>
+      <c r="R56" t="s">
+        <v>36</v>
+      </c>
+      <c r="T56" t="s">
+        <v>37</v>
+      </c>
+      <c r="U56" t="s">
+        <v>38</v>
+      </c>
+      <c r="V56" t="s">
+        <v>261</v>
+      </c>
+      <c r="W56" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" t="s">
+        <v>265</v>
+      </c>
+      <c r="G57">
+        <v>372900043349</v>
+      </c>
+      <c r="H57">
+        <v>372900043349</v>
+      </c>
+      <c r="J57" t="s">
+        <v>266</v>
+      </c>
+      <c r="K57" t="s">
+        <v>33</v>
+      </c>
+      <c r="L57" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" t="s">
+        <v>34</v>
+      </c>
+      <c r="P57" t="s">
+        <v>35</v>
+      </c>
+      <c r="R57" t="s">
+        <v>36</v>
+      </c>
+      <c r="T57" t="s">
+        <v>37</v>
+      </c>
+      <c r="U57" t="s">
+        <v>38</v>
+      </c>
+      <c r="V57" t="s">
+        <v>267</v>
+      </c>
+      <c r="W57" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>269</v>
+      </c>
+      <c r="B58" t="s">
+        <v>265</v>
+      </c>
+      <c r="G58">
+        <v>372900043349</v>
+      </c>
+      <c r="H58">
+        <v>372900043349</v>
+      </c>
+      <c r="J58" t="s">
+        <v>266</v>
+      </c>
+      <c r="K58" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58" t="s">
+        <v>35</v>
+      </c>
+      <c r="R58" t="s">
+        <v>36</v>
+      </c>
+      <c r="T58" t="s">
+        <v>37</v>
+      </c>
+      <c r="U58" t="s">
+        <v>38</v>
+      </c>
+      <c r="V58" t="s">
+        <v>267</v>
+      </c>
+      <c r="W58" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" t="s">
+        <v>271</v>
+      </c>
+      <c r="G59">
+        <v>372900043349</v>
+      </c>
+      <c r="H59">
+        <v>372900043349</v>
+      </c>
+      <c r="J59" t="s">
+        <v>272</v>
+      </c>
+      <c r="K59" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" t="s">
+        <v>34</v>
+      </c>
+      <c r="M59" t="s">
+        <v>34</v>
+      </c>
+      <c r="P59" t="s">
+        <v>35</v>
+      </c>
+      <c r="R59" t="s">
+        <v>36</v>
+      </c>
+      <c r="T59" t="s">
+        <v>37</v>
+      </c>
+      <c r="U59" t="s">
+        <v>38</v>
+      </c>
+      <c r="V59" t="s">
+        <v>273</v>
+      </c>
+      <c r="W59" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>275</v>
+      </c>
+      <c r="B60" t="s">
+        <v>276</v>
+      </c>
+      <c r="G60">
+        <v>372900043349</v>
+      </c>
+      <c r="H60">
+        <v>372900043349</v>
+      </c>
+      <c r="J60" t="s">
+        <v>277</v>
+      </c>
+      <c r="K60" t="s">
+        <v>33</v>
+      </c>
+      <c r="L60" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" t="s">
+        <v>34</v>
+      </c>
+      <c r="P60" t="s">
+        <v>35</v>
+      </c>
+      <c r="R60" t="s">
+        <v>36</v>
+      </c>
+      <c r="T60" t="s">
+        <v>37</v>
+      </c>
+      <c r="U60" t="s">
+        <v>38</v>
+      </c>
+      <c r="V60" t="s">
+        <v>278</v>
+      </c>
+      <c r="W60" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" t="s">
+        <v>281</v>
+      </c>
+      <c r="G61">
+        <v>372900043349</v>
+      </c>
+      <c r="H61">
+        <v>372900043349</v>
+      </c>
+      <c r="J61" t="s">
+        <v>282</v>
+      </c>
+      <c r="K61" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" t="s">
+        <v>34</v>
+      </c>
+      <c r="M61" t="s">
+        <v>34</v>
+      </c>
+      <c r="P61" t="s">
+        <v>35</v>
+      </c>
+      <c r="R61" t="s">
+        <v>36</v>
+      </c>
+      <c r="T61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U61" t="s">
+        <v>38</v>
+      </c>
+      <c r="V61" t="s">
+        <v>283</v>
+      </c>
+      <c r="W61" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>285</v>
+      </c>
+      <c r="B62" t="s">
+        <v>281</v>
+      </c>
+      <c r="G62">
+        <v>372900043349</v>
+      </c>
+      <c r="H62">
+        <v>372900043349</v>
+      </c>
+      <c r="J62" t="s">
+        <v>282</v>
+      </c>
+      <c r="K62" t="s">
+        <v>33</v>
+      </c>
+      <c r="L62" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" t="s">
+        <v>34</v>
+      </c>
+      <c r="P62" t="s">
+        <v>35</v>
+      </c>
+      <c r="R62" t="s">
+        <v>36</v>
+      </c>
+      <c r="T62" t="s">
+        <v>37</v>
+      </c>
+      <c r="U62" t="s">
+        <v>38</v>
+      </c>
+      <c r="V62" t="s">
+        <v>283</v>
+      </c>
+      <c r="W62" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B63" t="s">
+        <v>287</v>
+      </c>
+      <c r="G63">
+        <v>372900043349</v>
+      </c>
+      <c r="H63">
+        <v>372900043349</v>
+      </c>
+      <c r="J63" t="s">
+        <v>288</v>
+      </c>
+      <c r="K63" t="s">
+        <v>33</v>
+      </c>
+      <c r="L63" t="s">
+        <v>34</v>
+      </c>
+      <c r="M63" t="s">
+        <v>34</v>
+      </c>
+      <c r="P63" t="s">
+        <v>35</v>
+      </c>
+      <c r="R63" t="s">
+        <v>36</v>
+      </c>
+      <c r="T63" t="s">
+        <v>37</v>
+      </c>
+      <c r="U63" t="s">
+        <v>38</v>
+      </c>
+      <c r="V63" t="s">
+        <v>289</v>
+      </c>
+      <c r="W63" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>291</v>
+      </c>
+      <c r="B64" t="s">
+        <v>292</v>
+      </c>
+      <c r="G64">
+        <v>372900043349</v>
+      </c>
+      <c r="H64">
+        <v>372900043349</v>
+      </c>
+      <c r="J64" t="s">
+        <v>293</v>
+      </c>
+      <c r="K64" t="s">
+        <v>33</v>
+      </c>
+      <c r="L64" t="s">
+        <v>34</v>
+      </c>
+      <c r="M64" t="s">
+        <v>34</v>
+      </c>
+      <c r="P64" t="s">
+        <v>35</v>
+      </c>
+      <c r="R64" t="s">
+        <v>36</v>
+      </c>
+      <c r="T64" t="s">
+        <v>37</v>
+      </c>
+      <c r="U64" t="s">
+        <v>38</v>
+      </c>
+      <c r="V64" t="s">
+        <v>294</v>
+      </c>
+      <c r="W64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>296</v>
+      </c>
+      <c r="B65" t="s">
+        <v>292</v>
+      </c>
+      <c r="G65">
+        <v>372900043349</v>
+      </c>
+      <c r="H65">
+        <v>372900043349</v>
+      </c>
+      <c r="J65" t="s">
+        <v>293</v>
+      </c>
+      <c r="K65" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" t="s">
+        <v>34</v>
+      </c>
+      <c r="M65" t="s">
+        <v>34</v>
+      </c>
+      <c r="P65" t="s">
+        <v>35</v>
+      </c>
+      <c r="R65" t="s">
+        <v>36</v>
+      </c>
+      <c r="T65" t="s">
+        <v>37</v>
+      </c>
+      <c r="U65" t="s">
+        <v>38</v>
+      </c>
+      <c r="V65" t="s">
+        <v>294</v>
+      </c>
+      <c r="W65" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>297</v>
+      </c>
+      <c r="B66" t="s">
+        <v>292</v>
+      </c>
+      <c r="G66">
+        <v>372900043349</v>
+      </c>
+      <c r="H66">
+        <v>372900043349</v>
+      </c>
+      <c r="J66" t="s">
+        <v>293</v>
+      </c>
+      <c r="K66" t="s">
+        <v>33</v>
+      </c>
+      <c r="L66" t="s">
+        <v>34</v>
+      </c>
+      <c r="M66" t="s">
+        <v>34</v>
+      </c>
+      <c r="P66" t="s">
+        <v>35</v>
+      </c>
+      <c r="R66" t="s">
+        <v>36</v>
+      </c>
+      <c r="T66" t="s">
+        <v>37</v>
+      </c>
+      <c r="U66" t="s">
+        <v>38</v>
+      </c>
+      <c r="V66" t="s">
+        <v>294</v>
+      </c>
+      <c r="W66" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>298</v>
+      </c>
+      <c r="B67" t="s">
+        <v>299</v>
+      </c>
+      <c r="G67">
+        <v>372900043349</v>
+      </c>
+      <c r="H67">
+        <v>372900043349</v>
+      </c>
+      <c r="J67" t="s">
+        <v>300</v>
+      </c>
+      <c r="K67" t="s">
+        <v>33</v>
+      </c>
+      <c r="L67" t="s">
+        <v>34</v>
+      </c>
+      <c r="M67" t="s">
+        <v>34</v>
+      </c>
+      <c r="P67" t="s">
+        <v>35</v>
+      </c>
+      <c r="R67" t="s">
+        <v>36</v>
+      </c>
+      <c r="T67" t="s">
+        <v>37</v>
+      </c>
+      <c r="U67" t="s">
+        <v>38</v>
+      </c>
+      <c r="V67" t="s">
+        <v>301</v>
+      </c>
+      <c r="W67" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>303</v>
+      </c>
+      <c r="B68" t="s">
+        <v>304</v>
+      </c>
+      <c r="G68">
+        <v>372900043349</v>
+      </c>
+      <c r="H68">
+        <v>372900043349</v>
+      </c>
+      <c r="J68" t="s">
+        <v>305</v>
+      </c>
+      <c r="K68" t="s">
+        <v>33</v>
+      </c>
+      <c r="L68" t="s">
+        <v>34</v>
+      </c>
+      <c r="M68" t="s">
+        <v>34</v>
+      </c>
+      <c r="P68" t="s">
+        <v>35</v>
+      </c>
+      <c r="R68" t="s">
+        <v>36</v>
+      </c>
+      <c r="T68" t="s">
+        <v>37</v>
+      </c>
+      <c r="U68" t="s">
+        <v>38</v>
+      </c>
+      <c r="V68" t="s">
+        <v>306</v>
+      </c>
+      <c r="W68" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>308</v>
+      </c>
+      <c r="B69" t="s">
+        <v>309</v>
+      </c>
+      <c r="G69">
+        <v>372900043349</v>
+      </c>
+      <c r="H69">
+        <v>372900043349</v>
+      </c>
+      <c r="J69" t="s">
+        <v>310</v>
+      </c>
+      <c r="K69" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69" t="s">
+        <v>34</v>
+      </c>
+      <c r="M69" t="s">
+        <v>34</v>
+      </c>
+      <c r="P69" t="s">
+        <v>35</v>
+      </c>
+      <c r="R69" t="s">
+        <v>36</v>
+      </c>
+      <c r="T69" t="s">
+        <v>37</v>
+      </c>
+      <c r="U69" t="s">
+        <v>38</v>
+      </c>
+      <c r="V69" t="s">
+        <v>311</v>
+      </c>
+      <c r="W69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>313</v>
+      </c>
+      <c r="B70" t="s">
+        <v>314</v>
+      </c>
+      <c r="G70">
+        <v>372900043349</v>
+      </c>
+      <c r="H70">
+        <v>372900043349</v>
+      </c>
+      <c r="J70" t="s">
+        <v>315</v>
+      </c>
+      <c r="K70" t="s">
+        <v>33</v>
+      </c>
+      <c r="L70" t="s">
+        <v>34</v>
+      </c>
+      <c r="M70" t="s">
+        <v>34</v>
+      </c>
+      <c r="P70" t="s">
+        <v>35</v>
+      </c>
+      <c r="R70" t="s">
+        <v>36</v>
+      </c>
+      <c r="T70" t="s">
+        <v>37</v>
+      </c>
+      <c r="U70" t="s">
+        <v>38</v>
+      </c>
+      <c r="V70" t="s">
+        <v>316</v>
+      </c>
+      <c r="W70" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>318</v>
+      </c>
+      <c r="B71" t="s">
+        <v>314</v>
+      </c>
+      <c r="G71">
+        <v>372900043349</v>
+      </c>
+      <c r="H71">
+        <v>372900043349</v>
+      </c>
+      <c r="J71" t="s">
+        <v>315</v>
+      </c>
+      <c r="K71" t="s">
+        <v>33</v>
+      </c>
+      <c r="L71" t="s">
+        <v>34</v>
+      </c>
+      <c r="M71" t="s">
+        <v>34</v>
+      </c>
+      <c r="P71" t="s">
+        <v>35</v>
+      </c>
+      <c r="R71" t="s">
+        <v>36</v>
+      </c>
+      <c r="T71" t="s">
+        <v>37</v>
+      </c>
+      <c r="U71" t="s">
+        <v>38</v>
+      </c>
+      <c r="V71" t="s">
+        <v>316</v>
+      </c>
+      <c r="W71" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>319</v>
+      </c>
+      <c r="B72" t="s">
+        <v>320</v>
+      </c>
+      <c r="G72">
+        <v>372900043349</v>
+      </c>
+      <c r="H72">
+        <v>372900043349</v>
+      </c>
+      <c r="J72" t="s">
+        <v>321</v>
+      </c>
+      <c r="K72" t="s">
+        <v>33</v>
+      </c>
+      <c r="L72" t="s">
+        <v>34</v>
+      </c>
+      <c r="M72" t="s">
+        <v>34</v>
+      </c>
+      <c r="P72" t="s">
+        <v>35</v>
+      </c>
+      <c r="R72" t="s">
+        <v>36</v>
+      </c>
+      <c r="T72" t="s">
+        <v>37</v>
+      </c>
+      <c r="U72" t="s">
+        <v>38</v>
+      </c>
+      <c r="V72" t="s">
+        <v>322</v>
+      </c>
+      <c r="W72" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>324</v>
+      </c>
+      <c r="B73" t="s">
+        <v>325</v>
+      </c>
+      <c r="G73">
+        <v>372900043349</v>
+      </c>
+      <c r="H73">
+        <v>372900043349</v>
+      </c>
+      <c r="L73" t="s">
+        <v>34</v>
+      </c>
+      <c r="M73" t="s">
+        <v>34</v>
+      </c>
+      <c r="P73" t="s">
+        <v>35</v>
+      </c>
+      <c r="R73" t="s">
+        <v>36</v>
+      </c>
+      <c r="T73" t="s">
+        <v>37</v>
+      </c>
+      <c r="U73" t="s">
+        <v>38</v>
+      </c>
+      <c r="V73" t="s">
+        <v>326</v>
+      </c>
+      <c r="W73" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>328</v>
+      </c>
+      <c r="B74" t="s">
+        <v>329</v>
+      </c>
+      <c r="G74">
+        <v>372900043349</v>
+      </c>
+      <c r="H74">
+        <v>372900043349</v>
+      </c>
+      <c r="J74" t="s">
+        <v>330</v>
+      </c>
+      <c r="K74" t="s">
+        <v>33</v>
+      </c>
+      <c r="L74" t="s">
+        <v>34</v>
+      </c>
+      <c r="M74" t="s">
+        <v>34</v>
+      </c>
+      <c r="P74" t="s">
+        <v>35</v>
+      </c>
+      <c r="R74" t="s">
+        <v>36</v>
+      </c>
+      <c r="T74" t="s">
+        <v>37</v>
+      </c>
+      <c r="U74" t="s">
+        <v>38</v>
+      </c>
+      <c r="V74" t="s">
+        <v>331</v>
+      </c>
+      <c r="W74" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>333</v>
+      </c>
+      <c r="B75" t="s">
+        <v>334</v>
+      </c>
+      <c r="G75">
+        <v>372900043349</v>
+      </c>
+      <c r="H75">
+        <v>372900043349</v>
+      </c>
+      <c r="J75" t="s">
+        <v>335</v>
+      </c>
+      <c r="K75" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75" t="s">
+        <v>34</v>
+      </c>
+      <c r="M75" t="s">
+        <v>34</v>
+      </c>
+      <c r="P75" t="s">
+        <v>35</v>
+      </c>
+      <c r="R75" t="s">
+        <v>36</v>
+      </c>
+      <c r="T75" t="s">
+        <v>37</v>
+      </c>
+      <c r="U75" t="s">
+        <v>38</v>
+      </c>
+      <c r="V75" t="s">
+        <v>336</v>
+      </c>
+      <c r="W75" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>338</v>
+      </c>
+      <c r="B76" t="s">
+        <v>339</v>
+      </c>
+      <c r="G76">
+        <v>372900043349</v>
+      </c>
+      <c r="H76">
+        <v>372900043349</v>
+      </c>
+      <c r="J76" t="s">
+        <v>340</v>
+      </c>
+      <c r="K76" t="s">
+        <v>33</v>
+      </c>
+      <c r="L76" t="s">
+        <v>34</v>
+      </c>
+      <c r="M76" t="s">
+        <v>34</v>
+      </c>
+      <c r="P76" t="s">
+        <v>35</v>
+      </c>
+      <c r="R76" t="s">
+        <v>36</v>
+      </c>
+      <c r="T76" t="s">
+        <v>37</v>
+      </c>
+      <c r="U76" t="s">
+        <v>38</v>
+      </c>
+      <c r="V76" t="s">
+        <v>341</v>
+      </c>
+      <c r="W76" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B77" t="s">
+        <v>344</v>
+      </c>
+      <c r="G77">
+        <v>372900043349</v>
+      </c>
+      <c r="H77">
+        <v>372900043349</v>
+      </c>
+      <c r="L77" t="s">
+        <v>34</v>
+      </c>
+      <c r="M77" t="s">
+        <v>34</v>
+      </c>
+      <c r="P77" t="s">
+        <v>35</v>
+      </c>
+      <c r="R77" t="s">
+        <v>36</v>
+      </c>
+      <c r="T77" t="s">
+        <v>37</v>
+      </c>
+      <c r="U77" t="s">
+        <v>38</v>
+      </c>
+      <c r="V77" t="s">
+        <v>345</v>
+      </c>
+      <c r="W77" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>347</v>
+      </c>
+      <c r="B78" t="s">
+        <v>348</v>
+      </c>
+      <c r="G78">
+        <v>372900043349</v>
+      </c>
+      <c r="H78">
+        <v>372900043349</v>
+      </c>
+      <c r="L78" t="s">
+        <v>34</v>
+      </c>
+      <c r="M78" t="s">
+        <v>34</v>
+      </c>
+      <c r="P78" t="s">
+        <v>35</v>
+      </c>
+      <c r="R78" t="s">
+        <v>36</v>
+      </c>
+      <c r="T78" t="s">
+        <v>37</v>
+      </c>
+      <c r="U78" t="s">
+        <v>38</v>
+      </c>
+      <c r="V78" t="s">
+        <v>349</v>
+      </c>
+      <c r="W78" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>351</v>
+      </c>
+      <c r="B79" t="s">
+        <v>352</v>
+      </c>
+      <c r="G79">
+        <v>372900043349</v>
+      </c>
+      <c r="H79">
+        <v>372900043349</v>
+      </c>
+      <c r="J79" t="s">
+        <v>353</v>
+      </c>
+      <c r="K79" t="s">
+        <v>33</v>
+      </c>
+      <c r="L79" t="s">
+        <v>34</v>
+      </c>
+      <c r="M79" t="s">
+        <v>34</v>
+      </c>
+      <c r="P79" t="s">
+        <v>35</v>
+      </c>
+      <c r="R79" t="s">
+        <v>36</v>
+      </c>
+      <c r="T79" t="s">
+        <v>37</v>
+      </c>
+      <c r="U79" t="s">
+        <v>38</v>
+      </c>
+      <c r="V79" t="s">
+        <v>354</v>
+      </c>
+      <c r="W79" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>356</v>
+      </c>
+      <c r="B80" t="s">
+        <v>357</v>
+      </c>
+      <c r="G80">
+        <v>372900043349</v>
+      </c>
+      <c r="H80">
+        <v>372900043349</v>
+      </c>
+      <c r="L80" t="s">
+        <v>34</v>
+      </c>
+      <c r="M80" t="s">
+        <v>34</v>
+      </c>
+      <c r="P80" t="s">
+        <v>35</v>
+      </c>
+      <c r="R80" t="s">
+        <v>36</v>
+      </c>
+      <c r="T80" t="s">
+        <v>37</v>
+      </c>
+      <c r="U80" t="s">
+        <v>38</v>
+      </c>
+      <c r="V80" t="s">
+        <v>358</v>
+      </c>
+      <c r="W80" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>360</v>
+      </c>
+      <c r="B81" t="s">
+        <v>361</v>
+      </c>
+      <c r="G81">
+        <v>372900043349</v>
+      </c>
+      <c r="H81">
+        <v>372900043349</v>
+      </c>
+      <c r="L81" t="s">
+        <v>34</v>
+      </c>
+      <c r="M81" t="s">
+        <v>34</v>
+      </c>
+      <c r="P81" t="s">
+        <v>35</v>
+      </c>
+      <c r="R81" t="s">
+        <v>36</v>
+      </c>
+      <c r="T81" t="s">
+        <v>37</v>
+      </c>
+      <c r="U81" t="s">
+        <v>38</v>
+      </c>
+      <c r="V81" t="s">
+        <v>362</v>
+      </c>
+      <c r="W81" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>364</v>
+      </c>
+      <c r="B82" t="s">
+        <v>365</v>
+      </c>
+      <c r="G82">
+        <v>372900043349</v>
+      </c>
+      <c r="H82">
+        <v>372900043349</v>
+      </c>
+      <c r="J82" t="s">
+        <v>366</v>
+      </c>
+      <c r="K82" t="s">
+        <v>33</v>
+      </c>
+      <c r="L82" t="s">
+        <v>34</v>
+      </c>
+      <c r="M82" t="s">
+        <v>34</v>
+      </c>
+      <c r="P82" t="s">
+        <v>35</v>
+      </c>
+      <c r="R82" t="s">
+        <v>36</v>
+      </c>
+      <c r="T82" t="s">
+        <v>37</v>
+      </c>
+      <c r="U82" t="s">
+        <v>38</v>
+      </c>
+      <c r="V82" t="s">
+        <v>326</v>
+      </c>
+      <c r="W82" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>368</v>
+      </c>
+      <c r="B83" t="s">
+        <v>369</v>
+      </c>
+      <c r="G83">
+        <v>372900043349</v>
+      </c>
+      <c r="H83">
+        <v>372900043349</v>
+      </c>
+      <c r="J83" t="s">
+        <v>370</v>
+      </c>
+      <c r="K83" t="s">
+        <v>33</v>
+      </c>
+      <c r="L83" t="s">
+        <v>34</v>
+      </c>
+      <c r="M83" t="s">
+        <v>34</v>
+      </c>
+      <c r="P83" t="s">
+        <v>35</v>
+      </c>
+      <c r="R83" t="s">
+        <v>36</v>
+      </c>
+      <c r="T83" t="s">
+        <v>37</v>
+      </c>
+      <c r="U83" t="s">
+        <v>38</v>
+      </c>
+      <c r="V83" t="s">
+        <v>371</v>
+      </c>
+      <c r="W83" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>373</v>
+      </c>
+      <c r="B84" t="s">
+        <v>374</v>
+      </c>
+      <c r="G84">
+        <v>372900043349</v>
+      </c>
+      <c r="H84">
+        <v>372900043349</v>
+      </c>
+      <c r="J84" t="s">
+        <v>375</v>
+      </c>
+      <c r="K84" t="s">
+        <v>33</v>
+      </c>
+      <c r="L84" t="s">
+        <v>34</v>
+      </c>
+      <c r="M84" t="s">
+        <v>34</v>
+      </c>
+      <c r="P84" t="s">
+        <v>35</v>
+      </c>
+      <c r="R84" t="s">
+        <v>36</v>
+      </c>
+      <c r="T84" t="s">
+        <v>37</v>
+      </c>
+      <c r="U84" t="s">
+        <v>38</v>
+      </c>
+      <c r="V84" t="s">
+        <v>376</v>
+      </c>
+      <c r="W84" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>378</v>
+      </c>
+      <c r="B85" t="s">
+        <v>379</v>
+      </c>
+      <c r="G85">
+        <v>372900043349</v>
+      </c>
+      <c r="H85">
+        <v>372900043349</v>
+      </c>
+      <c r="L85" t="s">
+        <v>34</v>
+      </c>
+      <c r="M85" t="s">
+        <v>34</v>
+      </c>
+      <c r="P85" t="s">
+        <v>35</v>
+      </c>
+      <c r="R85" t="s">
+        <v>36</v>
+      </c>
+      <c r="T85" t="s">
+        <v>37</v>
+      </c>
+      <c r="U85" t="s">
+        <v>38</v>
+      </c>
+      <c r="V85" t="s">
+        <v>380</v>
+      </c>
+      <c r="W85" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>382</v>
+      </c>
+      <c r="B86" t="s">
+        <v>383</v>
+      </c>
+      <c r="G86">
+        <v>372900043349</v>
+      </c>
+      <c r="H86">
+        <v>372900043349</v>
+      </c>
+      <c r="L86" t="s">
+        <v>34</v>
+      </c>
+      <c r="M86" t="s">
+        <v>34</v>
+      </c>
+      <c r="P86" t="s">
+        <v>35</v>
+      </c>
+      <c r="R86" t="s">
+        <v>36</v>
+      </c>
+      <c r="T86" t="s">
+        <v>37</v>
+      </c>
+      <c r="U86" t="s">
+        <v>38</v>
+      </c>
+      <c r="V86" t="s">
+        <v>380</v>
+      </c>
+      <c r="W86" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>385</v>
+      </c>
+      <c r="B87" t="s">
+        <v>386</v>
+      </c>
+      <c r="G87">
+        <v>372900043349</v>
+      </c>
+      <c r="H87">
+        <v>372900043349</v>
+      </c>
+      <c r="L87" t="s">
+        <v>34</v>
+      </c>
+      <c r="M87" t="s">
+        <v>34</v>
+      </c>
+      <c r="P87" t="s">
+        <v>35</v>
+      </c>
+      <c r="R87" t="s">
+        <v>36</v>
+      </c>
+      <c r="T87" t="s">
+        <v>37</v>
+      </c>
+      <c r="U87" t="s">
+        <v>38</v>
+      </c>
+      <c r="V87" t="s">
+        <v>387</v>
+      </c>
+      <c r="W87" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>389</v>
+      </c>
+      <c r="B88" t="s">
+        <v>390</v>
+      </c>
+      <c r="G88">
+        <v>372900043349</v>
+      </c>
+      <c r="H88">
+        <v>372900043349</v>
+      </c>
+      <c r="L88" t="s">
+        <v>34</v>
+      </c>
+      <c r="M88" t="s">
+        <v>34</v>
+      </c>
+      <c r="P88" t="s">
+        <v>35</v>
+      </c>
+      <c r="R88" t="s">
+        <v>36</v>
+      </c>
+      <c r="T88" t="s">
+        <v>37</v>
+      </c>
+      <c r="U88" t="s">
+        <v>38</v>
+      </c>
+      <c r="V88" t="s">
+        <v>391</v>
+      </c>
+      <c r="W88" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>393</v>
+      </c>
+      <c r="B89" t="s">
+        <v>394</v>
+      </c>
+      <c r="G89">
+        <v>372900043349</v>
+      </c>
+      <c r="H89">
+        <v>372900043349</v>
+      </c>
+      <c r="L89" t="s">
+        <v>34</v>
+      </c>
+      <c r="M89" t="s">
+        <v>34</v>
+      </c>
+      <c r="P89" t="s">
+        <v>35</v>
+      </c>
+      <c r="R89" t="s">
+        <v>36</v>
+      </c>
+      <c r="T89" t="s">
+        <v>37</v>
+      </c>
+      <c r="U89" t="s">
+        <v>38</v>
+      </c>
+      <c r="V89" t="s">
+        <v>395</v>
+      </c>
+      <c r="W89" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>397</v>
+      </c>
+      <c r="B90" t="s">
+        <v>398</v>
+      </c>
+      <c r="G90">
+        <v>372900043349</v>
+      </c>
+      <c r="H90">
+        <v>372900043349</v>
+      </c>
+      <c r="L90" t="s">
+        <v>34</v>
+      </c>
+      <c r="M90" t="s">
+        <v>34</v>
+      </c>
+      <c r="P90" t="s">
+        <v>35</v>
+      </c>
+      <c r="R90" t="s">
+        <v>36</v>
+      </c>
+      <c r="T90" t="s">
+        <v>37</v>
+      </c>
+      <c r="U90" t="s">
+        <v>38</v>
+      </c>
+      <c r="V90" t="s">
+        <v>399</v>
+      </c>
+      <c r="W90" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B91" t="s">
+        <v>402</v>
+      </c>
+      <c r="G91">
+        <v>372900043349</v>
+      </c>
+      <c r="H91">
+        <v>372900043349</v>
+      </c>
+      <c r="J91" t="s">
+        <v>403</v>
+      </c>
+      <c r="K91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L91" t="s">
+        <v>34</v>
+      </c>
+      <c r="M91" t="s">
+        <v>34</v>
+      </c>
+      <c r="P91" t="s">
+        <v>35</v>
+      </c>
+      <c r="R91" t="s">
+        <v>36</v>
+      </c>
+      <c r="T91" t="s">
+        <v>37</v>
+      </c>
+      <c r="U91" t="s">
+        <v>38</v>
+      </c>
+      <c r="V91" t="s">
+        <v>404</v>
+      </c>
+      <c r="W91" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>406</v>
+      </c>
+      <c r="B92" t="s">
+        <v>407</v>
+      </c>
+      <c r="G92">
+        <v>372900043349</v>
+      </c>
+      <c r="H92">
+        <v>372900043349</v>
+      </c>
+      <c r="L92" t="s">
+        <v>34</v>
+      </c>
+      <c r="M92" t="s">
+        <v>34</v>
+      </c>
+      <c r="P92" t="s">
+        <v>35</v>
+      </c>
+      <c r="R92" t="s">
+        <v>36</v>
+      </c>
+      <c r="T92" t="s">
+        <v>37</v>
+      </c>
+      <c r="U92" t="s">
+        <v>38</v>
+      </c>
+      <c r="V92" t="s">
+        <v>408</v>
+      </c>
+      <c r="W92" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>410</v>
+      </c>
+      <c r="B93" t="s">
+        <v>411</v>
+      </c>
+      <c r="G93">
+        <v>372900043349</v>
+      </c>
+      <c r="H93">
+        <v>372900043349</v>
+      </c>
+      <c r="J93" t="s">
+        <v>412</v>
+      </c>
+      <c r="K93" t="s">
+        <v>33</v>
+      </c>
+      <c r="L93" t="s">
+        <v>34</v>
+      </c>
+      <c r="M93" t="s">
+        <v>34</v>
+      </c>
+      <c r="P93" t="s">
+        <v>35</v>
+      </c>
+      <c r="R93" t="s">
+        <v>36</v>
+      </c>
+      <c r="T93" t="s">
+        <v>37</v>
+      </c>
+      <c r="U93" t="s">
+        <v>38</v>
+      </c>
+      <c r="V93" t="s">
+        <v>413</v>
+      </c>
+      <c r="W93" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>415</v>
+      </c>
+      <c r="B94" t="s">
+        <v>416</v>
+      </c>
+      <c r="G94">
+        <v>372900043349</v>
+      </c>
+      <c r="H94">
+        <v>372900043349</v>
+      </c>
+      <c r="L94" t="s">
+        <v>34</v>
+      </c>
+      <c r="M94" t="s">
+        <v>34</v>
+      </c>
+      <c r="P94" t="s">
+        <v>35</v>
+      </c>
+      <c r="R94" t="s">
+        <v>36</v>
+      </c>
+      <c r="T94" t="s">
+        <v>37</v>
+      </c>
+      <c r="U94" t="s">
+        <v>38</v>
+      </c>
+      <c r="V94" t="s">
+        <v>417</v>
+      </c>
+      <c r="W94" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>419</v>
+      </c>
+      <c r="B95" t="s">
+        <v>420</v>
+      </c>
+      <c r="G95">
+        <v>372900043349</v>
+      </c>
+      <c r="H95">
+        <v>372900043349</v>
+      </c>
+      <c r="L95" t="s">
+        <v>34</v>
+      </c>
+      <c r="M95" t="s">
+        <v>34</v>
+      </c>
+      <c r="P95" t="s">
+        <v>35</v>
+      </c>
+      <c r="R95" t="s">
+        <v>36</v>
+      </c>
+      <c r="T95" t="s">
+        <v>37</v>
+      </c>
+      <c r="U95" t="s">
+        <v>38</v>
+      </c>
+      <c r="V95" t="s">
+        <v>421</v>
+      </c>
+      <c r="W95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>423</v>
+      </c>
+      <c r="B96" t="s">
+        <v>424</v>
+      </c>
+      <c r="G96">
+        <v>372900043349</v>
+      </c>
+      <c r="H96">
+        <v>372900043349</v>
+      </c>
+      <c r="L96" t="s">
+        <v>34</v>
+      </c>
+      <c r="M96" t="s">
+        <v>34</v>
+      </c>
+      <c r="P96" t="s">
+        <v>35</v>
+      </c>
+      <c r="R96" t="s">
+        <v>36</v>
+      </c>
+      <c r="T96" t="s">
+        <v>37</v>
+      </c>
+      <c r="U96" t="s">
+        <v>38</v>
+      </c>
+      <c r="V96" t="s">
+        <v>425</v>
+      </c>
+      <c r="W96" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>427</v>
+      </c>
+      <c r="B97" t="s">
+        <v>428</v>
+      </c>
+      <c r="G97">
+        <v>372900043349</v>
+      </c>
+      <c r="H97">
+        <v>372900043349</v>
+      </c>
+      <c r="L97" t="s">
+        <v>34</v>
+      </c>
+      <c r="M97" t="s">
+        <v>34</v>
+      </c>
+      <c r="P97" t="s">
+        <v>35</v>
+      </c>
+      <c r="R97" t="s">
+        <v>36</v>
+      </c>
+      <c r="T97" t="s">
+        <v>37</v>
+      </c>
+      <c r="U97" t="s">
+        <v>38</v>
+      </c>
+      <c r="V97" t="s">
+        <v>429</v>
+      </c>
+      <c r="W97" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>431</v>
+      </c>
+      <c r="B98" t="s">
+        <v>428</v>
+      </c>
+      <c r="G98">
+        <v>372900043349</v>
+      </c>
+      <c r="H98">
+        <v>372900043349</v>
+      </c>
+      <c r="L98" t="s">
+        <v>34</v>
+      </c>
+      <c r="M98" t="s">
+        <v>34</v>
+      </c>
+      <c r="P98" t="s">
+        <v>35</v>
+      </c>
+      <c r="R98" t="s">
+        <v>36</v>
+      </c>
+      <c r="T98" t="s">
+        <v>37</v>
+      </c>
+      <c r="U98" t="s">
+        <v>38</v>
+      </c>
+      <c r="V98" t="s">
+        <v>432</v>
+      </c>
+      <c r="W98" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>433</v>
+      </c>
+      <c r="B99" t="s">
+        <v>434</v>
+      </c>
+      <c r="G99">
+        <v>372900043349</v>
+      </c>
+      <c r="H99">
+        <v>372900043349</v>
+      </c>
+      <c r="J99" t="s">
+        <v>435</v>
+      </c>
+      <c r="K99" t="s">
+        <v>33</v>
+      </c>
+      <c r="L99" t="s">
+        <v>34</v>
+      </c>
+      <c r="M99" t="s">
+        <v>34</v>
+      </c>
+      <c r="P99" t="s">
+        <v>35</v>
+      </c>
+      <c r="R99" t="s">
+        <v>36</v>
+      </c>
+      <c r="T99" t="s">
+        <v>37</v>
+      </c>
+      <c r="U99" t="s">
+        <v>38</v>
+      </c>
+      <c r="V99" t="s">
+        <v>436</v>
+      </c>
+      <c r="W99" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>438</v>
+      </c>
+      <c r="B100" t="s">
+        <v>439</v>
+      </c>
+      <c r="G100">
+        <v>372900043349</v>
+      </c>
+      <c r="H100">
+        <v>372900043349</v>
+      </c>
+      <c r="J100" t="s">
+        <v>440</v>
+      </c>
+      <c r="K100" t="s">
+        <v>33</v>
+      </c>
+      <c r="L100" t="s">
+        <v>34</v>
+      </c>
+      <c r="M100" t="s">
+        <v>34</v>
+      </c>
+      <c r="P100" t="s">
+        <v>35</v>
+      </c>
+      <c r="R100" t="s">
+        <v>36</v>
+      </c>
+      <c r="T100" t="s">
+        <v>37</v>
+      </c>
+      <c r="U100" t="s">
+        <v>38</v>
+      </c>
+      <c r="V100" t="s">
+        <v>441</v>
+      </c>
+      <c r="W100" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>443</v>
+      </c>
+      <c r="B101" t="s">
+        <v>444</v>
+      </c>
+      <c r="G101">
+        <v>372900043349</v>
+      </c>
+      <c r="H101">
+        <v>372900043349</v>
+      </c>
+      <c r="L101" t="s">
+        <v>34</v>
+      </c>
+      <c r="M101" t="s">
+        <v>34</v>
+      </c>
+      <c r="P101" t="s">
+        <v>35</v>
+      </c>
+      <c r="R101" t="s">
+        <v>36</v>
+      </c>
+      <c r="T101" t="s">
+        <v>37</v>
+      </c>
+      <c r="U101" t="s">
+        <v>38</v>
+      </c>
+      <c r="V101" t="s">
+        <v>445</v>
+      </c>
+      <c r="W101" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>447</v>
+      </c>
+      <c r="B102" t="s">
+        <v>448</v>
+      </c>
+      <c r="G102">
+        <v>372900043349</v>
+      </c>
+      <c r="H102">
+        <v>372900043349</v>
+      </c>
+      <c r="L102" t="s">
+        <v>34</v>
+      </c>
+      <c r="M102" t="s">
+        <v>34</v>
+      </c>
+      <c r="P102" t="s">
+        <v>35</v>
+      </c>
+      <c r="R102" t="s">
+        <v>36</v>
+      </c>
+      <c r="T102" t="s">
+        <v>37</v>
+      </c>
+      <c r="U102" t="s">
+        <v>38</v>
+      </c>
+      <c r="V102" t="s">
+        <v>432</v>
+      </c>
+      <c r="W102" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>450</v>
+      </c>
+      <c r="B103" t="s">
+        <v>451</v>
+      </c>
+      <c r="G103">
+        <v>372900043349</v>
+      </c>
+      <c r="H103">
+        <v>372900043349</v>
+      </c>
+      <c r="J103" t="s">
+        <v>452</v>
+      </c>
+      <c r="K103" t="s">
+        <v>33</v>
+      </c>
+      <c r="L103" t="s">
+        <v>34</v>
+      </c>
+      <c r="M103" t="s">
+        <v>34</v>
+      </c>
+      <c r="P103" t="s">
+        <v>35</v>
+      </c>
+      <c r="R103" t="s">
+        <v>36</v>
+      </c>
+      <c r="T103" t="s">
+        <v>37</v>
+      </c>
+      <c r="U103" t="s">
+        <v>38</v>
+      </c>
+      <c r="V103" t="s">
+        <v>453</v>
+      </c>
+      <c r="W103" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>455</v>
+      </c>
+      <c r="B104" t="s">
+        <v>456</v>
+      </c>
+      <c r="G104">
+        <v>372900043349</v>
+      </c>
+      <c r="H104">
+        <v>372900043349</v>
+      </c>
+      <c r="J104" t="s">
+        <v>457</v>
+      </c>
+      <c r="K104" t="s">
+        <v>33</v>
+      </c>
+      <c r="L104" t="s">
+        <v>34</v>
+      </c>
+      <c r="M104" t="s">
+        <v>34</v>
+      </c>
+      <c r="P104" t="s">
+        <v>35</v>
+      </c>
+      <c r="R104" t="s">
+        <v>36</v>
+      </c>
+      <c r="T104" t="s">
+        <v>37</v>
+      </c>
+      <c r="U104" t="s">
+        <v>38</v>
+      </c>
+      <c r="V104" t="s">
+        <v>458</v>
+      </c>
+      <c r="W104" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>460</v>
+      </c>
+      <c r="B105" t="s">
+        <v>461</v>
+      </c>
+      <c r="G105">
+        <v>372900043349</v>
+      </c>
+      <c r="H105">
+        <v>372900043349</v>
+      </c>
+      <c r="J105" t="s">
+        <v>462</v>
+      </c>
+      <c r="K105" t="s">
+        <v>33</v>
+      </c>
+      <c r="L105" t="s">
+        <v>34</v>
+      </c>
+      <c r="M105" t="s">
+        <v>34</v>
+      </c>
+      <c r="P105" t="s">
+        <v>35</v>
+      </c>
+      <c r="R105" t="s">
+        <v>36</v>
+      </c>
+      <c r="T105" t="s">
+        <v>37</v>
+      </c>
+      <c r="U105" t="s">
+        <v>38</v>
+      </c>
+      <c r="V105" t="s">
+        <v>463</v>
+      </c>
+      <c r="W105" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>465</v>
+      </c>
+      <c r="B106" t="s">
+        <v>466</v>
+      </c>
+      <c r="G106">
+        <v>372900043349</v>
+      </c>
+      <c r="H106">
+        <v>372900043349</v>
+      </c>
+      <c r="J106" t="s">
+        <v>467</v>
+      </c>
+      <c r="K106" t="s">
+        <v>33</v>
+      </c>
+      <c r="L106" t="s">
+        <v>34</v>
+      </c>
+      <c r="M106" t="s">
+        <v>34</v>
+      </c>
+      <c r="P106" t="s">
+        <v>35</v>
+      </c>
+      <c r="R106" t="s">
+        <v>36</v>
+      </c>
+      <c r="T106" t="s">
+        <v>37</v>
+      </c>
+      <c r="U106" t="s">
+        <v>38</v>
+      </c>
+      <c r="V106" t="s">
+        <v>468</v>
+      </c>
+      <c r="W106" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>470</v>
+      </c>
+      <c r="B107" t="s">
+        <v>471</v>
+      </c>
+      <c r="G107">
+        <v>372900043349</v>
+      </c>
+      <c r="H107">
+        <v>372900043349</v>
+      </c>
+      <c r="J107" t="s">
+        <v>472</v>
+      </c>
+      <c r="K107" t="s">
+        <v>33</v>
+      </c>
+      <c r="L107" t="s">
+        <v>34</v>
+      </c>
+      <c r="M107" t="s">
+        <v>34</v>
+      </c>
+      <c r="P107" t="s">
+        <v>35</v>
+      </c>
+      <c r="R107" t="s">
+        <v>36</v>
+      </c>
+      <c r="T107" t="s">
+        <v>37</v>
+      </c>
+      <c r="U107" t="s">
+        <v>38</v>
+      </c>
+      <c r="V107" t="s">
+        <v>473</v>
+      </c>
+      <c r="W107" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>475</v>
+      </c>
+      <c r="B108" t="s">
+        <v>476</v>
+      </c>
+      <c r="G108">
+        <v>372900043349</v>
+      </c>
+      <c r="H108">
+        <v>372900043349</v>
+      </c>
+      <c r="L108" t="s">
+        <v>34</v>
+      </c>
+      <c r="M108" t="s">
+        <v>34</v>
+      </c>
+      <c r="P108" t="s">
+        <v>35</v>
+      </c>
+      <c r="R108" t="s">
+        <v>36</v>
+      </c>
+      <c r="T108" t="s">
+        <v>37</v>
+      </c>
+      <c r="U108" t="s">
+        <v>38</v>
+      </c>
+      <c r="V108" t="s">
+        <v>477</v>
+      </c>
+      <c r="W108" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>479</v>
+      </c>
+      <c r="B109" t="s">
+        <v>480</v>
+      </c>
+      <c r="G109">
+        <v>372900043349</v>
+      </c>
+      <c r="H109">
+        <v>372900043349</v>
+      </c>
+      <c r="J109" t="s">
+        <v>481</v>
+      </c>
+      <c r="K109" t="s">
+        <v>33</v>
+      </c>
+      <c r="L109" t="s">
+        <v>34</v>
+      </c>
+      <c r="M109" t="s">
+        <v>34</v>
+      </c>
+      <c r="P109" t="s">
+        <v>35</v>
+      </c>
+      <c r="R109" t="s">
+        <v>36</v>
+      </c>
+      <c r="T109" t="s">
+        <v>37</v>
+      </c>
+      <c r="U109" t="s">
+        <v>38</v>
+      </c>
+      <c r="V109" t="s">
+        <v>482</v>
+      </c>
+      <c r="W109" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>484</v>
+      </c>
+      <c r="B110" t="s">
+        <v>485</v>
+      </c>
+      <c r="G110">
+        <v>372900043349</v>
+      </c>
+      <c r="H110">
+        <v>372900043349</v>
+      </c>
+      <c r="J110" t="s">
+        <v>486</v>
+      </c>
+      <c r="K110" t="s">
+        <v>33</v>
+      </c>
+      <c r="L110" t="s">
+        <v>34</v>
+      </c>
+      <c r="M110" t="s">
+        <v>34</v>
+      </c>
+      <c r="P110" t="s">
+        <v>35</v>
+      </c>
+      <c r="R110" t="s">
+        <v>36</v>
+      </c>
+      <c r="T110" t="s">
+        <v>37</v>
+      </c>
+      <c r="U110" t="s">
+        <v>38</v>
+      </c>
+      <c r="V110" t="s">
+        <v>487</v>
+      </c>
+      <c r="W110" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>489</v>
+      </c>
+      <c r="B111" t="s">
+        <v>490</v>
+      </c>
+      <c r="G111">
+        <v>372900043349</v>
+      </c>
+      <c r="H111">
+        <v>372900043349</v>
+      </c>
+      <c r="J111" t="s">
+        <v>491</v>
+      </c>
+      <c r="K111" t="s">
+        <v>33</v>
+      </c>
+      <c r="L111" t="s">
+        <v>34</v>
+      </c>
+      <c r="M111" t="s">
+        <v>34</v>
+      </c>
+      <c r="P111" t="s">
+        <v>35</v>
+      </c>
+      <c r="R111" t="s">
+        <v>36</v>
+      </c>
+      <c r="T111" t="s">
+        <v>37</v>
+      </c>
+      <c r="U111" t="s">
+        <v>38</v>
+      </c>
+      <c r="V111" t="s">
+        <v>492</v>
+      </c>
+      <c r="W111" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>494</v>
+      </c>
+      <c r="B112" t="s">
+        <v>490</v>
+      </c>
+      <c r="G112">
+        <v>372900043349</v>
+      </c>
+      <c r="H112">
+        <v>372900043349</v>
+      </c>
+      <c r="J112" t="s">
+        <v>491</v>
+      </c>
+      <c r="K112" t="s">
+        <v>33</v>
+      </c>
+      <c r="L112" t="s">
+        <v>34</v>
+      </c>
+      <c r="M112" t="s">
+        <v>34</v>
+      </c>
+      <c r="P112" t="s">
+        <v>35</v>
+      </c>
+      <c r="R112" t="s">
+        <v>36</v>
+      </c>
+      <c r="T112" t="s">
+        <v>37</v>
+      </c>
+      <c r="U112" t="s">
+        <v>38</v>
+      </c>
+      <c r="V112" t="s">
+        <v>492</v>
+      </c>
+      <c r="W112" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>495</v>
+      </c>
+      <c r="B113" t="s">
+        <v>496</v>
+      </c>
+      <c r="G113">
+        <v>372900043349</v>
+      </c>
+      <c r="H113">
+        <v>372900043349</v>
+      </c>
+      <c r="L113" t="s">
+        <v>34</v>
+      </c>
+      <c r="M113" t="s">
+        <v>34</v>
+      </c>
+      <c r="P113" t="s">
+        <v>35</v>
+      </c>
+      <c r="R113" t="s">
+        <v>36</v>
+      </c>
+      <c r="T113" t="s">
+        <v>37</v>
+      </c>
+      <c r="U113" t="s">
+        <v>38</v>
+      </c>
+      <c r="V113" t="s">
+        <v>497</v>
+      </c>
+      <c r="W113" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>499</v>
+      </c>
+      <c r="B114" t="s">
+        <v>500</v>
+      </c>
+      <c r="G114">
+        <v>372900043349</v>
+      </c>
+      <c r="H114">
+        <v>372900043349</v>
+      </c>
+      <c r="L114" t="s">
+        <v>34</v>
+      </c>
+      <c r="M114" t="s">
+        <v>34</v>
+      </c>
+      <c r="P114" t="s">
+        <v>35</v>
+      </c>
+      <c r="R114" t="s">
+        <v>36</v>
+      </c>
+      <c r="T114" t="s">
+        <v>37</v>
+      </c>
+      <c r="U114" t="s">
+        <v>38</v>
+      </c>
+      <c r="V114" t="s">
+        <v>501</v>
+      </c>
+      <c r="W114" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>503</v>
+      </c>
+      <c r="B115" t="s">
+        <v>500</v>
+      </c>
+      <c r="G115">
+        <v>372900043349</v>
+      </c>
+      <c r="H115">
+        <v>372900043349</v>
+      </c>
+      <c r="L115" t="s">
+        <v>34</v>
+      </c>
+      <c r="M115" t="s">
+        <v>34</v>
+      </c>
+      <c r="P115" t="s">
+        <v>35</v>
+      </c>
+      <c r="R115" t="s">
+        <v>36</v>
+      </c>
+      <c r="T115" t="s">
+        <v>37</v>
+      </c>
+      <c r="U115" t="s">
+        <v>38</v>
+      </c>
+      <c r="V115" t="s">
+        <v>501</v>
+      </c>
+      <c r="W115" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
